--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$275</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$274</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$275</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$275</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$276</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$275</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$276</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$276</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="556">
   <si>
     <t>date</t>
   </si>
@@ -1706,6 +1706,12 @@
   </si>
   <si>
     <t>10/20/2020</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>10/21/2020</t>
   </si>
 </sst>
 </file>
@@ -1814,9 +1820,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$275</c:f>
+              <c:f>'Cases Data'!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2638,16 +2644,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$275</c:f>
+              <c:f>'Cases Data'!$B$2:$B$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3468,7 +3477,10 @@
                   <c:v>8255439</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8316019</c:v>
+                  <c:v>8316027</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>8378600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3485,11 +3497,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81407360"/>
-        <c:axId val="81437824"/>
+        <c:axId val="78986624"/>
+        <c:axId val="79017088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81407360"/>
+        <c:axId val="78986624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3498,7 +3510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81437824"/>
+        <c:crossAx val="79017088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3506,7 +3518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81437824"/>
+        <c:axId val="79017088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +3529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81407360"/>
+        <c:crossAx val="78986624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3595,9 +3607,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$275</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4419,16 +4431,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$275</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5250,6 +5265,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>220218</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>221383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5266,11 +5284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81675776"/>
-        <c:axId val="81677312"/>
+        <c:axId val="79320576"/>
+        <c:axId val="79322112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81675776"/>
+        <c:axId val="79320576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81677312"/>
+        <c:crossAx val="79322112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5287,7 +5305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81677312"/>
+        <c:axId val="79322112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5298,7 +5316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81675776"/>
+        <c:crossAx val="79320576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5376,9 +5394,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$274</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6197,16 +6215,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$274</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7025,6 +7046,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>39230</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>40271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7041,11 +7065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81821056"/>
-        <c:axId val="81831040"/>
+        <c:axId val="79400320"/>
+        <c:axId val="79410304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81821056"/>
+        <c:axId val="79400320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7055,7 +7079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81831040"/>
+        <c:crossAx val="79410304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7063,7 +7087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81831040"/>
+        <c:axId val="79410304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7074,7 +7098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81821056"/>
+        <c:crossAx val="79400320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7162,9 +7186,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$275</c:f>
+              <c:f>'County Counts'!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -7986,16 +8010,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>10/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$275</c:f>
+              <c:f>'County Counts'!$B$2:$B$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8817,6 +8844,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8833,11 +8863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81843712"/>
-        <c:axId val="81845248"/>
+        <c:axId val="79418880"/>
+        <c:axId val="79420416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81843712"/>
+        <c:axId val="79418880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8846,7 +8876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81845248"/>
+        <c:crossAx val="79420416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8854,7 +8884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81845248"/>
+        <c:axId val="79420416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8865,7 +8895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81843712"/>
+        <c:crossAx val="79418880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9071,9 +9101,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B275" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B275"/>
-  <sortState ref="A2:B275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B276" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B276"/>
+  <sortState ref="A2:B276">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9085,9 +9115,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B275" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B275"/>
-  <sortState ref="A2:B275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B276" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B276"/>
+  <sortState ref="A2:B276">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9099,9 +9129,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B274" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B274"/>
-  <sortState ref="A2:B274">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B275" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B275"/>
+  <sortState ref="A2:B275">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9113,9 +9143,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B275" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B275"/>
-  <sortState ref="A2:B275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B276" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B276"/>
+  <sortState ref="A2:B276">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9413,7 +9443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11622,7 +11652,15 @@
         <v>552</v>
       </c>
       <c r="B275">
-        <v>8316019</v>
+        <v>8316027</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>554</v>
+      </c>
+      <c r="B276">
+        <v>8378600</v>
       </c>
     </row>
   </sheetData>
@@ -11635,7 +11673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -13845,6 +13883,14 @@
         <v>220218</v>
       </c>
     </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>554</v>
+      </c>
+      <c r="B276">
+        <v>221383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13855,7 +13901,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B274"/>
+  <dimension ref="A1:B275"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16057,6 +16103,14 @@
         <v>39230</v>
       </c>
     </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>554</v>
+      </c>
+      <c r="B275">
+        <v>40271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16067,7 +16121,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -18275,6 +18329,14 @@
       </c>
       <c r="B275">
         <v>3244</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>555</v>
+      </c>
+      <c r="B276">
+        <v>3245</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$276</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$275</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$276</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$276</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$277</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$276</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$277</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$277</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="558">
   <si>
     <t>date</t>
   </si>
@@ -1712,6 +1712,12 @@
   </si>
   <si>
     <t>10/21/2020</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>10/22/2020</t>
   </si>
 </sst>
 </file>
@@ -1820,9 +1826,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$276</c:f>
+              <c:f>'Cases Data'!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2647,16 +2653,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$276</c:f>
+              <c:f>'Cases Data'!$B$2:$B$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3480,7 +3489,10 @@
                   <c:v>8316027</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8378600</c:v>
+                  <c:v>8380218</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>8455267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,11 +3509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78986624"/>
-        <c:axId val="79017088"/>
+        <c:axId val="70270336"/>
+        <c:axId val="70313088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78986624"/>
+        <c:axId val="70270336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,7 +3522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79017088"/>
+        <c:crossAx val="70313088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3518,7 +3530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79017088"/>
+        <c:axId val="70313088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3529,7 +3541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78986624"/>
+        <c:crossAx val="70270336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3607,9 +3619,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$276</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4434,16 +4446,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$276</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5267,7 +5282,10 @@
                   <c:v>220218</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>221383</c:v>
+                  <c:v>221421</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>222240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5284,11 +5302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79320576"/>
-        <c:axId val="79322112"/>
+        <c:axId val="70542848"/>
+        <c:axId val="70544384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79320576"/>
+        <c:axId val="70542848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5297,7 +5315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79322112"/>
+        <c:crossAx val="70544384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5305,7 +5323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79322112"/>
+        <c:axId val="70544384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5316,7 +5334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79320576"/>
+        <c:crossAx val="70542848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5394,9 +5412,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$275</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6218,16 +6236,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$275</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7049,6 +7070,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>40271</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>41010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7065,11 +7089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79400320"/>
-        <c:axId val="79410304"/>
+        <c:axId val="70684032"/>
+        <c:axId val="70694016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79400320"/>
+        <c:axId val="70684032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7079,7 +7103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79410304"/>
+        <c:crossAx val="70694016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7087,7 +7111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79410304"/>
+        <c:axId val="70694016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7098,7 +7122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79400320"/>
+        <c:crossAx val="70684032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7186,9 +7210,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$276</c:f>
+              <c:f>'County Counts'!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8013,16 +8037,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>10/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$276</c:f>
+              <c:f>'County Counts'!$B$2:$B$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8846,6 +8873,9 @@
                   <c:v>3244</c:v>
                 </c:pt>
                 <c:pt idx="274">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="275">
                   <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
@@ -8863,11 +8893,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79418880"/>
-        <c:axId val="79420416"/>
+        <c:axId val="70706688"/>
+        <c:axId val="70708224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79418880"/>
+        <c:axId val="70706688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8876,7 +8906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79420416"/>
+        <c:crossAx val="70708224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8884,7 +8914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79420416"/>
+        <c:axId val="70708224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8895,7 +8925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79418880"/>
+        <c:crossAx val="70706688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9101,9 +9131,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B276" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B276"/>
-  <sortState ref="A2:B276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B277" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B277"/>
+  <sortState ref="A2:B277">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9115,9 +9145,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B276" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B276"/>
-  <sortState ref="A2:B276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B277" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B277"/>
+  <sortState ref="A2:B277">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9129,9 +9159,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B275" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B275"/>
-  <sortState ref="A2:B275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B276" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B276"/>
+  <sortState ref="A2:B276">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9143,9 +9173,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B276" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B276"/>
-  <sortState ref="A2:B276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B277" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B277"/>
+  <sortState ref="A2:B277">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9443,7 +9473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11660,7 +11690,15 @@
         <v>554</v>
       </c>
       <c r="B276">
-        <v>8378600</v>
+        <v>8380218</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>556</v>
+      </c>
+      <c r="B277">
+        <v>8455267</v>
       </c>
     </row>
   </sheetData>
@@ -11673,7 +11711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -13888,7 +13926,15 @@
         <v>554</v>
       </c>
       <c r="B276">
-        <v>221383</v>
+        <v>221421</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>556</v>
+      </c>
+      <c r="B277">
+        <v>222240</v>
       </c>
     </row>
   </sheetData>
@@ -13901,7 +13947,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16111,6 +16157,14 @@
         <v>40271</v>
       </c>
     </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>556</v>
+      </c>
+      <c r="B276">
+        <v>41010</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16121,7 +16175,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -18336,6 +18390,14 @@
         <v>555</v>
       </c>
       <c r="B276">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>557</v>
+      </c>
+      <c r="B277">
         <v>3245</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$277</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$276</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$277</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$277</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$278</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$277</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$278</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$278</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="560">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>10/22/2020</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>10/23/2020</t>
   </si>
 </sst>
 </file>
@@ -1826,9 +1832,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$277</c:f>
+              <c:f>'Cases Data'!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2656,16 +2662,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$277</c:f>
+              <c:f>'Cases Data'!$B$2:$B$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3492,7 +3501,10 @@
                   <c:v>8380218</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8455267</c:v>
+                  <c:v>8455282</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8540367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3509,11 +3521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70270336"/>
-        <c:axId val="70313088"/>
+        <c:axId val="79322496"/>
+        <c:axId val="79361152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70270336"/>
+        <c:axId val="79322496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3522,7 +3534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70313088"/>
+        <c:crossAx val="79361152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3530,7 +3542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70313088"/>
+        <c:axId val="79361152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70270336"/>
+        <c:crossAx val="79322496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3619,9 +3631,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$277</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4449,16 +4461,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$277</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5286,6 +5301,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>222240</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>223157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5302,11 +5320,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70542848"/>
-        <c:axId val="70544384"/>
+        <c:axId val="79586816"/>
+        <c:axId val="79588352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70542848"/>
+        <c:axId val="79586816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5315,7 +5333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70544384"/>
+        <c:crossAx val="79588352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5323,7 +5341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70544384"/>
+        <c:axId val="79588352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5334,7 +5352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70542848"/>
+        <c:crossAx val="79586816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5412,9 +5430,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$276</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6239,16 +6257,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$276</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7073,6 +7094,9 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>41010</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>41485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7089,11 +7113,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70684032"/>
-        <c:axId val="70694016"/>
+        <c:axId val="79732096"/>
+        <c:axId val="79742080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70684032"/>
+        <c:axId val="79732096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7103,7 +7127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70694016"/>
+        <c:crossAx val="79742080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7111,7 +7135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70694016"/>
+        <c:axId val="79742080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7122,7 +7146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70684032"/>
+        <c:crossAx val="79732096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7210,9 +7234,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$277</c:f>
+              <c:f>'County Counts'!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8040,16 +8064,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>10/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$277</c:f>
+              <c:f>'County Counts'!$B$2:$B$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8877,6 +8904,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8893,11 +8923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70706688"/>
-        <c:axId val="70708224"/>
+        <c:axId val="79758848"/>
+        <c:axId val="79760384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70706688"/>
+        <c:axId val="79758848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8906,7 +8936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70708224"/>
+        <c:crossAx val="79760384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8914,7 +8944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70708224"/>
+        <c:axId val="79760384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8925,7 +8955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70706688"/>
+        <c:crossAx val="79758848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9131,9 +9161,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B277" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B277"/>
-  <sortState ref="A2:B277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B278" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B278"/>
+  <sortState ref="A2:B278">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9145,9 +9175,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B277" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B277"/>
-  <sortState ref="A2:B277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B278" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B278"/>
+  <sortState ref="A2:B278">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9159,9 +9189,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B276" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B276"/>
-  <sortState ref="A2:B276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B277" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B277"/>
+  <sortState ref="A2:B277">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9173,9 +9203,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B277" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B277"/>
-  <sortState ref="A2:B277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B278" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B278"/>
+  <sortState ref="A2:B278">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9473,7 +9503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11698,7 +11728,15 @@
         <v>556</v>
       </c>
       <c r="B277">
-        <v>8455267</v>
+        <v>8455282</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>558</v>
+      </c>
+      <c r="B278">
+        <v>8540367</v>
       </c>
     </row>
   </sheetData>
@@ -11711,7 +11749,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -13937,6 +13975,14 @@
         <v>222240</v>
       </c>
     </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>558</v>
+      </c>
+      <c r="B278">
+        <v>223157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13947,7 +13993,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16165,6 +16211,14 @@
         <v>41010</v>
       </c>
     </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>558</v>
+      </c>
+      <c r="B277">
+        <v>41485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16175,7 +16229,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -18399,6 +18453,14 @@
       </c>
       <c r="B277">
         <v>3245</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>559</v>
+      </c>
+      <c r="B278">
+        <v>3244</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$278</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$277</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$278</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$278</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$279</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$278</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$279</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$279</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="562">
   <si>
     <t>date</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>10/23/2020</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>10/24/2020</t>
   </si>
 </sst>
 </file>
@@ -1832,9 +1838,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$278</c:f>
+              <c:f>'Cases Data'!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2665,16 +2671,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$278</c:f>
+              <c:f>'Cases Data'!$B$2:$B$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3450,61 +3459,64 @@
                   <c:v>7445405</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7487091</c:v>
+                  <c:v>7507699</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7529955</c:v>
+                  <c:v>7550563</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7582939</c:v>
+                  <c:v>7603547</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>7639314</c:v>
+                  <c:v>7659922</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7698273</c:v>
+                  <c:v>7718881</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>7749859</c:v>
+                  <c:v>7770467</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7794625</c:v>
+                  <c:v>7815233</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7840546</c:v>
+                  <c:v>7863239</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7894905</c:v>
+                  <c:v>7917598</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7954777</c:v>
+                  <c:v>7977470</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>8020104</c:v>
+                  <c:v>8042797</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8090568</c:v>
+                  <c:v>8113261</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8143329</c:v>
+                  <c:v>8166022</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8191211</c:v>
+                  <c:v>8213904</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8255439</c:v>
+                  <c:v>8279279</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8316027</c:v>
+                  <c:v>8339867</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8380218</c:v>
+                  <c:v>8404058</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8455282</c:v>
+                  <c:v>8479122</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8540367</c:v>
+                  <c:v>8564207</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>8642813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3521,11 +3533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79322496"/>
-        <c:axId val="79361152"/>
+        <c:axId val="66018688"/>
+        <c:axId val="66258048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79322496"/>
+        <c:axId val="66018688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,7 +3546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79361152"/>
+        <c:crossAx val="66258048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3542,7 +3554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79361152"/>
+        <c:axId val="66258048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +3565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79322496"/>
+        <c:crossAx val="66018688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3631,9 +3643,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$278</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4464,16 +4476,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$278</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5304,6 +5319,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>223157</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>224025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5320,11 +5338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79586816"/>
-        <c:axId val="79588352"/>
+        <c:axId val="66287104"/>
+        <c:axId val="66288640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79586816"/>
+        <c:axId val="66287104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,7 +5351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79588352"/>
+        <c:crossAx val="66288640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5341,7 +5359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79588352"/>
+        <c:axId val="66288640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5352,7 +5370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79586816"/>
+        <c:crossAx val="66287104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5430,9 +5448,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$277</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6260,16 +6278,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$277</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7097,6 +7118,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>41485</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7113,11 +7137,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79732096"/>
-        <c:axId val="79742080"/>
+        <c:axId val="66428288"/>
+        <c:axId val="66438272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79732096"/>
+        <c:axId val="66428288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7127,7 +7151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79742080"/>
+        <c:crossAx val="66438272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7135,7 +7159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79742080"/>
+        <c:axId val="66438272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7146,7 +7170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79732096"/>
+        <c:crossAx val="66428288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7234,9 +7258,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$278</c:f>
+              <c:f>'County Counts'!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8067,16 +8091,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>10/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$278</c:f>
+              <c:f>'County Counts'!$B$2:$B$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8907,6 +8934,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8923,11 +8953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79758848"/>
-        <c:axId val="79760384"/>
+        <c:axId val="66524672"/>
+        <c:axId val="66526208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79758848"/>
+        <c:axId val="66524672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8936,7 +8966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79760384"/>
+        <c:crossAx val="66526208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8944,7 +8974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79760384"/>
+        <c:axId val="66526208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8955,7 +8985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79758848"/>
+        <c:crossAx val="66524672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9161,9 +9191,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B278" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B278"/>
-  <sortState ref="A2:B278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B279" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B279"/>
+  <sortState ref="A2:B279">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9175,9 +9205,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B278" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B278"/>
-  <sortState ref="A2:B278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B279" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B279"/>
+  <sortState ref="A2:B279">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9189,9 +9219,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B277" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B277"/>
-  <sortState ref="A2:B277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B278" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B278"/>
+  <sortState ref="A2:B278">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9203,9 +9233,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B278" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B278"/>
-  <sortState ref="A2:B278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B279" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B279"/>
+  <sortState ref="A2:B279">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9503,7 +9533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11592,7 +11622,7 @@
         <v>426</v>
       </c>
       <c r="B260">
-        <v>7487091</v>
+        <v>7507699</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -11600,7 +11630,7 @@
         <v>427</v>
       </c>
       <c r="B261">
-        <v>7529955</v>
+        <v>7550563</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -11608,7 +11638,7 @@
         <v>428</v>
       </c>
       <c r="B262">
-        <v>7582939</v>
+        <v>7603547</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -11616,7 +11646,7 @@
         <v>429</v>
       </c>
       <c r="B263">
-        <v>7639314</v>
+        <v>7659922</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -11624,7 +11654,7 @@
         <v>430</v>
       </c>
       <c r="B264">
-        <v>7698273</v>
+        <v>7718881</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -11632,7 +11662,7 @@
         <v>431</v>
       </c>
       <c r="B265">
-        <v>7749859</v>
+        <v>7770467</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -11640,7 +11670,7 @@
         <v>432</v>
       </c>
       <c r="B266">
-        <v>7794625</v>
+        <v>7815233</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -11648,7 +11678,7 @@
         <v>433</v>
       </c>
       <c r="B267">
-        <v>7840546</v>
+        <v>7863239</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -11656,7 +11686,7 @@
         <v>434</v>
       </c>
       <c r="B268">
-        <v>7894905</v>
+        <v>7917598</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -11664,7 +11694,7 @@
         <v>436</v>
       </c>
       <c r="B269">
-        <v>7954777</v>
+        <v>7977470</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -11672,7 +11702,7 @@
         <v>435</v>
       </c>
       <c r="B270">
-        <v>8020104</v>
+        <v>8042797</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -11680,7 +11710,7 @@
         <v>544</v>
       </c>
       <c r="B271">
-        <v>8090568</v>
+        <v>8113261</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -11688,7 +11718,7 @@
         <v>546</v>
       </c>
       <c r="B272">
-        <v>8143329</v>
+        <v>8166022</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -11696,7 +11726,7 @@
         <v>548</v>
       </c>
       <c r="B273">
-        <v>8191211</v>
+        <v>8213904</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -11704,7 +11734,7 @@
         <v>550</v>
       </c>
       <c r="B274">
-        <v>8255439</v>
+        <v>8279279</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -11712,7 +11742,7 @@
         <v>552</v>
       </c>
       <c r="B275">
-        <v>8316027</v>
+        <v>8339867</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -11720,7 +11750,7 @@
         <v>554</v>
       </c>
       <c r="B276">
-        <v>8380218</v>
+        <v>8404058</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -11728,7 +11758,7 @@
         <v>556</v>
       </c>
       <c r="B277">
-        <v>8455282</v>
+        <v>8479122</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -11736,7 +11766,15 @@
         <v>558</v>
       </c>
       <c r="B278">
-        <v>8540367</v>
+        <v>8564207</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>560</v>
+      </c>
+      <c r="B279">
+        <v>8642813</v>
       </c>
     </row>
   </sheetData>
@@ -11749,7 +11787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -13983,6 +14021,14 @@
         <v>223157</v>
       </c>
     </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>560</v>
+      </c>
+      <c r="B279">
+        <v>224025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13993,7 +14039,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16219,6 +16265,14 @@
         <v>41485</v>
       </c>
     </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>560</v>
+      </c>
+      <c r="B278">
+        <v>41882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16229,7 +16283,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -18461,6 +18515,14 @@
       </c>
       <c r="B278">
         <v>3244</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>561</v>
+      </c>
+      <c r="B279">
+        <v>3245</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$279</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$278</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$279</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$279</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$280</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$279</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$280</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$280</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="564">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,12 @@
   </si>
   <si>
     <t>10/24/2020</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>10/25/2020</t>
   </si>
 </sst>
 </file>
@@ -1838,9 +1844,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$279</c:f>
+              <c:f>'Cases Data'!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2674,16 +2680,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$279</c:f>
+              <c:f>'Cases Data'!$B$2:$B$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3516,7 +3525,10 @@
                   <c:v>8564207</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8642813</c:v>
+                  <c:v>8642929</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>8702600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,11 +3545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66018688"/>
-        <c:axId val="66258048"/>
+        <c:axId val="72707456"/>
+        <c:axId val="72942720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66018688"/>
+        <c:axId val="72707456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +3558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66258048"/>
+        <c:crossAx val="72942720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3554,7 +3566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66258048"/>
+        <c:axId val="72942720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3565,7 +3577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66018688"/>
+        <c:crossAx val="72707456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3643,9 +3655,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$279</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4479,16 +4491,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$279</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5322,6 +5337,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>224025</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>224357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,11 +5356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66287104"/>
-        <c:axId val="66288640"/>
+        <c:axId val="72971776"/>
+        <c:axId val="72973312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66287104"/>
+        <c:axId val="72971776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5351,7 +5369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66288640"/>
+        <c:crossAx val="72973312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5359,7 +5377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66288640"/>
+        <c:axId val="72973312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5370,7 +5388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66287104"/>
+        <c:crossAx val="72971776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5448,9 +5466,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$278</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6281,16 +6299,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$278</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7121,6 +7142,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>41753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7137,11 +7161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66428288"/>
-        <c:axId val="66438272"/>
+        <c:axId val="73117056"/>
+        <c:axId val="73131136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66428288"/>
+        <c:axId val="73117056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7151,7 +7175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66438272"/>
+        <c:crossAx val="73131136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7159,7 +7183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66438272"/>
+        <c:axId val="73131136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7170,7 +7194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66428288"/>
+        <c:crossAx val="73117056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7258,9 +7282,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$279</c:f>
+              <c:f>'County Counts'!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8094,16 +8118,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>10/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$279</c:f>
+              <c:f>'County Counts'!$B$2:$B$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8937,6 +8964,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8953,11 +8983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66524672"/>
-        <c:axId val="66526208"/>
+        <c:axId val="73209344"/>
+        <c:axId val="73210880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66524672"/>
+        <c:axId val="73209344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8966,7 +8996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66526208"/>
+        <c:crossAx val="73210880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8974,7 +9004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66526208"/>
+        <c:axId val="73210880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8985,7 +9015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66524672"/>
+        <c:crossAx val="73209344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9191,9 +9221,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B279" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B279"/>
-  <sortState ref="A2:B279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B280" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B280"/>
+  <sortState ref="A2:B280">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9205,9 +9235,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B279" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B279"/>
-  <sortState ref="A2:B279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B280" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B280"/>
+  <sortState ref="A2:B280">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9219,9 +9249,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B278" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B278"/>
-  <sortState ref="A2:B278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B279" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B279"/>
+  <sortState ref="A2:B279">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9233,9 +9263,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B279" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B279"/>
-  <sortState ref="A2:B279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B280" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B280"/>
+  <sortState ref="A2:B280">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9533,7 +9563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11774,7 +11804,15 @@
         <v>560</v>
       </c>
       <c r="B279">
-        <v>8642813</v>
+        <v>8642929</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>562</v>
+      </c>
+      <c r="B280">
+        <v>8702600</v>
       </c>
     </row>
   </sheetData>
@@ -11787,7 +11825,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14029,6 +14067,14 @@
         <v>224025</v>
       </c>
     </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>562</v>
+      </c>
+      <c r="B280">
+        <v>224357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14039,7 +14085,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16273,6 +16319,14 @@
         <v>41882</v>
       </c>
     </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>562</v>
+      </c>
+      <c r="B279">
+        <v>41753</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16283,7 +16337,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -18523,6 +18577,14 @@
       </c>
       <c r="B279">
         <v>3245</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>563</v>
+      </c>
+      <c r="B280">
+        <v>3246</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -3545,11 +3545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72707456"/>
-        <c:axId val="72942720"/>
+        <c:axId val="114040832"/>
+        <c:axId val="114042368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72707456"/>
+        <c:axId val="114040832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3558,7 +3558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72942720"/>
+        <c:crossAx val="114042368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3566,7 +3566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72942720"/>
+        <c:axId val="114042368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3577,7 +3577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72707456"/>
+        <c:crossAx val="114040832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5356,11 +5356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72971776"/>
-        <c:axId val="72973312"/>
+        <c:axId val="114304896"/>
+        <c:axId val="114306432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72971776"/>
+        <c:axId val="114304896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5369,7 +5369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72973312"/>
+        <c:crossAx val="114306432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5377,7 +5377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72973312"/>
+        <c:axId val="114306432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5388,7 +5388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72971776"/>
+        <c:crossAx val="114304896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7138,13 +7138,13 @@
                   <c:v>41010</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>41485</c:v>
+                  <c:v>41482</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>41882</c:v>
+                  <c:v>41905</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>41753</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7161,11 +7161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73117056"/>
-        <c:axId val="73131136"/>
+        <c:axId val="114393088"/>
+        <c:axId val="114394624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73117056"/>
+        <c:axId val="114393088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7175,7 +7175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73131136"/>
+        <c:crossAx val="114394624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7183,7 +7183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73131136"/>
+        <c:axId val="114394624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7194,7 +7194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73117056"/>
+        <c:crossAx val="114393088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8983,11 +8983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73209344"/>
-        <c:axId val="73210880"/>
+        <c:axId val="114408832"/>
+        <c:axId val="114504832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73209344"/>
+        <c:axId val="114408832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8996,7 +8996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73210880"/>
+        <c:crossAx val="114504832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9004,7 +9004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73210880"/>
+        <c:axId val="114504832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9015,7 +9015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73209344"/>
+        <c:crossAx val="114408832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9572,7 +9572,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11832,7 +11832,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14092,7 +14092,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16308,7 +16308,7 @@
         <v>558</v>
       </c>
       <c r="B277">
-        <v>41485</v>
+        <v>41482</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -16316,7 +16316,7 @@
         <v>560</v>
       </c>
       <c r="B278">
-        <v>41882</v>
+        <v>41905</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -16324,7 +16324,7 @@
         <v>562</v>
       </c>
       <c r="B279">
-        <v>41753</v>
+        <v>41776</v>
       </c>
     </row>
   </sheetData>
@@ -16343,8 +16343,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$280</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$279</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$280</definedName>
     <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$280</definedName>
     <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$280</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="565">
   <si>
     <t>date</t>
   </si>
@@ -1736,6 +1736,9 @@
   </si>
   <si>
     <t>10/25/2020</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
   </si>
 </sst>
 </file>
@@ -3545,11 +3548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114040832"/>
-        <c:axId val="114042368"/>
+        <c:axId val="104161280"/>
+        <c:axId val="104162816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114040832"/>
+        <c:axId val="104161280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3558,7 +3561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114042368"/>
+        <c:crossAx val="104162816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3566,7 +3569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114042368"/>
+        <c:axId val="104162816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3577,7 +3580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114040832"/>
+        <c:crossAx val="104161280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5356,11 +5359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114304896"/>
-        <c:axId val="114306432"/>
+        <c:axId val="104413056"/>
+        <c:axId val="104414592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114304896"/>
+        <c:axId val="104413056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5369,7 +5372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114306432"/>
+        <c:crossAx val="104414592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5377,7 +5380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114306432"/>
+        <c:axId val="104414592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5388,7 +5391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114304896"/>
+        <c:crossAx val="104413056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5466,9 +5469,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$279</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6302,16 +6305,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$279</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7145,6 +7151,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>42917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7161,11 +7170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114393088"/>
-        <c:axId val="114394624"/>
+        <c:axId val="104501248"/>
+        <c:axId val="104502784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114393088"/>
+        <c:axId val="104501248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7175,7 +7184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114394624"/>
+        <c:crossAx val="104502784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7183,7 +7192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114394624"/>
+        <c:axId val="104502784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7194,7 +7203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114393088"/>
+        <c:crossAx val="104501248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8983,11 +8992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114408832"/>
-        <c:axId val="114504832"/>
+        <c:axId val="104519552"/>
+        <c:axId val="104521088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114408832"/>
+        <c:axId val="104519552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8996,7 +9005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114504832"/>
+        <c:crossAx val="104521088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9004,7 +9013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114504832"/>
+        <c:axId val="104521088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9015,7 +9024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114408832"/>
+        <c:crossAx val="104519552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9249,9 +9258,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B279" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B279"/>
-  <sortState ref="A2:B279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B280" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B280"/>
+  <sortState ref="A2:B280">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -14085,7 +14094,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16325,6 +16334,14 @@
       </c>
       <c r="B279">
         <v>41776</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>564</v>
+      </c>
+      <c r="B280">
+        <v>42917</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$280</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$281</definedName>
     <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$280</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$280</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$280</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$281</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$281</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="566">
   <si>
     <t>date</t>
   </si>
@@ -1739,6 +1739,9 @@
   </si>
   <si>
     <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>10/26/2020</t>
   </si>
 </sst>
 </file>
@@ -1847,9 +1850,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$280</c:f>
+              <c:f>'Cases Data'!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2686,16 +2689,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$280</c:f>
+              <c:f>'Cases Data'!$B$2:$B$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3532,6 +3538,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>8702600</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>8776923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3548,11 +3557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104161280"/>
-        <c:axId val="104162816"/>
+        <c:axId val="76246400"/>
+        <c:axId val="76424320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104161280"/>
+        <c:axId val="76246400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3561,7 +3570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104162816"/>
+        <c:crossAx val="76424320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3569,7 +3578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104162816"/>
+        <c:axId val="76424320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +3589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104161280"/>
+        <c:crossAx val="76246400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3658,9 +3667,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$280</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4497,16 +4506,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$280</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5343,6 +5355,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>224357</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>224888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5359,11 +5374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104413056"/>
-        <c:axId val="104414592"/>
+        <c:axId val="76449280"/>
+        <c:axId val="76450816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104413056"/>
+        <c:axId val="76449280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5372,7 +5387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104414592"/>
+        <c:crossAx val="76450816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5380,7 +5395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104414592"/>
+        <c:axId val="76450816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5391,7 +5406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104413056"/>
+        <c:crossAx val="76449280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7170,11 +7185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104501248"/>
-        <c:axId val="104502784"/>
+        <c:axId val="76660096"/>
+        <c:axId val="76670080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104501248"/>
+        <c:axId val="76660096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7184,7 +7199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104502784"/>
+        <c:crossAx val="76670080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7192,7 +7207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104502784"/>
+        <c:axId val="76670080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7203,7 +7218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104501248"/>
+        <c:crossAx val="76660096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7291,9 +7306,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$280</c:f>
+              <c:f>'County Counts'!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8130,16 +8145,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>10/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$280</c:f>
+              <c:f>'County Counts'!$B$2:$B$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8976,6 +8994,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8992,11 +9013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104519552"/>
-        <c:axId val="104521088"/>
+        <c:axId val="76555776"/>
+        <c:axId val="76557312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104519552"/>
+        <c:axId val="76555776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9005,7 +9026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104521088"/>
+        <c:crossAx val="76557312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9013,7 +9034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104521088"/>
+        <c:axId val="76557312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9024,7 +9045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104519552"/>
+        <c:crossAx val="76555776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9230,9 +9251,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B280" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B280"/>
-  <sortState ref="A2:B280">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B281" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B281"/>
+  <sortState ref="A2:B281">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9244,9 +9265,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B280" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B280"/>
-  <sortState ref="A2:B280">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B281" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B281"/>
+  <sortState ref="A2:B281">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9272,9 +9293,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B280" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B280"/>
-  <sortState ref="A2:B280">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B281" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B281"/>
+  <sortState ref="A2:B281">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9572,7 +9593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -9581,7 +9602,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11822,6 +11843,14 @@
       </c>
       <c r="B280">
         <v>8702600</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>564</v>
+      </c>
+      <c r="B281">
+        <v>8776923</v>
       </c>
     </row>
   </sheetData>
@@ -11834,14 +11863,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14082,6 +14111,14 @@
       </c>
       <c r="B280">
         <v>224357</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>564</v>
+      </c>
+      <c r="B281">
+        <v>224888</v>
       </c>
     </row>
   </sheetData>
@@ -14101,7 +14138,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16354,14 +16391,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18602,6 +18639,14 @@
       </c>
       <c r="B280">
         <v>3246</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>565</v>
+      </c>
+      <c r="B281">
+        <v>3243</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$281</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$280</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$281</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$281</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$282</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$281</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$282</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$282</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="568">
   <si>
     <t>date</t>
   </si>
@@ -1742,6 +1742,12 @@
   </si>
   <si>
     <t>10/26/2020</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>10/27/2020</t>
   </si>
 </sst>
 </file>
@@ -1850,9 +1856,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$281</c:f>
+              <c:f>'Cases Data'!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2692,16 +2698,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$281</c:f>
+              <c:f>'Cases Data'!$B$2:$B$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3534,13 +3543,16 @@
                   <c:v>8564207</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8642929</c:v>
+                  <c:v>8642963</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8702600</c:v>
+                  <c:v>8702675</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8776923</c:v>
+                  <c:v>8777118</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8851546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,11 +3569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76246400"/>
-        <c:axId val="76424320"/>
+        <c:axId val="98532736"/>
+        <c:axId val="98706560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76246400"/>
+        <c:axId val="98532736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3570,7 +3582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76424320"/>
+        <c:crossAx val="98706560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3578,7 +3590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76424320"/>
+        <c:axId val="98706560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3589,7 +3601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76246400"/>
+        <c:crossAx val="98532736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3667,9 +3679,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$281</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4509,16 +4521,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$281</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5327,10 +5342,10 @@
                   <c:v>216842</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>217736</c:v>
+                  <c:v>217718</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>218412</c:v>
+                  <c:v>218393</c:v>
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>218775</c:v>
@@ -5351,13 +5366,16 @@
                   <c:v>223157</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>224025</c:v>
+                  <c:v>224027</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>224357</c:v>
+                  <c:v>224359</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>224888</c:v>
+                  <c:v>224894</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>225873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5374,11 +5392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76449280"/>
-        <c:axId val="76450816"/>
+        <c:axId val="98731520"/>
+        <c:axId val="98733056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76449280"/>
+        <c:axId val="98731520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5387,7 +5405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76450816"/>
+        <c:crossAx val="98733056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5395,7 +5413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76450816"/>
+        <c:axId val="98733056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5406,7 +5424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76449280"/>
+        <c:crossAx val="98731520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5484,9 +5502,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$280</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6323,16 +6341,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$280</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7169,6 +7190,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7185,11 +7209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76660096"/>
-        <c:axId val="76670080"/>
+        <c:axId val="98946432"/>
+        <c:axId val="98956416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76660096"/>
+        <c:axId val="98946432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7199,7 +7223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76670080"/>
+        <c:crossAx val="98956416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7207,7 +7231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76670080"/>
+        <c:axId val="98956416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7218,7 +7242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76660096"/>
+        <c:crossAx val="98946432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7306,9 +7330,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$281</c:f>
+              <c:f>'County Counts'!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8148,16 +8172,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>10/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$281</c:f>
+              <c:f>'County Counts'!$B$2:$B$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8997,6 +9024,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9013,11 +9043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76555776"/>
-        <c:axId val="76557312"/>
+        <c:axId val="98838016"/>
+        <c:axId val="98839552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76555776"/>
+        <c:axId val="98838016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9026,7 +9056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76557312"/>
+        <c:crossAx val="98839552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9034,7 +9064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76557312"/>
+        <c:axId val="98839552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9045,7 +9075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76555776"/>
+        <c:crossAx val="98838016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9251,9 +9281,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B281" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B281"/>
-  <sortState ref="A2:B281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B282" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B282"/>
+  <sortState ref="A2:B282">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9265,9 +9295,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B281" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B281"/>
-  <sortState ref="A2:B281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B282" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B282"/>
+  <sortState ref="A2:B282">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9279,9 +9309,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B280" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B280"/>
-  <sortState ref="A2:B280">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B281" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B281"/>
+  <sortState ref="A2:B281">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9293,9 +9323,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B281" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B281"/>
-  <sortState ref="A2:B281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B282" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B282"/>
+  <sortState ref="A2:B282">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9593,7 +9623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11834,7 +11864,7 @@
         <v>560</v>
       </c>
       <c r="B279">
-        <v>8642929</v>
+        <v>8642963</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -11842,7 +11872,7 @@
         <v>562</v>
       </c>
       <c r="B280">
-        <v>8702600</v>
+        <v>8702675</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -11850,7 +11880,15 @@
         <v>564</v>
       </c>
       <c r="B281">
-        <v>8776923</v>
+        <v>8777118</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>566</v>
+      </c>
+      <c r="B282">
+        <v>8851546</v>
       </c>
     </row>
   </sheetData>
@@ -11863,7 +11901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14038,7 +14076,7 @@
         <v>544</v>
       </c>
       <c r="B271">
-        <v>217736</v>
+        <v>217718</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -14046,7 +14084,7 @@
         <v>546</v>
       </c>
       <c r="B272">
-        <v>218412</v>
+        <v>218393</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -14102,7 +14140,7 @@
         <v>560</v>
       </c>
       <c r="B279">
-        <v>224025</v>
+        <v>224027</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -14110,7 +14148,7 @@
         <v>562</v>
       </c>
       <c r="B280">
-        <v>224357</v>
+        <v>224359</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -14118,7 +14156,15 @@
         <v>564</v>
       </c>
       <c r="B281">
-        <v>224888</v>
+        <v>224894</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>566</v>
+      </c>
+      <c r="B282">
+        <v>225873</v>
       </c>
     </row>
   </sheetData>
@@ -14131,7 +14177,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16381,6 +16427,14 @@
         <v>42917</v>
       </c>
     </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>566</v>
+      </c>
+      <c r="B281">
+        <v>44212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16391,7 +16445,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -18647,6 +18701,14 @@
       </c>
       <c r="B281">
         <v>3243</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>567</v>
+      </c>
+      <c r="B282">
+        <v>3242</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$282</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$281</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$282</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$282</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$283</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$282</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$283</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$283</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="570">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>10/27/2020</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>10/28/2020</t>
   </si>
 </sst>
 </file>
@@ -1856,9 +1862,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$282</c:f>
+              <c:f>'Cases Data'!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2701,16 +2707,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$282</c:f>
+              <c:f>'Cases Data'!$B$2:$B$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3553,6 +3562,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>8851546</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8932709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3569,11 +3581,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98532736"/>
-        <c:axId val="98706560"/>
+        <c:axId val="68713856"/>
+        <c:axId val="69481600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98532736"/>
+        <c:axId val="68713856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98706560"/>
+        <c:crossAx val="69481600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3590,7 +3602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98706560"/>
+        <c:axId val="69481600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,7 +3613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98532736"/>
+        <c:crossAx val="68713856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3679,9 +3691,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$282</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4524,16 +4536,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$282</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5376,6 +5391,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>225873</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>226884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5392,11 +5410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98731520"/>
-        <c:axId val="98733056"/>
+        <c:axId val="69506560"/>
+        <c:axId val="69508096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98731520"/>
+        <c:axId val="69506560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5405,7 +5423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98733056"/>
+        <c:crossAx val="69508096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5413,7 +5431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98733056"/>
+        <c:axId val="69508096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5424,7 +5442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98731520"/>
+        <c:crossAx val="69506560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5502,9 +5520,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$281</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6344,16 +6362,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$281</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7193,6 +7214,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>45045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7209,11 +7233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98946432"/>
-        <c:axId val="98956416"/>
+        <c:axId val="69389696"/>
+        <c:axId val="69399680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98946432"/>
+        <c:axId val="69389696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7223,7 +7247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98956416"/>
+        <c:crossAx val="69399680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7231,7 +7255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98956416"/>
+        <c:axId val="69399680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7242,7 +7266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98946432"/>
+        <c:crossAx val="69389696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7330,9 +7354,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$282</c:f>
+              <c:f>'County Counts'!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8175,16 +8199,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>10/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$282</c:f>
+              <c:f>'County Counts'!$B$2:$B$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9027,6 +9054,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9043,11 +9073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98838016"/>
-        <c:axId val="98839552"/>
+        <c:axId val="69285376"/>
+        <c:axId val="69286912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98838016"/>
+        <c:axId val="69285376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9056,7 +9086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98839552"/>
+        <c:crossAx val="69286912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9064,7 +9094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98839552"/>
+        <c:axId val="69286912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9075,7 +9105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98838016"/>
+        <c:crossAx val="69285376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9281,9 +9311,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B282" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B282"/>
-  <sortState ref="A2:B282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B283" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B283"/>
+  <sortState ref="A2:B283">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9295,9 +9325,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B282" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B282"/>
-  <sortState ref="A2:B282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B283" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B283"/>
+  <sortState ref="A2:B283">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9309,9 +9339,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B281" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B281"/>
-  <sortState ref="A2:B281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B282" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B282"/>
+  <sortState ref="A2:B282">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9323,9 +9353,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B282" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B282"/>
-  <sortState ref="A2:B282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B283" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B283"/>
+  <sortState ref="A2:B283">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9623,7 +9653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11891,6 +11921,14 @@
         <v>8851546</v>
       </c>
     </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>568</v>
+      </c>
+      <c r="B283">
+        <v>8932709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11901,7 +11939,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B283"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14167,6 +14205,14 @@
         <v>225873</v>
       </c>
     </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>568</v>
+      </c>
+      <c r="B283">
+        <v>226884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14177,7 +14223,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16435,6 +16481,14 @@
         <v>44212</v>
       </c>
     </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>568</v>
+      </c>
+      <c r="B282">
+        <v>45045</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16445,7 +16499,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B283"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -18709,6 +18763,14 @@
       </c>
       <c r="B282">
         <v>3242</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>569</v>
+      </c>
+      <c r="B283">
+        <v>3244</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$283</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$282</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$283</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$283</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$284</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$283</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$284</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$284</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="572">
   <si>
     <t>date</t>
   </si>
@@ -1754,6 +1754,12 @@
   </si>
   <si>
     <t>10/28/2020</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>10/29/2020</t>
   </si>
 </sst>
 </file>
@@ -1862,9 +1868,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$283</c:f>
+              <c:f>'Cases Data'!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2710,16 +2716,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$283</c:f>
+              <c:f>'Cases Data'!$B$2:$B$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3564,7 +3573,10 @@
                   <c:v>8851546</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8932709</c:v>
+                  <c:v>8933448</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9023894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,11 +3593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68713856"/>
-        <c:axId val="69481600"/>
+        <c:axId val="78220672"/>
+        <c:axId val="78984320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68713856"/>
+        <c:axId val="78220672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3594,7 +3606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69481600"/>
+        <c:crossAx val="78984320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3602,7 +3614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69481600"/>
+        <c:axId val="78984320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68713856"/>
+        <c:crossAx val="78220672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3691,9 +3703,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$283</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4539,16 +4551,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$283</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5394,6 +5409,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>226884</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>227887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5410,11 +5428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69506560"/>
-        <c:axId val="69508096"/>
+        <c:axId val="79009280"/>
+        <c:axId val="79010816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69506560"/>
+        <c:axId val="79009280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5423,7 +5441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69508096"/>
+        <c:crossAx val="79010816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5431,7 +5449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69508096"/>
+        <c:axId val="79010816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5442,7 +5460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69506560"/>
+        <c:crossAx val="79009280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5520,9 +5538,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$282</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6365,16 +6383,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$282</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7217,6 +7238,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>45045</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>46095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7233,11 +7257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69389696"/>
-        <c:axId val="69399680"/>
+        <c:axId val="78896512"/>
+        <c:axId val="78779520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69389696"/>
+        <c:axId val="78896512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7247,7 +7271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69399680"/>
+        <c:crossAx val="78779520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7255,7 +7279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69399680"/>
+        <c:axId val="78779520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7266,7 +7290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69389696"/>
+        <c:crossAx val="78896512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7354,9 +7378,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$283</c:f>
+              <c:f>'County Counts'!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8202,16 +8226,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>10/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$283</c:f>
+              <c:f>'County Counts'!$B$2:$B$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9057,6 +9084,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9073,11 +9103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69285376"/>
-        <c:axId val="69286912"/>
+        <c:axId val="78789632"/>
+        <c:axId val="78824192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69285376"/>
+        <c:axId val="78789632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9086,7 +9116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69286912"/>
+        <c:crossAx val="78824192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9094,7 +9124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69286912"/>
+        <c:axId val="78824192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9105,7 +9135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69285376"/>
+        <c:crossAx val="78789632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9311,9 +9341,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B283" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B283"/>
-  <sortState ref="A2:B283">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B284" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B284"/>
+  <sortState ref="A2:B284">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9325,9 +9355,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B283" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B283"/>
-  <sortState ref="A2:B283">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B284" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B284"/>
+  <sortState ref="A2:B284">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9339,9 +9369,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B282" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B282"/>
-  <sortState ref="A2:B282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B283" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B283"/>
+  <sortState ref="A2:B283">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9353,9 +9383,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B283" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B283"/>
-  <sortState ref="A2:B283">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B284" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B284"/>
+  <sortState ref="A2:B284">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9653,7 +9683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11926,7 +11956,15 @@
         <v>568</v>
       </c>
       <c r="B283">
-        <v>8932709</v>
+        <v>8933448</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>570</v>
+      </c>
+      <c r="B284">
+        <v>9023894</v>
       </c>
     </row>
   </sheetData>
@@ -11939,7 +11977,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14213,6 +14251,14 @@
         <v>226884</v>
       </c>
     </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>570</v>
+      </c>
+      <c r="B284">
+        <v>227887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14223,7 +14269,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B283"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16489,6 +16535,14 @@
         <v>45045</v>
       </c>
     </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>570</v>
+      </c>
+      <c r="B283">
+        <v>46095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16499,7 +16553,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -18771,6 +18825,14 @@
       </c>
       <c r="B283">
         <v>3244</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>571</v>
+      </c>
+      <c r="B284">
+        <v>3243</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$284</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$283</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$284</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$284</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$285</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$284</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$285</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$285</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="574">
   <si>
     <t>date</t>
   </si>
@@ -1760,6 +1760,12 @@
   </si>
   <si>
     <t>10/29/2020</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>10/30/2020</t>
   </si>
 </sst>
 </file>
@@ -1868,9 +1874,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$284</c:f>
+              <c:f>'Cases Data'!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2719,16 +2725,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$284</c:f>
+              <c:f>'Cases Data'!$B$2:$B$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3576,7 +3585,10 @@
                   <c:v>8933448</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>9023894</c:v>
+                  <c:v>9024176</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9123035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,11 +3605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78220672"/>
-        <c:axId val="78984320"/>
+        <c:axId val="70749568"/>
+        <c:axId val="71517312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78220672"/>
+        <c:axId val="70749568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,7 +3618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78984320"/>
+        <c:crossAx val="71517312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3614,7 +3626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78984320"/>
+        <c:axId val="71517312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3625,7 +3637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78220672"/>
+        <c:crossAx val="70749568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3703,9 +3715,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$284</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4554,16 +4566,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$284</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5412,6 +5427,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>227887</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>228852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5428,11 +5446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79009280"/>
-        <c:axId val="79010816"/>
+        <c:axId val="71546368"/>
+        <c:axId val="71547904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79009280"/>
+        <c:axId val="71546368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5441,7 +5459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79010816"/>
+        <c:crossAx val="71547904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5449,7 +5467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79010816"/>
+        <c:axId val="71547904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5460,7 +5478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79009280"/>
+        <c:crossAx val="71546368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5538,9 +5556,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$283</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6386,16 +6404,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$283</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7241,6 +7262,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>46095</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>46688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7257,11 +7281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78896512"/>
-        <c:axId val="78779520"/>
+        <c:axId val="71368064"/>
+        <c:axId val="71378048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78896512"/>
+        <c:axId val="71368064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7271,7 +7295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78779520"/>
+        <c:crossAx val="71378048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7279,7 +7303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78779520"/>
+        <c:axId val="71378048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7290,7 +7314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78896512"/>
+        <c:crossAx val="71368064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7378,9 +7402,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$284</c:f>
+              <c:f>'County Counts'!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8229,16 +8253,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$284</c:f>
+              <c:f>'County Counts'!$B$2:$B$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9087,6 +9114,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9103,11 +9133,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78789632"/>
-        <c:axId val="78824192"/>
+        <c:axId val="71386624"/>
+        <c:axId val="71388160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78789632"/>
+        <c:axId val="71386624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9116,7 +9146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78824192"/>
+        <c:crossAx val="71388160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9124,7 +9154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78824192"/>
+        <c:axId val="71388160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9135,7 +9165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78789632"/>
+        <c:crossAx val="71386624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9341,9 +9371,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B284" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B284"/>
-  <sortState ref="A2:B284">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B285" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B285"/>
+  <sortState ref="A2:B285">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9355,9 +9385,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B284" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B284"/>
-  <sortState ref="A2:B284">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B285" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B285"/>
+  <sortState ref="A2:B285">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9369,9 +9399,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B283" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B283"/>
-  <sortState ref="A2:B283">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B284" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B284"/>
+  <sortState ref="A2:B284">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9383,9 +9413,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B284" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B284"/>
-  <sortState ref="A2:B284">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B285" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B285"/>
+  <sortState ref="A2:B285">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9683,7 +9713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11964,7 +11994,15 @@
         <v>570</v>
       </c>
       <c r="B284">
-        <v>9023894</v>
+        <v>9024176</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>572</v>
+      </c>
+      <c r="B285">
+        <v>9123035</v>
       </c>
     </row>
   </sheetData>
@@ -11977,7 +12015,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14259,6 +14297,14 @@
         <v>227887</v>
       </c>
     </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>572</v>
+      </c>
+      <c r="B285">
+        <v>228852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14269,7 +14315,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16543,6 +16589,14 @@
         <v>46095</v>
       </c>
     </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>572</v>
+      </c>
+      <c r="B284">
+        <v>46688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16553,7 +16607,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -18833,6 +18887,14 @@
       </c>
       <c r="B284">
         <v>3243</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>573</v>
+      </c>
+      <c r="B285">
+        <v>3244</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$285</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$284</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$285</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$285</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$286</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$285</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$286</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$286</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="576">
   <si>
     <t>date</t>
   </si>
@@ -1766,6 +1766,12 @@
   </si>
   <si>
     <t>10/30/2020</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>10/31/2020</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1880,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$285</c:f>
+              <c:f>'Cases Data'!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2728,16 +2734,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$285</c:f>
+              <c:f>'Cases Data'!$B$2:$B$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3588,7 +3597,10 @@
                   <c:v>9024176</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9123035</c:v>
+                  <c:v>9123960</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9208245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3605,11 +3617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70749568"/>
-        <c:axId val="71517312"/>
+        <c:axId val="78950400"/>
+        <c:axId val="78951936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70749568"/>
+        <c:axId val="78950400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3618,7 +3630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71517312"/>
+        <c:crossAx val="78951936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3626,7 +3638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71517312"/>
+        <c:axId val="78951936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3637,7 +3649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70749568"/>
+        <c:crossAx val="78950400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3715,9 +3727,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$285</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4569,16 +4581,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$285</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5430,6 +5445,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>228852</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>229698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5446,11 +5464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71546368"/>
-        <c:axId val="71547904"/>
+        <c:axId val="79193984"/>
+        <c:axId val="79195520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71546368"/>
+        <c:axId val="79193984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5459,7 +5477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71547904"/>
+        <c:crossAx val="79195520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5467,7 +5485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71547904"/>
+        <c:axId val="79195520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5478,7 +5496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71546368"/>
+        <c:crossAx val="79193984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5556,9 +5574,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$284</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6407,16 +6425,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$284</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7265,6 +7286,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>46688</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>47374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7281,11 +7305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71368064"/>
-        <c:axId val="71378048"/>
+        <c:axId val="98025472"/>
+        <c:axId val="98027008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71368064"/>
+        <c:axId val="98025472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7295,7 +7319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71378048"/>
+        <c:crossAx val="98027008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7303,7 +7327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71378048"/>
+        <c:axId val="98027008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,7 +7338,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71368064"/>
+        <c:crossAx val="98025472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7402,9 +7426,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$285</c:f>
+              <c:f>'County Counts'!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8256,16 +8280,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>10/31/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$285</c:f>
+              <c:f>'County Counts'!$B$2:$B$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9117,6 +9144,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9133,11 +9163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71386624"/>
-        <c:axId val="71388160"/>
+        <c:axId val="98039680"/>
+        <c:axId val="98041216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71386624"/>
+        <c:axId val="98039680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9146,7 +9176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71388160"/>
+        <c:crossAx val="98041216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9154,7 +9184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71388160"/>
+        <c:axId val="98041216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9165,7 +9195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71386624"/>
+        <c:crossAx val="98039680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9371,9 +9401,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B285" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B285"/>
-  <sortState ref="A2:B285">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B286"/>
+  <sortState ref="A2:B286">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9385,9 +9415,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B285" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B285"/>
-  <sortState ref="A2:B285">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B286"/>
+  <sortState ref="A2:B286">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9399,9 +9429,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B284" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B284"/>
-  <sortState ref="A2:B284">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B285" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B285"/>
+  <sortState ref="A2:B285">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9413,9 +9443,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B285" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B285"/>
-  <sortState ref="A2:B285">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B286"/>
+  <sortState ref="A2:B286">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9713,7 +9743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -9722,7 +9752,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12002,7 +12032,15 @@
         <v>572</v>
       </c>
       <c r="B285">
-        <v>9123035</v>
+        <v>9123960</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>574</v>
+      </c>
+      <c r="B286">
+        <v>9208245</v>
       </c>
     </row>
   </sheetData>
@@ -12015,14 +12053,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14303,6 +14341,14 @@
       </c>
       <c r="B285">
         <v>228852</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>574</v>
+      </c>
+      <c r="B286">
+        <v>229698</v>
       </c>
     </row>
   </sheetData>
@@ -14315,14 +14361,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16595,6 +16641,14 @@
       </c>
       <c r="B284">
         <v>46688</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>574</v>
+      </c>
+      <c r="B285">
+        <v>47374</v>
       </c>
     </row>
   </sheetData>
@@ -16607,14 +16661,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18895,6 +18949,14 @@
       </c>
       <c r="B285">
         <v>3244</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>575</v>
+      </c>
+      <c r="B286">
+        <v>3245</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -17,10 +17,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$286</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$285</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$286</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$286</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$287</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$286</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$287</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$287</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="578">
   <si>
     <t>date</t>
   </si>
@@ -1772,6 +1772,12 @@
   </si>
   <si>
     <t>10/31/2020</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>11/01/2020</t>
   </si>
 </sst>
 </file>
@@ -1880,9 +1886,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$286</c:f>
+              <c:f>'Cases Data'!$A$2:$A$287</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2737,16 +2743,19 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$286</c:f>
+              <c:f>'Cases Data'!$B$2:$B$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3601,6 +3610,9 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>9208245</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9282358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,11 +3629,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78950400"/>
-        <c:axId val="78951936"/>
+        <c:axId val="64527744"/>
+        <c:axId val="65492096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78950400"/>
+        <c:axId val="64527744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,7 +3642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78951936"/>
+        <c:crossAx val="65492096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3638,7 +3650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78951936"/>
+        <c:axId val="65492096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +3661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78950400"/>
+        <c:crossAx val="64527744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3727,9 +3739,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$286</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$287</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4584,16 +4596,19 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$286</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5447,7 +5462,10 @@
                   <c:v>228852</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>229698</c:v>
+                  <c:v>229688</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>230105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,11 +5482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79193984"/>
-        <c:axId val="79195520"/>
+        <c:axId val="65521152"/>
+        <c:axId val="65522688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79193984"/>
+        <c:axId val="65521152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5477,7 +5495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79195520"/>
+        <c:crossAx val="65522688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5485,7 +5503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79195520"/>
+        <c:axId val="65522688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5496,7 +5514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79193984"/>
+        <c:crossAx val="65521152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5574,9 +5592,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$285</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6428,16 +6446,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$285</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7289,6 +7310,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>47374</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>47502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7305,11 +7329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98025472"/>
-        <c:axId val="98027008"/>
+        <c:axId val="65338752"/>
+        <c:axId val="65348736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98025472"/>
+        <c:axId val="65338752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7319,7 +7343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98027008"/>
+        <c:crossAx val="65348736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7327,7 +7351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98027008"/>
+        <c:axId val="65348736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7338,7 +7362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98025472"/>
+        <c:crossAx val="65338752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7426,9 +7450,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$286</c:f>
+              <c:f>'County Counts'!$A$2:$A$287</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8283,16 +8307,19 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>11/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$286</c:f>
+              <c:f>'County Counts'!$B$2:$B$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="286"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9146,6 +9173,9 @@
                   <c:v>3244</c:v>
                 </c:pt>
                 <c:pt idx="284">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="285">
                   <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
@@ -9163,11 +9193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98039680"/>
-        <c:axId val="98041216"/>
+        <c:axId val="65357312"/>
+        <c:axId val="65358848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98039680"/>
+        <c:axId val="65357312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9176,7 +9206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98041216"/>
+        <c:crossAx val="65358848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9184,7 +9214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98041216"/>
+        <c:axId val="65358848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9195,7 +9225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98039680"/>
+        <c:crossAx val="65357312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9401,9 +9431,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B286"/>
-  <sortState ref="A2:B286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B287" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B287"/>
+  <sortState ref="A2:B287">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9415,9 +9445,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B286"/>
-  <sortState ref="A2:B286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B287" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B287"/>
+  <sortState ref="A2:B287">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9429,9 +9459,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B285" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B285"/>
-  <sortState ref="A2:B285">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B286"/>
+  <sortState ref="A2:B286">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9443,9 +9473,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B286"/>
-  <sortState ref="A2:B286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B287" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B287"/>
+  <sortState ref="A2:B287">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9743,7 +9773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -9752,7 +9782,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12041,6 +12071,14 @@
       </c>
       <c r="B286">
         <v>9208245</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>576</v>
+      </c>
+      <c r="B287">
+        <v>9282358</v>
       </c>
     </row>
   </sheetData>
@@ -12053,14 +12091,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14348,7 +14386,15 @@
         <v>574</v>
       </c>
       <c r="B286">
-        <v>229698</v>
+        <v>229688</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>576</v>
+      </c>
+      <c r="B287">
+        <v>230105</v>
       </c>
     </row>
   </sheetData>
@@ -14361,14 +14407,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16649,6 +16695,14 @@
       </c>
       <c r="B285">
         <v>47374</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>576</v>
+      </c>
+      <c r="B286">
+        <v>47502</v>
       </c>
     </row>
   </sheetData>
@@ -16661,14 +16715,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18956,6 +19010,14 @@
         <v>575</v>
       </c>
       <c r="B286">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>577</v>
+      </c>
+      <c r="B287">
         <v>3245</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -3612,7 +3612,7 @@
                   <c:v>9208245</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>9282358</c:v>
+                  <c:v>9282481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3629,11 +3629,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64527744"/>
-        <c:axId val="65492096"/>
+        <c:axId val="88666112"/>
+        <c:axId val="88667648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64527744"/>
+        <c:axId val="88666112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,7 +3642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65492096"/>
+        <c:crossAx val="88667648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3650,7 +3650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65492096"/>
+        <c:axId val="88667648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,7 +3661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64527744"/>
+        <c:crossAx val="88666112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5482,11 +5482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65521152"/>
-        <c:axId val="65522688"/>
+        <c:axId val="88897408"/>
+        <c:axId val="88898944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65521152"/>
+        <c:axId val="88897408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5495,7 +5495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65522688"/>
+        <c:crossAx val="88898944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5503,7 +5503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65522688"/>
+        <c:axId val="88898944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5514,7 +5514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65521152"/>
+        <c:crossAx val="88897408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7329,11 +7329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65338752"/>
-        <c:axId val="65348736"/>
+        <c:axId val="89055232"/>
+        <c:axId val="89056768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65338752"/>
+        <c:axId val="89055232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7343,7 +7343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65348736"/>
+        <c:crossAx val="89056768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7351,7 +7351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65348736"/>
+        <c:axId val="89056768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7362,7 +7362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65338752"/>
+        <c:crossAx val="89055232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9193,11 +9193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65357312"/>
-        <c:axId val="65358848"/>
+        <c:axId val="88942464"/>
+        <c:axId val="88944000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65357312"/>
+        <c:axId val="88942464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9206,7 +9206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65358848"/>
+        <c:crossAx val="88944000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9214,7 +9214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65358848"/>
+        <c:axId val="88944000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9225,7 +9225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65357312"/>
+        <c:crossAx val="88942464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9782,7 +9782,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12078,7 +12078,7 @@
         <v>576</v>
       </c>
       <c r="B287">
-        <v>9282358</v>
+        <v>9282481</v>
       </c>
     </row>
   </sheetData>
@@ -12098,7 +12098,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14414,7 +14414,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16721,8 +16721,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB74AFD5-421D-4B75-8058-ECF271E9A63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15480" windowHeight="9795"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -17,34 +23,34 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$287</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$227</definedName>
     <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$286</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$287</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$287</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$227</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$227</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CountyCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 CountyCount" type="5" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CountyCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 CountyCount" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;CountyCount&quot;" commandType="3"/>
   </connection>
-  <connection id="2" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USBedCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USBedCount" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USBedCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USBedCount" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USBedCount&quot;" commandType="3"/>
   </connection>
-  <connection id="3" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USCaseCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USCaseCount" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USCaseCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USCaseCount" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USCaseCount&quot;" commandType="3"/>
   </connection>
-  <connection id="4" odcFile="C:\Users\Mark\Documents\My Data Sources\HOWE-HP_HOWEHP Covid19 USTotalDeaths.odc" keepAlive="1" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\HOWE-HP_HOWEHP Covid19 USTotalDeaths.odc" keepAlive="1" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=HOWE-HP\HOWEHP;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USTotalDeaths&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="518">
   <si>
     <t>date</t>
   </si>
@@ -1399,45 +1405,6 @@
     <t>08/21/2020</t>
   </si>
   <si>
-    <t>09/03/2020</t>
-  </si>
-  <si>
-    <t>09/04/2020</t>
-  </si>
-  <si>
-    <t>09/05/2020</t>
-  </si>
-  <si>
-    <t>09/06/2020</t>
-  </si>
-  <si>
-    <t>09/07/2020</t>
-  </si>
-  <si>
-    <t>09/20/2020</t>
-  </si>
-  <si>
-    <t>09/21/2020</t>
-  </si>
-  <si>
-    <t>09/22/2020</t>
-  </si>
-  <si>
-    <t>09/23/2020</t>
-  </si>
-  <si>
-    <t>10/07/2020</t>
-  </si>
-  <si>
-    <t>10/08/2020</t>
-  </si>
-  <si>
-    <t>10/09/2020</t>
-  </si>
-  <si>
-    <t>10/10/2020</t>
-  </si>
-  <si>
     <t>07/03/2020</t>
   </si>
   <si>
@@ -1489,36 +1456,6 @@
     <t>09/02/2020</t>
   </si>
   <si>
-    <t>09/09/2020</t>
-  </si>
-  <si>
-    <t>09/11/2020</t>
-  </si>
-  <si>
-    <t>09/16/2020</t>
-  </si>
-  <si>
-    <t>09/18/2020</t>
-  </si>
-  <si>
-    <t>09/25/2020</t>
-  </si>
-  <si>
-    <t>09/27/2020</t>
-  </si>
-  <si>
-    <t>10/04/2020</t>
-  </si>
-  <si>
-    <t>10/06/2020</t>
-  </si>
-  <si>
-    <t>10/11/2020</t>
-  </si>
-  <si>
-    <t>10/13/2020</t>
-  </si>
-  <si>
     <t>07/07/2020</t>
   </si>
   <si>
@@ -1570,33 +1507,6 @@
     <t>08/29/2020</t>
   </si>
   <si>
-    <t>09/12/2020</t>
-  </si>
-  <si>
-    <t>09/13/2020</t>
-  </si>
-  <si>
-    <t>09/14/2020</t>
-  </si>
-  <si>
-    <t>09/15/2020</t>
-  </si>
-  <si>
-    <t>09/29/2020</t>
-  </si>
-  <si>
-    <t>09/30/2020</t>
-  </si>
-  <si>
-    <t>10/01/2020</t>
-  </si>
-  <si>
-    <t>10/02/2020</t>
-  </si>
-  <si>
-    <t>10/15/2020</t>
-  </si>
-  <si>
     <t>07/04/2020</t>
   </si>
   <si>
@@ -1645,145 +1555,61 @@
     <t>09/01/2020</t>
   </si>
   <si>
-    <t>09/08/2020</t>
-  </si>
-  <si>
-    <t>09/10/2020</t>
-  </si>
-  <si>
-    <t>09/17/2020</t>
-  </si>
-  <si>
-    <t>09/19/2020</t>
-  </si>
-  <si>
-    <t>09/24/2020</t>
-  </si>
-  <si>
-    <t>09/26/2020</t>
-  </si>
-  <si>
-    <t>09/28/2020</t>
-  </si>
-  <si>
-    <t>10/03/2020</t>
-  </si>
-  <si>
-    <t>10/05/2020</t>
-  </si>
-  <si>
-    <t>10/12/2020</t>
-  </si>
-  <si>
-    <t>10/14/2020</t>
-  </si>
-  <si>
     <t>2020-10-16</t>
   </si>
   <si>
-    <t>10/16/2020</t>
-  </si>
-  <si>
     <t>2020-10-17</t>
   </si>
   <si>
-    <t>10/17/2020</t>
-  </si>
-  <si>
     <t>2020-10-18</t>
   </si>
   <si>
-    <t>10/18/2020</t>
-  </si>
-  <si>
     <t>2020-10-19</t>
   </si>
   <si>
-    <t>10/19/2020</t>
-  </si>
-  <si>
     <t>2020-10-20</t>
   </si>
   <si>
-    <t>10/20/2020</t>
-  </si>
-  <si>
     <t>2020-10-21</t>
   </si>
   <si>
-    <t>10/21/2020</t>
-  </si>
-  <si>
     <t>2020-10-22</t>
   </si>
   <si>
-    <t>10/22/2020</t>
-  </si>
-  <si>
     <t>2020-10-23</t>
   </si>
   <si>
-    <t>10/23/2020</t>
-  </si>
-  <si>
     <t>2020-10-24</t>
   </si>
   <si>
-    <t>10/24/2020</t>
-  </si>
-  <si>
     <t>2020-10-25</t>
   </si>
   <si>
-    <t>10/25/2020</t>
-  </si>
-  <si>
     <t>2020-10-26</t>
   </si>
   <si>
-    <t>10/26/2020</t>
-  </si>
-  <si>
     <t>2020-10-27</t>
   </si>
   <si>
-    <t>10/27/2020</t>
-  </si>
-  <si>
     <t>2020-10-28</t>
   </si>
   <si>
-    <t>10/28/2020</t>
-  </si>
-  <si>
     <t>2020-10-29</t>
   </si>
   <si>
-    <t>10/29/2020</t>
-  </si>
-  <si>
     <t>2020-10-30</t>
   </si>
   <si>
-    <t>10/30/2020</t>
-  </si>
-  <si>
     <t>2020-10-31</t>
   </si>
   <si>
-    <t>10/31/2020</t>
-  </si>
-  <si>
     <t>2020-11-01</t>
-  </si>
-  <si>
-    <t>11/01/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1825,12 +1651,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1886,9 +1715,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$287</c:f>
+              <c:f>'Cases Data'!$A$2:$A$227</c:f>
               <c:strCache>
-                <c:ptCount val="286"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2566,196 +2395,16 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>2020-09-02</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>2020-09-03</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>2020-09-04</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>2020-09-05</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>2020-09-06</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>2020-09-07</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>2020-09-08</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>2020-09-09</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2020-09-10</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2020-09-11</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>2020-09-12</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>2020-09-13</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2020-09-14</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2020-09-15</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>2020-09-16</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2020-09-17</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2020-09-18</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2020-09-19</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>2020-09-20</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>2020-09-21</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>2020-09-22</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>2020-09-23</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>2020-09-24</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>2020-09-25</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>2020-09-26</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2020-09-27</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2020-09-28</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>2020-09-29</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2020-09-30</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2020-10-01</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2020-10-02</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2020-10-03</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2020-10-04</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2020-10-05</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2020-10-06</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2020-10-07</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2020-10-08</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2020-10-09</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2020-10-10</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>2020-10-11</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2020-10-12</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2020-10-13</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2020-10-14</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2020-10-15</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2020-10-16</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2020-10-17</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2020-10-18</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2020-10-19</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2020-10-20</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2020-10-21</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2020-10-22</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2020-10-23</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2020-10-24</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2020-10-25</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2020-10-26</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2020-10-27</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2020-10-28</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2020-10-29</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>2020-10-30</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2020-10-31</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$287</c:f>
+              <c:f>'Cases Data'!$B$2:$B$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="286"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3432,192 +3081,17 @@
                   <c:v>6089504</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>6121948</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>6168342</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>6220446</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>6262700</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>6292699</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>6317865</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>6346806</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>6380138</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>6418198</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>6465766</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>6504870</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>6538213</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>6575100</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>6614317</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>6653585</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>6698895</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>6747782</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>6789593</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>6825949</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>6880899</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>6918290</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>6959841</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>7005043</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>7059624</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>7102321</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>7139619</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>7176979</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>7220676</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>7262734</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>7309152</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>7362563</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>7410342</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>7445405</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>7507699</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>7550563</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>7603547</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>7659922</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>7718881</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>7770467</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>7815233</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>7863239</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>7917598</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>7977470</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>8042797</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>8113261</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>8166022</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>8213904</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>8279279</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>8339867</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>8404058</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>8479122</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>8564207</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>8642963</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>8702675</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>8777118</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>8851546</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>8933448</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>9024176</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>9123960</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>9208245</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>9282481</c:v>
+                  <c:v>5004286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F28E-47A6-AEC1-FA8DD92E5FE4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3627,7 +3101,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="88666112"/>
         <c:axId val="88667648"/>
@@ -3639,6 +3112,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3683,7 +3157,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3739,9 +3213,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$287</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$227</c:f>
               <c:strCache>
-                <c:ptCount val="286"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4419,196 +3893,16 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>2020-09-02</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>2020-09-03</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>2020-09-04</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>2020-09-05</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>2020-09-06</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>2020-09-07</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>2020-09-08</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>2020-09-09</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2020-09-10</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2020-09-11</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>2020-09-12</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>2020-09-13</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2020-09-14</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2020-09-15</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>2020-09-16</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2020-09-17</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2020-09-18</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2020-09-19</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>2020-09-20</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>2020-09-21</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>2020-09-22</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>2020-09-23</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>2020-09-24</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>2020-09-25</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>2020-09-26</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2020-09-27</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2020-09-28</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>2020-09-29</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2020-09-30</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2020-10-01</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2020-10-02</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2020-10-03</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2020-10-04</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2020-10-05</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2020-10-06</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2020-10-07</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2020-10-08</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2020-10-09</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2020-10-10</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>2020-10-11</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2020-10-12</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2020-10-13</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2020-10-14</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2020-10-15</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2020-10-16</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2020-10-17</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2020-10-18</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2020-10-19</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2020-10-20</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2020-10-21</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2020-10-22</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2020-10-23</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2020-10-24</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2020-10-25</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2020-10-26</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2020-10-27</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2020-10-28</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2020-10-29</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>2020-10-30</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2020-10-31</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$287</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="286"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5285,192 +4579,17 @@
                   <c:v>184128</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>185196</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>186269</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>187242</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>187945</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>188343</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>188606</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>189059</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>190216</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>191119</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>192335</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>193024</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>193419</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>193866</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>195138</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>196116</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>196947</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>197885</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>198549</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>198759</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>199188</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>200125</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>201211</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>202086</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>202931</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>203693</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>203958</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>204304</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>205224</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>206191</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>207034</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>207891</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>208592</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>208920</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>209340</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>210060</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>211047</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>211965</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>212875</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>213459</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>213876</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>214222</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>215045</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>216050</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>216842</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>217718</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>218393</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>218775</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>219290</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>220218</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>221421</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>222240</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>223157</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>224027</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>224359</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>224894</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>225873</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>226884</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>227887</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>228852</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>229688</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>230105</c:v>
+                  <c:v>164119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AF8-4DAC-ABF2-0818069AA307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5480,7 +4599,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="88897408"/>
         <c:axId val="88898944"/>
@@ -5492,6 +4610,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5536,7 +4655,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7318,6 +6437,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F21-4B0F-BD7D-2B73C9863388}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7327,7 +6451,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="89055232"/>
         <c:axId val="89056768"/>
@@ -7384,7 +6507,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7450,9 +6573,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$287</c:f>
+              <c:f>'County Counts'!$A$2:$A$227</c:f>
               <c:strCache>
-                <c:ptCount val="286"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8130,196 +7253,16 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>09/02/2020</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>09/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>09/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>09/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>09/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>09/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>09/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>09/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>09/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>09/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>09/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>09/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>09/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>09/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>09/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>09/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>09/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>09/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>09/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>09/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>09/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>09/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>09/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>09/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>09/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>09/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>09/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>09/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>09/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>10/01/2020</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>10/02/2020</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>10/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>10/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>10/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>10/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>10/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>10/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>10/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>10/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>10/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>10/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>10/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>10/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>10/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>10/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>10/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>10/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>10/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>10/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>10/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>10/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>10/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>10/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>10/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>10/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>10/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>10/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>10/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>10/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>10/31/2020</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>11/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$287</c:f>
+              <c:f>'County Counts'!$B$2:$B$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="286"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8996,192 +7939,17 @@
                   <c:v>3233</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3234</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>3234</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>3234</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>3232</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>3235</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>3237</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>3237</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>3235</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>3237</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>3237</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>3239</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>3239</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>3237</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>3239</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>3241</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>3241</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>3241</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>3239</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>3240</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>3241</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>3240</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>3241</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>3248</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>3246</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>3245</c:v>
+                  <c:v>2544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6C5-4CD8-8F2E-C854ABDA8FE4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9191,7 +7959,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="88942464"/>
         <c:axId val="88944000"/>
@@ -9203,6 +7970,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9263,7 +8031,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9298,7 +8072,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9333,7 +8113,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9368,7 +8154,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9387,7 +8179,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="howe-hp_howehp Covid19 USCaseCount" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 USCaseCount" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -9398,7 +8190,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -9409,7 +8201,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="howe-hp_howehp Covid19 USBedCount" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 USBedCount" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -9420,7 +8212,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="howe-hp_howehp Covid19 CountyCount" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CountyCount" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Virus Date" tableColumnId="1"/>
@@ -9431,56 +8223,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B287" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B287"/>
-  <sortState ref="A2:B287">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B227" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B227" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B227">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Case Count" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Case Count" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B287" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B287"/>
-  <sortState ref="A2:B287">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B227" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B227" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B227">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Deaths" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Deaths" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B286"/>
-  <sortState ref="A2:B286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B286" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B286">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Bed Count" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="Bed Count" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B287" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B287"/>
-  <sortState ref="A2:B287">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B227" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B227" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B227">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Virus Date" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Date Count" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="Virus Date" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="Date Count" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9529,7 +8321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9562,9 +8354,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9597,6 +8406,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9772,8 +8598,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B287"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11598,487 +10424,7 @@
         <v>393</v>
       </c>
       <c r="B227">
-        <v>6121948</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>394</v>
-      </c>
-      <c r="B228">
-        <v>6168342</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>395</v>
-      </c>
-      <c r="B229">
-        <v>6220446</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>396</v>
-      </c>
-      <c r="B230">
-        <v>6262700</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>397</v>
-      </c>
-      <c r="B231">
-        <v>6292699</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>398</v>
-      </c>
-      <c r="B232">
-        <v>6317865</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>399</v>
-      </c>
-      <c r="B233">
-        <v>6346806</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>400</v>
-      </c>
-      <c r="B234">
-        <v>6380138</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>401</v>
-      </c>
-      <c r="B235">
-        <v>6418198</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>402</v>
-      </c>
-      <c r="B236">
-        <v>6465766</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>403</v>
-      </c>
-      <c r="B237">
-        <v>6504870</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>404</v>
-      </c>
-      <c r="B238">
-        <v>6538213</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>405</v>
-      </c>
-      <c r="B239">
-        <v>6575100</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>406</v>
-      </c>
-      <c r="B240">
-        <v>6614317</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>407</v>
-      </c>
-      <c r="B241">
-        <v>6653585</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>408</v>
-      </c>
-      <c r="B242">
-        <v>6698895</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>411</v>
-      </c>
-      <c r="B243">
-        <v>6747782</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>410</v>
-      </c>
-      <c r="B244">
-        <v>6789593</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>409</v>
-      </c>
-      <c r="B245">
-        <v>6825949</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>412</v>
-      </c>
-      <c r="B246">
-        <v>6880899</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>413</v>
-      </c>
-      <c r="B247">
-        <v>6918290</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>414</v>
-      </c>
-      <c r="B248">
-        <v>6959841</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>415</v>
-      </c>
-      <c r="B249">
-        <v>7005043</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>416</v>
-      </c>
-      <c r="B250">
-        <v>7059624</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>417</v>
-      </c>
-      <c r="B251">
-        <v>7102321</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>418</v>
-      </c>
-      <c r="B252">
-        <v>7139619</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>419</v>
-      </c>
-      <c r="B253">
-        <v>7176979</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>420</v>
-      </c>
-      <c r="B254">
-        <v>7220676</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>421</v>
-      </c>
-      <c r="B255">
-        <v>7262734</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>422</v>
-      </c>
-      <c r="B256">
-        <v>7309152</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>423</v>
-      </c>
-      <c r="B257">
-        <v>7362563</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>424</v>
-      </c>
-      <c r="B258">
-        <v>7410342</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>425</v>
-      </c>
-      <c r="B259">
-        <v>7445405</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>426</v>
-      </c>
-      <c r="B260">
-        <v>7507699</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>427</v>
-      </c>
-      <c r="B261">
-        <v>7550563</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>428</v>
-      </c>
-      <c r="B262">
-        <v>7603547</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>429</v>
-      </c>
-      <c r="B263">
-        <v>7659922</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>430</v>
-      </c>
-      <c r="B264">
-        <v>7718881</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>431</v>
-      </c>
-      <c r="B265">
-        <v>7770467</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>432</v>
-      </c>
-      <c r="B266">
-        <v>7815233</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>433</v>
-      </c>
-      <c r="B267">
-        <v>7863239</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>434</v>
-      </c>
-      <c r="B268">
-        <v>7917598</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>436</v>
-      </c>
-      <c r="B269">
-        <v>7977470</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>435</v>
-      </c>
-      <c r="B270">
-        <v>8042797</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>544</v>
-      </c>
-      <c r="B271">
-        <v>8113261</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>546</v>
-      </c>
-      <c r="B272">
-        <v>8166022</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>548</v>
-      </c>
-      <c r="B273">
-        <v>8213904</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>550</v>
-      </c>
-      <c r="B274">
-        <v>8279279</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>552</v>
-      </c>
-      <c r="B275">
-        <v>8339867</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>554</v>
-      </c>
-      <c r="B276">
-        <v>8404058</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>556</v>
-      </c>
-      <c r="B277">
-        <v>8479122</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>558</v>
-      </c>
-      <c r="B278">
-        <v>8564207</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>560</v>
-      </c>
-      <c r="B279">
-        <v>8642963</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>562</v>
-      </c>
-      <c r="B280">
-        <v>8702675</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>564</v>
-      </c>
-      <c r="B281">
-        <v>8777118</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>566</v>
-      </c>
-      <c r="B282">
-        <v>8851546</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>568</v>
-      </c>
-      <c r="B283">
-        <v>8933448</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>570</v>
-      </c>
-      <c r="B284">
-        <v>9024176</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>572</v>
-      </c>
-      <c r="B285">
-        <v>9123960</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>574</v>
-      </c>
-      <c r="B286">
-        <v>9208245</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>576</v>
-      </c>
-      <c r="B287">
-        <v>9282481</v>
+        <v>5004286</v>
       </c>
     </row>
   </sheetData>
@@ -12090,8 +10436,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B287"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B227"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -13914,487 +12260,7 @@
         <v>393</v>
       </c>
       <c r="B227">
-        <v>185196</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>394</v>
-      </c>
-      <c r="B228">
-        <v>186269</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>395</v>
-      </c>
-      <c r="B229">
-        <v>187242</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>396</v>
-      </c>
-      <c r="B230">
-        <v>187945</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>397</v>
-      </c>
-      <c r="B231">
-        <v>188343</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>398</v>
-      </c>
-      <c r="B232">
-        <v>188606</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>399</v>
-      </c>
-      <c r="B233">
-        <v>189059</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>400</v>
-      </c>
-      <c r="B234">
-        <v>190216</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>401</v>
-      </c>
-      <c r="B235">
-        <v>191119</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>402</v>
-      </c>
-      <c r="B236">
-        <v>192335</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>403</v>
-      </c>
-      <c r="B237">
-        <v>193024</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>404</v>
-      </c>
-      <c r="B238">
-        <v>193419</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>405</v>
-      </c>
-      <c r="B239">
-        <v>193866</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>406</v>
-      </c>
-      <c r="B240">
-        <v>195138</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>407</v>
-      </c>
-      <c r="B241">
-        <v>196116</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>408</v>
-      </c>
-      <c r="B242">
-        <v>196947</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>411</v>
-      </c>
-      <c r="B243">
-        <v>197885</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>410</v>
-      </c>
-      <c r="B244">
-        <v>198549</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>409</v>
-      </c>
-      <c r="B245">
-        <v>198759</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>412</v>
-      </c>
-      <c r="B246">
-        <v>199188</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>413</v>
-      </c>
-      <c r="B247">
-        <v>200125</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>414</v>
-      </c>
-      <c r="B248">
-        <v>201211</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>415</v>
-      </c>
-      <c r="B249">
-        <v>202086</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>416</v>
-      </c>
-      <c r="B250">
-        <v>202931</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>417</v>
-      </c>
-      <c r="B251">
-        <v>203693</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>418</v>
-      </c>
-      <c r="B252">
-        <v>203958</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>419</v>
-      </c>
-      <c r="B253">
-        <v>204304</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>420</v>
-      </c>
-      <c r="B254">
-        <v>205224</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>421</v>
-      </c>
-      <c r="B255">
-        <v>206191</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>422</v>
-      </c>
-      <c r="B256">
-        <v>207034</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>423</v>
-      </c>
-      <c r="B257">
-        <v>207891</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>424</v>
-      </c>
-      <c r="B258">
-        <v>208592</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>425</v>
-      </c>
-      <c r="B259">
-        <v>208920</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>426</v>
-      </c>
-      <c r="B260">
-        <v>209340</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>427</v>
-      </c>
-      <c r="B261">
-        <v>210060</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>428</v>
-      </c>
-      <c r="B262">
-        <v>211047</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>429</v>
-      </c>
-      <c r="B263">
-        <v>211965</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>430</v>
-      </c>
-      <c r="B264">
-        <v>212875</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>431</v>
-      </c>
-      <c r="B265">
-        <v>213459</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>432</v>
-      </c>
-      <c r="B266">
-        <v>213876</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>433</v>
-      </c>
-      <c r="B267">
-        <v>214222</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>434</v>
-      </c>
-      <c r="B268">
-        <v>215045</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>436</v>
-      </c>
-      <c r="B269">
-        <v>216050</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>435</v>
-      </c>
-      <c r="B270">
-        <v>216842</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>544</v>
-      </c>
-      <c r="B271">
-        <v>217718</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>546</v>
-      </c>
-      <c r="B272">
-        <v>218393</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>548</v>
-      </c>
-      <c r="B273">
-        <v>218775</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>550</v>
-      </c>
-      <c r="B274">
-        <v>219290</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>552</v>
-      </c>
-      <c r="B275">
-        <v>220218</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>554</v>
-      </c>
-      <c r="B276">
-        <v>221421</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>556</v>
-      </c>
-      <c r="B277">
-        <v>222240</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>558</v>
-      </c>
-      <c r="B278">
-        <v>223157</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>560</v>
-      </c>
-      <c r="B279">
-        <v>224027</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>562</v>
-      </c>
-      <c r="B280">
-        <v>224359</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>564</v>
-      </c>
-      <c r="B281">
-        <v>224894</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>566</v>
-      </c>
-      <c r="B282">
-        <v>225873</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>568</v>
-      </c>
-      <c r="B283">
-        <v>226884</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>570</v>
-      </c>
-      <c r="B284">
-        <v>227887</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>572</v>
-      </c>
-      <c r="B285">
-        <v>228852</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>574</v>
-      </c>
-      <c r="B286">
-        <v>229688</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>576</v>
-      </c>
-      <c r="B287">
-        <v>230105</v>
+        <v>164119</v>
       </c>
     </row>
   </sheetData>
@@ -14406,7 +12272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
@@ -16571,7 +14437,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="B270">
         <v>37336</v>
@@ -16579,7 +14445,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="B271">
         <v>37359</v>
@@ -16587,7 +14453,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="B272">
         <v>36437</v>
@@ -16595,7 +14461,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="B273">
         <v>37826</v>
@@ -16603,7 +14469,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>552</v>
+        <v>505</v>
       </c>
       <c r="B274">
         <v>39230</v>
@@ -16611,7 +14477,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>554</v>
+        <v>506</v>
       </c>
       <c r="B275">
         <v>40271</v>
@@ -16619,7 +14485,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="B276">
         <v>41010</v>
@@ -16627,7 +14493,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="B277">
         <v>41482</v>
@@ -16635,7 +14501,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>560</v>
+        <v>509</v>
       </c>
       <c r="B278">
         <v>41905</v>
@@ -16643,7 +14509,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>562</v>
+        <v>510</v>
       </c>
       <c r="B279">
         <v>41776</v>
@@ -16651,7 +14517,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="B280">
         <v>42917</v>
@@ -16659,7 +14525,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>566</v>
+        <v>512</v>
       </c>
       <c r="B281">
         <v>44212</v>
@@ -16667,7 +14533,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="B282">
         <v>45045</v>
@@ -16675,7 +14541,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>570</v>
+        <v>514</v>
       </c>
       <c r="B283">
         <v>46095</v>
@@ -16683,7 +14549,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="B284">
         <v>46688</v>
@@ -16691,7 +14557,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>574</v>
+        <v>516</v>
       </c>
       <c r="B285">
         <v>47374</v>
@@ -16699,7 +14565,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>576</v>
+        <v>517</v>
       </c>
       <c r="B286">
         <v>47502</v>
@@ -16714,8 +14580,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B287"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B227"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -18047,7 +15913,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B166">
         <v>3163</v>
@@ -18055,7 +15921,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="B167">
         <v>3165</v>
@@ -18063,7 +15929,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B168">
         <v>3165</v>
@@ -18071,7 +15937,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="B169">
         <v>3170</v>
@@ -18079,7 +15945,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="B170">
         <v>3170</v>
@@ -18087,7 +15953,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="B171">
         <v>3176</v>
@@ -18095,7 +15961,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="B172">
         <v>3174</v>
@@ -18103,7 +15969,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="B173">
         <v>3180</v>
@@ -18111,7 +15977,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="B174">
         <v>3182</v>
@@ -18119,7 +15985,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B175">
         <v>3187</v>
@@ -18127,7 +15993,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="B176">
         <v>3187</v>
@@ -18135,7 +16001,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B177">
         <v>3194</v>
@@ -18175,7 +16041,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B182">
         <v>3202</v>
@@ -18183,7 +16049,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="B183">
         <v>3203</v>
@@ -18191,7 +16057,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B184">
         <v>3204</v>
@@ -18199,7 +16065,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="B185">
         <v>3206</v>
@@ -18207,7 +16073,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B186">
         <v>3207</v>
@@ -18215,7 +16081,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="B187">
         <v>3207</v>
@@ -18223,7 +16089,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="B188">
         <v>3210</v>
@@ -18231,7 +16097,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="B189">
         <v>3212</v>
@@ -18239,7 +16105,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="B190">
         <v>3214</v>
@@ -18247,7 +16113,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B191">
         <v>3216</v>
@@ -18255,7 +16121,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="B192">
         <v>3217</v>
@@ -18263,7 +16129,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B193">
         <v>3218</v>
@@ -18271,7 +16137,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="B194">
         <v>3217</v>
@@ -18311,7 +16177,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="B199">
         <v>3218</v>
@@ -18319,7 +16185,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B200">
         <v>3220</v>
@@ -18327,7 +16193,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="B201">
         <v>3219</v>
@@ -18335,7 +16201,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B202">
         <v>3220</v>
@@ -18343,7 +16209,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="B203">
         <v>3221</v>
@@ -18351,7 +16217,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="B204">
         <v>3221</v>
@@ -18359,7 +16225,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="B205">
         <v>3221</v>
@@ -18367,7 +16233,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="B206">
         <v>3224</v>
@@ -18375,7 +16241,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="B207">
         <v>3228</v>
@@ -18383,7 +16249,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="B208">
         <v>3225</v>
@@ -18391,7 +16257,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B209">
         <v>3226</v>
@@ -18399,7 +16265,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="B210">
         <v>3226</v>
@@ -18407,7 +16273,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B211">
         <v>3226</v>
@@ -18447,7 +16313,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B216">
         <v>3227</v>
@@ -18455,7 +16321,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="B217">
         <v>3229</v>
@@ -18463,7 +16329,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B218">
         <v>3229</v>
@@ -18471,7 +16337,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="B219">
         <v>3229</v>
@@ -18479,7 +16345,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="B220">
         <v>3232</v>
@@ -18487,7 +16353,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="B221">
         <v>3233</v>
@@ -18495,7 +16361,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B222">
         <v>3233</v>
@@ -18503,7 +16369,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="B223">
         <v>3234</v>
@@ -18511,7 +16377,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="B224">
         <v>3235</v>
@@ -18519,7 +16385,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B225">
         <v>3233</v>
@@ -18527,7 +16393,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="B226">
         <v>3233</v>
@@ -18535,490 +16401,10 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B227">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>451</v>
-      </c>
-      <c r="B228">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>452</v>
-      </c>
-      <c r="B229">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>453</v>
-      </c>
-      <c r="B230">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>454</v>
-      </c>
-      <c r="B231">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>455</v>
-      </c>
-      <c r="B232">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>533</v>
-      </c>
-      <c r="B233">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>481</v>
-      </c>
-      <c r="B234">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>534</v>
-      </c>
-      <c r="B235">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>482</v>
-      </c>
-      <c r="B236">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>508</v>
-      </c>
-      <c r="B237">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>509</v>
-      </c>
-      <c r="B238">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>510</v>
-      </c>
-      <c r="B239">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>511</v>
-      </c>
-      <c r="B240">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>483</v>
-      </c>
-      <c r="B241">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>535</v>
-      </c>
-      <c r="B242">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>484</v>
-      </c>
-      <c r="B243">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>536</v>
-      </c>
-      <c r="B244">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>456</v>
-      </c>
-      <c r="B245">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>457</v>
-      </c>
-      <c r="B246">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>458</v>
-      </c>
-      <c r="B247">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>459</v>
-      </c>
-      <c r="B248">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>537</v>
-      </c>
-      <c r="B249">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>485</v>
-      </c>
-      <c r="B250">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>538</v>
-      </c>
-      <c r="B251">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>486</v>
-      </c>
-      <c r="B252">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>539</v>
-      </c>
-      <c r="B253">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>512</v>
-      </c>
-      <c r="B254">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>513</v>
-      </c>
-      <c r="B255">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>514</v>
-      </c>
-      <c r="B256">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>515</v>
-      </c>
-      <c r="B257">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>540</v>
-      </c>
-      <c r="B258">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>487</v>
-      </c>
-      <c r="B259">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>541</v>
-      </c>
-      <c r="B260">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>488</v>
-      </c>
-      <c r="B261">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>460</v>
-      </c>
-      <c r="B262">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>461</v>
-      </c>
-      <c r="B263">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>462</v>
-      </c>
-      <c r="B264">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>463</v>
-      </c>
-      <c r="B265">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>489</v>
-      </c>
-      <c r="B266">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>542</v>
-      </c>
-      <c r="B267">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>490</v>
-      </c>
-      <c r="B268">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>543</v>
-      </c>
-      <c r="B269">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>516</v>
-      </c>
-      <c r="B270">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>545</v>
-      </c>
-      <c r="B271">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>547</v>
-      </c>
-      <c r="B272">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>549</v>
-      </c>
-      <c r="B273">
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>551</v>
-      </c>
-      <c r="B274">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>553</v>
-      </c>
-      <c r="B275">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>555</v>
-      </c>
-      <c r="B276">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>557</v>
-      </c>
-      <c r="B277">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>559</v>
-      </c>
-      <c r="B278">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>561</v>
-      </c>
-      <c r="B279">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>563</v>
-      </c>
-      <c r="B280">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>565</v>
-      </c>
-      <c r="B281">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>567</v>
-      </c>
-      <c r="B282">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>569</v>
-      </c>
-      <c r="B283">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>571</v>
-      </c>
-      <c r="B284">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>573</v>
-      </c>
-      <c r="B285">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>575</v>
-      </c>
-      <c r="B286">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>577</v>
-      </c>
-      <c r="B287">
-        <v>3245</v>
+        <v>2544</v>
       </c>
     </row>
   </sheetData>
@@ -19030,7 +16416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19045,7 +16431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19058,7 +16444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19071,7 +16457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB74AFD5-421D-4B75-8058-ECF271E9A63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB17228-243F-4536-81C6-4F406DC4EB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$227</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$286</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$227</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$227</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$289</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$288</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$289</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$289</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="582">
   <si>
     <t>date</t>
   </si>
@@ -1604,6 +1604,198 @@
   </si>
   <si>
     <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>09/03/2020</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>09/06/2020</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>09/20/2020</t>
+  </si>
+  <si>
+    <t>09/21/2020</t>
+  </si>
+  <si>
+    <t>09/22/2020</t>
+  </si>
+  <si>
+    <t>09/23/2020</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>10/08/2020</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/24/2020</t>
+  </si>
+  <si>
+    <t>10/25/2020</t>
+  </si>
+  <si>
+    <t>10/26/2020</t>
+  </si>
+  <si>
+    <t>10/27/2020</t>
+  </si>
+  <si>
+    <t>09/09/2020</t>
+  </si>
+  <si>
+    <t>09/11/2020</t>
+  </si>
+  <si>
+    <t>09/16/2020</t>
+  </si>
+  <si>
+    <t>09/18/2020</t>
+  </si>
+  <si>
+    <t>09/25/2020</t>
+  </si>
+  <si>
+    <t>09/27/2020</t>
+  </si>
+  <si>
+    <t>10/04/2020</t>
+  </si>
+  <si>
+    <t>10/06/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
+  <si>
+    <t>10/13/2020</t>
+  </si>
+  <si>
+    <t>10/20/2020</t>
+  </si>
+  <si>
+    <t>10/22/2020</t>
+  </si>
+  <si>
+    <t>10/29/2020</t>
+  </si>
+  <si>
+    <t>10/31/2020</t>
+  </si>
+  <si>
+    <t>09/08/2020</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>09/17/2020</t>
+  </si>
+  <si>
+    <t>09/19/2020</t>
+  </si>
+  <si>
+    <t>09/24/2020</t>
+  </si>
+  <si>
+    <t>09/26/2020</t>
+  </si>
+  <si>
+    <t>09/28/2020</t>
+  </si>
+  <si>
+    <t>10/03/2020</t>
+  </si>
+  <si>
+    <t>10/05/2020</t>
+  </si>
+  <si>
+    <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>10/14/2020</t>
+  </si>
+  <si>
+    <t>10/19/2020</t>
+  </si>
+  <si>
+    <t>10/21/2020</t>
+  </si>
+  <si>
+    <t>10/23/2020</t>
+  </si>
+  <si>
+    <t>10/28/2020</t>
+  </si>
+  <si>
+    <t>10/30/2020</t>
+  </si>
+  <si>
+    <t>09/12/2020</t>
+  </si>
+  <si>
+    <t>09/13/2020</t>
+  </si>
+  <si>
+    <t>09/14/2020</t>
+  </si>
+  <si>
+    <t>09/15/2020</t>
+  </si>
+  <si>
+    <t>09/29/2020</t>
+  </si>
+  <si>
+    <t>09/30/2020</t>
+  </si>
+  <si>
+    <t>10/01/2020</t>
+  </si>
+  <si>
+    <t>10/02/2020</t>
+  </si>
+  <si>
+    <t>10/15/2020</t>
+  </si>
+  <si>
+    <t>10/16/2020</t>
+  </si>
+  <si>
+    <t>10/17/2020</t>
+  </si>
+  <si>
+    <t>10/18/2020</t>
+  </si>
+  <si>
+    <t>11/01/2020</t>
+  </si>
+  <si>
+    <t>11/02/2020</t>
+  </si>
+  <si>
+    <t>11/03/2020</t>
   </si>
 </sst>
 </file>
@@ -1715,9 +1907,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$227</c:f>
+              <c:f>'Cases Data'!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="226"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2395,16 +2587,202 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>2020-09-02</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2020-09-03</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2020-09-04</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2020-09-05</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2020-09-06</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2020-09-07</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2020-09-08</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2020-09-09</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2020-09-10</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2020-09-11</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2020-09-12</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2020-09-13</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2020-09-14</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2020-09-15</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2020-09-16</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2020-09-17</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2020-09-18</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2020-09-19</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2020-09-20</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2020-09-21</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2020-09-22</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2020-09-23</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2020-09-24</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2020-09-25</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2020-09-26</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2020-09-27</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2020-09-28</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2020-09-29</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2020-09-30</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2020-10-01</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2020-10-02</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2020-10-03</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2020-10-04</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2020-10-05</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2020-10-06</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2020-10-07</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2020-10-08</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2020-10-09</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2020-10-10</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2020-10-11</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2020-10-12</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2020-10-13</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2020-10-14</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2020-10-15</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2020-10-16</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2020-10-17</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2020-10-18</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2020-10-19</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$227</c:f>
+              <c:f>'Cases Data'!$B$2:$B$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="226"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3081,7 +3459,193 @@
                   <c:v>6089504</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>5004286</c:v>
+                  <c:v>6121948</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6168342</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6220446</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6262700</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>6292699</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6317865</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>6346806</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>6380138</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>6418198</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>6465766</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>6504870</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>6538213</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>6575100</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>6614317</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>6653585</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>6698895</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>6747782</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>6789593</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>6825949</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>6880899</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>6918290</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>6959841</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>7005043</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>7059624</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>7102321</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7139619</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>7176979</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>7220676</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>7262734</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>7309152</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>7362563</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>7410342</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>7445405</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>7507699</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>7550563</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>7603547</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>7659922</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>7718881</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>7770467</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>7815233</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>7863239</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>7917598</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>7977470</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>8042797</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>8113261</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>8166022</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>8213904</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>8279279</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>8339867</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>8404058</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>8479122</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8564207</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>8642963</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>8702675</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>8777118</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8851546</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8933448</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9024176</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9123960</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9208245</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9282481</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>9376123</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>9468722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3213,9 +3777,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$227</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="226"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -3893,16 +4457,202 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>2020-09-02</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2020-09-03</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2020-09-04</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2020-09-05</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2020-09-06</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2020-09-07</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2020-09-08</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2020-09-09</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2020-09-10</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2020-09-11</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2020-09-12</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2020-09-13</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2020-09-14</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2020-09-15</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2020-09-16</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2020-09-17</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2020-09-18</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2020-09-19</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2020-09-20</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2020-09-21</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2020-09-22</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2020-09-23</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2020-09-24</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2020-09-25</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2020-09-26</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2020-09-27</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2020-09-28</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2020-09-29</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2020-09-30</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2020-10-01</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2020-10-02</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2020-10-03</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2020-10-04</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2020-10-05</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2020-10-06</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2020-10-07</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2020-10-08</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2020-10-09</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2020-10-10</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2020-10-11</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2020-10-12</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2020-10-13</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2020-10-14</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2020-10-15</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2020-10-16</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2020-10-17</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2020-10-18</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2020-10-19</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$227</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="226"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4579,7 +5329,193 @@
                   <c:v>184128</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>164119</c:v>
+                  <c:v>185196</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>186269</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>187242</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>187945</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>188343</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>188606</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>189059</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>190216</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>191119</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>192335</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>193024</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>193419</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>193866</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>195138</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>196116</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>196947</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>197885</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>198549</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>198759</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>199188</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>200125</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>201211</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>202086</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>202931</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>203693</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>203958</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>204304</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>205224</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>206191</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>207034</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>207891</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>208592</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>208920</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>209340</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>210060</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>211047</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>211965</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>212875</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>213459</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>213876</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>214222</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>215045</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>216050</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>216842</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>217718</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>218393</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>218775</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>219290</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>220218</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>221421</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>222240</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>223157</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>224027</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>224359</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>224894</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>225873</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>226884</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>227887</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>228852</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>229688</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>230105</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>230638</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>231765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4711,9 +5647,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$286</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5568,16 +6504,22 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$286</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6428,10 +7370,16 @@
                   <c:v>46688</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>47374</c:v>
+                  <c:v>47375</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>47502</c:v>
+                  <c:v>47520</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>48470</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>50340</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6573,9 +7521,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$227</c:f>
+              <c:f>'County Counts'!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="226"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -7253,16 +8201,202 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>09/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>09/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>09/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>09/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>09/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>09/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>09/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>09/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>09/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>09/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>09/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>09/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>09/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>09/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>09/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>09/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>09/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>09/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>09/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>09/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>09/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>09/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>09/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>09/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>09/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>09/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>09/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>09/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>09/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>10/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>10/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>10/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>10/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>10/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>10/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>10/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>10/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>10/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>10/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>10/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>10/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>10/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>10/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>10/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>10/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>10/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>11/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>11/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$227</c:f>
+              <c:f>'County Counts'!$B$2:$B$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="226"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7939,7 +9073,193 @@
                   <c:v>3233</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2544</c:v>
+                  <c:v>3234</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3234</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3234</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3232</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3235</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3235</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3248</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8223,9 +9543,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B227" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B227" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B289" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B289" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -8237,9 +9557,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B227" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B227" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B289" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B289" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -8251,9 +9571,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B286" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B288" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B288" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B288">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -8265,9 +9585,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B227" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B227" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B289" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B289" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -8599,9 +9919,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B227"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -10424,7 +11744,503 @@
         <v>393</v>
       </c>
       <c r="B227">
-        <v>5004286</v>
+        <v>6121948</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>394</v>
+      </c>
+      <c r="B228">
+        <v>6168342</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>395</v>
+      </c>
+      <c r="B229">
+        <v>6220446</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>396</v>
+      </c>
+      <c r="B230">
+        <v>6262700</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>397</v>
+      </c>
+      <c r="B231">
+        <v>6292699</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>398</v>
+      </c>
+      <c r="B232">
+        <v>6317865</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>399</v>
+      </c>
+      <c r="B233">
+        <v>6346806</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>400</v>
+      </c>
+      <c r="B234">
+        <v>6380138</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>401</v>
+      </c>
+      <c r="B235">
+        <v>6418198</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>402</v>
+      </c>
+      <c r="B236">
+        <v>6465766</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>403</v>
+      </c>
+      <c r="B237">
+        <v>6504870</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>404</v>
+      </c>
+      <c r="B238">
+        <v>6538213</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>405</v>
+      </c>
+      <c r="B239">
+        <v>6575100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>406</v>
+      </c>
+      <c r="B240">
+        <v>6614317</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>407</v>
+      </c>
+      <c r="B241">
+        <v>6653585</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>408</v>
+      </c>
+      <c r="B242">
+        <v>6698895</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>411</v>
+      </c>
+      <c r="B243">
+        <v>6747782</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>410</v>
+      </c>
+      <c r="B244">
+        <v>6789593</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>409</v>
+      </c>
+      <c r="B245">
+        <v>6825949</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>412</v>
+      </c>
+      <c r="B246">
+        <v>6880899</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>413</v>
+      </c>
+      <c r="B247">
+        <v>6918290</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>414</v>
+      </c>
+      <c r="B248">
+        <v>6959841</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>415</v>
+      </c>
+      <c r="B249">
+        <v>7005043</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>416</v>
+      </c>
+      <c r="B250">
+        <v>7059624</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>417</v>
+      </c>
+      <c r="B251">
+        <v>7102321</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>418</v>
+      </c>
+      <c r="B252">
+        <v>7139619</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>419</v>
+      </c>
+      <c r="B253">
+        <v>7176979</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>420</v>
+      </c>
+      <c r="B254">
+        <v>7220676</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>421</v>
+      </c>
+      <c r="B255">
+        <v>7262734</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>422</v>
+      </c>
+      <c r="B256">
+        <v>7309152</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>423</v>
+      </c>
+      <c r="B257">
+        <v>7362563</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>424</v>
+      </c>
+      <c r="B258">
+        <v>7410342</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>425</v>
+      </c>
+      <c r="B259">
+        <v>7445405</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>426</v>
+      </c>
+      <c r="B260">
+        <v>7507699</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>427</v>
+      </c>
+      <c r="B261">
+        <v>7550563</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>428</v>
+      </c>
+      <c r="B262">
+        <v>7603547</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>429</v>
+      </c>
+      <c r="B263">
+        <v>7659922</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>430</v>
+      </c>
+      <c r="B264">
+        <v>7718881</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>431</v>
+      </c>
+      <c r="B265">
+        <v>7770467</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>432</v>
+      </c>
+      <c r="B266">
+        <v>7815233</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>433</v>
+      </c>
+      <c r="B267">
+        <v>7863239</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>434</v>
+      </c>
+      <c r="B268">
+        <v>7917598</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>436</v>
+      </c>
+      <c r="B269">
+        <v>7977470</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>435</v>
+      </c>
+      <c r="B270">
+        <v>8042797</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>501</v>
+      </c>
+      <c r="B271">
+        <v>8113261</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>502</v>
+      </c>
+      <c r="B272">
+        <v>8166022</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>503</v>
+      </c>
+      <c r="B273">
+        <v>8213904</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>504</v>
+      </c>
+      <c r="B274">
+        <v>8279279</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>505</v>
+      </c>
+      <c r="B275">
+        <v>8339867</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>506</v>
+      </c>
+      <c r="B276">
+        <v>8404058</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>507</v>
+      </c>
+      <c r="B277">
+        <v>8479122</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>508</v>
+      </c>
+      <c r="B278">
+        <v>8564207</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>509</v>
+      </c>
+      <c r="B279">
+        <v>8642963</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>510</v>
+      </c>
+      <c r="B280">
+        <v>8702675</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>511</v>
+      </c>
+      <c r="B281">
+        <v>8777118</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>512</v>
+      </c>
+      <c r="B282">
+        <v>8851546</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>513</v>
+      </c>
+      <c r="B283">
+        <v>8933448</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>514</v>
+      </c>
+      <c r="B284">
+        <v>9024176</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>515</v>
+      </c>
+      <c r="B285">
+        <v>9123960</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>516</v>
+      </c>
+      <c r="B286">
+        <v>9208245</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>517</v>
+      </c>
+      <c r="B287">
+        <v>9282481</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>518</v>
+      </c>
+      <c r="B288">
+        <v>9376123</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>519</v>
+      </c>
+      <c r="B289">
+        <v>9468722</v>
       </c>
     </row>
   </sheetData>
@@ -10437,7 +12253,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B227"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -12260,7 +14076,503 @@
         <v>393</v>
       </c>
       <c r="B227">
-        <v>164119</v>
+        <v>185196</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>394</v>
+      </c>
+      <c r="B228">
+        <v>186269</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>395</v>
+      </c>
+      <c r="B229">
+        <v>187242</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>396</v>
+      </c>
+      <c r="B230">
+        <v>187945</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>397</v>
+      </c>
+      <c r="B231">
+        <v>188343</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>398</v>
+      </c>
+      <c r="B232">
+        <v>188606</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>399</v>
+      </c>
+      <c r="B233">
+        <v>189059</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>400</v>
+      </c>
+      <c r="B234">
+        <v>190216</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>401</v>
+      </c>
+      <c r="B235">
+        <v>191119</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>402</v>
+      </c>
+      <c r="B236">
+        <v>192335</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>403</v>
+      </c>
+      <c r="B237">
+        <v>193024</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>404</v>
+      </c>
+      <c r="B238">
+        <v>193419</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>405</v>
+      </c>
+      <c r="B239">
+        <v>193866</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>406</v>
+      </c>
+      <c r="B240">
+        <v>195138</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>407</v>
+      </c>
+      <c r="B241">
+        <v>196116</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>408</v>
+      </c>
+      <c r="B242">
+        <v>196947</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>411</v>
+      </c>
+      <c r="B243">
+        <v>197885</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>410</v>
+      </c>
+      <c r="B244">
+        <v>198549</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>409</v>
+      </c>
+      <c r="B245">
+        <v>198759</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>412</v>
+      </c>
+      <c r="B246">
+        <v>199188</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>413</v>
+      </c>
+      <c r="B247">
+        <v>200125</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>414</v>
+      </c>
+      <c r="B248">
+        <v>201211</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>415</v>
+      </c>
+      <c r="B249">
+        <v>202086</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>416</v>
+      </c>
+      <c r="B250">
+        <v>202931</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>417</v>
+      </c>
+      <c r="B251">
+        <v>203693</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>418</v>
+      </c>
+      <c r="B252">
+        <v>203958</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>419</v>
+      </c>
+      <c r="B253">
+        <v>204304</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>420</v>
+      </c>
+      <c r="B254">
+        <v>205224</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>421</v>
+      </c>
+      <c r="B255">
+        <v>206191</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>422</v>
+      </c>
+      <c r="B256">
+        <v>207034</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>423</v>
+      </c>
+      <c r="B257">
+        <v>207891</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>424</v>
+      </c>
+      <c r="B258">
+        <v>208592</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>425</v>
+      </c>
+      <c r="B259">
+        <v>208920</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>426</v>
+      </c>
+      <c r="B260">
+        <v>209340</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>427</v>
+      </c>
+      <c r="B261">
+        <v>210060</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>428</v>
+      </c>
+      <c r="B262">
+        <v>211047</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>429</v>
+      </c>
+      <c r="B263">
+        <v>211965</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>430</v>
+      </c>
+      <c r="B264">
+        <v>212875</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>431</v>
+      </c>
+      <c r="B265">
+        <v>213459</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>432</v>
+      </c>
+      <c r="B266">
+        <v>213876</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>433</v>
+      </c>
+      <c r="B267">
+        <v>214222</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>434</v>
+      </c>
+      <c r="B268">
+        <v>215045</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>436</v>
+      </c>
+      <c r="B269">
+        <v>216050</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>435</v>
+      </c>
+      <c r="B270">
+        <v>216842</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>501</v>
+      </c>
+      <c r="B271">
+        <v>217718</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>502</v>
+      </c>
+      <c r="B272">
+        <v>218393</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>503</v>
+      </c>
+      <c r="B273">
+        <v>218775</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>504</v>
+      </c>
+      <c r="B274">
+        <v>219290</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>505</v>
+      </c>
+      <c r="B275">
+        <v>220218</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>506</v>
+      </c>
+      <c r="B276">
+        <v>221421</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>507</v>
+      </c>
+      <c r="B277">
+        <v>222240</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>508</v>
+      </c>
+      <c r="B278">
+        <v>223157</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>509</v>
+      </c>
+      <c r="B279">
+        <v>224027</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>510</v>
+      </c>
+      <c r="B280">
+        <v>224359</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>511</v>
+      </c>
+      <c r="B281">
+        <v>224894</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>512</v>
+      </c>
+      <c r="B282">
+        <v>225873</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>513</v>
+      </c>
+      <c r="B283">
+        <v>226884</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>514</v>
+      </c>
+      <c r="B284">
+        <v>227887</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>515</v>
+      </c>
+      <c r="B285">
+        <v>228852</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>516</v>
+      </c>
+      <c r="B286">
+        <v>229688</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>517</v>
+      </c>
+      <c r="B287">
+        <v>230105</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>518</v>
+      </c>
+      <c r="B288">
+        <v>230638</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>519</v>
+      </c>
+      <c r="B289">
+        <v>231765</v>
       </c>
     </row>
   </sheetData>
@@ -12273,7 +14585,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -14560,7 +16872,7 @@
         <v>516</v>
       </c>
       <c r="B285">
-        <v>47374</v>
+        <v>47375</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -14568,7 +16880,23 @@
         <v>517</v>
       </c>
       <c r="B286">
-        <v>47502</v>
+        <v>47520</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>518</v>
+      </c>
+      <c r="B287">
+        <v>48470</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>519</v>
+      </c>
+      <c r="B288">
+        <v>50340</v>
       </c>
     </row>
   </sheetData>
@@ -14581,7 +16909,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B227"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -16404,7 +18732,503 @@
         <v>467</v>
       </c>
       <c r="B227">
-        <v>2544</v>
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>520</v>
+      </c>
+      <c r="B228">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>521</v>
+      </c>
+      <c r="B229">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>522</v>
+      </c>
+      <c r="B230">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>523</v>
+      </c>
+      <c r="B231">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>524</v>
+      </c>
+      <c r="B232">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>551</v>
+      </c>
+      <c r="B233">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>537</v>
+      </c>
+      <c r="B234">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>552</v>
+      </c>
+      <c r="B235">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>538</v>
+      </c>
+      <c r="B236">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>567</v>
+      </c>
+      <c r="B237">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>568</v>
+      </c>
+      <c r="B238">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>569</v>
+      </c>
+      <c r="B239">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>570</v>
+      </c>
+      <c r="B240">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>539</v>
+      </c>
+      <c r="B241">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>553</v>
+      </c>
+      <c r="B242">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>540</v>
+      </c>
+      <c r="B243">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>554</v>
+      </c>
+      <c r="B244">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>525</v>
+      </c>
+      <c r="B245">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>526</v>
+      </c>
+      <c r="B246">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>527</v>
+      </c>
+      <c r="B247">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>528</v>
+      </c>
+      <c r="B248">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>555</v>
+      </c>
+      <c r="B249">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>541</v>
+      </c>
+      <c r="B250">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>556</v>
+      </c>
+      <c r="B251">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>542</v>
+      </c>
+      <c r="B252">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>557</v>
+      </c>
+      <c r="B253">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>571</v>
+      </c>
+      <c r="B254">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>572</v>
+      </c>
+      <c r="B255">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>573</v>
+      </c>
+      <c r="B256">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>574</v>
+      </c>
+      <c r="B257">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>558</v>
+      </c>
+      <c r="B258">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>543</v>
+      </c>
+      <c r="B259">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>559</v>
+      </c>
+      <c r="B260">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>544</v>
+      </c>
+      <c r="B261">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>529</v>
+      </c>
+      <c r="B262">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>530</v>
+      </c>
+      <c r="B263">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>531</v>
+      </c>
+      <c r="B264">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>532</v>
+      </c>
+      <c r="B265">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>545</v>
+      </c>
+      <c r="B266">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>560</v>
+      </c>
+      <c r="B267">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>546</v>
+      </c>
+      <c r="B268">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>561</v>
+      </c>
+      <c r="B269">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>575</v>
+      </c>
+      <c r="B270">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>576</v>
+      </c>
+      <c r="B271">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>577</v>
+      </c>
+      <c r="B272">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>578</v>
+      </c>
+      <c r="B273">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>562</v>
+      </c>
+      <c r="B274">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>547</v>
+      </c>
+      <c r="B275">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>563</v>
+      </c>
+      <c r="B276">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>548</v>
+      </c>
+      <c r="B277">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>564</v>
+      </c>
+      <c r="B278">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>533</v>
+      </c>
+      <c r="B279">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>534</v>
+      </c>
+      <c r="B280">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>535</v>
+      </c>
+      <c r="B281">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>536</v>
+      </c>
+      <c r="B282">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>565</v>
+      </c>
+      <c r="B283">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>549</v>
+      </c>
+      <c r="B284">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>566</v>
+      </c>
+      <c r="B285">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>550</v>
+      </c>
+      <c r="B286">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>579</v>
+      </c>
+      <c r="B287">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>580</v>
+      </c>
+      <c r="B288">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>581</v>
+      </c>
+      <c r="B289">
+        <v>3243</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB17228-243F-4536-81C6-4F406DC4EB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A185D-6DD6-4D43-9ECD-4F6E424750F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$289</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$288</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$289</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$289</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$290</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$289</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$290</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$290</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="584">
   <si>
     <t>date</t>
   </si>
@@ -1796,6 +1796,12 @@
   </si>
   <si>
     <t>11/03/2020</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
   </si>
 </sst>
 </file>
@@ -1907,9 +1913,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$289</c:f>
+              <c:f>'Cases Data'!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2773,16 +2779,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$289</c:f>
+              <c:f>'Cases Data'!$B$2:$B$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3646,6 +3655,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>9468722</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>9576594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3777,9 +3789,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$289</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4643,16 +4655,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$289</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5516,6 +5531,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>231765</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>233373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5647,9 +5665,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$288</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6510,16 +6528,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$288</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7380,6 +7401,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>50340</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>52049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7521,9 +7545,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$289</c:f>
+              <c:f>'County Counts'!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8387,16 +8411,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>11/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>11/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$289</c:f>
+              <c:f>'County Counts'!$B$2:$B$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9260,6 +9287,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9543,9 +9573,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B289" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B289" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B290" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B290" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B290">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9557,9 +9587,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B289" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B289" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B290" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B290" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B290">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9571,9 +9601,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B288" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B288" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B289" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B289" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9585,9 +9615,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B289" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B289" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B290" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B290" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B290">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9919,7 +9949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12243,6 +12273,14 @@
         <v>9468722</v>
       </c>
     </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>582</v>
+      </c>
+      <c r="B290">
+        <v>9576594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12253,7 +12291,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14575,6 +14613,14 @@
         <v>231765</v>
       </c>
     </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>582</v>
+      </c>
+      <c r="B290">
+        <v>233373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14585,7 +14631,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16899,6 +16945,14 @@
         <v>50340</v>
       </c>
     </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>582</v>
+      </c>
+      <c r="B289">
+        <v>52049</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16909,7 +16963,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -19229,6 +19283,14 @@
       </c>
       <c r="B289">
         <v>3243</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>583</v>
+      </c>
+      <c r="B290">
+        <v>3245</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A185D-6DD6-4D43-9ECD-4F6E424750F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09516699-90E0-4790-8A53-ED8E0C6694AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -9951,7 +9951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -19346,7 +19346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09516699-90E0-4790-8A53-ED8E0C6694AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAFF147-355B-416C-8E9F-2EF83DAB94CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$290</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$289</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$290</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$290</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$291</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$290</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$291</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$291</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="586">
   <si>
     <t>date</t>
   </si>
@@ -1802,6 +1802,12 @@
   </si>
   <si>
     <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
   </si>
 </sst>
 </file>
@@ -1913,9 +1919,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$290</c:f>
+              <c:f>'Cases Data'!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2782,16 +2788,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$290</c:f>
+              <c:f>'Cases Data'!$B$2:$B$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3658,6 +3667,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>9576594</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>9698098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3789,9 +3801,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$290</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4658,16 +4670,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$290</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5534,6 +5549,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>233373</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>234476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5665,9 +5683,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$289</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6531,16 +6549,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$289</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7404,6 +7425,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>52049</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>53322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7545,9 +7569,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$290</c:f>
+              <c:f>'County Counts'!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8414,16 +8438,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>11/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>11/05/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$290</c:f>
+              <c:f>'County Counts'!$B$2:$B$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9290,6 +9317,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9573,9 +9603,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B290" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B290" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B291" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B291" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9587,9 +9617,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B290" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B290" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B291" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B291" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9601,9 +9631,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B289" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B289" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B290" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B290" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B290">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9615,9 +9645,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B290" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B290" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B291" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B291" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9949,7 +9979,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12281,6 +12311,14 @@
         <v>9576594</v>
       </c>
     </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>584</v>
+      </c>
+      <c r="B291">
+        <v>9698098</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12291,7 +12329,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14621,6 +14659,14 @@
         <v>233373</v>
       </c>
     </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>584</v>
+      </c>
+      <c r="B291">
+        <v>234476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14631,7 +14677,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -16953,6 +16999,14 @@
         <v>52049</v>
       </c>
     </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>584</v>
+      </c>
+      <c r="B290">
+        <v>53322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16963,7 +17017,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0"/>
   </sheetViews>
@@ -19291,6 +19345,14 @@
       </c>
       <c r="B290">
         <v>3245</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>585</v>
+      </c>
+      <c r="B291">
+        <v>3244</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAFF147-355B-416C-8E9F-2EF83DAB94CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EDF5A3-4832-4BE9-AF98-E59B46CEE6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$291</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$290</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$291</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$291</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$292</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$291</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$292</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$292</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="588">
   <si>
     <t>date</t>
   </si>
@@ -1808,6 +1808,12 @@
   </si>
   <si>
     <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>11/06/2020</t>
   </si>
 </sst>
 </file>
@@ -1919,9 +1925,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$291</c:f>
+              <c:f>'Cases Data'!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2791,16 +2797,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$291</c:f>
+              <c:f>'Cases Data'!$B$2:$B$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3670,6 +3679,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>9698098</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>9830909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3801,9 +3813,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$291</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4673,16 +4685,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$291</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5552,6 +5567,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>234476</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>235715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5683,9 +5701,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$290</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6552,16 +6570,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$290</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7428,6 +7449,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>53322</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>54824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7569,9 +7593,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$291</c:f>
+              <c:f>'County Counts'!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8441,16 +8465,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>11/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>11/06/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$291</c:f>
+              <c:f>'County Counts'!$B$2:$B$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9320,6 +9347,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9603,9 +9633,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B291" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B291" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B292" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B292" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B292">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9617,9 +9647,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B291" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B291" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B292" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B292" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B292">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9631,9 +9661,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B290" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B290" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B291" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B291" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9645,9 +9675,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B291" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B291" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B292" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B292" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B292">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9979,7 +10009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12319,6 +12349,14 @@
         <v>9698098</v>
       </c>
     </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>586</v>
+      </c>
+      <c r="B292">
+        <v>9830909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12329,7 +12367,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B292"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14667,6 +14705,14 @@
         <v>234476</v>
       </c>
     </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>586</v>
+      </c>
+      <c r="B292">
+        <v>235715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14677,7 +14723,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -17007,6 +17053,14 @@
         <v>53322</v>
       </c>
     </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>586</v>
+      </c>
+      <c r="B291">
+        <v>54824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17017,9 +17071,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B292"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0"/>
+    <sheetView topLeftCell="A256" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19353,6 +19407,14 @@
       </c>
       <c r="B291">
         <v>3244</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>587</v>
+      </c>
+      <c r="B292">
+        <v>3243</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EDF5A3-4832-4BE9-AF98-E59B46CEE6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C225EC2-7140-4491-A3F7-ADD4D26A11B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$292</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$291</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$292</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$292</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$293</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$292</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$293</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$293</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="590">
   <si>
     <t>date</t>
   </si>
@@ -1814,6 +1814,12 @@
   </si>
   <si>
     <t>11/06/2020</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
   </si>
 </sst>
 </file>
@@ -1925,9 +1931,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$292</c:f>
+              <c:f>'Cases Data'!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2800,16 +2806,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$292</c:f>
+              <c:f>'Cases Data'!$B$2:$B$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3682,6 +3691,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>9830909</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>9957075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3813,9 +3825,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$292</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4688,16 +4700,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$292</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5570,6 +5585,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>235715</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>236722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5701,9 +5719,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$291</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6573,16 +6591,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$291</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7452,6 +7473,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>54824</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>55817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,9 +7617,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$292</c:f>
+              <c:f>'County Counts'!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8468,16 +8492,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>11/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>11/07/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$292</c:f>
+              <c:f>'County Counts'!$B$2:$B$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9350,6 +9377,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9633,9 +9663,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B292" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B292" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B292">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B293" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B293" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B293">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9647,9 +9677,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B292" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B292" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B292">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B293" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B293" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B293">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9661,9 +9691,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B291" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B291" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B292" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B292" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B292">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9675,9 +9705,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B292" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B292" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B292">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B293" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B293" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B293">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10009,7 +10039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B292"/>
+  <dimension ref="A1:B293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12357,6 +12387,14 @@
         <v>9830909</v>
       </c>
     </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>588</v>
+      </c>
+      <c r="B293">
+        <v>9957075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12367,7 +12405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B292"/>
+  <dimension ref="A1:B293"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14713,6 +14751,14 @@
         <v>235715</v>
       </c>
     </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>588</v>
+      </c>
+      <c r="B293">
+        <v>236722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14723,7 +14769,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B292"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -17061,6 +17107,14 @@
         <v>54824</v>
       </c>
     </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>588</v>
+      </c>
+      <c r="B292">
+        <v>55817</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17071,7 +17125,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B292"/>
+  <dimension ref="A1:B293"/>
   <sheetViews>
     <sheetView topLeftCell="A256" workbookViewId="0"/>
   </sheetViews>
@@ -19415,6 +19469,14 @@
       </c>
       <c r="B292">
         <v>3243</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>589</v>
+      </c>
+      <c r="B293">
+        <v>3244</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C225EC2-7140-4491-A3F7-ADD4D26A11B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD4029D-E111-4C8C-B23A-939ABB8BD3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$293</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$292</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$293</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$293</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$294</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$293</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$294</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$294</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="592">
   <si>
     <t>date</t>
   </si>
@@ -1820,6 +1820,12 @@
   </si>
   <si>
     <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>11/08/2020</t>
   </si>
 </sst>
 </file>
@@ -1931,9 +1937,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$293</c:f>
+              <c:f>'Cases Data'!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2809,16 +2815,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$293</c:f>
+              <c:f>'Cases Data'!$B$2:$B$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3694,6 +3703,9 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>9957075</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>10060708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3825,9 +3837,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$293</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4703,16 +4715,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$293</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5588,6 +5603,9 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>236722</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>237176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5719,9 +5737,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$292</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6594,16 +6612,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$292</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7476,6 +7497,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>55817</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>56768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7617,9 +7641,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$293</c:f>
+              <c:f>'County Counts'!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8495,16 +8519,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>11/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>11/08/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$293</c:f>
+              <c:f>'County Counts'!$B$2:$B$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9379,6 +9406,9 @@
                   <c:v>3243</c:v>
                 </c:pt>
                 <c:pt idx="291">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="292">
                   <c:v>3244</c:v>
                 </c:pt>
               </c:numCache>
@@ -9663,9 +9693,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B293" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B293" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B293">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B294" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B294" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B294">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9677,9 +9707,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B293" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B293" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B293">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B294" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B294" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B294">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9691,9 +9721,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B292" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B292" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B292">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B293" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B293" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B293">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9705,9 +9735,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B293" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B293" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B293">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B294" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B294" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B294">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10039,7 +10069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12395,6 +12425,14 @@
         <v>9957075</v>
       </c>
     </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>590</v>
+      </c>
+      <c r="B294">
+        <v>10060708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12405,7 +12443,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14759,6 +14797,14 @@
         <v>236722</v>
       </c>
     </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>590</v>
+      </c>
+      <c r="B294">
+        <v>237176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14769,7 +14815,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B292"/>
+  <dimension ref="A1:B293"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -17115,6 +17161,14 @@
         <v>55817</v>
       </c>
     </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>590</v>
+      </c>
+      <c r="B293">
+        <v>56768</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17125,7 +17179,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView topLeftCell="A256" workbookViewId="0"/>
   </sheetViews>
@@ -19476,6 +19530,14 @@
         <v>589</v>
       </c>
       <c r="B293">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>591</v>
+      </c>
+      <c r="B294">
         <v>3244</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD4029D-E111-4C8C-B23A-939ABB8BD3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C045E-9DA4-4CCA-B731-45A948A5CB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$294</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$293</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$294</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$294</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$295</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$294</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$295</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$295</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="594">
   <si>
     <t>date</t>
   </si>
@@ -1826,6 +1826,12 @@
   </si>
   <si>
     <t>11/08/2020</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
   </si>
 </sst>
 </file>
@@ -1937,9 +1943,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$294</c:f>
+              <c:f>'Cases Data'!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2818,16 +2824,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$294</c:f>
+              <c:f>'Cases Data'!$B$2:$B$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3706,6 +3715,9 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>10060708</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>10191261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3837,9 +3849,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$294</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4718,16 +4730,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$294</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5606,6 +5621,9 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>237176</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>237911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5737,9 +5755,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$293</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6615,16 +6633,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$293</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7496,10 +7517,13 @@
                   <c:v>54824</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>55817</c:v>
+                  <c:v>55840</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>56768</c:v>
+                  <c:v>56793</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>59275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7641,9 +7665,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$294</c:f>
+              <c:f>'County Counts'!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8522,16 +8546,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>11/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>11/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$294</c:f>
+              <c:f>'County Counts'!$B$2:$B$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9409,6 +9436,9 @@
                   <c:v>3244</c:v>
                 </c:pt>
                 <c:pt idx="292">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="293">
                   <c:v>3244</c:v>
                 </c:pt>
               </c:numCache>
@@ -9693,9 +9723,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B294" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B294" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B294">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B295" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B295" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B295">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9707,9 +9737,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B294" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B294" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B294">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B295" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B295" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B295">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9721,9 +9751,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B293" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B293" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B293">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B294" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B294" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B294">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9735,9 +9765,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B294" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B294" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B294">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B295" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B295" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B295">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10069,7 +10099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12433,6 +12463,14 @@
         <v>10060708</v>
       </c>
     </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>592</v>
+      </c>
+      <c r="B295">
+        <v>10191261</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12443,7 +12481,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView topLeftCell="A219" workbookViewId="0"/>
   </sheetViews>
@@ -14805,6 +14843,14 @@
         <v>237176</v>
       </c>
     </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>592</v>
+      </c>
+      <c r="B295">
+        <v>237911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14815,7 +14861,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -17158,7 +17204,7 @@
         <v>588</v>
       </c>
       <c r="B292">
-        <v>55817</v>
+        <v>55840</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -17166,7 +17212,15 @@
         <v>590</v>
       </c>
       <c r="B293">
-        <v>56768</v>
+        <v>56793</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>592</v>
+      </c>
+      <c r="B294">
+        <v>59275</v>
       </c>
     </row>
   </sheetData>
@@ -17179,7 +17233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView topLeftCell="A256" workbookViewId="0"/>
   </sheetViews>
@@ -19538,6 +19592,14 @@
         <v>591</v>
       </c>
       <c r="B294">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>593</v>
+      </c>
+      <c r="B295">
         <v>3244</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A54FC53-C7C8-47FE-8F6C-BDD71C2CD794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E8D0B-074D-4058-92D9-C51F8F149920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$298</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$297</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$298</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$298</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$299</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$298</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$299</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$299</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="602">
   <si>
     <t>date</t>
   </si>
@@ -1850,6 +1850,12 @@
   </si>
   <si>
     <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>11/13/2020</t>
   </si>
 </sst>
 </file>
@@ -1961,9 +1967,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$298</c:f>
+              <c:f>'Cases Data'!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2854,16 +2860,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$298</c:f>
+              <c:f>'Cases Data'!$B$2:$B$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3754,6 +3763,9 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>10637418</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>10825253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3885,9 +3897,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$298</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4778,16 +4790,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$298</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5678,6 +5693,9 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>241952</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>243570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5809,9 +5827,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$297</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6699,16 +6717,19 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$297</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7596,6 +7617,9 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>67096</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>68516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7737,9 +7761,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$298</c:f>
+              <c:f>'County Counts'!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8630,16 +8654,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>11/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>11/13/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$298</c:f>
+              <c:f>'County Counts'!$B$2:$B$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9529,6 +9556,9 @@
                   <c:v>3244</c:v>
                 </c:pt>
                 <c:pt idx="296">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="297">
                   <c:v>3244</c:v>
                 </c:pt>
               </c:numCache>
@@ -9813,9 +9843,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B298" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B298" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B299" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B299">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9827,9 +9857,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B298" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B298" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B299" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B299" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B299">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9841,9 +9871,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B297" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B297" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B297">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B298" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B298" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B298">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9855,9 +9885,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B298" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B298" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B299" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B299" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B299">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10189,9 +10219,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
+    <sheetView topLeftCell="A263" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -12585,6 +12615,14 @@
         <v>10637418</v>
       </c>
     </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>600</v>
+      </c>
+      <c r="B299">
+        <v>10825253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12595,9 +12633,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" workbookViewId="0"/>
+    <sheetView topLeftCell="A263" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14989,6 +15027,14 @@
         <v>241952</v>
       </c>
     </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>600</v>
+      </c>
+      <c r="B299">
+        <v>243570</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14999,7 +15045,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
     <sheetView topLeftCell="A221" workbookViewId="0"/>
   </sheetViews>
@@ -17385,6 +17431,14 @@
         <v>67096</v>
       </c>
     </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>600</v>
+      </c>
+      <c r="B298">
+        <v>68516</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17395,9 +17449,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0"/>
+    <sheetView topLeftCell="A263" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19786,6 +19840,14 @@
         <v>599</v>
       </c>
       <c r="B298">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>601</v>
+      </c>
+      <c r="B299">
         <v>3244</v>
       </c>
     </row>
@@ -19801,7 +19863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -19842,7 +19904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E8D0B-074D-4058-92D9-C51F8F149920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6813CC-1F43-4065-B494-01B819CCC1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$299</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$298</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$299</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$299</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$300</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$299</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$300</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$300</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -43,14 +43,14 @@
   <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USCaseCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USCaseCount" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USCaseCount&quot;" commandType="3"/>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\HOWE-HP_HOWEHP Covid19 USTotalDeaths.odc" keepAlive="1" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\HOWE-HP_HOWEHP Covid19 USTotalDeaths.odc" keepAlive="1" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=HOWE-HP\HOWEHP;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USTotalDeaths&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="604">
   <si>
     <t>date</t>
   </si>
@@ -1856,6 +1856,12 @@
   </si>
   <si>
     <t>11/13/2020</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>11/14/2020</t>
   </si>
 </sst>
 </file>
@@ -1967,9 +1973,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$299</c:f>
+              <c:f>'Cases Data'!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2863,16 +2869,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$299</c:f>
+              <c:f>'Cases Data'!$B$2:$B$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3765,7 +3774,10 @@
                   <c:v>10637418</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10825253</c:v>
+                  <c:v>10825255</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>10977635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3897,9 +3909,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$299</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4793,16 +4805,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$299</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5696,6 +5711,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>243570</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>244539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5827,9 +5845,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$298</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6720,16 +6738,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$298</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7620,6 +7641,9 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>68516</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>69455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7761,9 +7785,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$299</c:f>
+              <c:f>'County Counts'!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8657,16 +8681,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>11/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>11/14/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$299</c:f>
+              <c:f>'County Counts'!$B$2:$B$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9560,6 +9587,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9810,7 +9840,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" refreshOnLoad="1" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -9843,9 +9873,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B299" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B299">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B300" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B300" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B300">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9857,9 +9887,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B299" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B299" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B299">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B300" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B300" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B300">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9871,9 +9901,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B298" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B298" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B299" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B299" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B299">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9885,9 +9915,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B299" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B299" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B299">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B300" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B300" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B300">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10219,9 +10249,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B299"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -12620,7 +12650,15 @@
         <v>600</v>
       </c>
       <c r="B299">
-        <v>10825253</v>
+        <v>10825255</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>602</v>
+      </c>
+      <c r="B300">
+        <v>10977635</v>
       </c>
     </row>
   </sheetData>
@@ -12633,9 +12671,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B299"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15035,6 +15073,14 @@
         <v>243570</v>
       </c>
     </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>602</v>
+      </c>
+      <c r="B300">
+        <v>244539</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15045,9 +15091,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" workbookViewId="0"/>
+    <sheetView topLeftCell="A263" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17439,6 +17485,14 @@
         <v>68516</v>
       </c>
     </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>602</v>
+      </c>
+      <c r="B299">
+        <v>69455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17449,9 +17503,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B299"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0"/>
+    <sheetView topLeftCell="A264" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19849,6 +19903,14 @@
       </c>
       <c r="B299">
         <v>3244</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>603</v>
+      </c>
+      <c r="B300">
+        <v>3245</v>
       </c>
     </row>
   </sheetData>
@@ -19904,7 +19966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6813CC-1F43-4065-B494-01B819CCC1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0BA8B2-294C-4E71-8D9F-81F726369459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$300</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$299</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$300</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$300</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$301</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$300</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$301</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$301</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -40,7 +40,7 @@
   <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USBedCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USBedCount" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USBedCount&quot;" commandType="3"/>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USCaseCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USCaseCount" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USCaseCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USCaseCount" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USCaseCount&quot;" commandType="3"/>
   </connection>
   <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\HOWE-HP_HOWEHP Covid19 USTotalDeaths.odc" keepAlive="1" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="606">
   <si>
     <t>date</t>
   </si>
@@ -1862,6 +1862,12 @@
   </si>
   <si>
     <t>11/14/2020</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>11/15/2020</t>
   </si>
 </sst>
 </file>
@@ -1973,9 +1979,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$300</c:f>
+              <c:f>'Cases Data'!$A$2:$A$301</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2872,16 +2878,19 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$300</c:f>
+              <c:f>'Cases Data'!$B$2:$B$301</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3777,7 +3786,10 @@
                   <c:v>10825255</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10977635</c:v>
+                  <c:v>10977735</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>11112922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3909,9 +3921,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$300</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$301</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4808,16 +4820,19 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$300</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$301</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5714,6 +5729,9 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>244539</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>245148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5845,9 +5863,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$299</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6741,16 +6759,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$299</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7644,6 +7665,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>69455</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>69987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7785,9 +7809,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$300</c:f>
+              <c:f>'County Counts'!$A$2:$A$301</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8684,16 +8708,19 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>11/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>11/15/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$300</c:f>
+              <c:f>'County Counts'!$B$2:$B$301</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9590,6 +9617,9 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9829,7 +9859,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 USCaseCount" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 USCaseCount" refreshOnLoad="1" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -9873,9 +9903,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B300" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B300" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B300">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B301" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B301" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B301">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9887,9 +9917,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B300" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B300" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B300">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B301" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B301" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B301">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9901,9 +9931,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B299" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B299" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B299">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B300" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B300" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B300">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9915,9 +9945,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B300" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B300" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B300">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B301" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B301" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B301">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10249,9 +10279,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -12658,7 +12688,15 @@
         <v>602</v>
       </c>
       <c r="B300">
-        <v>10977635</v>
+        <v>10977735</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>604</v>
+      </c>
+      <c r="B301">
+        <v>11112922</v>
       </c>
     </row>
   </sheetData>
@@ -12671,9 +12709,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A265" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15081,6 +15119,14 @@
         <v>244539</v>
       </c>
     </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>604</v>
+      </c>
+      <c r="B301">
+        <v>245148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15091,9 +15137,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B299"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0"/>
+    <sheetView topLeftCell="A264" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17493,6 +17539,14 @@
         <v>69455</v>
       </c>
     </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>604</v>
+      </c>
+      <c r="B300">
+        <v>69987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17503,9 +17557,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0"/>
+    <sheetView topLeftCell="A265" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19911,6 +19965,14 @@
       </c>
       <c r="B300">
         <v>3245</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>605</v>
+      </c>
+      <c r="B301">
+        <v>3246</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0BA8B2-294C-4E71-8D9F-81F726369459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE4B5A-F46E-4024-8ACB-0E01BCBE3E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$301</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$300</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$301</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$301</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$303</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$302</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$303</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$303</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -34,10 +34,10 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CountyCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 CountyCount" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CountyCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 CountyCount" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;CountyCount&quot;" commandType="3"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USBedCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USBedCount" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USBedCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USBedCount" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USBedCount&quot;" commandType="3"/>
   </connection>
   <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USCaseCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USCaseCount" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="610">
   <si>
     <t>date</t>
   </si>
@@ -943,6 +943,21 @@
     <t>2020-11-10</t>
   </si>
   <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
     <t>Deaths</t>
   </si>
   <si>
@@ -1840,34 +1855,31 @@
     <t>11/10/2020</t>
   </si>
   <si>
-    <t>2020-11-11</t>
-  </si>
-  <si>
-    <t>2020-11-12</t>
-  </si>
-  <si>
     <t>11/11/2020</t>
   </si>
   <si>
     <t>11/12/2020</t>
   </si>
   <si>
-    <t>2020-11-13</t>
-  </si>
-  <si>
     <t>11/13/2020</t>
   </si>
   <si>
-    <t>2020-11-14</t>
-  </si>
-  <si>
     <t>11/14/2020</t>
   </si>
   <si>
-    <t>2020-11-15</t>
-  </si>
-  <si>
     <t>11/15/2020</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>11/17/2020</t>
+  </si>
+  <si>
+    <t>11/16/2020</t>
   </si>
 </sst>
 </file>
@@ -1979,9 +1991,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$301</c:f>
+              <c:f>'Cases Data'!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="300"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2881,16 +2893,22 @@
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$301</c:f>
+              <c:f>'Cases Data'!$B$2:$B$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="300"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3783,13 +3801,19 @@
                   <c:v>10637418</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10825255</c:v>
+                  <c:v>10818969</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10977735</c:v>
+                  <c:v>10978090</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11112922</c:v>
+                  <c:v>11113277</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>11279503</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>11439060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,9 +3945,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$301</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="300"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4823,16 +4847,22 @@
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$301</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="300"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5725,13 +5755,19 @@
                   <c:v>241952</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>243570</c:v>
+                  <c:v>243336</c:v>
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>244539</c:v>
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>245148</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>245937</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>247511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5863,9 +5899,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$300</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$302</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6762,16 +6798,22 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$300</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7661,13 +7703,19 @@
                   <c:v>67096</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>68516</c:v>
+                  <c:v>68519</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>69455</c:v>
+                  <c:v>69463</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>69987</c:v>
+                  <c:v>69980</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>73014</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>76823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7809,9 +7857,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$301</c:f>
+              <c:f>'County Counts'!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="300"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8711,16 +8759,22 @@
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>11/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>11/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>11/17/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$301</c:f>
+              <c:f>'County Counts'!$B$2:$B$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="300"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9620,6 +9674,12 @@
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9881,7 +9941,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 USBedCount" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 USBedCount" refreshOnLoad="1" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -9892,7 +9952,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CountyCount" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CountyCount" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Virus Date" tableColumnId="1"/>
@@ -9903,9 +9963,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B301" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B301" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B301">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B303" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B303" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B303">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9917,9 +9977,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B301" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B301" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B301">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B303" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B303" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B303">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9931,9 +9991,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B300" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B300" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B300">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B302" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B302" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B302">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -9945,9 +10005,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B301" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B301" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B301">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B303" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B303" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B303">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10279,9 +10339,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+    <sheetView topLeftCell="A276" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -12661,7 +12721,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>596</v>
+        <v>297</v>
       </c>
       <c r="B297">
         <v>10474016</v>
@@ -12669,7 +12729,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>597</v>
+        <v>298</v>
       </c>
       <c r="B298">
         <v>10637418</v>
@@ -12677,26 +12737,42 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>600</v>
+        <v>299</v>
       </c>
       <c r="B299">
-        <v>10825255</v>
+        <v>10818969</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>602</v>
+        <v>300</v>
       </c>
       <c r="B300">
-        <v>10977735</v>
+        <v>10978090</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>604</v>
+        <v>301</v>
       </c>
       <c r="B301">
-        <v>11112922</v>
+        <v>11113277</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>606</v>
+      </c>
+      <c r="B302">
+        <v>11279503</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>607</v>
+      </c>
+      <c r="B303">
+        <v>11439060</v>
       </c>
     </row>
   </sheetData>
@@ -12709,9 +12785,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0"/>
+    <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12724,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15089,7 +15165,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>596</v>
+        <v>297</v>
       </c>
       <c r="B297">
         <v>240788</v>
@@ -15097,7 +15173,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>597</v>
+        <v>298</v>
       </c>
       <c r="B298">
         <v>241952</v>
@@ -15105,15 +15181,15 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>600</v>
+        <v>299</v>
       </c>
       <c r="B299">
-        <v>243570</v>
+        <v>243336</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>602</v>
+        <v>300</v>
       </c>
       <c r="B300">
         <v>244539</v>
@@ -15121,10 +15197,26 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>604</v>
+        <v>301</v>
       </c>
       <c r="B301">
         <v>245148</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>606</v>
+      </c>
+      <c r="B302">
+        <v>245937</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>607</v>
+      </c>
+      <c r="B303">
+        <v>247511</v>
       </c>
     </row>
   </sheetData>
@@ -15137,9 +15229,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0"/>
+    <sheetView topLeftCell="A266" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15152,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -17509,7 +17601,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>596</v>
+        <v>297</v>
       </c>
       <c r="B296">
         <v>65373</v>
@@ -17517,7 +17609,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>597</v>
+        <v>298</v>
       </c>
       <c r="B297">
         <v>67096</v>
@@ -17525,26 +17617,42 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>600</v>
+        <v>299</v>
       </c>
       <c r="B298">
-        <v>68516</v>
+        <v>68519</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>602</v>
+        <v>300</v>
       </c>
       <c r="B299">
-        <v>69455</v>
+        <v>69463</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>604</v>
+        <v>301</v>
       </c>
       <c r="B300">
-        <v>69987</v>
+        <v>69980</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>606</v>
+      </c>
+      <c r="B301">
+        <v>73014</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>607</v>
+      </c>
+      <c r="B302">
+        <v>76823</v>
       </c>
     </row>
   </sheetData>
@@ -17557,9 +17665,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0"/>
+    <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17569,15 +17677,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17585,7 +17693,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -17593,7 +17701,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -17601,7 +17709,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -17609,7 +17717,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -17617,7 +17725,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -17625,7 +17733,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -17633,7 +17741,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -17641,7 +17749,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -17649,7 +17757,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -17657,7 +17765,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -17665,7 +17773,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -17673,7 +17781,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -17681,7 +17789,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -17689,7 +17797,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -17697,7 +17805,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -17705,7 +17813,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -17713,7 +17821,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -17721,7 +17829,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -17729,7 +17837,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -17737,7 +17845,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -17745,7 +17853,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -17753,7 +17861,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -17761,7 +17869,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -17769,7 +17877,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -17777,7 +17885,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -17785,7 +17893,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B28">
         <v>11</v>
@@ -17793,7 +17901,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B29">
         <v>12</v>
@@ -17801,7 +17909,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -17809,7 +17917,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -17817,7 +17925,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -17825,7 +17933,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -17833,7 +17941,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B34">
         <v>14</v>
@@ -17841,7 +17949,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B35">
         <v>14</v>
@@ -17849,7 +17957,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -17857,7 +17965,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B37">
         <v>17</v>
@@ -17865,7 +17973,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B38">
         <v>20</v>
@@ -17873,7 +17981,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -17881,7 +17989,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B40">
         <v>22</v>
@@ -17889,7 +17997,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B41">
         <v>22</v>
@@ -17897,7 +18005,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B42">
         <v>27</v>
@@ -17905,7 +18013,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B43">
         <v>33</v>
@@ -17913,7 +18021,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B44">
         <v>35</v>
@@ -17921,7 +18029,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B45">
         <v>39</v>
@@ -17929,7 +18037,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B46">
         <v>49</v>
@@ -17937,7 +18045,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B47">
         <v>74</v>
@@ -17945,7 +18053,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B48">
         <v>95</v>
@@ -17953,7 +18061,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B49">
         <v>113</v>
@@ -17961,7 +18069,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B50">
         <v>132</v>
@@ -17969,7 +18077,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B51">
         <v>165</v>
@@ -17977,7 +18085,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B52">
         <v>204</v>
@@ -17985,7 +18093,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B53">
         <v>255</v>
@@ -17993,7 +18101,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B54">
         <v>315</v>
@@ -18001,7 +18109,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B55">
         <v>375</v>
@@ -18009,7 +18117,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B56">
         <v>429</v>
@@ -18017,7 +18125,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B57">
         <v>476</v>
@@ -18025,7 +18133,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B58">
         <v>546</v>
@@ -18033,7 +18141,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B59">
         <v>640</v>
@@ -18041,7 +18149,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B60">
         <v>766</v>
@@ -18049,7 +18157,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B61">
         <v>916</v>
@@ -18057,7 +18165,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B62">
         <v>1034</v>
@@ -18065,7 +18173,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B63">
         <v>1138</v>
@@ -18073,7 +18181,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B64">
         <v>1226</v>
@@ -18081,7 +18189,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B65">
         <v>1355</v>
@@ -18089,7 +18197,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B66">
         <v>1532</v>
@@ -18097,7 +18205,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B67">
         <v>1658</v>
@@ -18105,7 +18213,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B68">
         <v>1778</v>
@@ -18113,7 +18221,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B69">
         <v>1883</v>
@@ -18121,7 +18229,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B70">
         <v>1969</v>
@@ -18129,7 +18237,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B71">
         <v>2072</v>
@@ -18137,7 +18245,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B72">
         <v>2153</v>
@@ -18145,7 +18253,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B73">
         <v>2221</v>
@@ -18153,7 +18261,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B74">
         <v>2295</v>
@@ -18161,7 +18269,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B75">
         <v>2357</v>
@@ -18169,7 +18277,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B76">
         <v>2404</v>
@@ -18177,7 +18285,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B77">
         <v>2439</v>
@@ -18185,7 +18293,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B78">
         <v>2488</v>
@@ -18193,7 +18301,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B79">
         <v>2542</v>
@@ -18201,7 +18309,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B80">
         <v>2573</v>
@@ -18209,7 +18317,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B81">
         <v>2598</v>
@@ -18217,7 +18325,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B82">
         <v>2629</v>
@@ -18225,7 +18333,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B83">
         <v>2661</v>
@@ -18233,7 +18341,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B84">
         <v>2678</v>
@@ -18241,7 +18349,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B85">
         <v>2692</v>
@@ -18249,7 +18357,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B86">
         <v>2708</v>
@@ -18257,7 +18365,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B87">
         <v>2718</v>
@@ -18265,7 +18373,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B88">
         <v>2733</v>
@@ -18273,7 +18381,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B89">
         <v>2748</v>
@@ -18281,7 +18389,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B90">
         <v>2762</v>
@@ -18289,7 +18397,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B91">
         <v>2769</v>
@@ -18297,7 +18405,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B92">
         <v>2776</v>
@@ -18305,7 +18413,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B93">
         <v>2783</v>
@@ -18313,7 +18421,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B94">
         <v>2793</v>
@@ -18321,7 +18429,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B95">
         <v>2801</v>
@@ -18329,7 +18437,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B96">
         <v>2808</v>
@@ -18337,7 +18445,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B97">
         <v>2816</v>
@@ -18345,7 +18453,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B98">
         <v>2818</v>
@@ -18353,7 +18461,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B99">
         <v>2830</v>
@@ -18361,7 +18469,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B100">
         <v>2845</v>
@@ -18369,7 +18477,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B101">
         <v>2850</v>
@@ -18377,7 +18485,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B102">
         <v>2855</v>
@@ -18385,7 +18493,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B103">
         <v>2865</v>
@@ -18393,7 +18501,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B104">
         <v>2869</v>
@@ -18401,7 +18509,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B105">
         <v>2875</v>
@@ -18409,7 +18517,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B106">
         <v>2883</v>
@@ -18417,7 +18525,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B107">
         <v>2959</v>
@@ -18425,7 +18533,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B108">
         <v>2966</v>
@@ -18433,7 +18541,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B109">
         <v>2980</v>
@@ -18441,7 +18549,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B110">
         <v>2985</v>
@@ -18449,7 +18557,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B111">
         <v>2990</v>
@@ -18457,7 +18565,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B112">
         <v>2990</v>
@@ -18465,7 +18573,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B113">
         <v>2990</v>
@@ -18473,7 +18581,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B114">
         <v>2991</v>
@@ -18481,7 +18589,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B115">
         <v>2996</v>
@@ -18489,7 +18597,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B116">
         <v>2999</v>
@@ -18497,7 +18605,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B117">
         <v>3003</v>
@@ -18505,7 +18613,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B118">
         <v>3009</v>
@@ -18513,7 +18621,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B119">
         <v>3012</v>
@@ -18521,7 +18629,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B120">
         <v>3016</v>
@@ -18529,7 +18637,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B121">
         <v>3024</v>
@@ -18537,7 +18645,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B122">
         <v>3028</v>
@@ -18545,7 +18653,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B123">
         <v>3032</v>
@@ -18553,7 +18661,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B124">
         <v>3036</v>
@@ -18561,7 +18669,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B125">
         <v>3041</v>
@@ -18569,7 +18677,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B126">
         <v>3043</v>
@@ -18577,7 +18685,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B127">
         <v>3045</v>
@@ -18585,7 +18693,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B128">
         <v>3044</v>
@@ -18593,7 +18701,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B129">
         <v>3052</v>
@@ -18601,7 +18709,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B130">
         <v>3057</v>
@@ -18609,7 +18717,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B131">
         <v>3064</v>
@@ -18617,7 +18725,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B132">
         <v>3066</v>
@@ -18625,7 +18733,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B133">
         <v>3070</v>
@@ -18633,7 +18741,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B134">
         <v>3073</v>
@@ -18641,7 +18749,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B135">
         <v>3076</v>
@@ -18649,7 +18757,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B136">
         <v>3079</v>
@@ -18657,7 +18765,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B137">
         <v>3082</v>
@@ -18665,7 +18773,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B138">
         <v>3086</v>
@@ -18673,7 +18781,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B139">
         <v>3088</v>
@@ -18681,7 +18789,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B140">
         <v>3091</v>
@@ -18689,7 +18797,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B141">
         <v>3093</v>
@@ -18697,7 +18805,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B142">
         <v>3097</v>
@@ -18705,7 +18813,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B143">
         <v>3103</v>
@@ -18713,7 +18821,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B144">
         <v>3105</v>
@@ -18721,7 +18829,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B145">
         <v>3107</v>
@@ -18729,7 +18837,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B146">
         <v>3108</v>
@@ -18737,7 +18845,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B147">
         <v>3109</v>
@@ -18745,7 +18853,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B148">
         <v>3112</v>
@@ -18753,7 +18861,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B149">
         <v>3114</v>
@@ -18761,7 +18869,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B150">
         <v>3113</v>
@@ -18769,7 +18877,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B151">
         <v>3116</v>
@@ -18777,7 +18885,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B152">
         <v>3120</v>
@@ -18785,7 +18893,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B153">
         <v>3128</v>
@@ -18793,7 +18901,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B154">
         <v>3128</v>
@@ -18801,7 +18909,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B155">
         <v>3130</v>
@@ -18809,7 +18917,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B156">
         <v>3131</v>
@@ -18817,7 +18925,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B157">
         <v>3135</v>
@@ -18825,7 +18933,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B158">
         <v>3141</v>
@@ -18833,7 +18941,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B159">
         <v>3149</v>
@@ -18841,7 +18949,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B160">
         <v>3149</v>
@@ -18849,7 +18957,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B161">
         <v>3148</v>
@@ -18857,7 +18965,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B162">
         <v>3148</v>
@@ -18865,7 +18973,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B163">
         <v>3152</v>
@@ -18873,7 +18981,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B164">
         <v>3154</v>
@@ -18881,7 +18989,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B165">
         <v>3156</v>
@@ -18889,7 +18997,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B166">
         <v>3163</v>
@@ -18897,7 +19005,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B167">
         <v>3165</v>
@@ -18905,7 +19013,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B168">
         <v>3165</v>
@@ -18913,7 +19021,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B169">
         <v>3170</v>
@@ -18921,7 +19029,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B170">
         <v>3170</v>
@@ -18929,7 +19037,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B171">
         <v>3176</v>
@@ -18937,7 +19045,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B172">
         <v>3174</v>
@@ -18945,7 +19053,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B173">
         <v>3180</v>
@@ -18953,7 +19061,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B174">
         <v>3182</v>
@@ -18961,7 +19069,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B175">
         <v>3187</v>
@@ -18969,7 +19077,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B176">
         <v>3187</v>
@@ -18977,7 +19085,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B177">
         <v>3194</v>
@@ -18985,7 +19093,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B178">
         <v>3196</v>
@@ -18993,7 +19101,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B179">
         <v>3197</v>
@@ -19001,7 +19109,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B180">
         <v>3200</v>
@@ -19009,7 +19117,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B181">
         <v>3201</v>
@@ -19017,7 +19125,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B182">
         <v>3202</v>
@@ -19025,7 +19133,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B183">
         <v>3203</v>
@@ -19033,7 +19141,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B184">
         <v>3204</v>
@@ -19041,7 +19149,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B185">
         <v>3206</v>
@@ -19049,7 +19157,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B186">
         <v>3207</v>
@@ -19057,7 +19165,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B187">
         <v>3207</v>
@@ -19065,7 +19173,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B188">
         <v>3210</v>
@@ -19073,7 +19181,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B189">
         <v>3212</v>
@@ -19081,7 +19189,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B190">
         <v>3214</v>
@@ -19089,7 +19197,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B191">
         <v>3216</v>
@@ -19097,7 +19205,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B192">
         <v>3217</v>
@@ -19105,7 +19213,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B193">
         <v>3218</v>
@@ -19113,7 +19221,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B194">
         <v>3217</v>
@@ -19121,7 +19229,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B195">
         <v>3217</v>
@@ -19129,7 +19237,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B196">
         <v>3216</v>
@@ -19137,7 +19245,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B197">
         <v>3216</v>
@@ -19145,7 +19253,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B198">
         <v>3216</v>
@@ -19153,7 +19261,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B199">
         <v>3218</v>
@@ -19161,7 +19269,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B200">
         <v>3220</v>
@@ -19169,7 +19277,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B201">
         <v>3219</v>
@@ -19177,7 +19285,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B202">
         <v>3220</v>
@@ -19185,7 +19293,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B203">
         <v>3221</v>
@@ -19193,7 +19301,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B204">
         <v>3221</v>
@@ -19201,7 +19309,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B205">
         <v>3221</v>
@@ -19209,7 +19317,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B206">
         <v>3224</v>
@@ -19217,7 +19325,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B207">
         <v>3228</v>
@@ -19225,7 +19333,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B208">
         <v>3225</v>
@@ -19233,7 +19341,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B209">
         <v>3226</v>
@@ -19241,7 +19349,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B210">
         <v>3226</v>
@@ -19249,7 +19357,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B211">
         <v>3226</v>
@@ -19257,7 +19365,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B212">
         <v>3227</v>
@@ -19265,7 +19373,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B213">
         <v>3228</v>
@@ -19273,7 +19381,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B214">
         <v>3228</v>
@@ -19281,7 +19389,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B215">
         <v>3228</v>
@@ -19289,7 +19397,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B216">
         <v>3227</v>
@@ -19297,7 +19405,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B217">
         <v>3229</v>
@@ -19305,7 +19413,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B218">
         <v>3229</v>
@@ -19313,7 +19421,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B219">
         <v>3229</v>
@@ -19321,7 +19429,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B220">
         <v>3232</v>
@@ -19329,7 +19437,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B221">
         <v>3233</v>
@@ -19337,7 +19445,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B222">
         <v>3233</v>
@@ -19345,7 +19453,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B223">
         <v>3234</v>
@@ -19353,7 +19461,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B224">
         <v>3235</v>
@@ -19361,7 +19469,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B225">
         <v>3233</v>
@@ -19369,7 +19477,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B226">
         <v>3233</v>
@@ -19377,7 +19485,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B227">
         <v>3234</v>
@@ -19385,7 +19493,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B228">
         <v>3233</v>
@@ -19393,7 +19501,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B229">
         <v>3234</v>
@@ -19401,7 +19509,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B230">
         <v>3234</v>
@@ -19409,7 +19517,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B231">
         <v>3232</v>
@@ -19417,7 +19525,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B232">
         <v>3233</v>
@@ -19425,7 +19533,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B233">
         <v>3233</v>
@@ -19433,7 +19541,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B234">
         <v>3235</v>
@@ -19441,7 +19549,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B235">
         <v>3237</v>
@@ -19449,7 +19557,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B236">
         <v>3236</v>
@@ -19457,7 +19565,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B237">
         <v>3236</v>
@@ -19465,7 +19573,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B238">
         <v>3237</v>
@@ -19473,7 +19581,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B239">
         <v>3235</v>
@@ -19481,7 +19589,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B240">
         <v>3236</v>
@@ -19489,7 +19597,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B241">
         <v>3237</v>
@@ -19497,7 +19605,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B242">
         <v>3236</v>
@@ -19505,7 +19613,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B243">
         <v>3237</v>
@@ -19513,7 +19621,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B244">
         <v>3239</v>
@@ -19521,7 +19629,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B245">
         <v>3239</v>
@@ -19529,7 +19637,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B246">
         <v>3237</v>
@@ -19537,7 +19645,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B247">
         <v>3236</v>
@@ -19545,7 +19653,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B248">
         <v>3239</v>
@@ -19553,7 +19661,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B249">
         <v>3241</v>
@@ -19561,7 +19669,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B250">
         <v>3241</v>
@@ -19569,7 +19677,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B251">
         <v>3242</v>
@@ -19577,7 +19685,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B252">
         <v>3244</v>
@@ -19585,7 +19693,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B253">
         <v>3241</v>
@@ -19593,7 +19701,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B254">
         <v>3239</v>
@@ -19601,7 +19709,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B255">
         <v>3240</v>
@@ -19609,7 +19717,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B256">
         <v>3241</v>
@@ -19617,7 +19725,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B257">
         <v>3240</v>
@@ -19625,7 +19733,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B258">
         <v>3242</v>
@@ -19633,7 +19741,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B259">
         <v>3243</v>
@@ -19641,7 +19749,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B260">
         <v>3243</v>
@@ -19649,7 +19757,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B261">
         <v>3242</v>
@@ -19657,7 +19765,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B262">
         <v>3243</v>
@@ -19665,7 +19773,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B263">
         <v>3242</v>
@@ -19673,7 +19781,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B264">
         <v>3241</v>
@@ -19681,7 +19789,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B265">
         <v>3242</v>
@@ -19689,7 +19797,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B266">
         <v>3243</v>
@@ -19697,7 +19805,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B267">
         <v>3243</v>
@@ -19705,7 +19813,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B268">
         <v>3243</v>
@@ -19713,7 +19821,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B269">
         <v>3244</v>
@@ -19721,7 +19829,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B270">
         <v>3245</v>
@@ -19729,7 +19837,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B271">
         <v>3245</v>
@@ -19737,7 +19845,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B272">
         <v>3247</v>
@@ -19745,7 +19853,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B273">
         <v>3248</v>
@@ -19753,7 +19861,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B274">
         <v>3245</v>
@@ -19761,7 +19869,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B275">
         <v>3244</v>
@@ -19769,7 +19877,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B276">
         <v>3245</v>
@@ -19777,7 +19885,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B277">
         <v>3245</v>
@@ -19785,7 +19893,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B278">
         <v>3244</v>
@@ -19793,7 +19901,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B279">
         <v>3245</v>
@@ -19801,7 +19909,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B280">
         <v>3246</v>
@@ -19809,7 +19917,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B281">
         <v>3243</v>
@@ -19817,7 +19925,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B282">
         <v>3242</v>
@@ -19825,7 +19933,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B283">
         <v>3244</v>
@@ -19833,7 +19941,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B284">
         <v>3243</v>
@@ -19841,7 +19949,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B285">
         <v>3244</v>
@@ -19849,7 +19957,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B286">
         <v>3245</v>
@@ -19857,7 +19965,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B287">
         <v>3245</v>
@@ -19865,7 +19973,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B288">
         <v>3243</v>
@@ -19873,7 +19981,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B289">
         <v>3243</v>
@@ -19881,7 +19989,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B290">
         <v>3245</v>
@@ -19889,7 +19997,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B291">
         <v>3244</v>
@@ -19897,7 +20005,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B292">
         <v>3243</v>
@@ -19905,7 +20013,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B293">
         <v>3244</v>
@@ -19913,7 +20021,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B294">
         <v>3244</v>
@@ -19921,7 +20029,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B295">
         <v>3244</v>
@@ -19929,7 +20037,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B296">
         <v>3244</v>
@@ -19937,7 +20045,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B297">
         <v>3244</v>
@@ -19945,7 +20053,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B298">
         <v>3244</v>
@@ -19953,7 +20061,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B299">
         <v>3244</v>
@@ -19961,7 +20069,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B300">
         <v>3245</v>
@@ -19973,6 +20081,22 @@
       </c>
       <c r="B301">
         <v>3246</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>609</v>
+      </c>
+      <c r="B302">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>608</v>
+      </c>
+      <c r="B303">
+        <v>3247</v>
       </c>
     </row>
   </sheetData>
@@ -19987,7 +20111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE4B5A-F46E-4024-8ACB-0E01BCBE3E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569CD63-D08C-412F-ACE2-6E6DAEC9D60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$303</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$302</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$303</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$303</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$304</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$303</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$304</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$304</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="612">
   <si>
     <t>date</t>
   </si>
@@ -1880,6 +1880,12 @@
   </si>
   <si>
     <t>11/16/2020</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>11/18/2020</t>
   </si>
 </sst>
 </file>
@@ -1991,9 +1997,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$303</c:f>
+              <c:f>'Cases Data'!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2899,16 +2905,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$303</c:f>
+              <c:f>'Cases Data'!$B$2:$B$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3738,82 +3747,85 @@
                   <c:v>8479704</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8564812</c:v>
+                  <c:v>8564816</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8643568</c:v>
+                  <c:v>8643572</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8703280</c:v>
+                  <c:v>8703284</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8777723</c:v>
+                  <c:v>8777727</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>8852176</c:v>
+                  <c:v>8852180</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8934078</c:v>
+                  <c:v>8934082</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>9024844</c:v>
+                  <c:v>9024852</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9124628</c:v>
+                  <c:v>9124654</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9208926</c:v>
+                  <c:v>9208952</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>9283162</c:v>
+                  <c:v>9283188</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>9376821</c:v>
+                  <c:v>9376874</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>9469433</c:v>
+                  <c:v>9469493</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>9577346</c:v>
+                  <c:v>9577421</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>9698875</c:v>
+                  <c:v>9698960</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>9831722</c:v>
+                  <c:v>9831814</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9957654</c:v>
+                  <c:v>9957746</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>10060980</c:v>
+                  <c:v>10061072</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>10191315</c:v>
+                  <c:v>10191454</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>10330995</c:v>
+                  <c:v>10331142</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>10474016</c:v>
+                  <c:v>10474163</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10637418</c:v>
+                  <c:v>10637603</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10818969</c:v>
+                  <c:v>10819174</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10978090</c:v>
+                  <c:v>10978295</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11113277</c:v>
+                  <c:v>11113482</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11279503</c:v>
+                  <c:v>11279747</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>11439060</c:v>
+                  <c:v>11441484</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>11613875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3945,9 +3957,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$303</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4853,16 +4865,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$303</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5767,7 +5782,10 @@
                   <c:v>245937</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>247511</c:v>
+                  <c:v>247535</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>249438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5899,9 +5917,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$302</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6804,16 +6822,19 @@
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$302</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6992,490 +7013,490 @@
                   <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1436</c:v>
+                  <c:v>1492</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2155</c:v>
+                  <c:v>2173</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2770</c:v>
+                  <c:v>2812</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3902</c:v>
+                  <c:v>3938</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5062</c:v>
+                  <c:v>5140</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7757</c:v>
+                  <c:v>7805</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10932</c:v>
+                  <c:v>10978</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12382</c:v>
+                  <c:v>12409</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>14026</c:v>
+                  <c:v>14055</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15772</c:v>
+                  <c:v>15917</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18082</c:v>
+                  <c:v>18155</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20775</c:v>
+                  <c:v>20906</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>22956</c:v>
+                  <c:v>22997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>25729</c:v>
+                  <c:v>25777</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>30266</c:v>
+                  <c:v>30268</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>32169</c:v>
+                  <c:v>32180</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>36156</c:v>
+                  <c:v>36159</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43799</c:v>
+                  <c:v>43849</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>45492</c:v>
+                  <c:v>45515</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>51305</c:v>
+                  <c:v>51313</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53166</c:v>
+                  <c:v>53167</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>55573</c:v>
+                  <c:v>55557</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>55427</c:v>
+                  <c:v>55449</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>56184</c:v>
+                  <c:v>56237</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>59610</c:v>
+                  <c:v>59600</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>59940</c:v>
+                  <c:v>59924</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>59499</c:v>
+                  <c:v>59498</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>58895</c:v>
+                  <c:v>58886</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>57761</c:v>
+                  <c:v>57788</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>56486</c:v>
+                  <c:v>56497</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>56734</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>59780</c:v>
+                  <c:v>59773</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>59202</c:v>
+                  <c:v>59212</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>58989</c:v>
+                  <c:v>59216</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>57295</c:v>
+                  <c:v>57324</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>57381</c:v>
+                  <c:v>57343</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>56192</c:v>
+                  <c:v>56149</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>56189</c:v>
+                  <c:v>56183</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>56062</c:v>
+                  <c:v>56034</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>55979</c:v>
+                  <c:v>55987</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>54919</c:v>
+                  <c:v>54921</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>54903</c:v>
+                  <c:v>54862</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>54048</c:v>
+                  <c:v>54009</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>52623</c:v>
+                  <c:v>52619</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>52409</c:v>
+                  <c:v>52377</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>53221</c:v>
+                  <c:v>53176</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>52560</c:v>
+                  <c:v>52581</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>51398</c:v>
+                  <c:v>51425</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>49785</c:v>
+                  <c:v>49758</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>48564</c:v>
+                  <c:v>48561</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>46981</c:v>
+                  <c:v>46760</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>46372</c:v>
+                  <c:v>46550</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>47402</c:v>
+                  <c:v>47344</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>46742</c:v>
+                  <c:v>46740</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>45635</c:v>
+                  <c:v>45644</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>44299</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43211</c:v>
+                  <c:v>43175</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>41606</c:v>
+                  <c:v>41609</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>41553</c:v>
+                  <c:v>41531</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>41661</c:v>
+                  <c:v>41652</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>41546</c:v>
+                  <c:v>41535</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>41065</c:v>
+                  <c:v>41071</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>39822</c:v>
+                  <c:v>39774</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>38391</c:v>
+                  <c:v>38360</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>37483</c:v>
+                  <c:v>37510</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>37432</c:v>
+                  <c:v>37382</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>37561</c:v>
+                  <c:v>37533</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>38038</c:v>
+                  <c:v>38017</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>37818</c:v>
+                  <c:v>37804</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>36764</c:v>
+                  <c:v>36718</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>35524</c:v>
+                  <c:v>35513</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>34648</c:v>
+                  <c:v>34641</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>34075</c:v>
+                  <c:v>34064</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>33724</c:v>
+                  <c:v>33709</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>33070</c:v>
+                  <c:v>33026</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>32639</c:v>
+                  <c:v>32602</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>32280</c:v>
+                  <c:v>32265</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31761</c:v>
+                  <c:v>31762</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>31225</c:v>
+                  <c:v>31249</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>30996</c:v>
+                  <c:v>30984</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>31009</c:v>
+                  <c:v>31020</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>30864</c:v>
+                  <c:v>30840</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>29698</c:v>
+                  <c:v>29686</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>29154</c:v>
+                  <c:v>29149</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>28450</c:v>
+                  <c:v>28431</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>27895</c:v>
+                  <c:v>27899</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>27867</c:v>
+                  <c:v>27866</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>28270</c:v>
+                  <c:v>28279</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>28576</c:v>
+                  <c:v>28561</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>28415</c:v>
+                  <c:v>28411</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>28616</c:v>
+                  <c:v>28586</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>27967</c:v>
+                  <c:v>27970</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>28220</c:v>
+                  <c:v>28221</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>28799</c:v>
+                  <c:v>28797</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>30235</c:v>
+                  <c:v>30226</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>31102</c:v>
+                  <c:v>31119</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>31842</c:v>
+                  <c:v>31828</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>31738</c:v>
+                  <c:v>31710</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>32482</c:v>
+                  <c:v>32485</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>32488</c:v>
+                  <c:v>32479</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>33585</c:v>
+                  <c:v>33627</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>35248</c:v>
+                  <c:v>35222</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>36405</c:v>
+                  <c:v>36430</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>37500</c:v>
+                  <c:v>37508</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>37798</c:v>
+                  <c:v>37801</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>38146</c:v>
+                  <c:v>38150</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>38764</c:v>
+                  <c:v>38765</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>39769</c:v>
+                  <c:v>39820</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>41760</c:v>
+                  <c:v>41772</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>43076</c:v>
+                  <c:v>43097</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43933</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>51599</c:v>
+                  <c:v>51606</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>51858</c:v>
+                  <c:v>51861</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>52727</c:v>
+                  <c:v>52739</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>53988</c:v>
+                  <c:v>54044</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>55565</c:v>
+                  <c:v>55554</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>56144</c:v>
+                  <c:v>56168</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>57440</c:v>
+                  <c:v>57459</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>57759</c:v>
+                  <c:v>57737</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>57645</c:v>
+                  <c:v>57646</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>57885</c:v>
+                  <c:v>57882</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>58370</c:v>
+                  <c:v>58352</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>59364</c:v>
+                  <c:v>59351</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>59596</c:v>
+                  <c:v>59598</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>59718</c:v>
+                  <c:v>59712</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>59682</c:v>
+                  <c:v>59677</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>59301</c:v>
+                  <c:v>59269</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>58621</c:v>
+                  <c:v>58644</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>58897</c:v>
+                  <c:v>58906</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>57091</c:v>
+                  <c:v>57086</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>57339</c:v>
+                  <c:v>57325</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>56427</c:v>
+                  <c:v>56434</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>55593</c:v>
+                  <c:v>55589</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>54470</c:v>
+                  <c:v>54437</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>54017</c:v>
+                  <c:v>53983</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>53377</c:v>
+                  <c:v>53413</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>53326</c:v>
+                  <c:v>53323</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>53353</c:v>
+                  <c:v>53343</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>53132</c:v>
+                  <c:v>53129</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>51207</c:v>
+                  <c:v>51201</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>49911</c:v>
+                  <c:v>49935</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>48899</c:v>
+                  <c:v>48866</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>48635</c:v>
+                  <c:v>48631</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>48498</c:v>
+                  <c:v>48511</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>47991</c:v>
+                  <c:v>47949</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>47218</c:v>
+                  <c:v>47204</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>45776</c:v>
+                  <c:v>45744</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>44795</c:v>
+                  <c:v>44783</c:v>
                 </c:pt>
                 <c:pt idx="207">
                   <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>43485</c:v>
+                  <c:v>43500</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>43758</c:v>
+                  <c:v>43767</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>43330</c:v>
+                  <c:v>43289</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>41988</c:v>
+                  <c:v>41968</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>40951</c:v>
+                  <c:v>40940</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>39894</c:v>
+                  <c:v>39919</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>39017</c:v>
+                  <c:v>38980</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>38673</c:v>
+                  <c:v>38695</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>38779</c:v>
+                  <c:v>38775</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>38401</c:v>
+                  <c:v>38418</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>37464</c:v>
+                  <c:v>37421</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>37239</c:v>
+                  <c:v>37255</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>36428</c:v>
+                  <c:v>36437</c:v>
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>35726</c:v>
@@ -7484,238 +7505,241 @@
                   <c:v>35352</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>35271</c:v>
+                  <c:v>35273</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>35569</c:v>
+                  <c:v>35579</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>34682</c:v>
+                  <c:v>34650</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>34099</c:v>
+                  <c:v>34101</c:v>
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>33502</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>32372</c:v>
+                  <c:v>32376</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>31999</c:v>
+                  <c:v>32009</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>32262</c:v>
+                  <c:v>32246</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>32562</c:v>
+                  <c:v>32579</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>32421</c:v>
+                  <c:v>32438</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>31421</c:v>
+                  <c:v>31406</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>30655</c:v>
+                  <c:v>30643</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>29810</c:v>
+                  <c:v>29804</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>29895</c:v>
+                  <c:v>29907</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>30328</c:v>
+                  <c:v>30361</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>30278</c:v>
+                  <c:v>30253</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>29900</c:v>
+                  <c:v>29875</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>29501</c:v>
+                  <c:v>29521</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>29035</c:v>
+                  <c:v>29038</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>28608</c:v>
+                  <c:v>28606</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>28755</c:v>
+                  <c:v>28762</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>29459</c:v>
+                  <c:v>29448</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>29905</c:v>
+                  <c:v>29937</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>30043</c:v>
+                  <c:v>30036</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>29769</c:v>
+                  <c:v>29768</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>29554</c:v>
+                  <c:v>29551</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>29434</c:v>
+                  <c:v>29443</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>29608</c:v>
+                  <c:v>29601</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>30473</c:v>
+                  <c:v>30499</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>30911</c:v>
+                  <c:v>30912</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>30790</c:v>
+                  <c:v>30809</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>30744</c:v>
+                  <c:v>30769</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>30113</c:v>
+                  <c:v>30111</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>29942</c:v>
+                  <c:v>29945</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>31299</c:v>
+                  <c:v>31327</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>32595</c:v>
+                  <c:v>32626</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>33457</c:v>
+                  <c:v>33482</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>34322</c:v>
+                  <c:v>34319</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>34839</c:v>
+                  <c:v>34877</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>34618</c:v>
+                  <c:v>34600</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>34490</c:v>
+                  <c:v>34498</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>35072</c:v>
+                  <c:v>35066</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>36051</c:v>
+                  <c:v>36064</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>37048</c:v>
+                  <c:v>37088</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>37308</c:v>
+                  <c:v>37328</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>37336</c:v>
+                  <c:v>37368</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>37359</c:v>
+                  <c:v>37358</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>36437</c:v>
+                  <c:v>36452</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>37826</c:v>
+                  <c:v>37858</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>39230</c:v>
+                  <c:v>39303</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>40271</c:v>
+                  <c:v>40284</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>41010</c:v>
+                  <c:v>41036</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>41482</c:v>
+                  <c:v>41501</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>41905</c:v>
+                  <c:v>41989</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>41776</c:v>
+                  <c:v>41786</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>42917</c:v>
+                  <c:v>42924</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>44212</c:v>
+                  <c:v>44287</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>45045</c:v>
+                  <c:v>45124</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>46095</c:v>
+                  <c:v>46126</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>46688</c:v>
+                  <c:v>46738</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>47375</c:v>
+                  <c:v>47402</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>47520</c:v>
+                  <c:v>47531</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>48470</c:v>
+                  <c:v>48557</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>50340</c:v>
+                  <c:v>50426</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>52049</c:v>
+                  <c:v>52086</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>53322</c:v>
+                  <c:v>53375</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>54824</c:v>
+                  <c:v>54851</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>55840</c:v>
+                  <c:v>55925</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>56799</c:v>
+                  <c:v>56842</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>59275</c:v>
+                  <c:v>59301</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>61964</c:v>
+                  <c:v>62059</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>65373</c:v>
+                  <c:v>65463</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>67096</c:v>
+                  <c:v>67100</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>68519</c:v>
+                  <c:v>68496</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>69463</c:v>
+                  <c:v>69498</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>69980</c:v>
+                  <c:v>70113</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>73014</c:v>
+                  <c:v>73268</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>76823</c:v>
+                  <c:v>76958</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>79410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7857,9 +7881,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$303</c:f>
+              <c:f>'County Counts'!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8765,16 +8789,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>11/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>11/18/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$303</c:f>
+              <c:f>'County Counts'!$B$2:$B$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9679,6 +9706,9 @@
                   <c:v>3245</c:v>
                 </c:pt>
                 <c:pt idx="301">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="302">
                   <c:v>3247</c:v>
                 </c:pt>
               </c:numCache>
@@ -9963,9 +9993,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B303" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B303" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B304" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B304" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B304">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -9977,9 +10007,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B303" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B303" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B304" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B304" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B304">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -9991,9 +10021,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B302" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B302" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B302">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B303" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B303" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B303">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10005,9 +10035,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B303" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B303" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B304" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B304" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B304">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10339,9 +10369,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -12572,7 +12602,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>8564812</v>
+        <v>8564816</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -12580,7 +12610,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>8643568</v>
+        <v>8643572</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -12588,7 +12618,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>8703280</v>
+        <v>8703284</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -12596,7 +12626,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>8777723</v>
+        <v>8777727</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -12604,7 +12634,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>8852176</v>
+        <v>8852180</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -12612,7 +12642,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>8934078</v>
+        <v>8934082</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -12620,7 +12650,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>9024844</v>
+        <v>9024852</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -12628,7 +12658,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>9124628</v>
+        <v>9124654</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -12636,7 +12666,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>9208926</v>
+        <v>9208952</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -12644,7 +12674,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>9283162</v>
+        <v>9283188</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -12652,7 +12682,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>9376821</v>
+        <v>9376874</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -12660,7 +12690,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>9469433</v>
+        <v>9469493</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -12668,7 +12698,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>9577346</v>
+        <v>9577421</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -12676,7 +12706,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>9698875</v>
+        <v>9698960</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -12684,7 +12714,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>9831722</v>
+        <v>9831814</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -12692,7 +12722,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>9957654</v>
+        <v>9957746</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -12700,7 +12730,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>10060980</v>
+        <v>10061072</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -12708,7 +12738,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>10191315</v>
+        <v>10191454</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -12716,7 +12746,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>10330995</v>
+        <v>10331142</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -12724,7 +12754,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>10474016</v>
+        <v>10474163</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -12732,7 +12762,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>10637418</v>
+        <v>10637603</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -12740,7 +12770,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>10818969</v>
+        <v>10819174</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -12748,7 +12778,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>10978090</v>
+        <v>10978295</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -12756,7 +12786,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>11113277</v>
+        <v>11113482</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -12764,7 +12794,7 @@
         <v>606</v>
       </c>
       <c r="B302">
-        <v>11279503</v>
+        <v>11279747</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -12772,7 +12802,15 @@
         <v>607</v>
       </c>
       <c r="B303">
-        <v>11439060</v>
+        <v>11441484</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>610</v>
+      </c>
+      <c r="B304">
+        <v>11613875</v>
       </c>
     </row>
   </sheetData>
@@ -12785,7 +12823,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15216,7 +15254,15 @@
         <v>607</v>
       </c>
       <c r="B303">
-        <v>247511</v>
+        <v>247535</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>610</v>
+      </c>
+      <c r="B304">
+        <v>249438</v>
       </c>
     </row>
   </sheetData>
@@ -15229,9 +15275,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" workbookViewId="0"/>
+    <sheetView topLeftCell="A267" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15724,7 +15770,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>1436</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -15732,7 +15778,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>2155</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -15740,7 +15786,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>2770</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -15748,7 +15794,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>3902</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -15756,7 +15802,7 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>5062</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -15764,7 +15810,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>7757</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -15772,7 +15818,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>10932</v>
+        <v>10978</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -15780,7 +15826,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>12382</v>
+        <v>12409</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -15788,7 +15834,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>14026</v>
+        <v>14055</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -15796,7 +15842,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>15772</v>
+        <v>15917</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -15804,7 +15850,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>18082</v>
+        <v>18155</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -15812,7 +15858,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>20775</v>
+        <v>20906</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -15820,7 +15866,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>22956</v>
+        <v>22997</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -15828,7 +15874,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>25729</v>
+        <v>25777</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -15836,7 +15882,7 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>30266</v>
+        <v>30268</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -15844,7 +15890,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>32169</v>
+        <v>32180</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -15852,7 +15898,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>36156</v>
+        <v>36159</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -15860,7 +15906,7 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>43799</v>
+        <v>43849</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -15868,7 +15914,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>45492</v>
+        <v>45515</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -15876,7 +15922,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>51305</v>
+        <v>51313</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -15884,7 +15930,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>53166</v>
+        <v>53167</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -15892,7 +15938,7 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>55573</v>
+        <v>55557</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -15900,7 +15946,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>55427</v>
+        <v>55449</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -15908,7 +15954,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>56184</v>
+        <v>56237</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -15916,7 +15962,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>59610</v>
+        <v>59600</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -15924,7 +15970,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>59940</v>
+        <v>59924</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -15932,7 +15978,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>59499</v>
+        <v>59498</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -15940,7 +15986,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>58895</v>
+        <v>58886</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -15948,7 +15994,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>57761</v>
+        <v>57788</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -15956,7 +16002,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>56486</v>
+        <v>56497</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -15972,7 +16018,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>59780</v>
+        <v>59773</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -15980,7 +16026,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>59202</v>
+        <v>59212</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -15988,7 +16034,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>58989</v>
+        <v>59216</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -15996,7 +16042,7 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>57295</v>
+        <v>57324</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -16004,7 +16050,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>57381</v>
+        <v>57343</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -16012,7 +16058,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>56192</v>
+        <v>56149</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -16020,7 +16066,7 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>56189</v>
+        <v>56183</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -16028,7 +16074,7 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>56062</v>
+        <v>56034</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -16036,7 +16082,7 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>55979</v>
+        <v>55987</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -16044,7 +16090,7 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>54919</v>
+        <v>54921</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -16052,7 +16098,7 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>54903</v>
+        <v>54862</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -16060,7 +16106,7 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>54048</v>
+        <v>54009</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -16068,7 +16114,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>52623</v>
+        <v>52619</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -16076,7 +16122,7 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>52409</v>
+        <v>52377</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -16084,7 +16130,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>53221</v>
+        <v>53176</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -16092,7 +16138,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>52560</v>
+        <v>52581</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -16100,7 +16146,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>51398</v>
+        <v>51425</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -16108,7 +16154,7 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>49785</v>
+        <v>49758</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -16116,7 +16162,7 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>48564</v>
+        <v>48561</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -16124,7 +16170,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>46981</v>
+        <v>46760</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -16132,7 +16178,7 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>46372</v>
+        <v>46550</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -16140,7 +16186,7 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>47402</v>
+        <v>47344</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -16148,7 +16194,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>46742</v>
+        <v>46740</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -16156,7 +16202,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>45635</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -16172,7 +16218,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>43211</v>
+        <v>43175</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -16180,7 +16226,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>41606</v>
+        <v>41609</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -16188,7 +16234,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>41553</v>
+        <v>41531</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -16196,7 +16242,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>41661</v>
+        <v>41652</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -16204,7 +16250,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>41546</v>
+        <v>41535</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -16212,7 +16258,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>41065</v>
+        <v>41071</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -16220,7 +16266,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>39822</v>
+        <v>39774</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -16228,7 +16274,7 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>38391</v>
+        <v>38360</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -16236,7 +16282,7 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>37483</v>
+        <v>37510</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -16244,7 +16290,7 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>37432</v>
+        <v>37382</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -16252,7 +16298,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>37561</v>
+        <v>37533</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -16260,7 +16306,7 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>38038</v>
+        <v>38017</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -16268,7 +16314,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>37818</v>
+        <v>37804</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -16276,7 +16322,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>36764</v>
+        <v>36718</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -16284,7 +16330,7 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>35524</v>
+        <v>35513</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -16292,7 +16338,7 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>34648</v>
+        <v>34641</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -16300,7 +16346,7 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>34075</v>
+        <v>34064</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -16308,7 +16354,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>33724</v>
+        <v>33709</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -16316,7 +16362,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>33070</v>
+        <v>33026</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -16324,7 +16370,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>32639</v>
+        <v>32602</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -16332,7 +16378,7 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>32280</v>
+        <v>32265</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -16340,7 +16386,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>31761</v>
+        <v>31762</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -16348,7 +16394,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>31225</v>
+        <v>31249</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -16356,7 +16402,7 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>30996</v>
+        <v>30984</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -16364,7 +16410,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>31009</v>
+        <v>31020</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -16372,7 +16418,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>30864</v>
+        <v>30840</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -16380,7 +16426,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>29698</v>
+        <v>29686</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -16388,7 +16434,7 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>29154</v>
+        <v>29149</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -16396,7 +16442,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>28450</v>
+        <v>28431</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -16404,7 +16450,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>27895</v>
+        <v>27899</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -16412,7 +16458,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>27867</v>
+        <v>27866</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -16420,7 +16466,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>28270</v>
+        <v>28279</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -16428,7 +16474,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>28576</v>
+        <v>28561</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -16436,7 +16482,7 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>28415</v>
+        <v>28411</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -16444,7 +16490,7 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>28616</v>
+        <v>28586</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -16452,7 +16498,7 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>27967</v>
+        <v>27970</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -16460,7 +16506,7 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>28220</v>
+        <v>28221</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -16468,7 +16514,7 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>28799</v>
+        <v>28797</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -16476,7 +16522,7 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>30235</v>
+        <v>30226</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -16484,7 +16530,7 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>31102</v>
+        <v>31119</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -16492,7 +16538,7 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>31842</v>
+        <v>31828</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -16500,7 +16546,7 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>31738</v>
+        <v>31710</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -16508,7 +16554,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>32482</v>
+        <v>32485</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -16516,7 +16562,7 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>32488</v>
+        <v>32479</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -16524,7 +16570,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>33585</v>
+        <v>33627</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -16532,7 +16578,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>35248</v>
+        <v>35222</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -16540,7 +16586,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>36405</v>
+        <v>36430</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -16548,7 +16594,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>37500</v>
+        <v>37508</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -16556,7 +16602,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>37798</v>
+        <v>37801</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -16564,7 +16610,7 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>38146</v>
+        <v>38150</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -16572,7 +16618,7 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>38764</v>
+        <v>38765</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -16580,7 +16626,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>39769</v>
+        <v>39820</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -16588,7 +16634,7 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>41760</v>
+        <v>41772</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -16596,7 +16642,7 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>43076</v>
+        <v>43097</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -16604,7 +16650,7 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>43933</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -16612,7 +16658,7 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>51599</v>
+        <v>51606</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -16620,7 +16666,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>51858</v>
+        <v>51861</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -16628,7 +16674,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>52727</v>
+        <v>52739</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -16636,7 +16682,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>53988</v>
+        <v>54044</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -16644,7 +16690,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>55565</v>
+        <v>55554</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -16652,7 +16698,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>56144</v>
+        <v>56168</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -16660,7 +16706,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>57440</v>
+        <v>57459</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -16668,7 +16714,7 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>57759</v>
+        <v>57737</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -16676,7 +16722,7 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>57645</v>
+        <v>57646</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -16684,7 +16730,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>57885</v>
+        <v>57882</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -16692,7 +16738,7 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>58370</v>
+        <v>58352</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -16700,7 +16746,7 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>59364</v>
+        <v>59351</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -16708,7 +16754,7 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>59596</v>
+        <v>59598</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -16716,7 +16762,7 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>59718</v>
+        <v>59712</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -16724,7 +16770,7 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>59682</v>
+        <v>59677</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -16732,7 +16778,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>59301</v>
+        <v>59269</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -16740,7 +16786,7 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>58621</v>
+        <v>58644</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -16748,7 +16794,7 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>58897</v>
+        <v>58906</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -16756,7 +16802,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>57091</v>
+        <v>57086</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -16764,7 +16810,7 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>57339</v>
+        <v>57325</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -16772,7 +16818,7 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>56427</v>
+        <v>56434</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -16780,7 +16826,7 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>55593</v>
+        <v>55589</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -16788,7 +16834,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>54470</v>
+        <v>54437</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -16796,7 +16842,7 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>54017</v>
+        <v>53983</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -16804,7 +16850,7 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>53377</v>
+        <v>53413</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -16812,7 +16858,7 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>53326</v>
+        <v>53323</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -16820,7 +16866,7 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>53353</v>
+        <v>53343</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -16828,7 +16874,7 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>53132</v>
+        <v>53129</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -16836,7 +16882,7 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>51207</v>
+        <v>51201</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -16844,7 +16890,7 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>49911</v>
+        <v>49935</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -16852,7 +16898,7 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>48899</v>
+        <v>48866</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -16860,7 +16906,7 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>48635</v>
+        <v>48631</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -16868,7 +16914,7 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>48498</v>
+        <v>48511</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -16876,7 +16922,7 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>47991</v>
+        <v>47949</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -16884,7 +16930,7 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>47218</v>
+        <v>47204</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -16892,7 +16938,7 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>45776</v>
+        <v>45744</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -16900,7 +16946,7 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>44795</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -16916,7 +16962,7 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>43485</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -16924,7 +16970,7 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>43758</v>
+        <v>43767</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -16932,7 +16978,7 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>43330</v>
+        <v>43289</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -16940,7 +16986,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>41988</v>
+        <v>41968</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -16948,7 +16994,7 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>40951</v>
+        <v>40940</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -16956,7 +17002,7 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>39894</v>
+        <v>39919</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -16964,7 +17010,7 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>39017</v>
+        <v>38980</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -16972,7 +17018,7 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>38673</v>
+        <v>38695</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -16980,7 +17026,7 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>38779</v>
+        <v>38775</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -16988,7 +17034,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>38401</v>
+        <v>38418</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -16996,7 +17042,7 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>37464</v>
+        <v>37421</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -17004,7 +17050,7 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>37239</v>
+        <v>37255</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -17012,7 +17058,7 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>36428</v>
+        <v>36437</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -17036,7 +17082,7 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>35271</v>
+        <v>35273</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -17044,7 +17090,7 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>35569</v>
+        <v>35579</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -17052,7 +17098,7 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>34682</v>
+        <v>34650</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -17060,7 +17106,7 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>34099</v>
+        <v>34101</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -17076,7 +17122,7 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>32372</v>
+        <v>32376</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -17084,7 +17130,7 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>31999</v>
+        <v>32009</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -17092,7 +17138,7 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>32262</v>
+        <v>32246</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -17100,7 +17146,7 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>32562</v>
+        <v>32579</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -17108,7 +17154,7 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>32421</v>
+        <v>32438</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -17116,7 +17162,7 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>31421</v>
+        <v>31406</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -17124,7 +17170,7 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>30655</v>
+        <v>30643</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -17132,7 +17178,7 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>29810</v>
+        <v>29804</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -17140,7 +17186,7 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>29895</v>
+        <v>29907</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -17148,7 +17194,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>30328</v>
+        <v>30361</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -17156,7 +17202,7 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>30278</v>
+        <v>30253</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -17164,7 +17210,7 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>29900</v>
+        <v>29875</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -17172,7 +17218,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>29501</v>
+        <v>29521</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -17180,7 +17226,7 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>29035</v>
+        <v>29038</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -17188,7 +17234,7 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>28608</v>
+        <v>28606</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -17196,7 +17242,7 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>28755</v>
+        <v>28762</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -17204,7 +17250,7 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>29459</v>
+        <v>29448</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -17212,7 +17258,7 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>29905</v>
+        <v>29937</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -17220,7 +17266,7 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>30043</v>
+        <v>30036</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -17228,7 +17274,7 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>29769</v>
+        <v>29768</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -17236,7 +17282,7 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>29554</v>
+        <v>29551</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -17244,7 +17290,7 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>29434</v>
+        <v>29443</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -17252,7 +17298,7 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>29608</v>
+        <v>29601</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -17260,7 +17306,7 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>30473</v>
+        <v>30499</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -17268,7 +17314,7 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>30911</v>
+        <v>30912</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -17276,7 +17322,7 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>30790</v>
+        <v>30809</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -17284,7 +17330,7 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>30744</v>
+        <v>30769</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -17292,7 +17338,7 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>30113</v>
+        <v>30111</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -17300,7 +17346,7 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>29942</v>
+        <v>29945</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -17308,7 +17354,7 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>31299</v>
+        <v>31327</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -17316,7 +17362,7 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>32595</v>
+        <v>32626</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -17324,7 +17370,7 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>33457</v>
+        <v>33482</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -17332,7 +17378,7 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>34322</v>
+        <v>34319</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -17340,7 +17386,7 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>34839</v>
+        <v>34877</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -17348,7 +17394,7 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>34618</v>
+        <v>34600</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -17356,7 +17402,7 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>34490</v>
+        <v>34498</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -17364,7 +17410,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>35072</v>
+        <v>35066</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -17372,7 +17418,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>36051</v>
+        <v>36064</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -17380,7 +17426,7 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>37048</v>
+        <v>37088</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -17388,7 +17434,7 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>37308</v>
+        <v>37328</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -17396,7 +17442,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>37336</v>
+        <v>37368</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -17404,7 +17450,7 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>37359</v>
+        <v>37358</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -17412,7 +17458,7 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>36437</v>
+        <v>36452</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -17420,7 +17466,7 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>37826</v>
+        <v>37858</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -17428,7 +17474,7 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>39230</v>
+        <v>39303</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -17436,7 +17482,7 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>40271</v>
+        <v>40284</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -17444,7 +17490,7 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>41010</v>
+        <v>41036</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -17452,7 +17498,7 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>41482</v>
+        <v>41501</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -17460,7 +17506,7 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>41905</v>
+        <v>41989</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -17468,7 +17514,7 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>41776</v>
+        <v>41786</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -17476,7 +17522,7 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>42917</v>
+        <v>42924</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -17484,7 +17530,7 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>44212</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -17492,7 +17538,7 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>45045</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -17500,7 +17546,7 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>46095</v>
+        <v>46126</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -17508,7 +17554,7 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>46688</v>
+        <v>46738</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -17516,7 +17562,7 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>47375</v>
+        <v>47402</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -17524,7 +17570,7 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>47520</v>
+        <v>47531</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -17532,7 +17578,7 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>48470</v>
+        <v>48557</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -17540,7 +17586,7 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>50340</v>
+        <v>50426</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -17548,7 +17594,7 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>52049</v>
+        <v>52086</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -17556,7 +17602,7 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>53322</v>
+        <v>53375</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -17564,7 +17610,7 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>54824</v>
+        <v>54851</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -17572,7 +17618,7 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>55840</v>
+        <v>55925</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -17580,7 +17626,7 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>56799</v>
+        <v>56842</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -17588,7 +17634,7 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>59275</v>
+        <v>59301</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -17596,7 +17642,7 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>61964</v>
+        <v>62059</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -17604,7 +17650,7 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>65373</v>
+        <v>65463</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -17612,7 +17658,7 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>67096</v>
+        <v>67100</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -17620,7 +17666,7 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>68519</v>
+        <v>68496</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -17628,7 +17674,7 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>69463</v>
+        <v>69498</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -17636,7 +17682,7 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>69980</v>
+        <v>70113</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -17644,7 +17690,7 @@
         <v>606</v>
       </c>
       <c r="B301">
-        <v>73014</v>
+        <v>73268</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -17652,7 +17698,15 @@
         <v>607</v>
       </c>
       <c r="B302">
-        <v>76823</v>
+        <v>76958</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>610</v>
+      </c>
+      <c r="B303">
+        <v>79410</v>
       </c>
     </row>
   </sheetData>
@@ -17665,7 +17719,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20099,6 +20153,14 @@
         <v>3247</v>
       </c>
     </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>611</v>
+      </c>
+      <c r="B304">
+        <v>3247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -20111,7 +20173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569CD63-D08C-412F-ACE2-6E6DAEC9D60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3A6AB7-1B25-43EE-9AE9-6817336411E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$304</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$303</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$304</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$304</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$305</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$304</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$305</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$305</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="614">
   <si>
     <t>date</t>
   </si>
@@ -1886,6 +1886,12 @@
   </si>
   <si>
     <t>11/18/2020</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>11/19/2020</t>
   </si>
 </sst>
 </file>
@@ -1997,9 +2003,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$304</c:f>
+              <c:f>'Cases Data'!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2908,16 +2914,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$304</c:f>
+              <c:f>'Cases Data'!$B$2:$B$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3819,13 +3828,16 @@
                   <c:v>11113482</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11279747</c:v>
+                  <c:v>11280026</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>11441484</c:v>
+                  <c:v>11441728</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>11613875</c:v>
+                  <c:v>11614076</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11801472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3957,9 +3969,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$304</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4868,16 +4880,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$304</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5785,7 +5800,10 @@
                   <c:v>247535</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>249438</c:v>
+                  <c:v>249440</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>251391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5917,9 +5935,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$303</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6825,16 +6843,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$303</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7740,6 +7761,9 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>79410</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>80698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7881,9 +7905,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$304</c:f>
+              <c:f>'County Counts'!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8792,16 +8816,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>11/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11/19/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$304</c:f>
+              <c:f>'County Counts'!$B$2:$B$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9709,6 +9736,9 @@
                   <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="302">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="303">
                   <c:v>3247</c:v>
                 </c:pt>
               </c:numCache>
@@ -9993,9 +10023,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B304" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B304" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B304">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B305" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B305" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B305">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10007,9 +10037,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B304" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B304" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B304">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B305" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B305" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B305">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10021,9 +10051,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B303" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B303" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B304" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B304" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B304">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10035,9 +10065,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B304" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B304" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B304">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B305" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B305" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B305">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10369,7 +10399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12794,7 +12824,7 @@
         <v>606</v>
       </c>
       <c r="B302">
-        <v>11279747</v>
+        <v>11280026</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -12802,7 +12832,7 @@
         <v>607</v>
       </c>
       <c r="B303">
-        <v>11441484</v>
+        <v>11441728</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -12810,7 +12840,15 @@
         <v>610</v>
       </c>
       <c r="B304">
-        <v>11613875</v>
+        <v>11614076</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>612</v>
+      </c>
+      <c r="B305">
+        <v>11801472</v>
       </c>
     </row>
   </sheetData>
@@ -12823,7 +12861,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15262,7 +15300,15 @@
         <v>610</v>
       </c>
       <c r="B304">
-        <v>249438</v>
+        <v>249440</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>612</v>
+      </c>
+      <c r="B305">
+        <v>251391</v>
       </c>
     </row>
   </sheetData>
@@ -15275,9 +15321,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0"/>
+    <sheetView topLeftCell="A268" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17709,6 +17755,14 @@
         <v>79410</v>
       </c>
     </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>612</v>
+      </c>
+      <c r="B304">
+        <v>80698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17719,7 +17773,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20158,6 +20212,14 @@
         <v>611</v>
       </c>
       <c r="B304">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>613</v>
+      </c>
+      <c r="B305">
         <v>3247</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3A6AB7-1B25-43EE-9AE9-6817336411E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F585ECB-DCE6-4DA2-A28D-276C8B29AEDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$305</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$304</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$305</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$305</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$306</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$305</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$306</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$306</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="616">
   <si>
     <t>date</t>
   </si>
@@ -1892,6 +1892,12 @@
   </si>
   <si>
     <t>11/19/2020</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>11/20/2020</t>
   </si>
 </sst>
 </file>
@@ -2003,9 +2009,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$305</c:f>
+              <c:f>'Cases Data'!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2917,16 +2923,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$305</c:f>
+              <c:f>'Cases Data'!$B$2:$B$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3837,7 +3846,10 @@
                   <c:v>11614076</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>11801472</c:v>
+                  <c:v>11801516</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>12000041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3969,9 +3981,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$305</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4883,16 +4895,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$305</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5804,6 +5819,9 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>251391</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>253329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5935,9 +5953,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$304</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6846,16 +6864,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$304</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7764,6 +7785,9 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>80698</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>82178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7905,9 +7929,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$305</c:f>
+              <c:f>'County Counts'!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8819,16 +8843,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>11/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>11/20/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$305</c:f>
+              <c:f>'County Counts'!$B$2:$B$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9739,6 +9766,9 @@
                   <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="303">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="304">
                   <c:v>3247</c:v>
                 </c:pt>
               </c:numCache>
@@ -10023,9 +10053,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B305" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B305" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B305">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B306" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B306" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B306">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10037,9 +10067,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B305" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B305" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B305">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B306" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B306" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B306">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10051,9 +10081,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B304" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B304" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B304">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B305" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B305" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B305">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10065,9 +10095,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B305" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B305" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B305">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B306" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B306" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B306">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10399,7 +10429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B305"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12848,7 +12878,15 @@
         <v>612</v>
       </c>
       <c r="B305">
-        <v>11801472</v>
+        <v>11801516</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>614</v>
+      </c>
+      <c r="B306">
+        <v>12000041</v>
       </c>
     </row>
   </sheetData>
@@ -12861,7 +12899,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B305"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15311,6 +15349,14 @@
         <v>251391</v>
       </c>
     </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>614</v>
+      </c>
+      <c r="B306">
+        <v>253329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15321,9 +15367,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0"/>
+    <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17763,6 +17809,14 @@
         <v>80698</v>
       </c>
     </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>614</v>
+      </c>
+      <c r="B305">
+        <v>82178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17773,7 +17827,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B305"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20220,6 +20274,14 @@
         <v>613</v>
       </c>
       <c r="B305">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>615</v>
+      </c>
+      <c r="B306">
         <v>3247</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F585ECB-DCE6-4DA2-A28D-276C8B29AEDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35317788-5B7C-4C21-9A12-68C5E36AA33D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$306</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$305</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$306</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$306</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$307</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$306</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$307</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$307</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="618">
   <si>
     <t>date</t>
   </si>
@@ -1898,6 +1898,12 @@
   </si>
   <si>
     <t>11/20/2020</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>11/21/2020</t>
   </si>
 </sst>
 </file>
@@ -2009,9 +2015,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$306</c:f>
+              <c:f>'Cases Data'!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2926,16 +2932,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$306</c:f>
+              <c:f>'Cases Data'!$B$2:$B$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3849,7 +3858,10 @@
                   <c:v>11801516</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>12000041</c:v>
+                  <c:v>12000149</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>12172077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3981,9 +3993,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$306</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4898,16 +4910,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$306</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5821,7 +5836,10 @@
                   <c:v>251391</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>253329</c:v>
+                  <c:v>253334</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>254742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5953,9 +5971,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$305</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6867,16 +6885,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$305</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7788,6 +7809,9 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>82178</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>83227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7929,9 +7953,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$306</c:f>
+              <c:f>'County Counts'!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8846,16 +8870,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>11/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>11/21/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$306</c:f>
+              <c:f>'County Counts'!$B$2:$B$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9769,6 +9796,9 @@
                   <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="304">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="305">
                   <c:v>3247</c:v>
                 </c:pt>
               </c:numCache>
@@ -10053,9 +10083,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B306" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B306" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B306">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B307" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B307" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B307">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10067,9 +10097,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B306" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B306" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B306">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B307" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B307" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B307">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10081,9 +10111,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B305" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B305" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B305">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B306" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B306" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B306">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10095,9 +10125,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B306" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B306" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B306">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B307" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B307" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B307">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10429,7 +10459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12886,7 +12916,15 @@
         <v>614</v>
       </c>
       <c r="B306">
-        <v>12000041</v>
+        <v>12000149</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>616</v>
+      </c>
+      <c r="B307">
+        <v>12172077</v>
       </c>
     </row>
   </sheetData>
@@ -12899,7 +12937,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15354,7 +15392,15 @@
         <v>614</v>
       </c>
       <c r="B306">
-        <v>253329</v>
+        <v>253334</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>616</v>
+      </c>
+      <c r="B307">
+        <v>254742</v>
       </c>
     </row>
   </sheetData>
@@ -15367,7 +15413,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B305"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -17817,6 +17863,14 @@
         <v>82178</v>
       </c>
     </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>616</v>
+      </c>
+      <c r="B306">
+        <v>83227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17827,7 +17881,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20282,6 +20336,14 @@
         <v>615</v>
       </c>
       <c r="B306">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>617</v>
+      </c>
+      <c r="B307">
         <v>3247</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35317788-5B7C-4C21-9A12-68C5E36AA33D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C239CCE-F8F0-406B-BBD1-4FEC9E41E33B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$307</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$306</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$307</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$307</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$308</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$307</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$308</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$308</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="620">
   <si>
     <t>date</t>
   </si>
@@ -1904,6 +1904,12 @@
   </si>
   <si>
     <t>11/21/2020</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>11/22/2020</t>
   </si>
 </sst>
 </file>
@@ -2015,9 +2021,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$307</c:f>
+              <c:f>'Cases Data'!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2935,16 +2941,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$307</c:f>
+              <c:f>'Cases Data'!$B$2:$B$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3862,6 +3871,9 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>12172077</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>12313710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3993,9 +4005,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$307</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4913,16 +4925,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$307</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5840,6 +5855,9 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>254742</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>255570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5971,9 +5989,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$306</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6888,16 +6906,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$306</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7805,13 +7826,16 @@
                   <c:v>79410</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>80698</c:v>
+                  <c:v>80585</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>82178</c:v>
+                  <c:v>82150</c:v>
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>83227</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>83782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7953,9 +7977,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$307</c:f>
+              <c:f>'County Counts'!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8873,16 +8897,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>11/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>11/22/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$307</c:f>
+              <c:f>'County Counts'!$B$2:$B$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9799,6 +9826,9 @@
                   <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="305">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="306">
                   <c:v>3247</c:v>
                 </c:pt>
               </c:numCache>
@@ -10083,9 +10113,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B307" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B307" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B307">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B308" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B308" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B308">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10097,9 +10127,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B307" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B307" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B307">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B308" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B308" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B308">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10111,9 +10141,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B306" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B306" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B306">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B307" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B307" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B307">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10125,9 +10155,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B307" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B307" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B307">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B308" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B308" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B308">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10459,7 +10489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12927,6 +12957,14 @@
         <v>12172077</v>
       </c>
     </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>618</v>
+      </c>
+      <c r="B308">
+        <v>12313710</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12937,7 +12975,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15403,6 +15441,14 @@
         <v>254742</v>
       </c>
     </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>618</v>
+      </c>
+      <c r="B308">
+        <v>255570</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15413,7 +15459,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -17852,7 +17898,7 @@
         <v>612</v>
       </c>
       <c r="B304">
-        <v>80698</v>
+        <v>80585</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -17860,7 +17906,7 @@
         <v>614</v>
       </c>
       <c r="B305">
-        <v>82178</v>
+        <v>82150</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -17869,6 +17915,14 @@
       </c>
       <c r="B306">
         <v>83227</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>618</v>
+      </c>
+      <c r="B307">
+        <v>83782</v>
       </c>
     </row>
   </sheetData>
@@ -17881,7 +17935,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20344,6 +20398,14 @@
         <v>617</v>
       </c>
       <c r="B307">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>619</v>
+      </c>
+      <c r="B308">
         <v>3247</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C239CCE-F8F0-406B-BBD1-4FEC9E41E33B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE97B2B-3929-44B1-A2E4-7FFE1646F356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$308</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$307</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$308</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$308</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$309</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$308</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$309</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$309</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="622">
   <si>
     <t>date</t>
   </si>
@@ -1910,6 +1910,12 @@
   </si>
   <si>
     <t>11/22/2020</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>11/23/2020</t>
   </si>
 </sst>
 </file>
@@ -2021,9 +2027,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$308</c:f>
+              <c:f>'Cases Data'!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2944,16 +2950,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$308</c:f>
+              <c:f>'Cases Data'!$B$2:$B$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3873,7 +3882,10 @@
                   <c:v>12172077</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>12313710</c:v>
+                  <c:v>12313111</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>12492056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4005,9 +4017,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$308</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4928,16 +4940,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$308</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5857,7 +5872,10 @@
                   <c:v>254742</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>255570</c:v>
+                  <c:v>255580</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>256603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5989,9 +6007,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$307</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6909,16 +6927,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$307</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7832,10 +7853,13 @@
                   <c:v>82150</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>83227</c:v>
+                  <c:v>83232</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>83782</c:v>
+                  <c:v>83779</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>85836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7977,9 +8001,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$308</c:f>
+              <c:f>'County Counts'!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8900,16 +8924,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>11/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>11/23/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$308</c:f>
+              <c:f>'County Counts'!$B$2:$B$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9830,6 +9857,9 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10113,9 +10143,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B308" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B308" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B308">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B309" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B309" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B309">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10127,9 +10157,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B308" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B308" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B308">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B309" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B309" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B309">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10141,9 +10171,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B307" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B307" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B307">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B308" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B308" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B308">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10155,9 +10185,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B308" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B308" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B308">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B309" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B309" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B309">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10489,7 +10519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12962,7 +12992,15 @@
         <v>618</v>
       </c>
       <c r="B308">
-        <v>12313710</v>
+        <v>12313111</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>620</v>
+      </c>
+      <c r="B309">
+        <v>12492056</v>
       </c>
     </row>
   </sheetData>
@@ -12975,7 +13013,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15446,7 +15484,15 @@
         <v>618</v>
       </c>
       <c r="B308">
-        <v>255570</v>
+        <v>255580</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>620</v>
+      </c>
+      <c r="B309">
+        <v>256603</v>
       </c>
     </row>
   </sheetData>
@@ -15459,7 +15505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -17914,7 +17960,7 @@
         <v>616</v>
       </c>
       <c r="B306">
-        <v>83227</v>
+        <v>83232</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -17922,7 +17968,15 @@
         <v>618</v>
       </c>
       <c r="B307">
-        <v>83782</v>
+        <v>83779</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>620</v>
+      </c>
+      <c r="B308">
+        <v>85836</v>
       </c>
     </row>
   </sheetData>
@@ -17935,7 +17989,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20407,6 +20461,14 @@
       </c>
       <c r="B308">
         <v>3247</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>621</v>
+      </c>
+      <c r="B309">
+        <v>3246</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE97B2B-3929-44B1-A2E4-7FFE1646F356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA1B023-FBA9-4221-8C54-230AB92987EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$309</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$308</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$309</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$309</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$310</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$309</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$310</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$310</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="624">
   <si>
     <t>date</t>
   </si>
@@ -1916,6 +1916,12 @@
   </si>
   <si>
     <t>11/23/2020</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>11/24/2020</t>
   </si>
 </sst>
 </file>
@@ -2027,9 +2033,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$309</c:f>
+              <c:f>'Cases Data'!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2953,16 +2959,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$309</c:f>
+              <c:f>'Cases Data'!$B$2:$B$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3885,7 +3894,10 @@
                   <c:v>12313111</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>12492056</c:v>
+                  <c:v>12492178</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>12668666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4017,9 +4029,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$309</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4943,16 +4955,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$309</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5876,6 +5891,9 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>256603</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>258794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6007,9 +6025,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$308</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6930,16 +6948,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$308</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7859,7 +7880,10 @@
                   <c:v>83779</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>85836</c:v>
+                  <c:v>85870</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>88080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8001,9 +8025,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$309</c:f>
+              <c:f>'County Counts'!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8927,16 +8951,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>11/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>11/24/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$309</c:f>
+              <c:f>'County Counts'!$B$2:$B$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9859,6 +9886,9 @@
                   <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="307">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="308">
                   <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
@@ -10143,9 +10173,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B309" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B309" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B309">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B310" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B310" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B310">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10157,9 +10187,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B309" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B309" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B309">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B310" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B310" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B310">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10171,9 +10201,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B308" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B308" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B308">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B309" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B309" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B309">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10185,9 +10215,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B309" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B309" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B309">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B310" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B310" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B310">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10519,7 +10549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -13000,7 +13030,15 @@
         <v>620</v>
       </c>
       <c r="B309">
-        <v>12492056</v>
+        <v>12492178</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>622</v>
+      </c>
+      <c r="B310">
+        <v>12668666</v>
       </c>
     </row>
   </sheetData>
@@ -13013,7 +13051,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15495,6 +15533,14 @@
         <v>256603</v>
       </c>
     </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>622</v>
+      </c>
+      <c r="B310">
+        <v>258794</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15505,7 +15551,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -17976,7 +18022,15 @@
         <v>620</v>
       </c>
       <c r="B308">
-        <v>85836</v>
+        <v>85870</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>622</v>
+      </c>
+      <c r="B309">
+        <v>88080</v>
       </c>
     </row>
   </sheetData>
@@ -17989,7 +18043,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20468,6 +20522,14 @@
         <v>621</v>
       </c>
       <c r="B309">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>623</v>
+      </c>
+      <c r="B310">
         <v>3246</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA1B023-FBA9-4221-8C54-230AB92987EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66188565-8717-49B5-95EA-F1BC04BCE50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$310</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$309</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$310</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$310</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$311</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$310</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$311</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$311</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="626">
   <si>
     <t>date</t>
   </si>
@@ -1922,6 +1922,12 @@
   </si>
   <si>
     <t>11/24/2020</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>11/25/2020</t>
   </si>
 </sst>
 </file>
@@ -2033,9 +2039,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$310</c:f>
+              <c:f>'Cases Data'!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2962,16 +2968,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$310</c:f>
+              <c:f>'Cases Data'!$B$2:$B$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3897,7 +3906,10 @@
                   <c:v>12492178</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12668666</c:v>
+                  <c:v>12669898</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>12848813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4029,9 +4041,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$310</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4958,16 +4970,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$310</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5893,7 +5908,10 @@
                   <c:v>256603</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>258794</c:v>
+                  <c:v>258807</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>261087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6025,9 +6043,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$309</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6951,16 +6969,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$309</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7817,7 +7838,7 @@
                   <c:v>47531</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>48557</c:v>
+                  <c:v>48693</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>50426</c:v>
@@ -7884,6 +7905,9 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>88080</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>89959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8025,9 +8049,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$310</c:f>
+              <c:f>'County Counts'!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8954,16 +8978,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>11/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>11/25/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$310</c:f>
+              <c:f>'County Counts'!$B$2:$B$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9889,6 +9916,9 @@
                   <c:v>3246</c:v>
                 </c:pt>
                 <c:pt idx="308">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="309">
                   <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
@@ -10173,9 +10203,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B310" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B310" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B310">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B311" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B311" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B311">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10187,9 +10217,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B310" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B310" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B310">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B311" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B311" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B311">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10201,9 +10231,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B309" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B309" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B309">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B310" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B310" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B310">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10215,9 +10245,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B310" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B310" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B310">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B311" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B311" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B311">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10549,7 +10579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -13038,7 +13068,15 @@
         <v>622</v>
       </c>
       <c r="B310">
-        <v>12668666</v>
+        <v>12669898</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>624</v>
+      </c>
+      <c r="B311">
+        <v>12848813</v>
       </c>
     </row>
   </sheetData>
@@ -13051,7 +13089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15538,7 +15576,15 @@
         <v>622</v>
       </c>
       <c r="B310">
-        <v>258794</v>
+        <v>258807</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>624</v>
+      </c>
+      <c r="B311">
+        <v>261087</v>
       </c>
     </row>
   </sheetData>
@@ -15551,7 +15597,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -17854,7 +17900,7 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>48557</v>
+        <v>48693</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -18031,6 +18077,14 @@
       </c>
       <c r="B309">
         <v>88080</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>624</v>
+      </c>
+      <c r="B310">
+        <v>89959</v>
       </c>
     </row>
   </sheetData>
@@ -18043,7 +18097,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20530,6 +20584,14 @@
         <v>623</v>
       </c>
       <c r="B310">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>625</v>
+      </c>
+      <c r="B311">
         <v>3246</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66188565-8717-49B5-95EA-F1BC04BCE50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EE862-4447-42A1-80F5-0EEC44C2060F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$311</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$310</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$311</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$311</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$312</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$311</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$312</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$312</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="628">
   <si>
     <t>date</t>
   </si>
@@ -1928,6 +1928,12 @@
   </si>
   <si>
     <t>11/25/2020</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>11/26/2020</t>
   </si>
 </sst>
 </file>
@@ -2039,9 +2045,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$311</c:f>
+              <c:f>'Cases Data'!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2971,16 +2977,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$311</c:f>
+              <c:f>'Cases Data'!$B$2:$B$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3909,7 +3918,10 @@
                   <c:v>12669898</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12848813</c:v>
+                  <c:v>12850786</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>12954324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4041,9 +4053,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$311</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4973,16 +4985,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$311</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5911,7 +5926,10 @@
                   <c:v>258807</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>261087</c:v>
+                  <c:v>261106</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>262267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6043,9 +6061,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$310</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6972,16 +6990,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$310</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7908,6 +7929,9 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>89959</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>90481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8049,9 +8073,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$311</c:f>
+              <c:f>'County Counts'!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8981,16 +9005,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>11/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>11/26/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$311</c:f>
+              <c:f>'County Counts'!$B$2:$B$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9920,6 +9947,9 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10203,9 +10233,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B311" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B311" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B311">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B312" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B312" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B312">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10217,9 +10247,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B311" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B311" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B311">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B312" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B312" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B312">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10231,9 +10261,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B310" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B310" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B310">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B311" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B311" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B311">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10245,9 +10275,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B311" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B311" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B311">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B312" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B312" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B312">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10579,9 +10609,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+    <sheetView topLeftCell="A276" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -13076,7 +13106,15 @@
         <v>624</v>
       </c>
       <c r="B311">
-        <v>12848813</v>
+        <v>12850786</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>626</v>
+      </c>
+      <c r="B312">
+        <v>12954324</v>
       </c>
     </row>
   </sheetData>
@@ -13089,7 +13127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15584,7 +15622,15 @@
         <v>624</v>
       </c>
       <c r="B311">
-        <v>261087</v>
+        <v>261106</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>626</v>
+      </c>
+      <c r="B312">
+        <v>262267</v>
       </c>
     </row>
   </sheetData>
@@ -15597,7 +15643,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -18087,6 +18133,14 @@
         <v>89959</v>
       </c>
     </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>626</v>
+      </c>
+      <c r="B311">
+        <v>90481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18097,7 +18151,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20593,6 +20647,14 @@
       </c>
       <c r="B311">
         <v>3246</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>627</v>
+      </c>
+      <c r="B312">
+        <v>3247</v>
       </c>
     </row>
   </sheetData>
@@ -20648,7 +20710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EE862-4447-42A1-80F5-0EEC44C2060F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9071FB83-926F-4AD7-85FA-A893063DB950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$312</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$311</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$312</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$312</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$313</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$312</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$313</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$313</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="630">
   <si>
     <t>date</t>
   </si>
@@ -1934,6 +1934,12 @@
   </si>
   <si>
     <t>11/26/2020</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>11/27/2020</t>
   </si>
 </sst>
 </file>
@@ -2045,9 +2051,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$312</c:f>
+              <c:f>'Cases Data'!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2980,16 +2986,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$312</c:f>
+              <c:f>'Cases Data'!$B$2:$B$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3922,6 +3931,9 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>12954324</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>13153428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4053,9 +4065,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$312</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4988,16 +5000,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$312</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5930,6 +5945,9 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>262267</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>263648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6061,9 +6079,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$311</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6993,16 +7011,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$311</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7932,6 +7953,9 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>90481</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>89834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8073,9 +8097,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$312</c:f>
+              <c:f>'County Counts'!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9008,16 +9032,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>11/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>11/27/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$312</c:f>
+              <c:f>'County Counts'!$B$2:$B$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9950,6 +9977,9 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10233,9 +10263,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B312" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B312" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B312">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B313" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B313" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B313">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10247,9 +10277,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B312" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B312" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B312">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B313" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B313" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B313">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10261,9 +10291,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B311" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B311" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B311">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B312" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B312" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B312">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10275,9 +10305,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B312" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B312" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B312">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B313" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B313" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B313">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10609,9 +10639,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -13117,6 +13147,14 @@
         <v>12954324</v>
       </c>
     </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>628</v>
+      </c>
+      <c r="B313">
+        <v>13153428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13127,7 +13165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15633,6 +15671,14 @@
         <v>262267</v>
       </c>
     </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>628</v>
+      </c>
+      <c r="B313">
+        <v>263648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15643,7 +15689,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -18141,6 +18187,14 @@
         <v>90481</v>
       </c>
     </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>628</v>
+      </c>
+      <c r="B312">
+        <v>89834</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18151,7 +18205,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20655,6 +20709,14 @@
       </c>
       <c r="B312">
         <v>3247</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>629</v>
+      </c>
+      <c r="B313">
+        <v>3246</v>
       </c>
     </row>
   </sheetData>
@@ -20710,7 +20772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9071FB83-926F-4AD7-85FA-A893063DB950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DCDA11-8F3E-4DF5-B8FB-69876DEBA097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$313</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$312</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$313</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$313</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$314</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$313</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$314</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$314</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="632">
   <si>
     <t>date</t>
   </si>
@@ -1940,6 +1940,12 @@
   </si>
   <si>
     <t>11/27/2020</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>11/28/2020</t>
   </si>
 </sst>
 </file>
@@ -2051,9 +2057,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$313</c:f>
+              <c:f>'Cases Data'!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2989,16 +2995,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$313</c:f>
+              <c:f>'Cases Data'!$B$2:$B$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3774,166 +3783,169 @@
                   <c:v>7445574</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7507956</c:v>
+                  <c:v>7507986</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7550841</c:v>
+                  <c:v>7550848</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7603856</c:v>
+                  <c:v>7603865</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>7660231</c:v>
+                  <c:v>7660248</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7719190</c:v>
+                  <c:v>7719210</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>7770838</c:v>
+                  <c:v>7770858</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7815621</c:v>
+                  <c:v>7815641</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7863637</c:v>
+                  <c:v>7863657</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7917996</c:v>
+                  <c:v>7918051</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7977889</c:v>
+                  <c:v>7977904</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>8043229</c:v>
+                  <c:v>8043257</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8113706</c:v>
+                  <c:v>8113720</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8166467</c:v>
+                  <c:v>8166481</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8214349</c:v>
+                  <c:v>8214363</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8279780</c:v>
+                  <c:v>8279803</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8340387</c:v>
+                  <c:v>8340397</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8404616</c:v>
+                  <c:v>8404634</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8479704</c:v>
+                  <c:v>8479762</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8564816</c:v>
+                  <c:v>8564893</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8643572</c:v>
+                  <c:v>8643591</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8703284</c:v>
+                  <c:v>8703303</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8777727</c:v>
+                  <c:v>8777800</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>8852180</c:v>
+                  <c:v>8852197</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8934082</c:v>
+                  <c:v>8934121</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>9024852</c:v>
+                  <c:v>9024915</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9124654</c:v>
+                  <c:v>9124729</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9208952</c:v>
+                  <c:v>9208964</c:v>
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>9283188</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>9376874</c:v>
+                  <c:v>9376927</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>9469493</c:v>
+                  <c:v>9469557</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>9577421</c:v>
+                  <c:v>9577440</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>9698960</c:v>
+                  <c:v>9698981</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>9831814</c:v>
+                  <c:v>9831853</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9957746</c:v>
+                  <c:v>9957785</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>10061072</c:v>
+                  <c:v>10061111</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>10191454</c:v>
+                  <c:v>10191547</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>10331142</c:v>
+                  <c:v>10331221</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>10474163</c:v>
+                  <c:v>10474242</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10637603</c:v>
+                  <c:v>10637733</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10819174</c:v>
+                  <c:v>10819326</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10978295</c:v>
+                  <c:v>10978447</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11113482</c:v>
+                  <c:v>11113634</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11280026</c:v>
+                  <c:v>11280088</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>11441728</c:v>
+                  <c:v>11441833</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>11614076</c:v>
+                  <c:v>11614116</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>11801516</c:v>
+                  <c:v>11801586</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>12000149</c:v>
+                  <c:v>12000258</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12172077</c:v>
+                  <c:v>12172261</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>12313111</c:v>
+                  <c:v>12313295</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>12492178</c:v>
+                  <c:v>12492394</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12669898</c:v>
+                  <c:v>12670684</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12850786</c:v>
+                  <c:v>12851220</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>12954324</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>13153428</c:v>
+                  <c:v>13159784</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>13311029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4065,9 +4077,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$313</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5003,16 +5015,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$313</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5332,13 +5347,13 @@
                   <c:v>71139</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>73847</c:v>
+                  <c:v>73748</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>75805</c:v>
+                  <c:v>75703</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>77380</c:v>
+                  <c:v>77273</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>78726</c:v>
@@ -5842,7 +5857,7 @@
                   <c:v>222240</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>223157</c:v>
+                  <c:v>223158</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>224027</c:v>
@@ -5938,16 +5953,19 @@
                   <c:v>256603</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>258807</c:v>
+                  <c:v>258806</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>261106</c:v>
+                  <c:v>261105</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>262267</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>263648</c:v>
+                  <c:v>263672</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>264857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6079,9 +6097,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$312</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7014,16 +7032,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$312</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7956,6 +7977,9 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>89834</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>91635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8097,9 +8121,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$313</c:f>
+              <c:f>'County Counts'!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9035,16 +9059,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>11/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>11/28/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$313</c:f>
+              <c:f>'County Counts'!$B$2:$B$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9979,6 +10006,9 @@
                   <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="311">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="312">
                   <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
@@ -10263,9 +10293,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B313" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B313" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B313">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B314" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B314">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10277,9 +10307,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B313" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B313" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B313">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B314" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B314" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B314">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10291,9 +10321,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B312" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B312" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B312">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B313" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B313" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B313">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10305,9 +10335,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B313" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B313" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B313">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B314" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B314" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B314">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10639,7 +10669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12728,7 +12758,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>7507956</v>
+        <v>7507986</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -12736,7 +12766,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>7550841</v>
+        <v>7550848</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -12744,7 +12774,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>7603856</v>
+        <v>7603865</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -12752,7 +12782,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>7660231</v>
+        <v>7660248</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -12760,7 +12790,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>7719190</v>
+        <v>7719210</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -12768,7 +12798,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>7770838</v>
+        <v>7770858</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -12776,7 +12806,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>7815621</v>
+        <v>7815641</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -12784,7 +12814,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>7863637</v>
+        <v>7863657</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -12792,7 +12822,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>7917996</v>
+        <v>7918051</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -12800,7 +12830,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>7977889</v>
+        <v>7977904</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -12808,7 +12838,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>8043229</v>
+        <v>8043257</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -12816,7 +12846,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>8113706</v>
+        <v>8113720</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -12824,7 +12854,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>8166467</v>
+        <v>8166481</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -12832,7 +12862,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>8214349</v>
+        <v>8214363</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -12840,7 +12870,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>8279780</v>
+        <v>8279803</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -12848,7 +12878,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>8340387</v>
+        <v>8340397</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -12856,7 +12886,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>8404616</v>
+        <v>8404634</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -12864,7 +12894,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>8479704</v>
+        <v>8479762</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -12872,7 +12902,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>8564816</v>
+        <v>8564893</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -12880,7 +12910,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>8643572</v>
+        <v>8643591</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -12888,7 +12918,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>8703284</v>
+        <v>8703303</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -12896,7 +12926,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>8777727</v>
+        <v>8777800</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -12904,7 +12934,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>8852180</v>
+        <v>8852197</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -12912,7 +12942,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>8934082</v>
+        <v>8934121</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -12920,7 +12950,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>9024852</v>
+        <v>9024915</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -12928,7 +12958,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>9124654</v>
+        <v>9124729</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -12936,7 +12966,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>9208952</v>
+        <v>9208964</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -12952,7 +12982,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>9376874</v>
+        <v>9376927</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -12960,7 +12990,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>9469493</v>
+        <v>9469557</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -12968,7 +12998,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>9577421</v>
+        <v>9577440</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -12976,7 +13006,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>9698960</v>
+        <v>9698981</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -12984,7 +13014,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>9831814</v>
+        <v>9831853</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -12992,7 +13022,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>9957746</v>
+        <v>9957785</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -13000,7 +13030,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>10061072</v>
+        <v>10061111</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -13008,7 +13038,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>10191454</v>
+        <v>10191547</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -13016,7 +13046,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>10331142</v>
+        <v>10331221</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -13024,7 +13054,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>10474163</v>
+        <v>10474242</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -13032,7 +13062,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>10637603</v>
+        <v>10637733</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -13040,7 +13070,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>10819174</v>
+        <v>10819326</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -13048,7 +13078,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>10978295</v>
+        <v>10978447</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -13056,7 +13086,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>11113482</v>
+        <v>11113634</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -13064,7 +13094,7 @@
         <v>606</v>
       </c>
       <c r="B302">
-        <v>11280026</v>
+        <v>11280088</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -13072,7 +13102,7 @@
         <v>607</v>
       </c>
       <c r="B303">
-        <v>11441728</v>
+        <v>11441833</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -13080,7 +13110,7 @@
         <v>610</v>
       </c>
       <c r="B304">
-        <v>11614076</v>
+        <v>11614116</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -13088,7 +13118,7 @@
         <v>612</v>
       </c>
       <c r="B305">
-        <v>11801516</v>
+        <v>11801586</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -13096,7 +13126,7 @@
         <v>614</v>
       </c>
       <c r="B306">
-        <v>12000149</v>
+        <v>12000258</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -13104,7 +13134,7 @@
         <v>616</v>
       </c>
       <c r="B307">
-        <v>12172077</v>
+        <v>12172261</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -13112,7 +13142,7 @@
         <v>618</v>
       </c>
       <c r="B308">
-        <v>12313111</v>
+        <v>12313295</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -13120,7 +13150,7 @@
         <v>620</v>
       </c>
       <c r="B309">
-        <v>12492178</v>
+        <v>12492394</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -13128,7 +13158,7 @@
         <v>622</v>
       </c>
       <c r="B310">
-        <v>12669898</v>
+        <v>12670684</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -13136,7 +13166,7 @@
         <v>624</v>
       </c>
       <c r="B311">
-        <v>12850786</v>
+        <v>12851220</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -13152,7 +13182,15 @@
         <v>628</v>
       </c>
       <c r="B313">
-        <v>13153428</v>
+        <v>13159784</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>630</v>
+      </c>
+      <c r="B314">
+        <v>13311029</v>
       </c>
     </row>
   </sheetData>
@@ -13165,7 +13203,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -14036,7 +14074,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>73847</v>
+        <v>73748</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -14044,7 +14082,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>75805</v>
+        <v>75703</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -14052,7 +14090,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>77380</v>
+        <v>77273</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -15396,7 +15434,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>223157</v>
+        <v>223158</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -15652,7 +15690,7 @@
         <v>622</v>
       </c>
       <c r="B310">
-        <v>258807</v>
+        <v>258806</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -15660,7 +15698,7 @@
         <v>624</v>
       </c>
       <c r="B311">
-        <v>261106</v>
+        <v>261105</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -15676,7 +15714,15 @@
         <v>628</v>
       </c>
       <c r="B313">
-        <v>263648</v>
+        <v>263672</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>630</v>
+      </c>
+      <c r="B314">
+        <v>264857</v>
       </c>
     </row>
   </sheetData>
@@ -15689,7 +15735,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -18195,6 +18241,14 @@
         <v>89834</v>
       </c>
     </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>630</v>
+      </c>
+      <c r="B313">
+        <v>91635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18205,7 +18259,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20716,6 +20770,14 @@
         <v>629</v>
       </c>
       <c r="B313">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>631</v>
+      </c>
+      <c r="B314">
         <v>3246</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DCDA11-8F3E-4DF5-B8FB-69876DEBA097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDED49C-DE24-4A74-AE1E-EC137E686980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$314</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$313</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$314</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$314</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$315</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$314</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$315</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$315</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="634">
   <si>
     <t>date</t>
   </si>
@@ -1946,6 +1946,12 @@
   </si>
   <si>
     <t>11/28/2020</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>11/29/2020</t>
   </si>
 </sst>
 </file>
@@ -2057,9 +2063,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$314</c:f>
+              <c:f>'Cases Data'!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2998,16 +3004,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$314</c:f>
+              <c:f>'Cases Data'!$B$2:$B$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3945,7 +3954,10 @@
                   <c:v>13159784</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>13311029</c:v>
+                  <c:v>13311031</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>13447344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4077,9 +4089,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$314</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5018,16 +5030,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$314</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5347,625 +5362,628 @@
                   <c:v>71139</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>73748</c:v>
+                  <c:v>73847</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>75703</c:v>
+                  <c:v>75805</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>77273</c:v>
+                  <c:v>77380</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>78726</c:v>
+                  <c:v>78834</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>79654</c:v>
+                  <c:v>79765</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>80634</c:v>
+                  <c:v>80747</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>82286</c:v>
+                  <c:v>82400</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>84053</c:v>
+                  <c:v>84168</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>85789</c:v>
+                  <c:v>85906</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>87377</c:v>
+                  <c:v>87499</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>88602</c:v>
+                  <c:v>88724</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>89445</c:v>
+                  <c:v>89568</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>90284</c:v>
+                  <c:v>90408</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>91804</c:v>
+                  <c:v>91928</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>93286</c:v>
+                  <c:v>93411</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>94596</c:v>
+                  <c:v>94722</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>95884</c:v>
+                  <c:v>96010</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>96933</c:v>
+                  <c:v>97060</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>97553</c:v>
+                  <c:v>97680</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>98061</c:v>
+                  <c:v>98190</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>98808</c:v>
+                  <c:v>98937</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>100293</c:v>
+                  <c:v>100422</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>101491</c:v>
+                  <c:v>101622</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>102680</c:v>
+                  <c:v>102812</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>103642</c:v>
+                  <c:v>103775</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>104243</c:v>
+                  <c:v>104379</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>104977</c:v>
+                  <c:v>105113</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>106057</c:v>
+                  <c:v>106195</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>107044</c:v>
+                  <c:v>107184</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>108052</c:v>
+                  <c:v>108192</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>109163</c:v>
+                  <c:v>109304</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>109890</c:v>
+                  <c:v>110032</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>110280</c:v>
+                  <c:v>110422</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>111002</c:v>
+                  <c:v>111144</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>112032</c:v>
+                  <c:v>112174</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>112960</c:v>
+                  <c:v>113103</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>113836</c:v>
+                  <c:v>113980</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>114613</c:v>
+                  <c:v>114759</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>115305</c:v>
+                  <c:v>115451</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>115621</c:v>
+                  <c:v>115768</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>116069</c:v>
+                  <c:v>116216</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>116838</c:v>
+                  <c:v>116985</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>117591</c:v>
+                  <c:v>117738</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>118317</c:v>
+                  <c:v>118464</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>119024</c:v>
+                  <c:v>119171</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>119570</c:v>
+                  <c:v>119717</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>119825</c:v>
+                  <c:v>119974</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>120185</c:v>
+                  <c:v>120334</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>121018</c:v>
+                  <c:v>121167</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>121785</c:v>
+                  <c:v>121934</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>124249</c:v>
+                  <c:v>124400</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>124882</c:v>
+                  <c:v>125033</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>125392</c:v>
+                  <c:v>125544</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>125662</c:v>
+                  <c:v>125815</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>126009</c:v>
+                  <c:v>126162</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>127309</c:v>
+                  <c:v>127462</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>127951</c:v>
+                  <c:v>128104</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>128674</c:v>
+                  <c:v>128827</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>129264</c:v>
+                  <c:v>129418</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>129524</c:v>
+                  <c:v>129679</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>129786</c:v>
+                  <c:v>129941</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>130177</c:v>
+                  <c:v>130332</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>131133</c:v>
+                  <c:v>131290</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>132079</c:v>
+                  <c:v>132238</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>132920</c:v>
+                  <c:v>133079</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>133748</c:v>
+                  <c:v>133907</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>134415</c:v>
+                  <c:v>134582</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>134810</c:v>
+                  <c:v>134977</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>135235</c:v>
+                  <c:v>135402</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>136187</c:v>
+                  <c:v>136356</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>137156</c:v>
+                  <c:v>137327</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>138113</c:v>
+                  <c:v>138285</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>139009</c:v>
+                  <c:v>139186</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>139783</c:v>
+                  <c:v>139961</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>140195</c:v>
+                  <c:v>140373</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>140724</c:v>
+                  <c:v>140904</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>141851</c:v>
+                  <c:v>142031</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>142982</c:v>
+                  <c:v>143167</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>144095</c:v>
+                  <c:v>144283</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>145238</c:v>
+                  <c:v>145429</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>146112</c:v>
+                  <c:v>146313</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>146552</c:v>
+                  <c:v>146753</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>148248</c:v>
+                  <c:v>148449</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>149567</c:v>
+                  <c:v>149776</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>150961</c:v>
+                  <c:v>151172</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>152219</c:v>
+                  <c:v>152433</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>153643</c:v>
+                  <c:v>153862</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>154692</c:v>
+                  <c:v>154917</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>155107</c:v>
+                  <c:v>155337</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>155715</c:v>
+                  <c:v>155945</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>157064</c:v>
+                  <c:v>157301</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>158308</c:v>
+                  <c:v>158554</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>159367</c:v>
+                  <c:v>159625</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>160716</c:v>
+                  <c:v>160981</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>161673</c:v>
+                  <c:v>161947</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>162207</c:v>
+                  <c:v>162486</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>162744</c:v>
+                  <c:v>163023</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>164187</c:v>
+                  <c:v>164474</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>165657</c:v>
+                  <c:v>165952</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>166859</c:v>
+                  <c:v>167165</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>168024</c:v>
+                  <c:v>168341</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>169071</c:v>
+                  <c:v>169400</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>169580</c:v>
+                  <c:v>169915</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>170114</c:v>
+                  <c:v>170449</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>171452</c:v>
+                  <c:v>171798</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>172737</c:v>
+                  <c:v>173093</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>173769</c:v>
+                  <c:v>174136</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>174923</c:v>
+                  <c:v>175297</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>175866</c:v>
+                  <c:v>176247</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>176303</c:v>
+                  <c:v>176693</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>176807</c:v>
+                  <c:v>177197</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>178015</c:v>
+                  <c:v>178410</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>179199</c:v>
+                  <c:v>179603</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>180317</c:v>
+                  <c:v>180729</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>181315</c:v>
+                  <c:v>181739</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>182182</c:v>
+                  <c:v>182610</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>182550</c:v>
+                  <c:v>182984</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>183038</c:v>
+                  <c:v>183472</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>184128</c:v>
+                  <c:v>184563</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>185196</c:v>
+                  <c:v>185639</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>186269</c:v>
+                  <c:v>186717</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>187242</c:v>
+                  <c:v>187697</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>187945</c:v>
+                  <c:v>188409</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>188343</c:v>
+                  <c:v>188820</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>188606</c:v>
+                  <c:v>189083</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>189059</c:v>
+                  <c:v>189541</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>190216</c:v>
+                  <c:v>190716</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>191119</c:v>
+                  <c:v>191631</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>192335</c:v>
+                  <c:v>192858</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>193024</c:v>
+                  <c:v>193559</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>193419</c:v>
+                  <c:v>193958</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>193866</c:v>
+                  <c:v>194408</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>195138</c:v>
+                  <c:v>195689</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>196116</c:v>
+                  <c:v>196686</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>196947</c:v>
+                  <c:v>197535</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>197885</c:v>
+                  <c:v>198484</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>198549</c:v>
+                  <c:v>199154</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>198759</c:v>
+                  <c:v>199367</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>199188</c:v>
+                  <c:v>199797</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>200125</c:v>
+                  <c:v>200738</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>201211</c:v>
+                  <c:v>201828</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>202086</c:v>
+                  <c:v>202713</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>202931</c:v>
+                  <c:v>203566</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>203693</c:v>
+                  <c:v>204335</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>203958</c:v>
+                  <c:v>204602</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>204304</c:v>
+                  <c:v>204952</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>205224</c:v>
+                  <c:v>205878</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>206191</c:v>
+                  <c:v>206852</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>207034</c:v>
+                  <c:v>207699</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>207891</c:v>
+                  <c:v>208564</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>208592</c:v>
+                  <c:v>209273</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>208920</c:v>
+                  <c:v>209606</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>209340</c:v>
+                  <c:v>210035</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>210060</c:v>
+                  <c:v>210756</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>211047</c:v>
+                  <c:v>211752</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>211965</c:v>
+                  <c:v>212680</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>212875</c:v>
+                  <c:v>213595</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>213459</c:v>
+                  <c:v>214187</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>213876</c:v>
+                  <c:v>214606</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>214222</c:v>
+                  <c:v>214957</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>215045</c:v>
+                  <c:v>215783</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>216050</c:v>
+                  <c:v>216792</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>216842</c:v>
+                  <c:v>217585</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>217718</c:v>
+                  <c:v>218476</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>218393</c:v>
+                  <c:v>219154</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>218775</c:v>
+                  <c:v>219541</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>219290</c:v>
+                  <c:v>220058</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>220218</c:v>
+                  <c:v>220987</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>221421</c:v>
+                  <c:v>222195</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>222240</c:v>
+                  <c:v>223023</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>223158</c:v>
+                  <c:v>223949</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>224027</c:v>
+                  <c:v>224821</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>224359</c:v>
+                  <c:v>225160</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>224894</c:v>
+                  <c:v>225698</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>225873</c:v>
+                  <c:v>226681</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>226884</c:v>
+                  <c:v>227697</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>227887</c:v>
+                  <c:v>228701</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>228852</c:v>
+                  <c:v>229672</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>229688</c:v>
+                  <c:v>230510</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>230105</c:v>
+                  <c:v>230937</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>230638</c:v>
+                  <c:v>231477</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>231765</c:v>
+                  <c:v>232607</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>233373</c:v>
+                  <c:v>234223</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>234476</c:v>
+                  <c:v>235331</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>235715</c:v>
+                  <c:v>236577</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>236722</c:v>
+                  <c:v>237584</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>237176</c:v>
+                  <c:v>238048</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>237911</c:v>
+                  <c:v>238793</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>239369</c:v>
+                  <c:v>240258</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>240788</c:v>
+                  <c:v>241689</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>241952</c:v>
+                  <c:v>242861</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>243336</c:v>
+                  <c:v>244250</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>244539</c:v>
+                  <c:v>245460</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>245148</c:v>
+                  <c:v>246083</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>245937</c:v>
+                  <c:v>246879</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>247535</c:v>
+                  <c:v>248486</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>249440</c:v>
+                  <c:v>250411</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>251391</c:v>
+                  <c:v>252373</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>253334</c:v>
+                  <c:v>254325</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>254742</c:v>
+                  <c:v>255754</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>255580</c:v>
+                  <c:v>256597</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>256603</c:v>
+                  <c:v>257635</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>258806</c:v>
+                  <c:v>259844</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>261105</c:v>
+                  <c:v>262157</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>262267</c:v>
+                  <c:v>263336</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>263672</c:v>
+                  <c:v>264748</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>264857</c:v>
+                  <c:v>265940</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>266758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6097,9 +6115,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$313</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7035,16 +7053,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$313</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7980,6 +8001,9 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>91635</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>93219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8121,9 +8145,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$314</c:f>
+              <c:f>'County Counts'!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9062,16 +9086,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>11/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>11/29/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$314</c:f>
+              <c:f>'County Counts'!$B$2:$B$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10010,6 +10037,9 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10293,9 +10323,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B314" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B314">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B315" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B315" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B315">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10307,9 +10337,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B314" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B314" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B314">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B315" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B315" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B315">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10321,9 +10351,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B313" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B313" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B313">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B314" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B314" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B314">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10335,9 +10365,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B314" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B314" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B314">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B315" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B315" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B315">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10669,7 +10699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -13190,7 +13220,15 @@
         <v>630</v>
       </c>
       <c r="B314">
-        <v>13311029</v>
+        <v>13311031</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>632</v>
+      </c>
+      <c r="B315">
+        <v>13447344</v>
       </c>
     </row>
   </sheetData>
@@ -13203,7 +13241,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -14074,7 +14112,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>73748</v>
+        <v>73847</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -14082,7 +14120,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>75703</v>
+        <v>75805</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -14090,7 +14128,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>77273</v>
+        <v>77380</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -14098,7 +14136,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>78726</v>
+        <v>78834</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -14106,7 +14144,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>79654</v>
+        <v>79765</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -14114,7 +14152,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>80634</v>
+        <v>80747</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -14122,7 +14160,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>82286</v>
+        <v>82400</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -14130,7 +14168,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>84053</v>
+        <v>84168</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -14138,7 +14176,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>85789</v>
+        <v>85906</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -14146,7 +14184,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>87377</v>
+        <v>87499</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -14154,7 +14192,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>88602</v>
+        <v>88724</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -14162,7 +14200,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>89445</v>
+        <v>89568</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -14170,7 +14208,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>90284</v>
+        <v>90408</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -14178,7 +14216,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>91804</v>
+        <v>91928</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -14186,7 +14224,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>93286</v>
+        <v>93411</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -14194,7 +14232,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>94596</v>
+        <v>94722</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -14202,7 +14240,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>95884</v>
+        <v>96010</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -14210,7 +14248,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>96933</v>
+        <v>97060</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -14218,7 +14256,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>97553</v>
+        <v>97680</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -14226,7 +14264,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>98061</v>
+        <v>98190</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -14234,7 +14272,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>98808</v>
+        <v>98937</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -14242,7 +14280,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>100293</v>
+        <v>100422</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -14250,7 +14288,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>101491</v>
+        <v>101622</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -14258,7 +14296,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>102680</v>
+        <v>102812</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -14266,7 +14304,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>103642</v>
+        <v>103775</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -14274,7 +14312,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>104243</v>
+        <v>104379</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -14282,7 +14320,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>104977</v>
+        <v>105113</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -14290,7 +14328,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>106057</v>
+        <v>106195</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -14298,7 +14336,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>107044</v>
+        <v>107184</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -14306,7 +14344,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>108052</v>
+        <v>108192</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -14314,7 +14352,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>109163</v>
+        <v>109304</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -14322,7 +14360,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>109890</v>
+        <v>110032</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -14330,7 +14368,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>110280</v>
+        <v>110422</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -14338,7 +14376,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>111002</v>
+        <v>111144</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -14346,7 +14384,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>112032</v>
+        <v>112174</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -14354,7 +14392,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>112960</v>
+        <v>113103</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -14362,7 +14400,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>113836</v>
+        <v>113980</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -14370,7 +14408,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>114613</v>
+        <v>114759</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -14378,7 +14416,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>115305</v>
+        <v>115451</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -14386,7 +14424,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>115621</v>
+        <v>115768</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -14394,7 +14432,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>116069</v>
+        <v>116216</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -14402,7 +14440,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>116838</v>
+        <v>116985</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -14410,7 +14448,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>117591</v>
+        <v>117738</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -14418,7 +14456,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>118317</v>
+        <v>118464</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -14426,7 +14464,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>119024</v>
+        <v>119171</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -14434,7 +14472,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>119570</v>
+        <v>119717</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -14442,7 +14480,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>119825</v>
+        <v>119974</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -14450,7 +14488,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>120185</v>
+        <v>120334</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -14458,7 +14496,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>121018</v>
+        <v>121167</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -14466,7 +14504,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>121785</v>
+        <v>121934</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -14474,7 +14512,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>124249</v>
+        <v>124400</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -14482,7 +14520,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>124882</v>
+        <v>125033</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -14490,7 +14528,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>125392</v>
+        <v>125544</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -14498,7 +14536,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>125662</v>
+        <v>125815</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -14506,7 +14544,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>126009</v>
+        <v>126162</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -14514,7 +14552,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>127309</v>
+        <v>127462</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -14522,7 +14560,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>127951</v>
+        <v>128104</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -14530,7 +14568,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>128674</v>
+        <v>128827</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -14538,7 +14576,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>129264</v>
+        <v>129418</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -14546,7 +14584,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>129524</v>
+        <v>129679</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -14554,7 +14592,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>129786</v>
+        <v>129941</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -14562,7 +14600,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>130177</v>
+        <v>130332</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -14570,7 +14608,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>131133</v>
+        <v>131290</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -14578,7 +14616,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>132079</v>
+        <v>132238</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -14586,7 +14624,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>132920</v>
+        <v>133079</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -14594,7 +14632,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>133748</v>
+        <v>133907</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -14602,7 +14640,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>134415</v>
+        <v>134582</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -14610,7 +14648,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>134810</v>
+        <v>134977</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -14618,7 +14656,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>135235</v>
+        <v>135402</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -14626,7 +14664,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>136187</v>
+        <v>136356</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -14634,7 +14672,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>137156</v>
+        <v>137327</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -14642,7 +14680,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>138113</v>
+        <v>138285</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -14650,7 +14688,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>139009</v>
+        <v>139186</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -14658,7 +14696,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>139783</v>
+        <v>139961</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -14666,7 +14704,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>140195</v>
+        <v>140373</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -14674,7 +14712,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>140724</v>
+        <v>140904</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -14682,7 +14720,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>141851</v>
+        <v>142031</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -14690,7 +14728,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>142982</v>
+        <v>143167</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -14698,7 +14736,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>144095</v>
+        <v>144283</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -14706,7 +14744,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>145238</v>
+        <v>145429</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -14714,7 +14752,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>146112</v>
+        <v>146313</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -14722,7 +14760,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>146552</v>
+        <v>146753</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -14730,7 +14768,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>148248</v>
+        <v>148449</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -14738,7 +14776,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>149567</v>
+        <v>149776</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -14746,7 +14784,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>150961</v>
+        <v>151172</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -14754,7 +14792,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>152219</v>
+        <v>152433</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -14762,7 +14800,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>153643</v>
+        <v>153862</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -14770,7 +14808,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>154692</v>
+        <v>154917</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -14778,7 +14816,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>155107</v>
+        <v>155337</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -14786,7 +14824,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>155715</v>
+        <v>155945</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -14794,7 +14832,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>157064</v>
+        <v>157301</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -14802,7 +14840,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>158308</v>
+        <v>158554</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -14810,7 +14848,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>159367</v>
+        <v>159625</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -14818,7 +14856,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>160716</v>
+        <v>160981</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -14826,7 +14864,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>161673</v>
+        <v>161947</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -14834,7 +14872,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>162207</v>
+        <v>162486</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -14842,7 +14880,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>162744</v>
+        <v>163023</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -14850,7 +14888,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>164187</v>
+        <v>164474</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -14858,7 +14896,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>165657</v>
+        <v>165952</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -14866,7 +14904,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>166859</v>
+        <v>167165</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -14874,7 +14912,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>168024</v>
+        <v>168341</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -14882,7 +14920,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>169071</v>
+        <v>169400</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -14890,7 +14928,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>169580</v>
+        <v>169915</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -14898,7 +14936,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>170114</v>
+        <v>170449</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -14906,7 +14944,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>171452</v>
+        <v>171798</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -14914,7 +14952,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>172737</v>
+        <v>173093</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -14922,7 +14960,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>173769</v>
+        <v>174136</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -14930,7 +14968,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>174923</v>
+        <v>175297</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -14938,7 +14976,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>175866</v>
+        <v>176247</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -14946,7 +14984,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>176303</v>
+        <v>176693</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -14954,7 +14992,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>176807</v>
+        <v>177197</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -14962,7 +15000,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>178015</v>
+        <v>178410</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -14970,7 +15008,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>179199</v>
+        <v>179603</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -14978,7 +15016,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>180317</v>
+        <v>180729</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -14986,7 +15024,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>181315</v>
+        <v>181739</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -14994,7 +15032,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>182182</v>
+        <v>182610</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -15002,7 +15040,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>182550</v>
+        <v>182984</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -15010,7 +15048,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>183038</v>
+        <v>183472</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -15018,7 +15056,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>184128</v>
+        <v>184563</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -15026,7 +15064,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>185196</v>
+        <v>185639</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -15034,7 +15072,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>186269</v>
+        <v>186717</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -15042,7 +15080,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>187242</v>
+        <v>187697</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -15050,7 +15088,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>187945</v>
+        <v>188409</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -15058,7 +15096,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>188343</v>
+        <v>188820</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -15066,7 +15104,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>188606</v>
+        <v>189083</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -15074,7 +15112,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>189059</v>
+        <v>189541</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -15082,7 +15120,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>190216</v>
+        <v>190716</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -15090,7 +15128,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>191119</v>
+        <v>191631</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -15098,7 +15136,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>192335</v>
+        <v>192858</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -15106,7 +15144,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>193024</v>
+        <v>193559</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -15114,7 +15152,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>193419</v>
+        <v>193958</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -15122,7 +15160,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>193866</v>
+        <v>194408</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -15130,7 +15168,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>195138</v>
+        <v>195689</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -15138,7 +15176,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>196116</v>
+        <v>196686</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -15146,7 +15184,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>196947</v>
+        <v>197535</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -15154,7 +15192,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>197885</v>
+        <v>198484</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -15162,7 +15200,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>198549</v>
+        <v>199154</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -15170,7 +15208,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>198759</v>
+        <v>199367</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -15178,7 +15216,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>199188</v>
+        <v>199797</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -15186,7 +15224,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>200125</v>
+        <v>200738</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -15194,7 +15232,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>201211</v>
+        <v>201828</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -15202,7 +15240,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>202086</v>
+        <v>202713</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -15210,7 +15248,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>202931</v>
+        <v>203566</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -15218,7 +15256,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>203693</v>
+        <v>204335</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -15226,7 +15264,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>203958</v>
+        <v>204602</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -15234,7 +15272,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>204304</v>
+        <v>204952</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -15242,7 +15280,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>205224</v>
+        <v>205878</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -15250,7 +15288,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>206191</v>
+        <v>206852</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -15258,7 +15296,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>207034</v>
+        <v>207699</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -15266,7 +15304,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>207891</v>
+        <v>208564</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -15274,7 +15312,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>208592</v>
+        <v>209273</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -15282,7 +15320,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>208920</v>
+        <v>209606</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -15290,7 +15328,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>209340</v>
+        <v>210035</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -15298,7 +15336,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>210060</v>
+        <v>210756</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -15306,7 +15344,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>211047</v>
+        <v>211752</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -15314,7 +15352,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>211965</v>
+        <v>212680</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -15322,7 +15360,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>212875</v>
+        <v>213595</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -15330,7 +15368,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>213459</v>
+        <v>214187</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -15338,7 +15376,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>213876</v>
+        <v>214606</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -15346,7 +15384,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>214222</v>
+        <v>214957</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -15354,7 +15392,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>215045</v>
+        <v>215783</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -15362,7 +15400,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>216050</v>
+        <v>216792</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -15370,7 +15408,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>216842</v>
+        <v>217585</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -15378,7 +15416,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>217718</v>
+        <v>218476</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -15386,7 +15424,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>218393</v>
+        <v>219154</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -15394,7 +15432,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>218775</v>
+        <v>219541</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -15402,7 +15440,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>219290</v>
+        <v>220058</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -15410,7 +15448,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>220218</v>
+        <v>220987</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -15418,7 +15456,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>221421</v>
+        <v>222195</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -15426,7 +15464,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>222240</v>
+        <v>223023</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -15434,7 +15472,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>223158</v>
+        <v>223949</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -15442,7 +15480,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>224027</v>
+        <v>224821</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -15450,7 +15488,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>224359</v>
+        <v>225160</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -15458,7 +15496,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>224894</v>
+        <v>225698</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -15466,7 +15504,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>225873</v>
+        <v>226681</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -15474,7 +15512,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>226884</v>
+        <v>227697</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -15482,7 +15520,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>227887</v>
+        <v>228701</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -15490,7 +15528,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>228852</v>
+        <v>229672</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -15498,7 +15536,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>229688</v>
+        <v>230510</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -15506,7 +15544,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>230105</v>
+        <v>230937</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -15514,7 +15552,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>230638</v>
+        <v>231477</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -15522,7 +15560,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>231765</v>
+        <v>232607</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -15530,7 +15568,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>233373</v>
+        <v>234223</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -15538,7 +15576,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>234476</v>
+        <v>235331</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -15546,7 +15584,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>235715</v>
+        <v>236577</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -15554,7 +15592,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>236722</v>
+        <v>237584</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -15562,7 +15600,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>237176</v>
+        <v>238048</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -15570,7 +15608,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>237911</v>
+        <v>238793</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -15578,7 +15616,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>239369</v>
+        <v>240258</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -15586,7 +15624,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>240788</v>
+        <v>241689</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -15594,7 +15632,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>241952</v>
+        <v>242861</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -15602,7 +15640,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>243336</v>
+        <v>244250</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -15610,7 +15648,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>244539</v>
+        <v>245460</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -15618,7 +15656,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>245148</v>
+        <v>246083</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -15626,7 +15664,7 @@
         <v>606</v>
       </c>
       <c r="B302">
-        <v>245937</v>
+        <v>246879</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -15634,7 +15672,7 @@
         <v>607</v>
       </c>
       <c r="B303">
-        <v>247535</v>
+        <v>248486</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -15642,7 +15680,7 @@
         <v>610</v>
       </c>
       <c r="B304">
-        <v>249440</v>
+        <v>250411</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -15650,7 +15688,7 @@
         <v>612</v>
       </c>
       <c r="B305">
-        <v>251391</v>
+        <v>252373</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -15658,7 +15696,7 @@
         <v>614</v>
       </c>
       <c r="B306">
-        <v>253334</v>
+        <v>254325</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -15666,7 +15704,7 @@
         <v>616</v>
       </c>
       <c r="B307">
-        <v>254742</v>
+        <v>255754</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -15674,7 +15712,7 @@
         <v>618</v>
       </c>
       <c r="B308">
-        <v>255580</v>
+        <v>256597</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -15682,7 +15720,7 @@
         <v>620</v>
       </c>
       <c r="B309">
-        <v>256603</v>
+        <v>257635</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -15690,7 +15728,7 @@
         <v>622</v>
       </c>
       <c r="B310">
-        <v>258806</v>
+        <v>259844</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -15698,7 +15736,7 @@
         <v>624</v>
       </c>
       <c r="B311">
-        <v>261105</v>
+        <v>262157</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -15706,7 +15744,7 @@
         <v>626</v>
       </c>
       <c r="B312">
-        <v>262267</v>
+        <v>263336</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -15714,7 +15752,7 @@
         <v>628</v>
       </c>
       <c r="B313">
-        <v>263672</v>
+        <v>264748</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -15722,7 +15760,15 @@
         <v>630</v>
       </c>
       <c r="B314">
-        <v>264857</v>
+        <v>265940</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>632</v>
+      </c>
+      <c r="B315">
+        <v>266758</v>
       </c>
     </row>
   </sheetData>
@@ -15735,7 +15781,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -18249,6 +18295,14 @@
         <v>91635</v>
       </c>
     </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>632</v>
+      </c>
+      <c r="B314">
+        <v>93219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18259,7 +18313,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20779,6 +20833,14 @@
       </c>
       <c r="B314">
         <v>3246</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>633</v>
+      </c>
+      <c r="B315">
+        <v>3247</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDED49C-DE24-4A74-AE1E-EC137E686980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12CB712-671F-493D-A843-823AE2F5A28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$315</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$314</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$315</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$315</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$316</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$315</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$316</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$316</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="636">
   <si>
     <t>date</t>
   </si>
@@ -1952,6 +1952,12 @@
   </si>
   <si>
     <t>11/29/2020</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>11/30/2020</t>
   </si>
 </sst>
 </file>
@@ -2063,9 +2069,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$315</c:f>
+              <c:f>'Cases Data'!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -3007,16 +3013,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$315</c:f>
+              <c:f>'Cases Data'!$B$2:$B$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3958,6 +3967,9 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>13447344</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>13615100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4089,9 +4101,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$315</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5033,16 +5045,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$315</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5984,6 +5999,9 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>266758</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>268023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6115,9 +6133,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$314</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7056,16 +7074,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$314</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7994,16 +8015,19 @@
                   <c:v>89959</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>90481</c:v>
+                  <c:v>90443</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>89834</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>91635</c:v>
+                  <c:v>91665</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>93219</c:v>
+                  <c:v>93265</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>96039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8145,9 +8169,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$315</c:f>
+              <c:f>'County Counts'!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9089,16 +9113,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>11/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>11/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$315</c:f>
+              <c:f>'County Counts'!$B$2:$B$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10040,6 +10067,9 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10323,9 +10353,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B315" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B315" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B315">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B316" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B316" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B316">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="2">
@@ -10337,9 +10367,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B315" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B315" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B315">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B316" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B316" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B316">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10351,9 +10381,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B314" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B314" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B314">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B315" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B315" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B315">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10365,9 +10395,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B315" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B315" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B315">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B316" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B316" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B316">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="2">
@@ -10699,9 +10729,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+    <sheetView topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -13231,6 +13261,14 @@
         <v>13447344</v>
       </c>
     </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>634</v>
+      </c>
+      <c r="B316">
+        <v>13615100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13241,7 +13279,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -15771,6 +15809,14 @@
         <v>266758</v>
       </c>
     </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>634</v>
+      </c>
+      <c r="B316">
+        <v>268023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15781,7 +15827,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -18276,7 +18322,7 @@
         <v>626</v>
       </c>
       <c r="B311">
-        <v>90481</v>
+        <v>90443</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -18292,7 +18338,7 @@
         <v>630</v>
       </c>
       <c r="B313">
-        <v>91635</v>
+        <v>91665</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -18300,7 +18346,15 @@
         <v>632</v>
       </c>
       <c r="B314">
-        <v>93219</v>
+        <v>93265</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>634</v>
+      </c>
+      <c r="B315">
+        <v>96039</v>
       </c>
     </row>
   </sheetData>
@@ -18313,7 +18367,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -20843,6 +20897,14 @@
         <v>3247</v>
       </c>
     </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>635</v>
+      </c>
+      <c r="B316">
+        <v>3246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -20855,7 +20917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12CB712-671F-493D-A843-823AE2F5A28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79FFAD2-EC7A-478E-BE27-883BB707C220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$316</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$315</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$316</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$316</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$107</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$316</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$107</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$107</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="428">
   <si>
     <t>date</t>
   </si>
@@ -1288,676 +1288,52 @@
     <t>05/05/2020</t>
   </si>
   <si>
-    <t>05/06/2020</t>
-  </si>
-  <si>
-    <t>05/07/2020</t>
-  </si>
-  <si>
-    <t>05/08/2020</t>
-  </si>
-  <si>
-    <t>05/09/2020</t>
-  </si>
-  <si>
-    <t>05/10/2020</t>
-  </si>
-  <si>
-    <t>05/11/2020</t>
-  </si>
-  <si>
-    <t>05/12/2020</t>
-  </si>
-  <si>
-    <t>05/13/2020</t>
-  </si>
-  <si>
-    <t>05/14/2020</t>
-  </si>
-  <si>
-    <t>05/15/2020</t>
-  </si>
-  <si>
-    <t>05/16/2020</t>
-  </si>
-  <si>
-    <t>05/17/2020</t>
-  </si>
-  <si>
-    <t>05/18/2020</t>
-  </si>
-  <si>
-    <t>05/19/2020</t>
-  </si>
-  <si>
-    <t>05/20/2020</t>
-  </si>
-  <si>
-    <t>05/21/2020</t>
-  </si>
-  <si>
-    <t>05/22/2020</t>
-  </si>
-  <si>
-    <t>05/23/2020</t>
-  </si>
-  <si>
-    <t>05/24/2020</t>
-  </si>
-  <si>
-    <t>05/25/2020</t>
-  </si>
-  <si>
-    <t>05/26/2020</t>
-  </si>
-  <si>
-    <t>05/27/2020</t>
-  </si>
-  <si>
-    <t>05/28/2020</t>
-  </si>
-  <si>
-    <t>05/29/2020</t>
-  </si>
-  <si>
-    <t>05/30/2020</t>
-  </si>
-  <si>
-    <t>05/31/2020</t>
-  </si>
-  <si>
-    <t>06/01/2020</t>
-  </si>
-  <si>
-    <t>06/02/2020</t>
-  </si>
-  <si>
-    <t>06/03/2020</t>
-  </si>
-  <si>
-    <t>06/04/2020</t>
-  </si>
-  <si>
-    <t>06/05/2020</t>
-  </si>
-  <si>
-    <t>06/06/2020</t>
-  </si>
-  <si>
-    <t>06/07/2020</t>
-  </si>
-  <si>
-    <t>06/08/2020</t>
-  </si>
-  <si>
-    <t>06/09/2020</t>
-  </si>
-  <si>
-    <t>06/10/2020</t>
-  </si>
-  <si>
-    <t>06/11/2020</t>
-  </si>
-  <si>
-    <t>06/12/2020</t>
-  </si>
-  <si>
-    <t>06/13/2020</t>
-  </si>
-  <si>
-    <t>06/14/2020</t>
-  </si>
-  <si>
-    <t>06/15/2020</t>
-  </si>
-  <si>
-    <t>06/16/2020</t>
-  </si>
-  <si>
-    <t>06/17/2020</t>
-  </si>
-  <si>
-    <t>06/18/2020</t>
-  </si>
-  <si>
-    <t>06/19/2020</t>
-  </si>
-  <si>
-    <t>06/20/2020</t>
-  </si>
-  <si>
-    <t>06/21/2020</t>
-  </si>
-  <si>
-    <t>06/22/2020</t>
-  </si>
-  <si>
-    <t>06/23/2020</t>
-  </si>
-  <si>
-    <t>06/24/2020</t>
-  </si>
-  <si>
-    <t>06/25/2020</t>
-  </si>
-  <si>
-    <t>06/26/2020</t>
-  </si>
-  <si>
-    <t>06/27/2020</t>
-  </si>
-  <si>
-    <t>06/28/2020</t>
-  </si>
-  <si>
-    <t>06/29/2020</t>
-  </si>
-  <si>
-    <t>06/30/2020</t>
-  </si>
-  <si>
-    <t>07/01/2020</t>
-  </si>
-  <si>
-    <t>07/02/2020</t>
-  </si>
-  <si>
-    <t>07/03/2020</t>
-  </si>
-  <si>
-    <t>07/04/2020</t>
-  </si>
-  <si>
-    <t>07/05/2020</t>
-  </si>
-  <si>
-    <t>07/06/2020</t>
-  </si>
-  <si>
-    <t>07/07/2020</t>
-  </si>
-  <si>
-    <t>07/08/2020</t>
-  </si>
-  <si>
-    <t>07/09/2020</t>
-  </si>
-  <si>
-    <t>07/10/2020</t>
-  </si>
-  <si>
-    <t>07/11/2020</t>
-  </si>
-  <si>
-    <t>07/12/2020</t>
-  </si>
-  <si>
-    <t>07/13/2020</t>
-  </si>
-  <si>
-    <t>07/14/2020</t>
-  </si>
-  <si>
-    <t>07/15/2020</t>
-  </si>
-  <si>
-    <t>07/16/2020</t>
-  </si>
-  <si>
-    <t>07/17/2020</t>
-  </si>
-  <si>
-    <t>07/18/2020</t>
-  </si>
-  <si>
-    <t>07/19/2020</t>
-  </si>
-  <si>
-    <t>07/20/2020</t>
-  </si>
-  <si>
-    <t>07/21/2020</t>
-  </si>
-  <si>
-    <t>07/22/2020</t>
-  </si>
-  <si>
-    <t>07/23/2020</t>
-  </si>
-  <si>
-    <t>07/24/2020</t>
-  </si>
-  <si>
-    <t>07/25/2020</t>
-  </si>
-  <si>
-    <t>07/26/2020</t>
-  </si>
-  <si>
-    <t>07/27/2020</t>
-  </si>
-  <si>
-    <t>07/28/2020</t>
-  </si>
-  <si>
-    <t>07/29/2020</t>
-  </si>
-  <si>
-    <t>07/30/2020</t>
-  </si>
-  <si>
-    <t>07/31/2020</t>
-  </si>
-  <si>
-    <t>08/01/2020</t>
-  </si>
-  <si>
-    <t>08/02/2020</t>
-  </si>
-  <si>
-    <t>08/03/2020</t>
-  </si>
-  <si>
-    <t>08/04/2020</t>
-  </si>
-  <si>
-    <t>08/05/2020</t>
-  </si>
-  <si>
-    <t>08/06/2020</t>
-  </si>
-  <si>
-    <t>08/07/2020</t>
-  </si>
-  <si>
-    <t>08/08/2020</t>
-  </si>
-  <si>
-    <t>08/09/2020</t>
-  </si>
-  <si>
-    <t>08/10/2020</t>
-  </si>
-  <si>
-    <t>08/11/2020</t>
-  </si>
-  <si>
-    <t>08/12/2020</t>
-  </si>
-  <si>
-    <t>08/13/2020</t>
-  </si>
-  <si>
-    <t>08/14/2020</t>
-  </si>
-  <si>
-    <t>08/15/2020</t>
-  </si>
-  <si>
-    <t>08/16/2020</t>
-  </si>
-  <si>
-    <t>08/17/2020</t>
-  </si>
-  <si>
-    <t>08/18/2020</t>
-  </si>
-  <si>
-    <t>08/19/2020</t>
-  </si>
-  <si>
-    <t>08/20/2020</t>
-  </si>
-  <si>
-    <t>08/21/2020</t>
-  </si>
-  <si>
-    <t>08/22/2020</t>
-  </si>
-  <si>
-    <t>08/23/2020</t>
-  </si>
-  <si>
-    <t>08/24/2020</t>
-  </si>
-  <si>
-    <t>08/25/2020</t>
-  </si>
-  <si>
-    <t>08/26/2020</t>
-  </si>
-  <si>
-    <t>08/27/2020</t>
-  </si>
-  <si>
-    <t>08/28/2020</t>
-  </si>
-  <si>
-    <t>08/29/2020</t>
-  </si>
-  <si>
-    <t>08/30/2020</t>
-  </si>
-  <si>
-    <t>08/31/2020</t>
-  </si>
-  <si>
-    <t>09/01/2020</t>
-  </si>
-  <si>
-    <t>09/02/2020</t>
-  </si>
-  <si>
-    <t>09/03/2020</t>
-  </si>
-  <si>
-    <t>09/04/2020</t>
-  </si>
-  <si>
-    <t>09/05/2020</t>
-  </si>
-  <si>
-    <t>09/06/2020</t>
-  </si>
-  <si>
-    <t>09/07/2020</t>
-  </si>
-  <si>
-    <t>09/08/2020</t>
-  </si>
-  <si>
-    <t>09/09/2020</t>
-  </si>
-  <si>
-    <t>09/10/2020</t>
-  </si>
-  <si>
-    <t>09/11/2020</t>
-  </si>
-  <si>
-    <t>09/12/2020</t>
-  </si>
-  <si>
-    <t>09/13/2020</t>
-  </si>
-  <si>
-    <t>09/14/2020</t>
-  </si>
-  <si>
-    <t>09/15/2020</t>
-  </si>
-  <si>
-    <t>09/16/2020</t>
-  </si>
-  <si>
-    <t>09/17/2020</t>
-  </si>
-  <si>
-    <t>09/18/2020</t>
-  </si>
-  <si>
-    <t>09/19/2020</t>
-  </si>
-  <si>
-    <t>09/20/2020</t>
-  </si>
-  <si>
-    <t>09/21/2020</t>
-  </si>
-  <si>
-    <t>09/22/2020</t>
-  </si>
-  <si>
-    <t>09/23/2020</t>
-  </si>
-  <si>
-    <t>09/24/2020</t>
-  </si>
-  <si>
-    <t>09/25/2020</t>
-  </si>
-  <si>
-    <t>09/26/2020</t>
-  </si>
-  <si>
-    <t>09/27/2020</t>
-  </si>
-  <si>
-    <t>09/28/2020</t>
-  </si>
-  <si>
-    <t>09/29/2020</t>
-  </si>
-  <si>
-    <t>09/30/2020</t>
-  </si>
-  <si>
-    <t>10/01/2020</t>
-  </si>
-  <si>
-    <t>10/02/2020</t>
-  </si>
-  <si>
-    <t>10/03/2020</t>
-  </si>
-  <si>
-    <t>10/04/2020</t>
-  </si>
-  <si>
-    <t>10/05/2020</t>
-  </si>
-  <si>
-    <t>10/06/2020</t>
-  </si>
-  <si>
-    <t>10/07/2020</t>
-  </si>
-  <si>
-    <t>10/08/2020</t>
-  </si>
-  <si>
-    <t>10/09/2020</t>
-  </si>
-  <si>
-    <t>10/10/2020</t>
-  </si>
-  <si>
-    <t>10/11/2020</t>
-  </si>
-  <si>
-    <t>10/12/2020</t>
-  </si>
-  <si>
-    <t>10/13/2020</t>
-  </si>
-  <si>
-    <t>10/14/2020</t>
-  </si>
-  <si>
-    <t>10/15/2020</t>
-  </si>
-  <si>
-    <t>10/16/2020</t>
-  </si>
-  <si>
-    <t>10/17/2020</t>
-  </si>
-  <si>
-    <t>10/18/2020</t>
-  </si>
-  <si>
-    <t>10/19/2020</t>
-  </si>
-  <si>
-    <t>10/20/2020</t>
-  </si>
-  <si>
-    <t>10/21/2020</t>
-  </si>
-  <si>
-    <t>10/22/2020</t>
-  </si>
-  <si>
-    <t>10/23/2020</t>
-  </si>
-  <si>
-    <t>10/24/2020</t>
-  </si>
-  <si>
-    <t>10/25/2020</t>
-  </si>
-  <si>
-    <t>10/26/2020</t>
-  </si>
-  <si>
-    <t>10/27/2020</t>
-  </si>
-  <si>
-    <t>10/28/2020</t>
-  </si>
-  <si>
-    <t>10/29/2020</t>
-  </si>
-  <si>
-    <t>10/30/2020</t>
-  </si>
-  <si>
-    <t>10/31/2020</t>
-  </si>
-  <si>
-    <t>11/01/2020</t>
-  </si>
-  <si>
-    <t>11/02/2020</t>
-  </si>
-  <si>
-    <t>11/03/2020</t>
-  </si>
-  <si>
-    <t>11/04/2020</t>
-  </si>
-  <si>
-    <t>11/05/2020</t>
-  </si>
-  <si>
-    <t>11/06/2020</t>
-  </si>
-  <si>
-    <t>11/07/2020</t>
-  </si>
-  <si>
-    <t>11/08/2020</t>
-  </si>
-  <si>
-    <t>11/09/2020</t>
-  </si>
-  <si>
-    <t>11/10/2020</t>
-  </si>
-  <si>
-    <t>11/11/2020</t>
-  </si>
-  <si>
-    <t>11/12/2020</t>
-  </si>
-  <si>
-    <t>11/13/2020</t>
-  </si>
-  <si>
-    <t>11/14/2020</t>
-  </si>
-  <si>
-    <t>11/15/2020</t>
-  </si>
-  <si>
     <t>2020-11-16</t>
   </si>
   <si>
     <t>2020-11-17</t>
   </si>
   <si>
-    <t>11/17/2020</t>
-  </si>
-  <si>
-    <t>11/16/2020</t>
-  </si>
-  <si>
     <t>2020-11-18</t>
   </si>
   <si>
-    <t>11/18/2020</t>
-  </si>
-  <si>
     <t>2020-11-19</t>
   </si>
   <si>
-    <t>11/19/2020</t>
-  </si>
-  <si>
     <t>2020-11-20</t>
   </si>
   <si>
-    <t>11/20/2020</t>
-  </si>
-  <si>
     <t>2020-11-21</t>
   </si>
   <si>
-    <t>11/21/2020</t>
-  </si>
-  <si>
     <t>2020-11-22</t>
   </si>
   <si>
-    <t>11/22/2020</t>
-  </si>
-  <si>
     <t>2020-11-23</t>
   </si>
   <si>
-    <t>11/23/2020</t>
-  </si>
-  <si>
     <t>2020-11-24</t>
   </si>
   <si>
-    <t>11/24/2020</t>
-  </si>
-  <si>
     <t>2020-11-25</t>
   </si>
   <si>
-    <t>11/25/2020</t>
-  </si>
-  <si>
     <t>2020-11-26</t>
   </si>
   <si>
-    <t>11/26/2020</t>
-  </si>
-  <si>
     <t>2020-11-27</t>
   </si>
   <si>
-    <t>11/27/2020</t>
-  </si>
-  <si>
     <t>2020-11-28</t>
   </si>
   <si>
-    <t>11/28/2020</t>
-  </si>
-  <si>
     <t>2020-11-29</t>
   </si>
   <si>
-    <t>11/29/2020</t>
-  </si>
-  <si>
     <t>2020-11-30</t>
   </si>
   <si>
-    <t>11/30/2020</t>
+    <t>2020-12-01</t>
   </si>
 </sst>
 </file>
@@ -2069,9 +1445,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$316</c:f>
+              <c:f>'Cases Data'!$A$2:$A$107</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2389,643 +1765,16 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>2020-05-05</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2020-05-06</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2020-05-07</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2020-05-08</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2020-05-09</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2020-05-10</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2020-05-11</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2020-05-12</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2020-05-13</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2020-05-14</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2020-05-15</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2020-05-16</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2020-05-17</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2020-05-18</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2020-05-19</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2020-05-20</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2020-05-21</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2020-05-22</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2020-05-23</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2020-05-24</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2020-05-25</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2020-05-26</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2020-05-27</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2020-05-28</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2020-05-29</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2020-05-30</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2020-05-31</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2020-06-01</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2020-06-02</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2020-06-03</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2020-06-04</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2020-06-05</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2020-06-06</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2020-06-07</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2020-06-08</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2020-06-09</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2020-06-10</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2020-06-11</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2020-06-12</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2020-06-13</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2020-06-14</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2020-06-15</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2020-06-16</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2020-06-17</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2020-06-18</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2020-06-19</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2020-06-20</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2020-06-21</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2020-06-22</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>2020-06-23</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2020-06-24</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2020-06-25</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>2020-06-26</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2020-06-27</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2020-06-28</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2020-06-29</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>2020-06-30</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2020-07-01</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2020-07-02</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2020-07-03</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2020-07-04</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2020-07-05</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2020-07-06</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2020-07-07</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2020-07-08</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2020-07-09</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2020-07-10</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>2020-07-11</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2020-07-12</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>2020-07-13</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2020-07-14</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>2020-07-15</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2020-07-16</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2020-07-17</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2020-07-18</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2020-07-19</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2020-07-20</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2020-07-21</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>2020-07-22</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2020-07-23</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2020-07-24</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2020-07-25</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>2020-07-26</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>2020-07-27</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>2020-07-28</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2020-07-29</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>2020-07-30</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>2020-07-31</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2020-08-01</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2020-08-02</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2020-08-03</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2020-08-04</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2020-08-05</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>2020-08-06</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>2020-08-07</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>2020-08-08</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>2020-08-09</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>2020-08-10</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>2020-08-11</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>2020-08-12</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>2020-08-13</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>2020-08-14</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>2020-08-15</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>2020-08-16</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>2020-08-17</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>2020-08-18</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>2020-08-19</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>2020-08-20</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>2020-08-21</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>2020-08-22</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>2020-08-23</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>2020-08-24</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>2020-08-25</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>2020-08-26</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>2020-08-27</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>2020-08-28</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>2020-08-29</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>2020-08-30</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>2020-08-31</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>2020-09-01</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>2020-09-02</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>2020-09-03</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>2020-09-04</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>2020-09-05</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>2020-09-06</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>2020-09-07</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>2020-09-08</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>2020-09-09</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2020-09-10</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2020-09-11</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>2020-09-12</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>2020-09-13</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2020-09-14</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2020-09-15</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>2020-09-16</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2020-09-17</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2020-09-18</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2020-09-19</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>2020-09-20</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>2020-09-21</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>2020-09-22</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>2020-09-23</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>2020-09-24</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>2020-09-25</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>2020-09-26</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2020-09-27</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2020-09-28</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>2020-09-29</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2020-09-30</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2020-10-01</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2020-10-02</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2020-10-03</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2020-10-04</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2020-10-05</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2020-10-06</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2020-10-07</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2020-10-08</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2020-10-09</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2020-10-10</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>2020-10-11</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2020-10-12</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2020-10-13</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2020-10-14</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2020-10-15</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2020-10-16</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2020-10-17</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2020-10-18</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2020-10-19</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2020-10-20</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2020-10-21</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2020-10-22</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2020-10-23</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2020-10-24</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2020-10-25</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2020-10-26</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2020-10-27</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2020-10-28</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2020-10-29</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>2020-10-30</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2020-10-31</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2020-11-01</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2020-11-02</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2020-11-03</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>2020-11-04</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>2020-11-05</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2020-11-06</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2020-11-07</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2020-11-08</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2020-11-09</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>2020-11-10</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>2020-11-11</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2020-11-12</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2020-11-13</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>2020-11-14</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>2020-11-15</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>2020-11-16</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>2020-11-17</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>2020-11-18</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>2020-11-19</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>2020-11-20</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>2020-11-21</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>2020-11-22</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>2020-11-23</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>2020-11-24</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>2020-11-25</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>2020-11-26</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>2020-11-27</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>2020-11-28</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>2020-11-29</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$316</c:f>
+              <c:f>'Cases Data'!$B$2:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3342,634 +2091,7 @@
                   <c:v>1187304</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1211011</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1235519</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1263995</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1291643</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1316511</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1336828</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1354449</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1376749</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1397894</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1424856</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1451093</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1474752</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1493766</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1515593</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1536570</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1559640</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1585373</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1609172</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1631440</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1651471</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1670571</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1689467</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1708211</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1730723</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1755271</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1778668</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1799302</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1821199</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1841990</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1861977</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1883593</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1912302</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1934818</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1953434</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1971641</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1990446</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2013298</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2036500</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2061993</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2087327</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2106457</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2126574</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2151459</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2177114</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2205173</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2236009</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2268034</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2294413</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2324879</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>2359939</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2396928</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2438101</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>2483629</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2525928</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2565436</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2604932</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>2653321</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2703296</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2758855</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2816009</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2866015</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2910782</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2958098</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>3012182</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>3071637</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>3131526</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>3199753</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>3260474</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>3318279</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>3379846</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>3445448</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>3513790</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>3589477</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>3660400</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>3722851</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>3785126</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>3845014</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>3910291</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>3980030</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>4050036</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>4123561</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>4190337</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>4244554</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>4303735</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>4366851</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>4433633</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>4502581</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>4571669</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>4628497</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>4679291</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>4726775</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>4780324</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>4834047</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>4891561</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>4952718</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>5007958</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>5056438</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>5103611</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>5156968</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>5211246</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>5265307</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>5324784</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>5375527</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>5417664</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>5455187</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>5498420</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>5541433</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>5587475</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>5636491</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>5681517</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>5713850</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>5754254</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>5793385</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>5838532</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>5884366</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>5930930</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>5975540</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>6008970</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>6045455</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>6089504</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>6121948</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>6168342</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>6220446</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>6262700</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>6292699</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>6317865</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>6346806</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>6380138</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>6418198</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>6465766</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>6504870</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>6538213</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>6575100</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>6614317</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>6653585</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>6698895</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>6747782</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>6789593</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>6825949</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>6880899</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>6918290</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>6959841</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>7005043</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>7059624</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>7102321</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>7139619</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>7176979</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>7220676</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>7262734</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>7309152</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>7362732</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>7410511</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>7445574</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>7507986</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>7550848</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>7603865</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>7660248</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>7719210</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>7770858</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>7815641</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>7863657</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>7918051</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>7977904</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>8043257</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>8113720</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>8166481</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>8214363</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>8279803</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>8340397</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>8404634</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>8479762</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>8564893</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>8643591</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>8703303</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>8777800</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>8852197</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>8934121</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>9024915</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>9124729</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>9208964</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>9283188</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>9376927</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>9469557</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>9577440</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>9698981</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>9831853</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>9957785</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>10061111</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>10191547</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>10331221</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>10474242</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>10637733</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>10819326</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>10978447</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>11113634</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>11280088</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>11441833</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>11614116</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>11801586</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>12000258</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>12172261</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>12313295</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>12492394</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>12670684</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>12851220</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>12954324</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>13159784</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>13311031</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>13447344</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>13615100</c:v>
+                  <c:v>1088297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4101,9 +2223,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$316</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$107</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -4421,643 +2543,16 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>2020-05-05</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2020-05-06</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2020-05-07</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2020-05-08</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2020-05-09</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2020-05-10</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2020-05-11</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2020-05-12</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2020-05-13</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2020-05-14</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2020-05-15</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2020-05-16</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2020-05-17</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2020-05-18</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2020-05-19</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2020-05-20</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2020-05-21</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2020-05-22</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2020-05-23</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2020-05-24</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2020-05-25</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2020-05-26</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2020-05-27</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2020-05-28</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2020-05-29</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2020-05-30</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2020-05-31</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2020-06-01</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2020-06-02</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2020-06-03</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2020-06-04</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2020-06-05</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2020-06-06</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2020-06-07</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2020-06-08</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2020-06-09</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2020-06-10</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2020-06-11</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2020-06-12</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2020-06-13</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2020-06-14</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2020-06-15</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2020-06-16</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2020-06-17</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2020-06-18</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2020-06-19</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2020-06-20</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2020-06-21</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2020-06-22</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>2020-06-23</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2020-06-24</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2020-06-25</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>2020-06-26</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2020-06-27</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2020-06-28</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2020-06-29</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>2020-06-30</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2020-07-01</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2020-07-02</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2020-07-03</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2020-07-04</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2020-07-05</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2020-07-06</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2020-07-07</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2020-07-08</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2020-07-09</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2020-07-10</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>2020-07-11</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2020-07-12</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>2020-07-13</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2020-07-14</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>2020-07-15</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2020-07-16</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2020-07-17</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2020-07-18</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2020-07-19</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2020-07-20</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2020-07-21</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>2020-07-22</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2020-07-23</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2020-07-24</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2020-07-25</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>2020-07-26</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>2020-07-27</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>2020-07-28</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2020-07-29</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>2020-07-30</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>2020-07-31</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2020-08-01</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2020-08-02</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2020-08-03</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2020-08-04</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2020-08-05</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>2020-08-06</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>2020-08-07</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>2020-08-08</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>2020-08-09</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>2020-08-10</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>2020-08-11</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>2020-08-12</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>2020-08-13</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>2020-08-14</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>2020-08-15</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>2020-08-16</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>2020-08-17</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>2020-08-18</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>2020-08-19</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>2020-08-20</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>2020-08-21</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>2020-08-22</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>2020-08-23</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>2020-08-24</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>2020-08-25</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>2020-08-26</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>2020-08-27</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>2020-08-28</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>2020-08-29</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>2020-08-30</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>2020-08-31</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>2020-09-01</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>2020-09-02</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>2020-09-03</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>2020-09-04</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>2020-09-05</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>2020-09-06</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>2020-09-07</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>2020-09-08</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>2020-09-09</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2020-09-10</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2020-09-11</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>2020-09-12</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>2020-09-13</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2020-09-14</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2020-09-15</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>2020-09-16</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2020-09-17</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2020-09-18</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2020-09-19</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>2020-09-20</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>2020-09-21</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>2020-09-22</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>2020-09-23</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>2020-09-24</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>2020-09-25</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>2020-09-26</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2020-09-27</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2020-09-28</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>2020-09-29</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2020-09-30</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2020-10-01</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2020-10-02</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2020-10-03</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2020-10-04</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2020-10-05</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2020-10-06</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2020-10-07</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2020-10-08</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2020-10-09</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2020-10-10</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>2020-10-11</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2020-10-12</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2020-10-13</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2020-10-14</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2020-10-15</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2020-10-16</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2020-10-17</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2020-10-18</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2020-10-19</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2020-10-20</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2020-10-21</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2020-10-22</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2020-10-23</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2020-10-24</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2020-10-25</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2020-10-26</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2020-10-27</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2020-10-28</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2020-10-29</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>2020-10-30</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2020-10-31</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2020-11-01</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2020-11-02</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2020-11-03</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>2020-11-04</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>2020-11-05</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2020-11-06</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2020-11-07</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2020-11-08</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2020-11-09</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>2020-11-10</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>2020-11-11</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2020-11-12</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2020-11-13</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>2020-11-14</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>2020-11-15</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>2020-11-16</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>2020-11-17</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>2020-11-18</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>2020-11-19</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>2020-11-20</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>2020-11-21</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>2020-11-22</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>2020-11-23</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>2020-11-24</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>2020-11-25</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>2020-11-26</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>2020-11-27</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>2020-11-28</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>2020-11-29</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$316</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5374,634 +2869,7 @@
                   <c:v>68905</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>71139</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>73847</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>75805</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>77380</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>78834</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>79765</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>80747</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>82400</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>84168</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>85906</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>87499</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>88724</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>89568</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>90408</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>91928</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>93411</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>94722</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>96010</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>97060</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>97680</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>98190</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>98937</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>100422</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>101622</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>102812</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>103775</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>104379</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>105113</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>106195</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>107184</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>108192</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>109304</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>110032</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>110422</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>111144</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>112174</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>113103</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>113980</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>114759</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>115451</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>115768</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>116216</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>116985</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>117738</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>118464</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>119171</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>119717</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>119974</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>120334</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>121167</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>121934</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>124400</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>125033</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>125544</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>125815</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>126162</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>127462</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>128104</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>128827</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>129418</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>129679</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>129941</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>130332</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>131290</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>132238</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>133079</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>133907</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>134582</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>134977</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>135402</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>136356</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>137327</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>138285</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>139186</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>139961</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>140373</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>140904</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>142031</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>143167</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>144283</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>145429</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>146313</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>146753</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>148449</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>149776</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>151172</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>152433</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>153862</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>154917</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>155337</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>155945</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>157301</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>158554</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>159625</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>160981</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>161947</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>162486</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>163023</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>164474</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>165952</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>167165</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>168341</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>169400</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>169915</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>170449</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>171798</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>173093</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>174136</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>175297</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>176247</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>176693</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>177197</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>178410</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>179603</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>180729</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>181739</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>182610</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>182984</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>183472</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>184563</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>185639</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>186717</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>187697</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>188409</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>188820</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>189083</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>189541</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>190716</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>191631</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>192858</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>193559</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>193958</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>194408</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>195689</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>196686</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>197535</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>198484</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>199154</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>199367</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>199797</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>200738</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>201828</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>202713</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>203566</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>204335</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>204602</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>204952</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>205878</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>206852</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>207699</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>208564</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>209273</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>209606</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>210035</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>210756</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>211752</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>212680</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>213595</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>214187</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>214606</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>214957</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>215783</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>216792</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>217585</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>218476</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>219154</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>219541</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>220058</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>220987</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>222195</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>223023</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>223949</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>224821</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>225160</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>225698</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>226681</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>227697</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>228701</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>229672</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>230510</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>230937</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>231477</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>232607</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>234223</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>235331</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>236577</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>237584</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>238048</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>238793</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>240258</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>241689</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>242861</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>244250</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>245460</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>246083</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>246879</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>248486</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>250411</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>252373</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>254325</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>255754</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>256597</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>257635</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>259844</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>262157</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>263336</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>264748</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>265940</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>266758</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>268023</c:v>
+                  <c:v>67087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6133,9 +3001,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$315</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7077,16 +3945,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>2020-11-30</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2020-12-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$315</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8027,7 +4898,10 @@
                   <c:v>93265</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>96039</c:v>
+                  <c:v>96053</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>98691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8169,9 +5043,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$316</c:f>
+              <c:f>'County Counts'!$A$2:$A$107</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -8489,643 +5363,16 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>05/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>05/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>05/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>05/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>05/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>05/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>05/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>05/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>05/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>05/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>05/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>05/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>05/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>05/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>05/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>05/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>05/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>05/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>05/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>05/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>05/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>05/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>05/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>05/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>05/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>05/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>05/31/2020</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>06/01/2020</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>06/02/2020</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>06/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>06/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>06/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>06/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>06/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>06/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>06/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>06/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>06/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>06/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>06/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>06/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>06/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>06/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>06/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>06/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>06/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>06/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>06/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>06/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>06/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>06/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>06/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>06/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>06/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>06/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>06/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>06/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>07/01/2020</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>07/02/2020</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>07/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>07/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>07/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>07/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>07/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>07/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>07/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>07/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>07/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>07/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>07/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>07/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>07/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>07/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>07/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>07/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>07/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>07/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>07/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>07/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>07/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>07/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>07/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>07/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>07/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>07/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>07/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>07/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>07/31/2020</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>08/01/2020</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>08/02/2020</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>08/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>08/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>08/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>08/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>08/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>08/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>08/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>08/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>08/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>08/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>08/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>08/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>08/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>08/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>08/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>08/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>08/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>08/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>08/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>08/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>08/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>08/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>08/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>08/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>08/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>08/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>08/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>08/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>08/31/2020</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>09/01/2020</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>09/02/2020</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>09/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>09/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>09/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>09/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>09/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>09/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>09/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>09/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>09/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>09/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>09/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>09/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>09/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>09/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>09/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>09/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>09/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>09/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>09/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>09/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>09/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>09/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>09/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>09/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>09/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>09/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>09/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>09/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>10/01/2020</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>10/02/2020</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>10/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>10/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>10/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>10/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>10/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>10/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>10/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>10/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>10/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>10/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>10/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>10/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>10/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>10/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>10/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>10/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>10/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>10/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>10/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>10/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>10/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>10/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>10/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>10/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>10/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>10/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>10/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>10/30/2020</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>10/31/2020</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>11/01/2020</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>11/02/2020</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>11/03/2020</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>11/04/2020</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>11/05/2020</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>11/06/2020</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>11/07/2020</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>11/08/2020</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>11/09/2020</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>11/10/2020</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>11/11/2020</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>11/12/2020</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>11/13/2020</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>11/14/2020</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>11/15/2020</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>11/16/2020</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>11/17/2020</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>11/18/2020</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>11/19/2020</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>11/20/2020</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>11/21/2020</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>11/22/2020</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>11/23/2020</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>11/24/2020</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>11/25/2020</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>11/26/2020</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>11/27/2020</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>11/28/2020</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>11/29/2020</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>11/30/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$316</c:f>
+              <c:f>'County Counts'!$B$2:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9442,634 +5689,7 @@
                   <c:v>2883</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2959</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2966</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2980</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2985</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2990</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2990</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2990</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2991</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2996</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2999</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>3003</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3009</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3012</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>3016</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>3024</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>3028</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>3032</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>3036</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>3041</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>3043</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>3045</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>3044</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>3052</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>3057</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3064</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3066</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>3070</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>3073</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>3076</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>3079</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>3082</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>3086</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3088</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3091</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3093</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>3097</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>3103</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>3105</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>3107</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3108</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>3109</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>3112</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>3114</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>3113</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>3116</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>3120</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>3128</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>3128</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>3130</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>3131</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>3135</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>3141</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>3149</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>3149</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>3148</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>3148</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>3152</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>3154</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>3156</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>3163</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>3165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>3165</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>3170</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>3170</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>3176</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>3174</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>3180</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>3182</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>3187</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>3187</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>3194</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>3196</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>3197</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>3201</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>3202</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>3203</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>3204</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>3206</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>3207</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>3207</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>3210</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>3212</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>3214</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>3216</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>3217</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>3218</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>3217</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>3217</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>3216</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>3216</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>3216</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>3218</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>3220</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>3219</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>3220</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>3221</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>3221</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>3221</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>3224</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>3228</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>3225</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>3226</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>3226</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>3226</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>3227</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>3228</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>3228</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>3228</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>3227</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>3229</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>3229</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>3229</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>3232</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>3234</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>3235</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>3234</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>3234</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>3234</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>3232</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>3235</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>3237</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>3237</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>3235</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>3237</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>3237</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>3239</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>3239</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>3237</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>3239</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>3241</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>3241</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>3241</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>3239</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>3240</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>3241</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>3240</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>3241</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>3248</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>3246</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>3243</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>3244</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>3246</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>3246</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>3246</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>3246</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>3246</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>3246</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>3246</c:v>
+                  <c:v>2124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10353,10 +5973,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B316" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B316" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B316">
-    <sortCondition ref="A1:A165"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B107" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B107" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
+    <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10367,10 +5987,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B316" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B316" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B316">
-    <sortCondition ref="A1:A172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B107" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B107" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
+    <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
@@ -10381,9 +6001,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B315" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B315" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B315">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B316" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B316" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B316">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10395,10 +6015,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B316" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B316" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B316">
-    <sortCondition ref="A1:A172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B107" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B107" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
+    <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="Virus Date" queryTableFieldId="1"/>
@@ -10729,7 +6349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11594,1679 +7214,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>1211011</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108">
-        <v>1235519</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109">
-        <v>1263995</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110">
-        <v>1291643</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111">
-        <v>1316511</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112">
-        <v>1336828</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113">
-        <v>1354449</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114">
-        <v>1376749</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115">
-        <v>1397894</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116">
-        <v>1424856</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117">
-        <v>1451093</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118">
-        <v>1474752</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119">
-        <v>1493766</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120">
-        <v>1515593</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121">
-        <v>1536570</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122">
-        <v>1559640</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123">
-        <v>1585373</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124">
-        <v>1609172</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125">
-        <v>1631440</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126">
-        <v>1651471</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127">
-        <v>1670571</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128">
-        <v>1689467</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129">
-        <v>1708211</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130">
-        <v>1730723</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131">
-        <v>1755271</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132">
-        <v>1778668</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133">
-        <v>1799302</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134">
-        <v>1821199</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135">
-        <v>1841990</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136">
-        <v>1861977</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137">
-        <v>1883593</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138">
-        <v>1912302</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139">
-        <v>1934818</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140">
-        <v>1953434</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141">
-        <v>1971641</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142">
-        <v>1990446</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143">
-        <v>2013298</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144">
-        <v>2036500</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145">
-        <v>2061993</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146">
-        <v>2087327</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147">
-        <v>2106457</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148">
-        <v>2126574</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149">
-        <v>2151459</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150">
-        <v>2177114</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151">
-        <v>2205173</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152">
-        <v>2236009</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B153">
-        <v>2268034</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154">
-        <v>2294413</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155">
-        <v>2324879</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156">
-        <v>2359939</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157">
-        <v>2396928</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>158</v>
-      </c>
-      <c r="B158">
-        <v>2438101</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>159</v>
-      </c>
-      <c r="B159">
-        <v>2483629</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>160</v>
-      </c>
-      <c r="B160">
-        <v>2525928</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>161</v>
-      </c>
-      <c r="B161">
-        <v>2565436</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>162</v>
-      </c>
-      <c r="B162">
-        <v>2604932</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>163</v>
-      </c>
-      <c r="B163">
-        <v>2653321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>164</v>
-      </c>
-      <c r="B164">
-        <v>2703296</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>165</v>
-      </c>
-      <c r="B165">
-        <v>2758855</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166">
-        <v>2816009</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>167</v>
-      </c>
-      <c r="B167">
-        <v>2866015</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168">
-        <v>2910782</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169">
-        <v>2958098</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170">
-        <v>3012182</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B171">
-        <v>3071637</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172">
-        <v>3131526</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173">
-        <v>3199753</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174">
-        <v>3260474</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175">
-        <v>3318279</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>176</v>
-      </c>
-      <c r="B176">
-        <v>3379846</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>177</v>
-      </c>
-      <c r="B177">
-        <v>3445448</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>178</v>
-      </c>
-      <c r="B178">
-        <v>3513790</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>179</v>
-      </c>
-      <c r="B179">
-        <v>3589477</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>180</v>
-      </c>
-      <c r="B180">
-        <v>3660400</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>181</v>
-      </c>
-      <c r="B181">
-        <v>3722851</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>182</v>
-      </c>
-      <c r="B182">
-        <v>3785126</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>183</v>
-      </c>
-      <c r="B183">
-        <v>3845014</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>184</v>
-      </c>
-      <c r="B184">
-        <v>3910291</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>185</v>
-      </c>
-      <c r="B185">
-        <v>3980030</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186">
-        <v>4050036</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187">
-        <v>4123561</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>188</v>
-      </c>
-      <c r="B188">
-        <v>4190337</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189">
-        <v>4244554</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>190</v>
-      </c>
-      <c r="B190">
-        <v>4303735</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>191</v>
-      </c>
-      <c r="B191">
-        <v>4366851</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192">
-        <v>4433633</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>193</v>
-      </c>
-      <c r="B193">
-        <v>4502581</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>194</v>
-      </c>
-      <c r="B194">
-        <v>4571669</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>195</v>
-      </c>
-      <c r="B195">
-        <v>4628497</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>196</v>
-      </c>
-      <c r="B196">
-        <v>4679291</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>197</v>
-      </c>
-      <c r="B197">
-        <v>4726775</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>198</v>
-      </c>
-      <c r="B198">
-        <v>4780324</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>199</v>
-      </c>
-      <c r="B199">
-        <v>4834047</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200">
-        <v>4891561</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>201</v>
-      </c>
-      <c r="B201">
-        <v>4952718</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202">
-        <v>5007958</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>203</v>
-      </c>
-      <c r="B203">
-        <v>5056438</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>204</v>
-      </c>
-      <c r="B204">
-        <v>5103611</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>205</v>
-      </c>
-      <c r="B205">
-        <v>5156968</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>206</v>
-      </c>
-      <c r="B206">
-        <v>5211246</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>207</v>
-      </c>
-      <c r="B207">
-        <v>5265307</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>208</v>
-      </c>
-      <c r="B208">
-        <v>5324784</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>209</v>
-      </c>
-      <c r="B209">
-        <v>5375527</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>210</v>
-      </c>
-      <c r="B210">
-        <v>5417664</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>211</v>
-      </c>
-      <c r="B211">
-        <v>5455187</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>212</v>
-      </c>
-      <c r="B212">
-        <v>5498420</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>213</v>
-      </c>
-      <c r="B213">
-        <v>5541433</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>214</v>
-      </c>
-      <c r="B214">
-        <v>5587475</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>215</v>
-      </c>
-      <c r="B215">
-        <v>5636491</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>216</v>
-      </c>
-      <c r="B216">
-        <v>5681517</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>217</v>
-      </c>
-      <c r="B217">
-        <v>5713850</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>218</v>
-      </c>
-      <c r="B218">
-        <v>5754254</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>219</v>
-      </c>
-      <c r="B219">
-        <v>5793385</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220">
-        <v>5838532</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>221</v>
-      </c>
-      <c r="B221">
-        <v>5884366</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>222</v>
-      </c>
-      <c r="B222">
-        <v>5930930</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>223</v>
-      </c>
-      <c r="B223">
-        <v>5975540</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>224</v>
-      </c>
-      <c r="B224">
-        <v>6008970</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>225</v>
-      </c>
-      <c r="B225">
-        <v>6045455</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>226</v>
-      </c>
-      <c r="B226">
-        <v>6089504</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>227</v>
-      </c>
-      <c r="B227">
-        <v>6121948</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>228</v>
-      </c>
-      <c r="B228">
-        <v>6168342</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>229</v>
-      </c>
-      <c r="B229">
-        <v>6220446</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>230</v>
-      </c>
-      <c r="B230">
-        <v>6262700</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>231</v>
-      </c>
-      <c r="B231">
-        <v>6292699</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>232</v>
-      </c>
-      <c r="B232">
-        <v>6317865</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>233</v>
-      </c>
-      <c r="B233">
-        <v>6346806</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>234</v>
-      </c>
-      <c r="B234">
-        <v>6380138</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>235</v>
-      </c>
-      <c r="B235">
-        <v>6418198</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>236</v>
-      </c>
-      <c r="B236">
-        <v>6465766</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>237</v>
-      </c>
-      <c r="B237">
-        <v>6504870</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>238</v>
-      </c>
-      <c r="B238">
-        <v>6538213</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>239</v>
-      </c>
-      <c r="B239">
-        <v>6575100</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>240</v>
-      </c>
-      <c r="B240">
-        <v>6614317</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>241</v>
-      </c>
-      <c r="B241">
-        <v>6653585</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>242</v>
-      </c>
-      <c r="B242">
-        <v>6698895</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>243</v>
-      </c>
-      <c r="B243">
-        <v>6747782</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244">
-        <v>6789593</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>245</v>
-      </c>
-      <c r="B245">
-        <v>6825949</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>246</v>
-      </c>
-      <c r="B246">
-        <v>6880899</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>247</v>
-      </c>
-      <c r="B247">
-        <v>6918290</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>248</v>
-      </c>
-      <c r="B248">
-        <v>6959841</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>249</v>
-      </c>
-      <c r="B249">
-        <v>7005043</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>250</v>
-      </c>
-      <c r="B250">
-        <v>7059624</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>251</v>
-      </c>
-      <c r="B251">
-        <v>7102321</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>252</v>
-      </c>
-      <c r="B252">
-        <v>7139619</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>253</v>
-      </c>
-      <c r="B253">
-        <v>7176979</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>254</v>
-      </c>
-      <c r="B254">
-        <v>7220676</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>255</v>
-      </c>
-      <c r="B255">
-        <v>7262734</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>256</v>
-      </c>
-      <c r="B256">
-        <v>7309152</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>257</v>
-      </c>
-      <c r="B257">
-        <v>7362732</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>258</v>
-      </c>
-      <c r="B258">
-        <v>7410511</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>259</v>
-      </c>
-      <c r="B259">
-        <v>7445574</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>260</v>
-      </c>
-      <c r="B260">
-        <v>7507986</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>261</v>
-      </c>
-      <c r="B261">
-        <v>7550848</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>262</v>
-      </c>
-      <c r="B262">
-        <v>7603865</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>263</v>
-      </c>
-      <c r="B263">
-        <v>7660248</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>264</v>
-      </c>
-      <c r="B264">
-        <v>7719210</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>265</v>
-      </c>
-      <c r="B265">
-        <v>7770858</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>266</v>
-      </c>
-      <c r="B266">
-        <v>7815641</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>267</v>
-      </c>
-      <c r="B267">
-        <v>7863657</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>268</v>
-      </c>
-      <c r="B268">
-        <v>7918051</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>269</v>
-      </c>
-      <c r="B269">
-        <v>7977904</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>270</v>
-      </c>
-      <c r="B270">
-        <v>8043257</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>271</v>
-      </c>
-      <c r="B271">
-        <v>8113720</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>272</v>
-      </c>
-      <c r="B272">
-        <v>8166481</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>273</v>
-      </c>
-      <c r="B273">
-        <v>8214363</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>274</v>
-      </c>
-      <c r="B274">
-        <v>8279803</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>275</v>
-      </c>
-      <c r="B275">
-        <v>8340397</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>276</v>
-      </c>
-      <c r="B276">
-        <v>8404634</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>277</v>
-      </c>
-      <c r="B277">
-        <v>8479762</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>278</v>
-      </c>
-      <c r="B278">
-        <v>8564893</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>279</v>
-      </c>
-      <c r="B279">
-        <v>8643591</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>280</v>
-      </c>
-      <c r="B280">
-        <v>8703303</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>281</v>
-      </c>
-      <c r="B281">
-        <v>8777800</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>282</v>
-      </c>
-      <c r="B282">
-        <v>8852197</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>283</v>
-      </c>
-      <c r="B283">
-        <v>8934121</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>284</v>
-      </c>
-      <c r="B284">
-        <v>9024915</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>285</v>
-      </c>
-      <c r="B285">
-        <v>9124729</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>286</v>
-      </c>
-      <c r="B286">
-        <v>9208964</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>287</v>
-      </c>
-      <c r="B287">
-        <v>9283188</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>288</v>
-      </c>
-      <c r="B288">
-        <v>9376927</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>289</v>
-      </c>
-      <c r="B289">
-        <v>9469557</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>290</v>
-      </c>
-      <c r="B290">
-        <v>9577440</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>291</v>
-      </c>
-      <c r="B291">
-        <v>9698981</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>292</v>
-      </c>
-      <c r="B292">
-        <v>9831853</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>293</v>
-      </c>
-      <c r="B293">
-        <v>9957785</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>294</v>
-      </c>
-      <c r="B294">
-        <v>10061111</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>295</v>
-      </c>
-      <c r="B295">
-        <v>10191547</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>296</v>
-      </c>
-      <c r="B296">
-        <v>10331221</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>297</v>
-      </c>
-      <c r="B297">
-        <v>10474242</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>298</v>
-      </c>
-      <c r="B298">
-        <v>10637733</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>299</v>
-      </c>
-      <c r="B299">
-        <v>10819326</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>300</v>
-      </c>
-      <c r="B300">
-        <v>10978447</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>301</v>
-      </c>
-      <c r="B301">
-        <v>11113634</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>606</v>
-      </c>
-      <c r="B302">
-        <v>11280088</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>607</v>
-      </c>
-      <c r="B303">
-        <v>11441833</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>610</v>
-      </c>
-      <c r="B304">
-        <v>11614116</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>612</v>
-      </c>
-      <c r="B305">
-        <v>11801586</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>614</v>
-      </c>
-      <c r="B306">
-        <v>12000258</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>616</v>
-      </c>
-      <c r="B307">
-        <v>12172261</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>618</v>
-      </c>
-      <c r="B308">
-        <v>12313295</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>620</v>
-      </c>
-      <c r="B309">
-        <v>12492394</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>622</v>
-      </c>
-      <c r="B310">
-        <v>12670684</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>624</v>
-      </c>
-      <c r="B311">
-        <v>12851220</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>626</v>
-      </c>
-      <c r="B312">
-        <v>12954324</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>628</v>
-      </c>
-      <c r="B313">
-        <v>13159784</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>630</v>
-      </c>
-      <c r="B314">
-        <v>13311031</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>632</v>
-      </c>
-      <c r="B315">
-        <v>13447344</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>634</v>
-      </c>
-      <c r="B316">
-        <v>13615100</v>
+        <v>1088297</v>
       </c>
     </row>
   </sheetData>
@@ -13279,7 +7227,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
@@ -14142,1679 +8090,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>71139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108">
-        <v>73847</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109">
-        <v>75805</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110">
-        <v>77380</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111">
-        <v>78834</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112">
-        <v>79765</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113">
-        <v>80747</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114">
-        <v>82400</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115">
-        <v>84168</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116">
-        <v>85906</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117">
-        <v>87499</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118">
-        <v>88724</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119">
-        <v>89568</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120">
-        <v>90408</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121">
-        <v>91928</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122">
-        <v>93411</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123">
-        <v>94722</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124">
-        <v>96010</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125">
-        <v>97060</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126">
-        <v>97680</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127">
-        <v>98190</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128">
-        <v>98937</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129">
-        <v>100422</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130">
-        <v>101622</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131">
-        <v>102812</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132">
-        <v>103775</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133">
-        <v>104379</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134">
-        <v>105113</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135">
-        <v>106195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136">
-        <v>107184</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137">
-        <v>108192</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138">
-        <v>109304</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139">
-        <v>110032</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140">
-        <v>110422</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141">
-        <v>111144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142">
-        <v>112174</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143">
-        <v>113103</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144">
-        <v>113980</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145">
-        <v>114759</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146">
-        <v>115451</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147">
-        <v>115768</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148">
-        <v>116216</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149">
-        <v>116985</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150">
-        <v>117738</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151">
-        <v>118464</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152">
-        <v>119171</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B153">
-        <v>119717</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154">
-        <v>119974</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155">
-        <v>120334</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156">
-        <v>121167</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157">
-        <v>121934</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>158</v>
-      </c>
-      <c r="B158">
-        <v>124400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>159</v>
-      </c>
-      <c r="B159">
-        <v>125033</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>160</v>
-      </c>
-      <c r="B160">
-        <v>125544</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>161</v>
-      </c>
-      <c r="B161">
-        <v>125815</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>162</v>
-      </c>
-      <c r="B162">
-        <v>126162</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>163</v>
-      </c>
-      <c r="B163">
-        <v>127462</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>164</v>
-      </c>
-      <c r="B164">
-        <v>128104</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>165</v>
-      </c>
-      <c r="B165">
-        <v>128827</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166">
-        <v>129418</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>167</v>
-      </c>
-      <c r="B167">
-        <v>129679</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168">
-        <v>129941</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169">
-        <v>130332</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170">
-        <v>131290</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B171">
-        <v>132238</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172">
-        <v>133079</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173">
-        <v>133907</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174">
-        <v>134582</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175">
-        <v>134977</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>176</v>
-      </c>
-      <c r="B176">
-        <v>135402</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>177</v>
-      </c>
-      <c r="B177">
-        <v>136356</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>178</v>
-      </c>
-      <c r="B178">
-        <v>137327</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>179</v>
-      </c>
-      <c r="B179">
-        <v>138285</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>180</v>
-      </c>
-      <c r="B180">
-        <v>139186</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>181</v>
-      </c>
-      <c r="B181">
-        <v>139961</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>182</v>
-      </c>
-      <c r="B182">
-        <v>140373</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>183</v>
-      </c>
-      <c r="B183">
-        <v>140904</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>184</v>
-      </c>
-      <c r="B184">
-        <v>142031</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>185</v>
-      </c>
-      <c r="B185">
-        <v>143167</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186">
-        <v>144283</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187">
-        <v>145429</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>188</v>
-      </c>
-      <c r="B188">
-        <v>146313</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189">
-        <v>146753</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>190</v>
-      </c>
-      <c r="B190">
-        <v>148449</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>191</v>
-      </c>
-      <c r="B191">
-        <v>149776</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192">
-        <v>151172</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>193</v>
-      </c>
-      <c r="B193">
-        <v>152433</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>194</v>
-      </c>
-      <c r="B194">
-        <v>153862</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>195</v>
-      </c>
-      <c r="B195">
-        <v>154917</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>196</v>
-      </c>
-      <c r="B196">
-        <v>155337</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>197</v>
-      </c>
-      <c r="B197">
-        <v>155945</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>198</v>
-      </c>
-      <c r="B198">
-        <v>157301</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>199</v>
-      </c>
-      <c r="B199">
-        <v>158554</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200">
-        <v>159625</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>201</v>
-      </c>
-      <c r="B201">
-        <v>160981</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202">
-        <v>161947</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>203</v>
-      </c>
-      <c r="B203">
-        <v>162486</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>204</v>
-      </c>
-      <c r="B204">
-        <v>163023</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>205</v>
-      </c>
-      <c r="B205">
-        <v>164474</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>206</v>
-      </c>
-      <c r="B206">
-        <v>165952</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>207</v>
-      </c>
-      <c r="B207">
-        <v>167165</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>208</v>
-      </c>
-      <c r="B208">
-        <v>168341</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>209</v>
-      </c>
-      <c r="B209">
-        <v>169400</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>210</v>
-      </c>
-      <c r="B210">
-        <v>169915</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>211</v>
-      </c>
-      <c r="B211">
-        <v>170449</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>212</v>
-      </c>
-      <c r="B212">
-        <v>171798</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>213</v>
-      </c>
-      <c r="B213">
-        <v>173093</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>214</v>
-      </c>
-      <c r="B214">
-        <v>174136</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>215</v>
-      </c>
-      <c r="B215">
-        <v>175297</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>216</v>
-      </c>
-      <c r="B216">
-        <v>176247</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>217</v>
-      </c>
-      <c r="B217">
-        <v>176693</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>218</v>
-      </c>
-      <c r="B218">
-        <v>177197</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>219</v>
-      </c>
-      <c r="B219">
-        <v>178410</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220">
-        <v>179603</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>221</v>
-      </c>
-      <c r="B221">
-        <v>180729</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>222</v>
-      </c>
-      <c r="B222">
-        <v>181739</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>223</v>
-      </c>
-      <c r="B223">
-        <v>182610</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>224</v>
-      </c>
-      <c r="B224">
-        <v>182984</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>225</v>
-      </c>
-      <c r="B225">
-        <v>183472</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>226</v>
-      </c>
-      <c r="B226">
-        <v>184563</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>227</v>
-      </c>
-      <c r="B227">
-        <v>185639</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>228</v>
-      </c>
-      <c r="B228">
-        <v>186717</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>229</v>
-      </c>
-      <c r="B229">
-        <v>187697</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>230</v>
-      </c>
-      <c r="B230">
-        <v>188409</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>231</v>
-      </c>
-      <c r="B231">
-        <v>188820</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>232</v>
-      </c>
-      <c r="B232">
-        <v>189083</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>233</v>
-      </c>
-      <c r="B233">
-        <v>189541</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>234</v>
-      </c>
-      <c r="B234">
-        <v>190716</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>235</v>
-      </c>
-      <c r="B235">
-        <v>191631</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>236</v>
-      </c>
-      <c r="B236">
-        <v>192858</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>237</v>
-      </c>
-      <c r="B237">
-        <v>193559</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>238</v>
-      </c>
-      <c r="B238">
-        <v>193958</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>239</v>
-      </c>
-      <c r="B239">
-        <v>194408</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>240</v>
-      </c>
-      <c r="B240">
-        <v>195689</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>241</v>
-      </c>
-      <c r="B241">
-        <v>196686</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>242</v>
-      </c>
-      <c r="B242">
-        <v>197535</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>243</v>
-      </c>
-      <c r="B243">
-        <v>198484</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244">
-        <v>199154</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>245</v>
-      </c>
-      <c r="B245">
-        <v>199367</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>246</v>
-      </c>
-      <c r="B246">
-        <v>199797</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>247</v>
-      </c>
-      <c r="B247">
-        <v>200738</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>248</v>
-      </c>
-      <c r="B248">
-        <v>201828</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>249</v>
-      </c>
-      <c r="B249">
-        <v>202713</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>250</v>
-      </c>
-      <c r="B250">
-        <v>203566</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>251</v>
-      </c>
-      <c r="B251">
-        <v>204335</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>252</v>
-      </c>
-      <c r="B252">
-        <v>204602</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>253</v>
-      </c>
-      <c r="B253">
-        <v>204952</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>254</v>
-      </c>
-      <c r="B254">
-        <v>205878</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>255</v>
-      </c>
-      <c r="B255">
-        <v>206852</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>256</v>
-      </c>
-      <c r="B256">
-        <v>207699</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>257</v>
-      </c>
-      <c r="B257">
-        <v>208564</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>258</v>
-      </c>
-      <c r="B258">
-        <v>209273</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>259</v>
-      </c>
-      <c r="B259">
-        <v>209606</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>260</v>
-      </c>
-      <c r="B260">
-        <v>210035</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>261</v>
-      </c>
-      <c r="B261">
-        <v>210756</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>262</v>
-      </c>
-      <c r="B262">
-        <v>211752</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>263</v>
-      </c>
-      <c r="B263">
-        <v>212680</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>264</v>
-      </c>
-      <c r="B264">
-        <v>213595</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>265</v>
-      </c>
-      <c r="B265">
-        <v>214187</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>266</v>
-      </c>
-      <c r="B266">
-        <v>214606</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>267</v>
-      </c>
-      <c r="B267">
-        <v>214957</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>268</v>
-      </c>
-      <c r="B268">
-        <v>215783</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>269</v>
-      </c>
-      <c r="B269">
-        <v>216792</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>270</v>
-      </c>
-      <c r="B270">
-        <v>217585</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>271</v>
-      </c>
-      <c r="B271">
-        <v>218476</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>272</v>
-      </c>
-      <c r="B272">
-        <v>219154</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>273</v>
-      </c>
-      <c r="B273">
-        <v>219541</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>274</v>
-      </c>
-      <c r="B274">
-        <v>220058</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>275</v>
-      </c>
-      <c r="B275">
-        <v>220987</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>276</v>
-      </c>
-      <c r="B276">
-        <v>222195</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>277</v>
-      </c>
-      <c r="B277">
-        <v>223023</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>278</v>
-      </c>
-      <c r="B278">
-        <v>223949</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>279</v>
-      </c>
-      <c r="B279">
-        <v>224821</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>280</v>
-      </c>
-      <c r="B280">
-        <v>225160</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>281</v>
-      </c>
-      <c r="B281">
-        <v>225698</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>282</v>
-      </c>
-      <c r="B282">
-        <v>226681</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>283</v>
-      </c>
-      <c r="B283">
-        <v>227697</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>284</v>
-      </c>
-      <c r="B284">
-        <v>228701</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>285</v>
-      </c>
-      <c r="B285">
-        <v>229672</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>286</v>
-      </c>
-      <c r="B286">
-        <v>230510</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>287</v>
-      </c>
-      <c r="B287">
-        <v>230937</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>288</v>
-      </c>
-      <c r="B288">
-        <v>231477</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>289</v>
-      </c>
-      <c r="B289">
-        <v>232607</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>290</v>
-      </c>
-      <c r="B290">
-        <v>234223</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>291</v>
-      </c>
-      <c r="B291">
-        <v>235331</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>292</v>
-      </c>
-      <c r="B292">
-        <v>236577</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>293</v>
-      </c>
-      <c r="B293">
-        <v>237584</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>294</v>
-      </c>
-      <c r="B294">
-        <v>238048</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>295</v>
-      </c>
-      <c r="B295">
-        <v>238793</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>296</v>
-      </c>
-      <c r="B296">
-        <v>240258</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>297</v>
-      </c>
-      <c r="B297">
-        <v>241689</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>298</v>
-      </c>
-      <c r="B298">
-        <v>242861</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>299</v>
-      </c>
-      <c r="B299">
-        <v>244250</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>300</v>
-      </c>
-      <c r="B300">
-        <v>245460</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>301</v>
-      </c>
-      <c r="B301">
-        <v>246083</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>606</v>
-      </c>
-      <c r="B302">
-        <v>246879</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>607</v>
-      </c>
-      <c r="B303">
-        <v>248486</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>610</v>
-      </c>
-      <c r="B304">
-        <v>250411</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>612</v>
-      </c>
-      <c r="B305">
-        <v>252373</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>614</v>
-      </c>
-      <c r="B306">
-        <v>254325</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>616</v>
-      </c>
-      <c r="B307">
-        <v>255754</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>618</v>
-      </c>
-      <c r="B308">
-        <v>256597</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>620</v>
-      </c>
-      <c r="B309">
-        <v>257635</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>622</v>
-      </c>
-      <c r="B310">
-        <v>259844</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>624</v>
-      </c>
-      <c r="B311">
-        <v>262157</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>626</v>
-      </c>
-      <c r="B312">
-        <v>263336</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>628</v>
-      </c>
-      <c r="B313">
-        <v>264748</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>630</v>
-      </c>
-      <c r="B314">
-        <v>265940</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>632</v>
-      </c>
-      <c r="B315">
-        <v>266758</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>634</v>
-      </c>
-      <c r="B316">
-        <v>268023</v>
+        <v>67087</v>
       </c>
     </row>
   </sheetData>
@@ -15827,7 +8103,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView topLeftCell="A278" workbookViewId="0"/>
   </sheetViews>
@@ -18239,7 +10515,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>606</v>
+        <v>412</v>
       </c>
       <c r="B301">
         <v>73268</v>
@@ -18247,7 +10523,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>607</v>
+        <v>413</v>
       </c>
       <c r="B302">
         <v>76958</v>
@@ -18255,7 +10531,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="B303">
         <v>79410</v>
@@ -18263,7 +10539,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>612</v>
+        <v>415</v>
       </c>
       <c r="B304">
         <v>80585</v>
@@ -18271,7 +10547,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>614</v>
+        <v>416</v>
       </c>
       <c r="B305">
         <v>82150</v>
@@ -18279,7 +10555,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>616</v>
+        <v>417</v>
       </c>
       <c r="B306">
         <v>83232</v>
@@ -18287,7 +10563,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>618</v>
+        <v>418</v>
       </c>
       <c r="B307">
         <v>83779</v>
@@ -18295,7 +10571,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>620</v>
+        <v>419</v>
       </c>
       <c r="B308">
         <v>85870</v>
@@ -18303,7 +10579,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>622</v>
+        <v>420</v>
       </c>
       <c r="B309">
         <v>88080</v>
@@ -18311,7 +10587,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>624</v>
+        <v>421</v>
       </c>
       <c r="B310">
         <v>89959</v>
@@ -18319,7 +10595,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>626</v>
+        <v>422</v>
       </c>
       <c r="B311">
         <v>90443</v>
@@ -18327,7 +10603,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>628</v>
+        <v>423</v>
       </c>
       <c r="B312">
         <v>89834</v>
@@ -18335,7 +10611,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>630</v>
+        <v>424</v>
       </c>
       <c r="B313">
         <v>91665</v>
@@ -18343,7 +10619,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>632</v>
+        <v>425</v>
       </c>
       <c r="B314">
         <v>93265</v>
@@ -18351,10 +10627,18 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>634</v>
+        <v>426</v>
       </c>
       <c r="B315">
-        <v>96039</v>
+        <v>96053</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>427</v>
+      </c>
+      <c r="B316">
+        <v>98691</v>
       </c>
     </row>
   </sheetData>
@@ -18367,7 +10651,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0"/>
   </sheetViews>
@@ -19230,1679 +11514,7 @@
         <v>411</v>
       </c>
       <c r="B107">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>412</v>
-      </c>
-      <c r="B108">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>413</v>
-      </c>
-      <c r="B109">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>414</v>
-      </c>
-      <c r="B110">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>415</v>
-      </c>
-      <c r="B111">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>416</v>
-      </c>
-      <c r="B112">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>417</v>
-      </c>
-      <c r="B113">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>418</v>
-      </c>
-      <c r="B114">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>419</v>
-      </c>
-      <c r="B115">
-        <v>2996</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>420</v>
-      </c>
-      <c r="B116">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>421</v>
-      </c>
-      <c r="B117">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>422</v>
-      </c>
-      <c r="B118">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>423</v>
-      </c>
-      <c r="B119">
-        <v>3012</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>424</v>
-      </c>
-      <c r="B120">
-        <v>3016</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>425</v>
-      </c>
-      <c r="B121">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>426</v>
-      </c>
-      <c r="B122">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>427</v>
-      </c>
-      <c r="B123">
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>428</v>
-      </c>
-      <c r="B124">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>429</v>
-      </c>
-      <c r="B125">
-        <v>3041</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>430</v>
-      </c>
-      <c r="B126">
-        <v>3043</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>431</v>
-      </c>
-      <c r="B127">
-        <v>3045</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>432</v>
-      </c>
-      <c r="B128">
-        <v>3044</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>433</v>
-      </c>
-      <c r="B129">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>434</v>
-      </c>
-      <c r="B130">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>435</v>
-      </c>
-      <c r="B131">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>436</v>
-      </c>
-      <c r="B132">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>437</v>
-      </c>
-      <c r="B133">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>438</v>
-      </c>
-      <c r="B134">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>439</v>
-      </c>
-      <c r="B135">
-        <v>3076</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>440</v>
-      </c>
-      <c r="B136">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>441</v>
-      </c>
-      <c r="B137">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>442</v>
-      </c>
-      <c r="B138">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>443</v>
-      </c>
-      <c r="B139">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>444</v>
-      </c>
-      <c r="B140">
-        <v>3091</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>445</v>
-      </c>
-      <c r="B141">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>446</v>
-      </c>
-      <c r="B142">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>447</v>
-      </c>
-      <c r="B143">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>448</v>
-      </c>
-      <c r="B144">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>449</v>
-      </c>
-      <c r="B145">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>450</v>
-      </c>
-      <c r="B146">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>451</v>
-      </c>
-      <c r="B147">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>452</v>
-      </c>
-      <c r="B148">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>453</v>
-      </c>
-      <c r="B149">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>454</v>
-      </c>
-      <c r="B150">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>455</v>
-      </c>
-      <c r="B151">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>456</v>
-      </c>
-      <c r="B152">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>457</v>
-      </c>
-      <c r="B153">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>458</v>
-      </c>
-      <c r="B154">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>459</v>
-      </c>
-      <c r="B155">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>460</v>
-      </c>
-      <c r="B156">
-        <v>3131</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>461</v>
-      </c>
-      <c r="B157">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>462</v>
-      </c>
-      <c r="B158">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>463</v>
-      </c>
-      <c r="B159">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>464</v>
-      </c>
-      <c r="B160">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>465</v>
-      </c>
-      <c r="B161">
-        <v>3148</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>466</v>
-      </c>
-      <c r="B162">
-        <v>3148</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>467</v>
-      </c>
-      <c r="B163">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>468</v>
-      </c>
-      <c r="B164">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>469</v>
-      </c>
-      <c r="B165">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>470</v>
-      </c>
-      <c r="B166">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>471</v>
-      </c>
-      <c r="B167">
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>472</v>
-      </c>
-      <c r="B168">
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>473</v>
-      </c>
-      <c r="B169">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>474</v>
-      </c>
-      <c r="B170">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>475</v>
-      </c>
-      <c r="B171">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>476</v>
-      </c>
-      <c r="B172">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>477</v>
-      </c>
-      <c r="B173">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>478</v>
-      </c>
-      <c r="B174">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>479</v>
-      </c>
-      <c r="B175">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>480</v>
-      </c>
-      <c r="B176">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>481</v>
-      </c>
-      <c r="B177">
-        <v>3194</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>482</v>
-      </c>
-      <c r="B178">
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>483</v>
-      </c>
-      <c r="B179">
-        <v>3197</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>484</v>
-      </c>
-      <c r="B180">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>485</v>
-      </c>
-      <c r="B181">
-        <v>3201</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>486</v>
-      </c>
-      <c r="B182">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>487</v>
-      </c>
-      <c r="B183">
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>488</v>
-      </c>
-      <c r="B184">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>489</v>
-      </c>
-      <c r="B185">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>490</v>
-      </c>
-      <c r="B186">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>491</v>
-      </c>
-      <c r="B187">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>492</v>
-      </c>
-      <c r="B188">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>493</v>
-      </c>
-      <c r="B189">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>494</v>
-      </c>
-      <c r="B190">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>495</v>
-      </c>
-      <c r="B191">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>496</v>
-      </c>
-      <c r="B192">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>497</v>
-      </c>
-      <c r="B193">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>498</v>
-      </c>
-      <c r="B194">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>499</v>
-      </c>
-      <c r="B195">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>500</v>
-      </c>
-      <c r="B196">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>501</v>
-      </c>
-      <c r="B197">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>502</v>
-      </c>
-      <c r="B198">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>503</v>
-      </c>
-      <c r="B199">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>504</v>
-      </c>
-      <c r="B200">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>505</v>
-      </c>
-      <c r="B201">
-        <v>3219</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>506</v>
-      </c>
-      <c r="B202">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>507</v>
-      </c>
-      <c r="B203">
-        <v>3221</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>508</v>
-      </c>
-      <c r="B204">
-        <v>3221</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>509</v>
-      </c>
-      <c r="B205">
-        <v>3221</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>510</v>
-      </c>
-      <c r="B206">
-        <v>3224</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>511</v>
-      </c>
-      <c r="B207">
-        <v>3228</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>512</v>
-      </c>
-      <c r="B208">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>513</v>
-      </c>
-      <c r="B209">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>514</v>
-      </c>
-      <c r="B210">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>515</v>
-      </c>
-      <c r="B211">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>516</v>
-      </c>
-      <c r="B212">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>517</v>
-      </c>
-      <c r="B213">
-        <v>3228</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>518</v>
-      </c>
-      <c r="B214">
-        <v>3228</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>519</v>
-      </c>
-      <c r="B215">
-        <v>3228</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>520</v>
-      </c>
-      <c r="B216">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>521</v>
-      </c>
-      <c r="B217">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>522</v>
-      </c>
-      <c r="B218">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>523</v>
-      </c>
-      <c r="B219">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>524</v>
-      </c>
-      <c r="B220">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>525</v>
-      </c>
-      <c r="B221">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>526</v>
-      </c>
-      <c r="B222">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>527</v>
-      </c>
-      <c r="B223">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>528</v>
-      </c>
-      <c r="B224">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>529</v>
-      </c>
-      <c r="B225">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>530</v>
-      </c>
-      <c r="B226">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>531</v>
-      </c>
-      <c r="B227">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>532</v>
-      </c>
-      <c r="B228">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>533</v>
-      </c>
-      <c r="B229">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>534</v>
-      </c>
-      <c r="B230">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>535</v>
-      </c>
-      <c r="B231">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>536</v>
-      </c>
-      <c r="B232">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>537</v>
-      </c>
-      <c r="B233">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>538</v>
-      </c>
-      <c r="B234">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>539</v>
-      </c>
-      <c r="B235">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>540</v>
-      </c>
-      <c r="B236">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>541</v>
-      </c>
-      <c r="B237">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>542</v>
-      </c>
-      <c r="B238">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>543</v>
-      </c>
-      <c r="B239">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>544</v>
-      </c>
-      <c r="B240">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>545</v>
-      </c>
-      <c r="B241">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>546</v>
-      </c>
-      <c r="B242">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>547</v>
-      </c>
-      <c r="B243">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>548</v>
-      </c>
-      <c r="B244">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>549</v>
-      </c>
-      <c r="B245">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>550</v>
-      </c>
-      <c r="B246">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>551</v>
-      </c>
-      <c r="B247">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>552</v>
-      </c>
-      <c r="B248">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>553</v>
-      </c>
-      <c r="B249">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>554</v>
-      </c>
-      <c r="B250">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>555</v>
-      </c>
-      <c r="B251">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>556</v>
-      </c>
-      <c r="B252">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>557</v>
-      </c>
-      <c r="B253">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>558</v>
-      </c>
-      <c r="B254">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>559</v>
-      </c>
-      <c r="B255">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>560</v>
-      </c>
-      <c r="B256">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>561</v>
-      </c>
-      <c r="B257">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>562</v>
-      </c>
-      <c r="B258">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>563</v>
-      </c>
-      <c r="B259">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>564</v>
-      </c>
-      <c r="B260">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>565</v>
-      </c>
-      <c r="B261">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>566</v>
-      </c>
-      <c r="B262">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>567</v>
-      </c>
-      <c r="B263">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>568</v>
-      </c>
-      <c r="B264">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>569</v>
-      </c>
-      <c r="B265">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>570</v>
-      </c>
-      <c r="B266">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>571</v>
-      </c>
-      <c r="B267">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>572</v>
-      </c>
-      <c r="B268">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>573</v>
-      </c>
-      <c r="B269">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>574</v>
-      </c>
-      <c r="B270">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>575</v>
-      </c>
-      <c r="B271">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>576</v>
-      </c>
-      <c r="B272">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>577</v>
-      </c>
-      <c r="B273">
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>578</v>
-      </c>
-      <c r="B274">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>579</v>
-      </c>
-      <c r="B275">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>580</v>
-      </c>
-      <c r="B276">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>581</v>
-      </c>
-      <c r="B277">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>582</v>
-      </c>
-      <c r="B278">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>583</v>
-      </c>
-      <c r="B279">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>584</v>
-      </c>
-      <c r="B280">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>585</v>
-      </c>
-      <c r="B281">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>586</v>
-      </c>
-      <c r="B282">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>587</v>
-      </c>
-      <c r="B283">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>588</v>
-      </c>
-      <c r="B284">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>589</v>
-      </c>
-      <c r="B285">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>590</v>
-      </c>
-      <c r="B286">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>591</v>
-      </c>
-      <c r="B287">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>592</v>
-      </c>
-      <c r="B288">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>593</v>
-      </c>
-      <c r="B289">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>594</v>
-      </c>
-      <c r="B290">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>595</v>
-      </c>
-      <c r="B291">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>596</v>
-      </c>
-      <c r="B292">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>597</v>
-      </c>
-      <c r="B293">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>598</v>
-      </c>
-      <c r="B294">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>599</v>
-      </c>
-      <c r="B295">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>600</v>
-      </c>
-      <c r="B296">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>601</v>
-      </c>
-      <c r="B297">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>602</v>
-      </c>
-      <c r="B298">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>603</v>
-      </c>
-      <c r="B299">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>604</v>
-      </c>
-      <c r="B300">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>605</v>
-      </c>
-      <c r="B301">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>609</v>
-      </c>
-      <c r="B302">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>608</v>
-      </c>
-      <c r="B303">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>611</v>
-      </c>
-      <c r="B304">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>613</v>
-      </c>
-      <c r="B305">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>615</v>
-      </c>
-      <c r="B306">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>617</v>
-      </c>
-      <c r="B307">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>619</v>
-      </c>
-      <c r="B308">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>621</v>
-      </c>
-      <c r="B309">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>623</v>
-      </c>
-      <c r="B310">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>625</v>
-      </c>
-      <c r="B311">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>627</v>
-      </c>
-      <c r="B312">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>629</v>
-      </c>
-      <c r="B313">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>631</v>
-      </c>
-      <c r="B314">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>633</v>
-      </c>
-      <c r="B315">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>635</v>
-      </c>
-      <c r="B316">
-        <v>3246</v>
+        <v>2124</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79FFAD2-EC7A-478E-BE27-883BB707C220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F86DB-97C5-4FA9-89B2-C75804C1FBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$107</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$317</definedName>
     <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$316</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$107</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$107</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$317</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$317</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -34,23 +34,23 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CountyCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 CountyCount" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CountyCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 CountyCount" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;CountyCount&quot;" commandType="3"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USBedCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USBedCount" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USBedCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USBedCount" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USBedCount&quot;" commandType="3"/>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USCaseCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USCaseCount" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 USCaseCount.odc" keepAlive="1" name="howe-hp_howehp Covid19 USCaseCount" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USCaseCount&quot;" commandType="3"/>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\HOWE-HP_HOWEHP Covid19 USTotalDeaths.odc" keepAlive="1" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\HOWE-HP_HOWEHP Covid19 USTotalDeaths.odc" keepAlive="1" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=netbeans;Initial Catalog=Covid19;Data Source=HOWE-HP\HOWEHP;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;USTotalDeaths&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="638">
   <si>
     <t>date</t>
   </si>
@@ -1334,6 +1334,636 @@
   </si>
   <si>
     <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>05/07/2020</t>
+  </si>
+  <si>
+    <t>05/08/2020</t>
+  </si>
+  <si>
+    <t>05/06/2020</t>
+  </si>
+  <si>
+    <t>05/09/2020</t>
+  </si>
+  <si>
+    <t>05/18/2020</t>
+  </si>
+  <si>
+    <t>05/19/2020</t>
+  </si>
+  <si>
+    <t>05/20/2020</t>
+  </si>
+  <si>
+    <t>05/21/2020</t>
+  </si>
+  <si>
+    <t>06/04/2020</t>
+  </si>
+  <si>
+    <t>06/05/2020</t>
+  </si>
+  <si>
+    <t>06/06/2020</t>
+  </si>
+  <si>
+    <t>06/07/2020</t>
+  </si>
+  <si>
+    <t>06/20/2020</t>
+  </si>
+  <si>
+    <t>06/21/2020</t>
+  </si>
+  <si>
+    <t>06/22/2020</t>
+  </si>
+  <si>
+    <t>06/23/2020</t>
+  </si>
+  <si>
+    <t>07/07/2020</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>07/09/2020</t>
+  </si>
+  <si>
+    <t>07/10/2020</t>
+  </si>
+  <si>
+    <t>07/24/2020</t>
+  </si>
+  <si>
+    <t>07/25/2020</t>
+  </si>
+  <si>
+    <t>07/26/2020</t>
+  </si>
+  <si>
+    <t>07/27/2020</t>
+  </si>
+  <si>
+    <t>08/09/2020</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>08/11/2020</t>
+  </si>
+  <si>
+    <t>08/12/2020</t>
+  </si>
+  <si>
+    <t>08/13/2020</t>
+  </si>
+  <si>
+    <t>08/26/2020</t>
+  </si>
+  <si>
+    <t>08/27/2020</t>
+  </si>
+  <si>
+    <t>08/28/2020</t>
+  </si>
+  <si>
+    <t>08/29/2020</t>
+  </si>
+  <si>
+    <t>09/12/2020</t>
+  </si>
+  <si>
+    <t>09/13/2020</t>
+  </si>
+  <si>
+    <t>09/14/2020</t>
+  </si>
+  <si>
+    <t>09/15/2020</t>
+  </si>
+  <si>
+    <t>09/29/2020</t>
+  </si>
+  <si>
+    <t>09/30/2020</t>
+  </si>
+  <si>
+    <t>10/01/2020</t>
+  </si>
+  <si>
+    <t>10/02/2020</t>
+  </si>
+  <si>
+    <t>10/15/2020</t>
+  </si>
+  <si>
+    <t>10/16/2020</t>
+  </si>
+  <si>
+    <t>10/17/2020</t>
+  </si>
+  <si>
+    <t>10/18/2020</t>
+  </si>
+  <si>
+    <t>11/01/2020</t>
+  </si>
+  <si>
+    <t>11/02/2020</t>
+  </si>
+  <si>
+    <t>11/03/2020</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>11/18/2020</t>
+  </si>
+  <si>
+    <t>11/19/2020</t>
+  </si>
+  <si>
+    <t>11/20/2020</t>
+  </si>
+  <si>
+    <t>11/21/2020</t>
+  </si>
+  <si>
+    <t>05/15/2020</t>
+  </si>
+  <si>
+    <t>05/17/2020</t>
+  </si>
+  <si>
+    <t>05/22/2020</t>
+  </si>
+  <si>
+    <t>05/24/2020</t>
+  </si>
+  <si>
+    <t>05/31/2020</t>
+  </si>
+  <si>
+    <t>06/02/2020</t>
+  </si>
+  <si>
+    <t>06/09/2020</t>
+  </si>
+  <si>
+    <t>06/11/2020</t>
+  </si>
+  <si>
+    <t>06/16/2020</t>
+  </si>
+  <si>
+    <t>06/18/2020</t>
+  </si>
+  <si>
+    <t>06/25/2020</t>
+  </si>
+  <si>
+    <t>06/27/2020</t>
+  </si>
+  <si>
+    <t>07/04/2020</t>
+  </si>
+  <si>
+    <t>07/06/2020</t>
+  </si>
+  <si>
+    <t>07/11/2020</t>
+  </si>
+  <si>
+    <t>07/13/2020</t>
+  </si>
+  <si>
+    <t>07/20/2020</t>
+  </si>
+  <si>
+    <t>07/22/2020</t>
+  </si>
+  <si>
+    <t>07/29/2020</t>
+  </si>
+  <si>
+    <t>07/31/2020</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>08/14/2020</t>
+  </si>
+  <si>
+    <t>08/16/2020</t>
+  </si>
+  <si>
+    <t>08/23/2020</t>
+  </si>
+  <si>
+    <t>08/25/2020</t>
+  </si>
+  <si>
+    <t>08/30/2020</t>
+  </si>
+  <si>
+    <t>09/01/2020</t>
+  </si>
+  <si>
+    <t>09/08/2020</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>09/17/2020</t>
+  </si>
+  <si>
+    <t>09/19/2020</t>
+  </si>
+  <si>
+    <t>09/24/2020</t>
+  </si>
+  <si>
+    <t>09/26/2020</t>
+  </si>
+  <si>
+    <t>09/28/2020</t>
+  </si>
+  <si>
+    <t>10/03/2020</t>
+  </si>
+  <si>
+    <t>10/05/2020</t>
+  </si>
+  <si>
+    <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>10/14/2020</t>
+  </si>
+  <si>
+    <t>10/19/2020</t>
+  </si>
+  <si>
+    <t>10/21/2020</t>
+  </si>
+  <si>
+    <t>10/23/2020</t>
+  </si>
+  <si>
+    <t>10/28/2020</t>
+  </si>
+  <si>
+    <t>10/30/2020</t>
+  </si>
+  <si>
+    <t>11/06/2020</t>
+  </si>
+  <si>
+    <t>11/08/2020</t>
+  </si>
+  <si>
+    <t>11/13/2020</t>
+  </si>
+  <si>
+    <t>11/15/2020</t>
+  </si>
+  <si>
+    <t>11/17/2020</t>
+  </si>
+  <si>
+    <t>11/22/2020</t>
+  </si>
+  <si>
+    <t>11/24/2020</t>
+  </si>
+  <si>
+    <t>12/01/2020</t>
+  </si>
+  <si>
+    <t>05/14/2020</t>
+  </si>
+  <si>
+    <t>05/16/2020</t>
+  </si>
+  <si>
+    <t>05/23/2020</t>
+  </si>
+  <si>
+    <t>05/25/2020</t>
+  </si>
+  <si>
+    <t>05/30/2020</t>
+  </si>
+  <si>
+    <t>06/01/2020</t>
+  </si>
+  <si>
+    <t>06/03/2020</t>
+  </si>
+  <si>
+    <t>06/08/2020</t>
+  </si>
+  <si>
+    <t>06/10/2020</t>
+  </si>
+  <si>
+    <t>06/17/2020</t>
+  </si>
+  <si>
+    <t>06/19/2020</t>
+  </si>
+  <si>
+    <t>06/24/2020</t>
+  </si>
+  <si>
+    <t>06/26/2020</t>
+  </si>
+  <si>
+    <t>06/28/2020</t>
+  </si>
+  <si>
+    <t>07/03/2020</t>
+  </si>
+  <si>
+    <t>07/05/2020</t>
+  </si>
+  <si>
+    <t>07/12/2020</t>
+  </si>
+  <si>
+    <t>07/14/2020</t>
+  </si>
+  <si>
+    <t>07/19/2020</t>
+  </si>
+  <si>
+    <t>07/21/2020</t>
+  </si>
+  <si>
+    <t>07/23/2020</t>
+  </si>
+  <si>
+    <t>07/28/2020</t>
+  </si>
+  <si>
+    <t>07/30/2020</t>
+  </si>
+  <si>
+    <t>08/06/2020</t>
+  </si>
+  <si>
+    <t>08/08/2020</t>
+  </si>
+  <si>
+    <t>08/15/2020</t>
+  </si>
+  <si>
+    <t>08/17/2020</t>
+  </si>
+  <si>
+    <t>08/22/2020</t>
+  </si>
+  <si>
+    <t>08/24/2020</t>
+  </si>
+  <si>
+    <t>08/31/2020</t>
+  </si>
+  <si>
+    <t>09/02/2020</t>
+  </si>
+  <si>
+    <t>09/09/2020</t>
+  </si>
+  <si>
+    <t>09/11/2020</t>
+  </si>
+  <si>
+    <t>09/16/2020</t>
+  </si>
+  <si>
+    <t>09/18/2020</t>
+  </si>
+  <si>
+    <t>09/25/2020</t>
+  </si>
+  <si>
+    <t>09/27/2020</t>
+  </si>
+  <si>
+    <t>10/04/2020</t>
+  </si>
+  <si>
+    <t>10/06/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
+  <si>
+    <t>10/13/2020</t>
+  </si>
+  <si>
+    <t>10/20/2020</t>
+  </si>
+  <si>
+    <t>10/22/2020</t>
+  </si>
+  <si>
+    <t>10/29/2020</t>
+  </si>
+  <si>
+    <t>10/31/2020</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>11/14/2020</t>
+  </si>
+  <si>
+    <t>11/16/2020</t>
+  </si>
+  <si>
+    <t>11/23/2020</t>
+  </si>
+  <si>
+    <t>11/25/2020</t>
+  </si>
+  <si>
+    <t>11/30/2020</t>
+  </si>
+  <si>
+    <t>05/10/2020</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t>05/12/2020</t>
+  </si>
+  <si>
+    <t>05/13/2020</t>
+  </si>
+  <si>
+    <t>05/26/2020</t>
+  </si>
+  <si>
+    <t>05/27/2020</t>
+  </si>
+  <si>
+    <t>05/28/2020</t>
+  </si>
+  <si>
+    <t>05/29/2020</t>
+  </si>
+  <si>
+    <t>06/12/2020</t>
+  </si>
+  <si>
+    <t>06/13/2020</t>
+  </si>
+  <si>
+    <t>06/14/2020</t>
+  </si>
+  <si>
+    <t>06/15/2020</t>
+  </si>
+  <si>
+    <t>06/29/2020</t>
+  </si>
+  <si>
+    <t>06/30/2020</t>
+  </si>
+  <si>
+    <t>07/01/2020</t>
+  </si>
+  <si>
+    <t>07/02/2020</t>
+  </si>
+  <si>
+    <t>07/15/2020</t>
+  </si>
+  <si>
+    <t>07/16/2020</t>
+  </si>
+  <si>
+    <t>07/17/2020</t>
+  </si>
+  <si>
+    <t>07/18/2020</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>08/02/2020</t>
+  </si>
+  <si>
+    <t>08/03/2020</t>
+  </si>
+  <si>
+    <t>08/04/2020</t>
+  </si>
+  <si>
+    <t>08/18/2020</t>
+  </si>
+  <si>
+    <t>08/19/2020</t>
+  </si>
+  <si>
+    <t>08/20/2020</t>
+  </si>
+  <si>
+    <t>08/21/2020</t>
+  </si>
+  <si>
+    <t>09/03/2020</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>09/06/2020</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>09/20/2020</t>
+  </si>
+  <si>
+    <t>09/21/2020</t>
+  </si>
+  <si>
+    <t>09/22/2020</t>
+  </si>
+  <si>
+    <t>09/23/2020</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>10/08/2020</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/24/2020</t>
+  </si>
+  <si>
+    <t>10/25/2020</t>
+  </si>
+  <si>
+    <t>10/26/2020</t>
+  </si>
+  <si>
+    <t>10/27/2020</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>11/10/2020</t>
+  </si>
+  <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>11/26/2020</t>
+  </si>
+  <si>
+    <t>11/27/2020</t>
+  </si>
+  <si>
+    <t>11/28/2020</t>
+  </si>
+  <si>
+    <t>11/29/2020</t>
   </si>
 </sst>
 </file>
@@ -1445,9 +2075,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$107</c:f>
+              <c:f>'Cases Data'!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="106"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -1765,16 +2395,646 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>2020-05-05</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-05-06</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-05-07</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-05-08</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-05-09</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-05-10</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-05-11</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-05-12</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-05-13</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-05-14</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-05-15</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-05-16</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-05-17</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-05-18</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-05-19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-05-20</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-05-21</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-05-22</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-05-23</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2020-05-24</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2020-05-25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2020-05-26</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2020-05-27</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2020-05-28</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2020-05-29</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2020-05-30</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2020-05-31</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2020-06-01</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2020-06-02</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2020-06-03</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2020-06-04</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2020-06-05</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2020-06-06</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2020-06-07</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-06-08</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-06-09</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-06-10</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-06-11</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-06-12</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-06-13</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-06-14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-06-15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-06-16</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-06-17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-06-18</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-06-19</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-06-20</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-06-21</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-06-22</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-06-23</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-06-24</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-06-25</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-06-26</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-06-27</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-06-28</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-06-29</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-06-30</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-07-01</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-07-02</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-07-03</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-07-04</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-07-05</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-07-06</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-07-07</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-07-08</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-07-09</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-07-10</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-07-11</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-07-12</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-07-13</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2020-07-14</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2020-07-15</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2020-07-16</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2020-07-17</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2020-07-18</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2020-07-19</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2020-07-20</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2020-07-21</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2020-07-22</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2020-07-23</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2020-07-24</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2020-07-25</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2020-07-26</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2020-07-27</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2020-07-28</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2020-07-29</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2020-07-30</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2020-07-31</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2020-08-01</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2020-08-02</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2020-08-03</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2020-08-04</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2020-08-05</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2020-08-06</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2020-08-07</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2020-08-08</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2020-08-09</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2020-08-10</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2020-08-11</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2020-08-12</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2020-08-13</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2020-08-14</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2020-08-15</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2020-08-16</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2020-08-17</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2020-08-18</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2020-08-19</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2020-08-20</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2020-08-21</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2020-08-22</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2020-08-23</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2020-08-24</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2020-08-25</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2020-08-26</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2020-08-27</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2020-08-28</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2020-08-29</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2020-08-30</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2020-08-31</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2020-09-01</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2020-09-02</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2020-09-03</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2020-09-04</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2020-09-05</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2020-09-06</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2020-09-07</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2020-09-08</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2020-09-09</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2020-09-10</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2020-09-11</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2020-09-12</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2020-09-13</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2020-09-14</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2020-09-15</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2020-09-16</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2020-09-17</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2020-09-18</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2020-09-19</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2020-09-20</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2020-09-21</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2020-09-22</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2020-09-23</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2020-09-24</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2020-09-25</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2020-09-26</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2020-09-27</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2020-09-28</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2020-09-29</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2020-09-30</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2020-10-01</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2020-10-02</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2020-10-03</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2020-10-04</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2020-10-05</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2020-10-06</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2020-10-07</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2020-10-08</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2020-10-09</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2020-10-10</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2020-10-11</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2020-10-12</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2020-10-13</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2020-10-14</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2020-10-15</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2020-10-16</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2020-10-17</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2020-10-18</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2020-10-19</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-11-09</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2020-11-10</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2020-11-30</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2020-12-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$107</c:f>
+              <c:f>'Cases Data'!$B$2:$B$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2091,7 +3351,637 @@
                   <c:v>1187304</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1088297</c:v>
+                  <c:v>1211011</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1235519</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1263995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1291643</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1316511</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1336828</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1354449</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1376749</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1397894</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1424856</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1451093</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1474752</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1493766</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1515593</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1536570</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1559640</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1585373</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1609172</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1631440</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1651471</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1670571</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1689467</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1708211</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1730723</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1755271</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1778668</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1799302</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1821199</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1841990</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1861977</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1883593</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1912302</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1934818</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1953434</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1971641</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1990446</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2013298</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2036500</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2061993</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2087327</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2106457</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2126574</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2151459</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2177114</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2205173</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2236009</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2268034</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2294413</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2324879</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2359939</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2396928</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2438101</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2483629</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2525928</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2565436</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2604932</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2653321</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2703296</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2758855</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2816009</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2866015</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2910782</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2958098</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3012182</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3071637</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3131526</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3199753</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3260474</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3318279</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3379846</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3445448</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3513790</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3589477</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3660400</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3722851</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3785126</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3845014</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3910291</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3980030</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4050036</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4123561</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4190337</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4244554</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4303735</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4366851</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4433633</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4502581</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4571669</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4628497</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4679291</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4726775</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4780324</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4834047</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4891561</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4952718</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5007958</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5056438</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5103611</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5156968</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5211246</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5265307</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5324784</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5375527</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5417664</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5455187</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5498420</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5541433</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5587475</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5636491</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>5681517</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5713850</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5754254</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5793385</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>5838532</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>5884366</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5930930</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5975540</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>6008970</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6045455</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6089504</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>6121948</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6168342</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6220446</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6262700</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>6292699</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6317865</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>6346806</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>6380138</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>6418198</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>6465766</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>6504870</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>6538213</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>6575100</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>6614317</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>6653585</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>6698895</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>6747782</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>6789593</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>6825949</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>6880899</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>6918290</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>6959841</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>7005043</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>7059624</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>7102321</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7139619</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>7176979</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>7220676</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>7262734</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>7309152</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>7362732</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>7410511</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>7445574</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>7507986</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>7550848</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>7603865</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>7660248</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>7719210</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>7770858</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>7815641</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>7863657</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>7918051</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>7977904</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>8043257</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>8113720</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>8166481</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>8214363</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>8279803</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>8340397</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>8404634</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>8479762</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8564893</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>8643591</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>8703303</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>8777800</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8852197</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8934121</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9024915</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9124729</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9208964</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9283188</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>9376927</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>9469557</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>9577440</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>9698981</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>9831853</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>9957785</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>10061111</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>10191547</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>10331221</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>10474242</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>10637733</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>10819326</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>10978447</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>11113634</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>11280088</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>11441833</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>11614116</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11801586</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>12000258</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>12172261</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>12313295</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>12492394</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>12670684</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>12851220</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>12954324</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>13159784</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>13311031</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>13447344</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>13615103</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>13799277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,9 +4113,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$107</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="106"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -2543,16 +4433,646 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>2020-05-05</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-05-06</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-05-07</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-05-08</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-05-09</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-05-10</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-05-11</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-05-12</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-05-13</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-05-14</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-05-15</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-05-16</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-05-17</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-05-18</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-05-19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-05-20</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-05-21</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-05-22</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-05-23</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2020-05-24</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2020-05-25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2020-05-26</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2020-05-27</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2020-05-28</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2020-05-29</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2020-05-30</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2020-05-31</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2020-06-01</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2020-06-02</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2020-06-03</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2020-06-04</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2020-06-05</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2020-06-06</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2020-06-07</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-06-08</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-06-09</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-06-10</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-06-11</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-06-12</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-06-13</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-06-14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-06-15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-06-16</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-06-17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-06-18</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-06-19</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-06-20</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-06-21</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-06-22</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-06-23</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-06-24</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-06-25</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-06-26</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-06-27</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-06-28</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-06-29</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-06-30</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-07-01</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-07-02</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-07-03</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-07-04</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-07-05</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-07-06</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-07-07</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-07-08</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-07-09</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-07-10</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-07-11</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-07-12</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-07-13</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2020-07-14</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2020-07-15</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2020-07-16</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2020-07-17</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2020-07-18</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2020-07-19</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2020-07-20</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2020-07-21</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2020-07-22</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2020-07-23</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2020-07-24</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2020-07-25</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2020-07-26</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2020-07-27</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2020-07-28</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2020-07-29</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2020-07-30</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2020-07-31</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2020-08-01</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2020-08-02</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2020-08-03</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2020-08-04</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2020-08-05</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2020-08-06</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2020-08-07</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2020-08-08</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2020-08-09</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2020-08-10</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2020-08-11</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2020-08-12</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2020-08-13</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2020-08-14</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2020-08-15</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2020-08-16</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2020-08-17</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2020-08-18</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2020-08-19</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2020-08-20</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2020-08-21</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2020-08-22</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2020-08-23</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2020-08-24</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2020-08-25</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2020-08-26</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2020-08-27</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2020-08-28</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2020-08-29</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2020-08-30</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2020-08-31</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2020-09-01</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2020-09-02</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2020-09-03</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2020-09-04</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2020-09-05</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2020-09-06</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2020-09-07</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2020-09-08</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2020-09-09</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2020-09-10</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2020-09-11</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2020-09-12</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2020-09-13</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2020-09-14</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2020-09-15</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2020-09-16</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2020-09-17</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2020-09-18</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2020-09-19</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2020-09-20</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2020-09-21</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2020-09-22</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2020-09-23</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2020-09-24</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2020-09-25</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2020-09-26</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2020-09-27</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2020-09-28</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2020-09-29</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2020-09-30</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2020-10-01</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2020-10-02</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2020-10-03</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2020-10-04</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2020-10-05</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2020-10-06</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2020-10-07</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2020-10-08</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2020-10-09</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2020-10-10</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2020-10-11</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2020-10-12</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2020-10-13</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2020-10-14</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2020-10-15</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2020-10-16</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2020-10-17</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2020-10-18</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2020-10-19</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-11-09</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2020-11-10</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2020-11-30</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2020-12-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$107</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2869,7 +5389,637 @@
                   <c:v>68905</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>67087</c:v>
+                  <c:v>71139</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>73847</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>75805</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>77380</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>78834</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>79765</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>80747</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>82400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>84168</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>85906</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>87499</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>88724</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>89568</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>90408</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>91928</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>93411</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>94722</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>96010</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>97060</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>97680</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>98190</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>98937</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>100422</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>101622</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>102812</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>103775</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>104379</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>105113</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>106195</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>107184</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>108192</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>109304</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>110032</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>110422</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>111144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>112174</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>113103</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>113980</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>114759</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>115451</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>115768</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>116216</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>116985</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>117738</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>118464</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>119171</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>119717</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>119974</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>120334</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>121167</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>121934</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>124400</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>125033</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>125544</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>125815</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>126162</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>127462</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>128104</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>128827</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>129418</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>129679</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>129941</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>130332</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>131290</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>132238</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>133079</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>133907</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>134582</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>134977</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>135402</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>136356</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>137327</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>138285</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>139186</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>139961</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>140373</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>140904</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>142031</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>143167</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>144283</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>145429</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>146313</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>146753</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>148449</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>149776</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>151172</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>152433</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>153862</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>154917</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>155337</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>155945</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>157301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>158554</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>159625</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>160981</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>161947</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>162486</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>163023</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>164474</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>165952</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>167165</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>168341</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>169400</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>169915</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>170449</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>171798</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>173093</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>174136</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>175297</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>176247</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>176693</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>177197</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>178410</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>179603</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>180729</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>181739</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>182610</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>182984</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>183472</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>184563</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>185639</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>186717</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>187697</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>188409</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>188820</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>189083</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>189541</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>190716</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>191631</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>192858</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>193559</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>193958</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>194408</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>195689</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>196686</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>197535</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>198484</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>199154</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>199367</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>199797</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>200738</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>201828</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>202713</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>203566</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>204335</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>204602</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>204952</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>205878</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>206852</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>207699</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>208564</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>209273</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>209606</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>210035</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>210756</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>211752</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>212680</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>213595</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>214187</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>214606</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>214957</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>215783</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>216792</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>217585</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>218476</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>219154</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>219541</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>220058</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>220987</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>222195</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>223023</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>223949</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>224821</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>225160</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>225698</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>226681</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>227697</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>228701</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>229672</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>230510</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>230937</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>231477</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>232607</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>234223</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>235331</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>236577</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>237584</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>238048</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>238793</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>240258</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>241689</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>242861</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>244250</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>245460</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>246083</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>246879</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>248486</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>250411</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>252373</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>254325</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>255754</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>256597</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>257635</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>259844</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>262157</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>263336</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>264748</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>265940</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>266758</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>268023</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>270630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5043,9 +8193,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$107</c:f>
+              <c:f>'County Counts'!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="106"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -5363,16 +8513,646 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>05/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>05/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>05/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>05/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>05/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>05/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>05/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>05/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>05/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>05/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>05/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>05/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>05/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>05/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>05/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>05/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>05/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>05/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>05/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>05/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>05/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>05/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>05/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>05/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>05/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>05/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>05/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>06/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>06/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>06/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>06/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>06/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>06/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>06/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>06/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>06/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>06/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>06/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>06/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>06/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>06/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>06/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>06/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>06/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>06/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>06/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>06/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>06/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>06/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>06/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>06/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>06/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>06/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>06/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>06/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>06/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>06/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>07/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>07/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>07/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>07/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>07/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>07/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>07/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>07/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>07/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>07/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>07/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>07/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>07/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>07/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>07/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>07/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>07/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>07/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>07/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>07/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>07/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>07/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>07/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>07/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>07/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>07/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>07/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>07/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>07/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>07/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>07/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>08/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>08/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>08/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>08/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>08/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>08/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>08/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>08/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>08/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>08/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>08/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>08/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>08/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>08/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>08/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>08/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>08/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>08/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>08/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>08/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>08/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>08/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>08/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>08/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>08/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>08/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>08/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>08/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>08/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>08/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>08/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>09/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>09/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>09/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>09/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>09/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>09/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>09/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>09/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>09/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>09/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>09/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>09/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>09/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>09/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>09/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>09/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>09/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>09/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>09/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>09/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>09/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>09/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>09/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>09/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>09/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>09/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>09/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>09/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>09/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>09/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>10/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>10/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>10/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>10/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>10/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>10/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>10/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>10/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>10/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>10/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>10/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>10/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>10/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>10/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>10/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>10/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>10/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>10/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>10/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>10/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>10/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>10/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>10/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>10/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>10/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>10/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>10/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>10/31/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>11/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>11/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>11/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>11/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>11/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>11/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>11/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>11/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>11/09/2020</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>11/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>11/13/2020</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>11/14/2020</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>11/15/2020</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>11/16/2020</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>11/17/2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>11/18/2020</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11/19/2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>11/20/2020</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>11/21/2020</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>11/22/2020</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>11/23/2020</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>11/24/2020</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>11/25/2020</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>11/26/2020</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>11/27/2020</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>11/28/2020</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>11/29/2020</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>11/30/2020</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>12/01/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$107</c:f>
+              <c:f>'County Counts'!$B$2:$B$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5689,7 +9469,637 @@
                   <c:v>2883</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2124</c:v>
+                  <c:v>2959</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2966</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2985</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2991</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3009</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3016</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3024</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3028</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3036</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3043</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3052</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3057</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3066</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3073</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3076</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3079</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3082</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3086</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3091</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3103</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3105</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3107</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3108</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3109</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3112</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3114</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3113</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3116</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3128</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3128</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3130</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3131</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3135</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3149</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3149</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3148</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3148</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3152</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3154</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3156</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3163</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3165</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3176</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3174</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3180</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3182</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3187</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3187</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3194</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3196</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3197</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3202</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3203</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3204</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3206</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3207</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3207</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3212</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3214</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3218</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3218</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3219</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3224</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3228</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3227</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3228</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3228</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3228</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3227</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3229</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3229</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3229</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3232</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3234</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3235</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3234</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3234</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3234</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3232</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3235</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3235</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3248</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5929,7 +10339,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 USCaseCount" refreshOnLoad="1" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 USCaseCount" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -5940,7 +10350,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" refreshOnLoad="1" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="HOWE-HP_HOWEHP Covid19 USTotalDeaths" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -5951,7 +10361,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 USBedCount" refreshOnLoad="1" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 USBedCount" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -5962,7 +10372,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CountyCount" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CountyCount" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Virus Date" tableColumnId="1"/>
@@ -5973,9 +10383,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B107" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B107" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B317" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B317" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B317">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -5987,9 +10397,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B107" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B107" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B317" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B317" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B317">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -6015,9 +10425,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B107" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B107" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B317" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B317" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B317">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -6349,10 +10759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7214,7 +11624,1687 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>1088297</v>
+        <v>1211011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>1235519</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>1263995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>1291643</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>1316511</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>1336828</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>1354449</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>1376749</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>1397894</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>1424856</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>1451093</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>1474752</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>1493766</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>1515593</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>1536570</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>1559640</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>1585373</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>1609172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>1631440</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>1651471</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>1670571</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>1689467</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>1708211</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>1730723</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>1755271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>1778668</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>1799302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>1821199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>1841990</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>1861977</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>1883593</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>1912302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>1934818</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>1953434</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>1971641</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>1990446</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>2013298</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>2036500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>2061993</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>2087327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>2106457</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>2126574</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>2151459</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>2177114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>2205173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>2236009</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>2268034</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>2294413</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>2324879</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>2359939</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>2396928</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>2438101</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>2483629</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>2525928</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>2565436</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>2604932</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>2653321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>2703296</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>2758855</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>2816009</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>2866015</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>2910782</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>2958098</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>3012182</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>3071637</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>3131526</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>3199753</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>3260474</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>3318279</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>3379846</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>3445448</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>3513790</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>3589477</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>3660400</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>3722851</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>3785126</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>3845014</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>3910291</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>3980030</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>4050036</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>4123561</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>4190337</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>4244554</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>4303735</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>4366851</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>4433633</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>4502581</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>4571669</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>4628497</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>4679291</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>4726775</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>4780324</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>4834047</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>4891561</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>4952718</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>5007958</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>5056438</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>5103611</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>5156968</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>5211246</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>5265307</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>5324784</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>5375527</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>5417664</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>5455187</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>5498420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>5541433</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>5587475</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>5636491</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>5681517</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>5713850</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>5754254</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>5793385</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>5838532</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>5884366</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>5930930</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>5975540</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>6008970</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>6045455</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>6089504</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>6121948</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>6168342</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>6220446</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>6262700</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>6292699</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>6317865</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>6346806</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>6380138</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>6418198</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>6465766</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>6504870</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>6538213</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>6575100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>6614317</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>6653585</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>6698895</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>6747782</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>6789593</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>6825949</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>6880899</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>6918290</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>6959841</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>7005043</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>7059624</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>7102321</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>7139619</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>7176979</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>7220676</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>7262734</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>7309152</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>7362732</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>7410511</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>7445574</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>7507986</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>7550848</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>7603865</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>7660248</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>7719210</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>7770858</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>7815641</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>7863657</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>7918051</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>7977904</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>8043257</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>8113720</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>8166481</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>8214363</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>8279803</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>8340397</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>8404634</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>8479762</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>8564893</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>8643591</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>8703303</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>8777800</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>8852197</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>8934121</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>9024915</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>9124729</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>9208964</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>9283188</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>9376927</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>9469557</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>9577440</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>9698981</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>9831853</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>9957785</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>10061111</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>10191547</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>10331221</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>10474242</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>10637733</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>10819326</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>10978447</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>11113634</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>412</v>
+      </c>
+      <c r="B302">
+        <v>11280088</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>413</v>
+      </c>
+      <c r="B303">
+        <v>11441833</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>414</v>
+      </c>
+      <c r="B304">
+        <v>11614116</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>415</v>
+      </c>
+      <c r="B305">
+        <v>11801586</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>416</v>
+      </c>
+      <c r="B306">
+        <v>12000258</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>417</v>
+      </c>
+      <c r="B307">
+        <v>12172261</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>418</v>
+      </c>
+      <c r="B308">
+        <v>12313295</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>419</v>
+      </c>
+      <c r="B309">
+        <v>12492394</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>420</v>
+      </c>
+      <c r="B310">
+        <v>12670684</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>421</v>
+      </c>
+      <c r="B311">
+        <v>12851220</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>422</v>
+      </c>
+      <c r="B312">
+        <v>12954324</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>423</v>
+      </c>
+      <c r="B313">
+        <v>13159784</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>424</v>
+      </c>
+      <c r="B314">
+        <v>13311031</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>425</v>
+      </c>
+      <c r="B315">
+        <v>13447344</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>426</v>
+      </c>
+      <c r="B316">
+        <v>13615103</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>427</v>
+      </c>
+      <c r="B317">
+        <v>13799277</v>
       </c>
     </row>
   </sheetData>
@@ -7227,9 +13317,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B111"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8090,7 +14182,1687 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>67087</v>
+        <v>71139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>73847</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>75805</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>77380</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>78834</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>79765</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>80747</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>82400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>84168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>85906</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>87499</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>88724</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>89568</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>90408</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>91928</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>93411</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>94722</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>96010</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>97060</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>97680</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>98190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>98937</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>100422</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>101622</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>102812</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>103775</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>104379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>105113</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>106195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>107184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>108192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>109304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>110032</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>110422</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>111144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>112174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>113103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>113980</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>114759</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>115451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>115768</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>116216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>116985</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>117738</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>118464</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>119171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>119717</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>119974</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>120334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>121167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>121934</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>124400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>125033</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>125544</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>125815</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>126162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>127462</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>128104</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>128827</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>129418</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>129679</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>129941</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>130332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>131290</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>132238</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>133079</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>133907</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>134582</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>134977</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>135402</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>136356</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>137327</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>138285</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>139186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>139961</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>140373</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>140904</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>142031</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>143167</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>144283</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>145429</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>146313</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>146753</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>148449</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>149776</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>151172</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>152433</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>153862</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>154917</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>155337</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>155945</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>157301</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>158554</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>159625</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>160981</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>161947</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>162486</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>163023</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>164474</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>165952</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>167165</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>168341</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>169400</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>169915</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>170449</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>171798</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>173093</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>174136</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>175297</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>176247</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>176693</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>177197</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>178410</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>179603</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>180729</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>181739</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>182610</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>182984</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>183472</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>184563</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>185639</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>186717</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>187697</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>188409</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>188820</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>189083</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>189541</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>190716</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>191631</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>192858</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>193559</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>193958</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>194408</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>195689</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>196686</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>197535</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>198484</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>199154</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>199367</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>199797</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>200738</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>201828</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>202713</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>203566</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>204335</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>204602</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>204952</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>205878</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>206852</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>207699</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>208564</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>209273</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>209606</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>210035</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>210756</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>211752</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>212680</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>213595</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>214187</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>214606</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>214957</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>215783</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>216792</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>217585</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>218476</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>219154</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>219541</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>220058</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>220987</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>222195</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>223023</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>223949</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>224821</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>225160</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>225698</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>226681</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>227697</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>228701</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>229672</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>230510</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>230937</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>231477</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>232607</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>234223</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>235331</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>236577</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>237584</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>238048</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>238793</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>240258</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>241689</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>242861</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>244250</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>245460</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>246083</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>412</v>
+      </c>
+      <c r="B302">
+        <v>246879</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>413</v>
+      </c>
+      <c r="B303">
+        <v>248486</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>414</v>
+      </c>
+      <c r="B304">
+        <v>250411</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>415</v>
+      </c>
+      <c r="B305">
+        <v>252373</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>416</v>
+      </c>
+      <c r="B306">
+        <v>254325</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>417</v>
+      </c>
+      <c r="B307">
+        <v>255754</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>418</v>
+      </c>
+      <c r="B308">
+        <v>256597</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>419</v>
+      </c>
+      <c r="B309">
+        <v>257635</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>420</v>
+      </c>
+      <c r="B310">
+        <v>259844</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>421</v>
+      </c>
+      <c r="B311">
+        <v>262157</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>422</v>
+      </c>
+      <c r="B312">
+        <v>263336</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>423</v>
+      </c>
+      <c r="B313">
+        <v>264748</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>424</v>
+      </c>
+      <c r="B314">
+        <v>265940</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>425</v>
+      </c>
+      <c r="B315">
+        <v>266758</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>426</v>
+      </c>
+      <c r="B316">
+        <v>268023</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>427</v>
+      </c>
+      <c r="B317">
+        <v>270630</v>
       </c>
     </row>
   </sheetData>
@@ -8105,7 +15877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView topLeftCell="A278" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B316"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10651,9 +18425,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B111"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11514,7 +19290,1687 @@
         <v>411</v>
       </c>
       <c r="B107">
-        <v>2124</v>
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>430</v>
+      </c>
+      <c r="B108">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>428</v>
+      </c>
+      <c r="B109">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>429</v>
+      </c>
+      <c r="B110">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>431</v>
+      </c>
+      <c r="B111">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>585</v>
+      </c>
+      <c r="B112">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>586</v>
+      </c>
+      <c r="B113">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>587</v>
+      </c>
+      <c r="B114">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>588</v>
+      </c>
+      <c r="B115">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>533</v>
+      </c>
+      <c r="B116">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>481</v>
+      </c>
+      <c r="B117">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>534</v>
+      </c>
+      <c r="B118">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>482</v>
+      </c>
+      <c r="B119">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>432</v>
+      </c>
+      <c r="B120">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>433</v>
+      </c>
+      <c r="B121">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>434</v>
+      </c>
+      <c r="B122">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>435</v>
+      </c>
+      <c r="B123">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>483</v>
+      </c>
+      <c r="B124">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>535</v>
+      </c>
+      <c r="B125">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>484</v>
+      </c>
+      <c r="B126">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>536</v>
+      </c>
+      <c r="B127">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>589</v>
+      </c>
+      <c r="B128">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>590</v>
+      </c>
+      <c r="B129">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>591</v>
+      </c>
+      <c r="B130">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>592</v>
+      </c>
+      <c r="B131">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>537</v>
+      </c>
+      <c r="B132">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>485</v>
+      </c>
+      <c r="B133">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>538</v>
+      </c>
+      <c r="B134">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>486</v>
+      </c>
+      <c r="B135">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>539</v>
+      </c>
+      <c r="B136">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>436</v>
+      </c>
+      <c r="B137">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>437</v>
+      </c>
+      <c r="B138">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>438</v>
+      </c>
+      <c r="B139">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>439</v>
+      </c>
+      <c r="B140">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>540</v>
+      </c>
+      <c r="B141">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>487</v>
+      </c>
+      <c r="B142">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>541</v>
+      </c>
+      <c r="B143">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>488</v>
+      </c>
+      <c r="B144">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>593</v>
+      </c>
+      <c r="B145">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>594</v>
+      </c>
+      <c r="B146">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>595</v>
+      </c>
+      <c r="B147">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>596</v>
+      </c>
+      <c r="B148">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>489</v>
+      </c>
+      <c r="B149">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>542</v>
+      </c>
+      <c r="B150">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>490</v>
+      </c>
+      <c r="B151">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>543</v>
+      </c>
+      <c r="B152">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>440</v>
+      </c>
+      <c r="B153">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>441</v>
+      </c>
+      <c r="B154">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>442</v>
+      </c>
+      <c r="B155">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>443</v>
+      </c>
+      <c r="B156">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>544</v>
+      </c>
+      <c r="B157">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>491</v>
+      </c>
+      <c r="B158">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>545</v>
+      </c>
+      <c r="B159">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>492</v>
+      </c>
+      <c r="B160">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>546</v>
+      </c>
+      <c r="B161">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>597</v>
+      </c>
+      <c r="B162">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>598</v>
+      </c>
+      <c r="B163">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>599</v>
+      </c>
+      <c r="B164">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>600</v>
+      </c>
+      <c r="B165">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>547</v>
+      </c>
+      <c r="B166">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>493</v>
+      </c>
+      <c r="B167">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>548</v>
+      </c>
+      <c r="B168">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>494</v>
+      </c>
+      <c r="B169">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>444</v>
+      </c>
+      <c r="B170">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>445</v>
+      </c>
+      <c r="B171">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>446</v>
+      </c>
+      <c r="B172">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>447</v>
+      </c>
+      <c r="B173">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>495</v>
+      </c>
+      <c r="B174">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>549</v>
+      </c>
+      <c r="B175">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>496</v>
+      </c>
+      <c r="B176">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>550</v>
+      </c>
+      <c r="B177">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>601</v>
+      </c>
+      <c r="B178">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>602</v>
+      </c>
+      <c r="B179">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>603</v>
+      </c>
+      <c r="B180">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>604</v>
+      </c>
+      <c r="B181">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>551</v>
+      </c>
+      <c r="B182">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>497</v>
+      </c>
+      <c r="B183">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>552</v>
+      </c>
+      <c r="B184">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>498</v>
+      </c>
+      <c r="B185">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>553</v>
+      </c>
+      <c r="B186">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>448</v>
+      </c>
+      <c r="B187">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>449</v>
+      </c>
+      <c r="B188">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>450</v>
+      </c>
+      <c r="B189">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>451</v>
+      </c>
+      <c r="B190">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>554</v>
+      </c>
+      <c r="B191">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>499</v>
+      </c>
+      <c r="B192">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>555</v>
+      </c>
+      <c r="B193">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>500</v>
+      </c>
+      <c r="B194">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>605</v>
+      </c>
+      <c r="B195">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>606</v>
+      </c>
+      <c r="B196">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>607</v>
+      </c>
+      <c r="B197">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>608</v>
+      </c>
+      <c r="B198">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>501</v>
+      </c>
+      <c r="B199">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>556</v>
+      </c>
+      <c r="B200">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>502</v>
+      </c>
+      <c r="B201">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>557</v>
+      </c>
+      <c r="B202">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>452</v>
+      </c>
+      <c r="B203">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>453</v>
+      </c>
+      <c r="B204">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>454</v>
+      </c>
+      <c r="B205">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>455</v>
+      </c>
+      <c r="B206">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>456</v>
+      </c>
+      <c r="B207">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>503</v>
+      </c>
+      <c r="B208">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>558</v>
+      </c>
+      <c r="B209">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>504</v>
+      </c>
+      <c r="B210">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>559</v>
+      </c>
+      <c r="B211">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>609</v>
+      </c>
+      <c r="B212">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>610</v>
+      </c>
+      <c r="B213">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>611</v>
+      </c>
+      <c r="B214">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>612</v>
+      </c>
+      <c r="B215">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>560</v>
+      </c>
+      <c r="B216">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>505</v>
+      </c>
+      <c r="B217">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>561</v>
+      </c>
+      <c r="B218">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>506</v>
+      </c>
+      <c r="B219">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>457</v>
+      </c>
+      <c r="B220">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>458</v>
+      </c>
+      <c r="B221">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>459</v>
+      </c>
+      <c r="B222">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>460</v>
+      </c>
+      <c r="B223">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>507</v>
+      </c>
+      <c r="B224">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>562</v>
+      </c>
+      <c r="B225">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>508</v>
+      </c>
+      <c r="B226">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>563</v>
+      </c>
+      <c r="B227">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>613</v>
+      </c>
+      <c r="B228">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>614</v>
+      </c>
+      <c r="B229">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>615</v>
+      </c>
+      <c r="B230">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>616</v>
+      </c>
+      <c r="B231">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>617</v>
+      </c>
+      <c r="B232">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>509</v>
+      </c>
+      <c r="B233">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>564</v>
+      </c>
+      <c r="B234">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>510</v>
+      </c>
+      <c r="B235">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>565</v>
+      </c>
+      <c r="B236">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>461</v>
+      </c>
+      <c r="B237">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>462</v>
+      </c>
+      <c r="B238">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>463</v>
+      </c>
+      <c r="B239">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>464</v>
+      </c>
+      <c r="B240">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>566</v>
+      </c>
+      <c r="B241">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>511</v>
+      </c>
+      <c r="B242">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>567</v>
+      </c>
+      <c r="B243">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>512</v>
+      </c>
+      <c r="B244">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>618</v>
+      </c>
+      <c r="B245">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>619</v>
+      </c>
+      <c r="B246">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>620</v>
+      </c>
+      <c r="B247">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>621</v>
+      </c>
+      <c r="B248">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>513</v>
+      </c>
+      <c r="B249">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>568</v>
+      </c>
+      <c r="B250">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>514</v>
+      </c>
+      <c r="B251">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>569</v>
+      </c>
+      <c r="B252">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>515</v>
+      </c>
+      <c r="B253">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>465</v>
+      </c>
+      <c r="B254">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>466</v>
+      </c>
+      <c r="B255">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>467</v>
+      </c>
+      <c r="B256">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>468</v>
+      </c>
+      <c r="B257">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>516</v>
+      </c>
+      <c r="B258">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>570</v>
+      </c>
+      <c r="B259">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>517</v>
+      </c>
+      <c r="B260">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>571</v>
+      </c>
+      <c r="B261">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>622</v>
+      </c>
+      <c r="B262">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>623</v>
+      </c>
+      <c r="B263">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>624</v>
+      </c>
+      <c r="B264">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>625</v>
+      </c>
+      <c r="B265">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>572</v>
+      </c>
+      <c r="B266">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>518</v>
+      </c>
+      <c r="B267">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>573</v>
+      </c>
+      <c r="B268">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>519</v>
+      </c>
+      <c r="B269">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>469</v>
+      </c>
+      <c r="B270">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>470</v>
+      </c>
+      <c r="B271">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>471</v>
+      </c>
+      <c r="B272">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>472</v>
+      </c>
+      <c r="B273">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>520</v>
+      </c>
+      <c r="B274">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>574</v>
+      </c>
+      <c r="B275">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>521</v>
+      </c>
+      <c r="B276">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>575</v>
+      </c>
+      <c r="B277">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>522</v>
+      </c>
+      <c r="B278">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>626</v>
+      </c>
+      <c r="B279">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>627</v>
+      </c>
+      <c r="B280">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>628</v>
+      </c>
+      <c r="B281">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>629</v>
+      </c>
+      <c r="B282">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>523</v>
+      </c>
+      <c r="B283">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>576</v>
+      </c>
+      <c r="B284">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>524</v>
+      </c>
+      <c r="B285">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>577</v>
+      </c>
+      <c r="B286">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>473</v>
+      </c>
+      <c r="B287">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>474</v>
+      </c>
+      <c r="B288">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>475</v>
+      </c>
+      <c r="B289">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>476</v>
+      </c>
+      <c r="B290">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>578</v>
+      </c>
+      <c r="B291">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>525</v>
+      </c>
+      <c r="B292">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>579</v>
+      </c>
+      <c r="B293">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>526</v>
+      </c>
+      <c r="B294">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>630</v>
+      </c>
+      <c r="B295">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>631</v>
+      </c>
+      <c r="B296">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>632</v>
+      </c>
+      <c r="B297">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>633</v>
+      </c>
+      <c r="B298">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>527</v>
+      </c>
+      <c r="B299">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>580</v>
+      </c>
+      <c r="B300">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>528</v>
+      </c>
+      <c r="B301">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>581</v>
+      </c>
+      <c r="B302">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>529</v>
+      </c>
+      <c r="B303">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>477</v>
+      </c>
+      <c r="B304">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>478</v>
+      </c>
+      <c r="B305">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>479</v>
+      </c>
+      <c r="B306">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>480</v>
+      </c>
+      <c r="B307">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>530</v>
+      </c>
+      <c r="B308">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>582</v>
+      </c>
+      <c r="B309">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>531</v>
+      </c>
+      <c r="B310">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>583</v>
+      </c>
+      <c r="B311">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>634</v>
+      </c>
+      <c r="B312">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>635</v>
+      </c>
+      <c r="B313">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>636</v>
+      </c>
+      <c r="B314">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>637</v>
+      </c>
+      <c r="B315">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>584</v>
+      </c>
+      <c r="B316">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>532</v>
+      </c>
+      <c r="B317">
+        <v>3245</v>
       </c>
     </row>
   </sheetData>
@@ -11529,7 +20985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F86DB-97C5-4FA9-89B2-C75804C1FBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B0028C-9408-4178-A821-ACEFDAEFD231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -10761,7 +10761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
     </sheetView>
   </sheetViews>
@@ -13319,7 +13319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
     </sheetView>
   </sheetViews>
@@ -15877,7 +15877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:B316"/>
     </sheetView>
   </sheetViews>
@@ -18427,7 +18427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B0028C-9408-4178-A821-ACEFDAEFD231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F89E5E-E8C0-425C-B3E1-53985A2D1A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$317</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$316</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$317</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$317</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$318</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$317</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$318</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$318</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="640">
   <si>
     <t>date</t>
   </si>
@@ -1964,6 +1964,12 @@
   </si>
   <si>
     <t>11/29/2020</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>12/02/2020</t>
   </si>
 </sst>
 </file>
@@ -2075,9 +2081,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$317</c:f>
+              <c:f>'Cases Data'!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -3025,16 +3031,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$317</c:f>
+              <c:f>'Cases Data'!$B$2:$B$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3981,7 +3990,10 @@
                   <c:v>13615103</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>13799277</c:v>
+                  <c:v>13799397</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>13999616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4113,9 +4125,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$317</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5063,16 +5075,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$317</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6019,7 +6034,10 @@
                   <c:v>268023</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>270630</c:v>
+                  <c:v>270633</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>273518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6151,9 +6169,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$316</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7098,16 +7116,19 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$316</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8052,6 +8073,9 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>98691</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>100226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8193,9 +8217,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$317</c:f>
+              <c:f>'County Counts'!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9143,16 +9167,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>12/01/2020</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$317</c:f>
+              <c:f>'County Counts'!$B$2:$B$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10100,6 +10127,9 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10383,9 +10413,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B317" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B317" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B317">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B318" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B318" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B318">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10397,9 +10427,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B317" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B317" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B317">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B318" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B318" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B318">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10411,9 +10441,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B316" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B316" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B316">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B317" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B317" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B317">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10425,9 +10455,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B317" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B317" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B317">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B318" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B318" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B318">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10759,7 +10789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -13304,7 +13334,15 @@
         <v>427</v>
       </c>
       <c r="B317">
-        <v>13799277</v>
+        <v>13799397</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>638</v>
+      </c>
+      <c r="B318">
+        <v>13999616</v>
       </c>
     </row>
   </sheetData>
@@ -13317,7 +13355,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -15862,7 +15900,15 @@
         <v>427</v>
       </c>
       <c r="B317">
-        <v>270630</v>
+        <v>270633</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>638</v>
+      </c>
+      <c r="B318">
+        <v>273518</v>
       </c>
     </row>
   </sheetData>
@@ -15875,7 +15921,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:B316"/>
@@ -18415,6 +18461,14 @@
         <v>98691</v>
       </c>
     </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>638</v>
+      </c>
+      <c r="B317">
+        <v>100226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18425,7 +18479,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -20971,6 +21025,14 @@
       </c>
       <c r="B317">
         <v>3245</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>639</v>
+      </c>
+      <c r="B318">
+        <v>3247</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F89E5E-E8C0-425C-B3E1-53985A2D1A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E140C9-02DC-46B3-9E6E-8B6C8FA73D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -10791,7 +10791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:B111"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E140C9-02DC-46B3-9E6E-8B6C8FA73D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E8FE7A-0861-46B1-89E6-024784315C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$318</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$317</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$318</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$318</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$319</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$318</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$319</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$319</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="642">
   <si>
     <t>date</t>
   </si>
@@ -1970,6 +1970,12 @@
   </si>
   <si>
     <t>12/02/2020</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>12/03/2020</t>
   </si>
 </sst>
 </file>
@@ -2081,9 +2087,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$318</c:f>
+              <c:f>'Cases Data'!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -3034,16 +3040,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$318</c:f>
+              <c:f>'Cases Data'!$B$2:$B$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3933,67 +3942,70 @@
                   <c:v>10474242</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10637733</c:v>
+                  <c:v>10637849</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10819326</c:v>
+                  <c:v>10819359</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10978447</c:v>
+                  <c:v>10978445</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11113634</c:v>
+                  <c:v>11113629</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11280088</c:v>
+                  <c:v>11280363</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>11441833</c:v>
+                  <c:v>11442080</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>11614116</c:v>
+                  <c:v>11614340</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>11801586</c:v>
+                  <c:v>11801977</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>12000258</c:v>
+                  <c:v>12000609</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12172261</c:v>
+                  <c:v>12172605</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>12313295</c:v>
+                  <c:v>12313630</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>12492394</c:v>
+                  <c:v>12492931</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12670684</c:v>
+                  <c:v>12671211</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12851220</c:v>
+                  <c:v>12851728</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>12954324</c:v>
+                  <c:v>12954817</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>13159784</c:v>
+                  <c:v>13160484</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>13311031</c:v>
+                  <c:v>13311716</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>13447344</c:v>
+                  <c:v>13448002</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>13615103</c:v>
+                  <c:v>13615806</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>13799397</c:v>
+                  <c:v>13800086</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>13999616</c:v>
+                  <c:v>14000558</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>14217106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4125,9 +4137,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$318</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5078,16 +5090,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$318</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6038,6 +6053,9 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>273518</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>276375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6169,9 +6187,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$317</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7119,16 +7137,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$317</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8076,6 +8097,9 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>100226</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>100667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8217,9 +8241,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$318</c:f>
+              <c:f>'County Counts'!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9170,16 +9194,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>12/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$318</c:f>
+              <c:f>'County Counts'!$B$2:$B$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10129,7 +10156,10 @@
                   <c:v>3245</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>3247</c:v>
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10413,9 +10443,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B318" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B318" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B318">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B319" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B319" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B319">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10427,9 +10457,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B318" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B318" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B318">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B319" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B319" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B319">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10441,9 +10471,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B317" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B317" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B317">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B318" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B318" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B318">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10455,9 +10485,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B318" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B318" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B318">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B319" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B319" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B319">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10789,7 +10819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -13182,7 +13212,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>10637733</v>
+        <v>10637849</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -13190,7 +13220,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>10819326</v>
+        <v>10819359</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -13198,7 +13228,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>10978447</v>
+        <v>10978445</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -13206,7 +13236,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>11113634</v>
+        <v>11113629</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -13214,7 +13244,7 @@
         <v>412</v>
       </c>
       <c r="B302">
-        <v>11280088</v>
+        <v>11280363</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -13222,7 +13252,7 @@
         <v>413</v>
       </c>
       <c r="B303">
-        <v>11441833</v>
+        <v>11442080</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -13230,7 +13260,7 @@
         <v>414</v>
       </c>
       <c r="B304">
-        <v>11614116</v>
+        <v>11614340</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -13238,7 +13268,7 @@
         <v>415</v>
       </c>
       <c r="B305">
-        <v>11801586</v>
+        <v>11801977</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -13246,7 +13276,7 @@
         <v>416</v>
       </c>
       <c r="B306">
-        <v>12000258</v>
+        <v>12000609</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -13254,7 +13284,7 @@
         <v>417</v>
       </c>
       <c r="B307">
-        <v>12172261</v>
+        <v>12172605</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -13262,7 +13292,7 @@
         <v>418</v>
       </c>
       <c r="B308">
-        <v>12313295</v>
+        <v>12313630</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -13270,7 +13300,7 @@
         <v>419</v>
       </c>
       <c r="B309">
-        <v>12492394</v>
+        <v>12492931</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -13278,7 +13308,7 @@
         <v>420</v>
       </c>
       <c r="B310">
-        <v>12670684</v>
+        <v>12671211</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -13286,7 +13316,7 @@
         <v>421</v>
       </c>
       <c r="B311">
-        <v>12851220</v>
+        <v>12851728</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -13294,7 +13324,7 @@
         <v>422</v>
       </c>
       <c r="B312">
-        <v>12954324</v>
+        <v>12954817</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -13302,7 +13332,7 @@
         <v>423</v>
       </c>
       <c r="B313">
-        <v>13159784</v>
+        <v>13160484</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -13310,7 +13340,7 @@
         <v>424</v>
       </c>
       <c r="B314">
-        <v>13311031</v>
+        <v>13311716</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -13318,7 +13348,7 @@
         <v>425</v>
       </c>
       <c r="B315">
-        <v>13447344</v>
+        <v>13448002</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -13326,7 +13356,7 @@
         <v>426</v>
       </c>
       <c r="B316">
-        <v>13615103</v>
+        <v>13615806</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -13334,7 +13364,7 @@
         <v>427</v>
       </c>
       <c r="B317">
-        <v>13799397</v>
+        <v>13800086</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -13342,7 +13372,15 @@
         <v>638</v>
       </c>
       <c r="B318">
-        <v>13999616</v>
+        <v>14000558</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>640</v>
+      </c>
+      <c r="B319">
+        <v>14217106</v>
       </c>
     </row>
   </sheetData>
@@ -13355,7 +13393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -15911,6 +15949,14 @@
         <v>273518</v>
       </c>
     </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>640</v>
+      </c>
+      <c r="B319">
+        <v>276375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15921,7 +15967,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:B316"/>
@@ -18469,6 +18515,14 @@
         <v>100226</v>
       </c>
     </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>640</v>
+      </c>
+      <c r="B318">
+        <v>100667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18479,7 +18533,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -21032,7 +21086,15 @@
         <v>639</v>
       </c>
       <c r="B318">
-        <v>3247</v>
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>641</v>
+      </c>
+      <c r="B319">
+        <v>3246</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E8FE7A-0861-46B1-89E6-024784315C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949EC985-047F-4A6F-A653-F8380615A873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$319</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$318</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$319</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$319</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$320</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$319</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$320</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$320</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="644">
   <si>
     <t>date</t>
   </si>
@@ -1976,6 +1976,12 @@
   </si>
   <si>
     <t>12/03/2020</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>12/04/2020</t>
   </si>
 </sst>
 </file>
@@ -2087,9 +2093,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$319</c:f>
+              <c:f>'Cases Data'!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -3043,16 +3049,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$319</c:f>
+              <c:f>'Cases Data'!$B$2:$B$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3942,70 +3951,73 @@
                   <c:v>10474242</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10637849</c:v>
+                  <c:v>10637733</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10819359</c:v>
+                  <c:v>10819326</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10978445</c:v>
+                  <c:v>10978447</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11113629</c:v>
+                  <c:v>11113634</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11280363</c:v>
+                  <c:v>11280088</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>11442080</c:v>
+                  <c:v>11441833</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>11614340</c:v>
+                  <c:v>11614116</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>11801977</c:v>
+                  <c:v>11801586</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>12000609</c:v>
+                  <c:v>12000258</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12172605</c:v>
+                  <c:v>12172261</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>12313630</c:v>
+                  <c:v>12313295</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>12492931</c:v>
+                  <c:v>12492394</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12671211</c:v>
+                  <c:v>12670684</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12851728</c:v>
+                  <c:v>12851220</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>12954817</c:v>
+                  <c:v>12954324</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>13160484</c:v>
+                  <c:v>13159786</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>13311716</c:v>
+                  <c:v>13311031</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>13448002</c:v>
+                  <c:v>13447369</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>13615806</c:v>
+                  <c:v>13615129</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>13800086</c:v>
+                  <c:v>13799415</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>14000558</c:v>
+                  <c:v>13999749</c:v>
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>14217106</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>14446349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4137,9 +4149,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$319</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5093,16 +5105,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$319</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6056,6 +6071,9 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>276375</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>279012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6187,9 +6205,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$318</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7140,16 +7158,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$318</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7487,619 +7508,622 @@
                   <c:v>47344</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>46740</c:v>
+                  <c:v>46918</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>45644</c:v>
+                  <c:v>45924</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>44299</c:v>
+                  <c:v>44551</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43175</c:v>
+                  <c:v>43507</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>41609</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>41531</c:v>
+                  <c:v>41921</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>41652</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>41535</c:v>
+                  <c:v>41871</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>41071</c:v>
+                  <c:v>41347</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>39774</c:v>
+                  <c:v>40014</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>38360</c:v>
+                  <c:v>38581</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>37510</c:v>
+                  <c:v>37757</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>37382</c:v>
+                  <c:v>37711</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>37533</c:v>
+                  <c:v>37775</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>38017</c:v>
+                  <c:v>38297</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>37804</c:v>
+                  <c:v>38003</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>36718</c:v>
+                  <c:v>36948</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>35513</c:v>
+                  <c:v>35735</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>34641</c:v>
+                  <c:v>34911</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>34064</c:v>
+                  <c:v>34316</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>33709</c:v>
+                  <c:v>33950</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>33026</c:v>
+                  <c:v>33237</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>32602</c:v>
+                  <c:v>32814</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>32265</c:v>
+                  <c:v>32499</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31762</c:v>
+                  <c:v>31994</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>31249</c:v>
+                  <c:v>31490</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>30984</c:v>
+                  <c:v>31121</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>31020</c:v>
+                  <c:v>31187</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>30840</c:v>
+                  <c:v>30952</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>29686</c:v>
+                  <c:v>29844</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>29149</c:v>
+                  <c:v>29309</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>28431</c:v>
+                  <c:v>28578</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>27899</c:v>
+                  <c:v>28020</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>27866</c:v>
+                  <c:v>28026</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>28279</c:v>
+                  <c:v>28386</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>28561</c:v>
+                  <c:v>28664</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>28411</c:v>
+                  <c:v>28521</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>28586</c:v>
+                  <c:v>28706</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>27970</c:v>
+                  <c:v>28084</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>28221</c:v>
+                  <c:v>28325</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>28797</c:v>
+                  <c:v>28954</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>30226</c:v>
+                  <c:v>30394</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>31119</c:v>
+                  <c:v>31271</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>31828</c:v>
+                  <c:v>31926</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>31710</c:v>
+                  <c:v>31810</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>32485</c:v>
+                  <c:v>32566</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>32479</c:v>
+                  <c:v>32575</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>33627</c:v>
+                  <c:v>33744</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>35222</c:v>
+                  <c:v>35335</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>36430</c:v>
+                  <c:v>36569</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>37508</c:v>
+                  <c:v>37627</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>37801</c:v>
+                  <c:v>37927</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>38150</c:v>
+                  <c:v>38281</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>38765</c:v>
+                  <c:v>38872</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>39820</c:v>
+                  <c:v>39970</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>41772</c:v>
+                  <c:v>41957</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>43097</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43916</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>51606</c:v>
+                  <c:v>51740</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>51861</c:v>
+                  <c:v>51982</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>52739</c:v>
+                  <c:v>52860</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>54044</c:v>
+                  <c:v>54156</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>55554</c:v>
+                  <c:v>55667</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>56168</c:v>
+                  <c:v>56312</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>57459</c:v>
+                  <c:v>57614</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>57737</c:v>
+                  <c:v>57894</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>57646</c:v>
+                  <c:v>57822</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>57882</c:v>
+                  <c:v>58052</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>58352</c:v>
+                  <c:v>58509</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>59351</c:v>
+                  <c:v>59480</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>59598</c:v>
+                  <c:v>59752</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>59712</c:v>
+                  <c:v>59854</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>59677</c:v>
+                  <c:v>59808</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>59269</c:v>
+                  <c:v>59382</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>58644</c:v>
+                  <c:v>58731</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>58906</c:v>
+                  <c:v>58991</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>57086</c:v>
+                  <c:v>57178</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>57325</c:v>
+                  <c:v>57427</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>56434</c:v>
+                  <c:v>56565</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>55589</c:v>
+                  <c:v>55700</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>54437</c:v>
+                  <c:v>54554</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>53983</c:v>
+                  <c:v>54106</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>53413</c:v>
+                  <c:v>53524</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>53323</c:v>
+                  <c:v>53440</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>53343</c:v>
+                  <c:v>53444</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>53129</c:v>
+                  <c:v>53221</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>51201</c:v>
+                  <c:v>51301</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>49935</c:v>
+                  <c:v>50071</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>48866</c:v>
+                  <c:v>48997</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>48631</c:v>
+                  <c:v>48761</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>48511</c:v>
+                  <c:v>48620</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>47949</c:v>
+                  <c:v>48046</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>47204</c:v>
+                  <c:v>47322</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>45744</c:v>
+                  <c:v>45860</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>44783</c:v>
+                  <c:v>44922</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>44046</c:v>
+                  <c:v>44155</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>43500</c:v>
+                  <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>43767</c:v>
+                  <c:v>43848</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>43289</c:v>
+                  <c:v>43395</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>41968</c:v>
+                  <c:v>42081</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>40940</c:v>
+                  <c:v>41047</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>39919</c:v>
+                  <c:v>40017</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>38980</c:v>
+                  <c:v>39064</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>38695</c:v>
+                  <c:v>38776</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>38775</c:v>
+                  <c:v>38842</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>38418</c:v>
+                  <c:v>38501</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>37421</c:v>
+                  <c:v>37529</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>37255</c:v>
+                  <c:v>37351</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>36437</c:v>
+                  <c:v>36516</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>35726</c:v>
+                  <c:v>35801</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>35352</c:v>
+                  <c:v>35423</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>35273</c:v>
+                  <c:v>35334</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>35579</c:v>
+                  <c:v>35667</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>34650</c:v>
+                  <c:v>34747</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>34101</c:v>
+                  <c:v>34191</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>33502</c:v>
+                  <c:v>33626</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>32376</c:v>
+                  <c:v>32497</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>32009</c:v>
+                  <c:v>32116</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>32246</c:v>
+                  <c:v>32345</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>32579</c:v>
+                  <c:v>32647</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>32438</c:v>
+                  <c:v>32536</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>31406</c:v>
+                  <c:v>31529</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>30643</c:v>
+                  <c:v>30758</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>29804</c:v>
+                  <c:v>29921</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>29907</c:v>
+                  <c:v>30045</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>30361</c:v>
+                  <c:v>30447</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>30253</c:v>
+                  <c:v>30362</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>29875</c:v>
+                  <c:v>30007</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>29521</c:v>
+                  <c:v>29652</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>29038</c:v>
+                  <c:v>29185</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>28606</c:v>
+                  <c:v>28724</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>28762</c:v>
+                  <c:v>28873</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>29448</c:v>
+                  <c:v>29658</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>29937</c:v>
+                  <c:v>30021</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>30036</c:v>
+                  <c:v>30158</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>29768</c:v>
+                  <c:v>29900</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>29551</c:v>
+                  <c:v>29670</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>29443</c:v>
+                  <c:v>29579</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>29601</c:v>
+                  <c:v>29688</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>30499</c:v>
+                  <c:v>30583</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>30912</c:v>
+                  <c:v>31018</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>30809</c:v>
+                  <c:v>30951</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>30769</c:v>
+                  <c:v>30877</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>30111</c:v>
+                  <c:v>30209</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>29945</c:v>
+                  <c:v>30063</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>31327</c:v>
+                  <c:v>31434</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>32626</c:v>
+                  <c:v>32720</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>33482</c:v>
+                  <c:v>33584</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>34319</c:v>
+                  <c:v>34446</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>34877</c:v>
+                  <c:v>34989</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>34600</c:v>
+                  <c:v>34700</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>34498</c:v>
+                  <c:v>34609</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>35066</c:v>
+                  <c:v>35156</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>36064</c:v>
+                  <c:v>36161</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>37088</c:v>
+                  <c:v>37176</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>37328</c:v>
+                  <c:v>37420</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>37368</c:v>
+                  <c:v>37470</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>37358</c:v>
+                  <c:v>37474</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>36452</c:v>
+                  <c:v>36536</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>37858</c:v>
+                  <c:v>37954</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>39303</c:v>
+                  <c:v>39406</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>40284</c:v>
+                  <c:v>40397</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>41036</c:v>
+                  <c:v>41125</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>41501</c:v>
+                  <c:v>41617</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>41989</c:v>
+                  <c:v>42087</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>41786</c:v>
+                  <c:v>41883</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>42924</c:v>
+                  <c:v>43005</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>44287</c:v>
+                  <c:v>44392</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>45124</c:v>
+                  <c:v>45205</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>46126</c:v>
+                  <c:v>46220</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>46738</c:v>
+                  <c:v>46856</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>47402</c:v>
+                  <c:v>47486</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>47531</c:v>
+                  <c:v>47615</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>48693</c:v>
+                  <c:v>48773</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>50426</c:v>
+                  <c:v>50512</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>52086</c:v>
+                  <c:v>52166</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>53375</c:v>
+                  <c:v>53465</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>54851</c:v>
+                  <c:v>54949</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>55925</c:v>
+                  <c:v>56037</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>56842</c:v>
+                  <c:v>56942</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>59301</c:v>
+                  <c:v>59394</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>62059</c:v>
+                  <c:v>62138</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>65463</c:v>
+                  <c:v>65557</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>67100</c:v>
+                  <c:v>67233</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>68496</c:v>
+                  <c:v>68599</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>69498</c:v>
+                  <c:v>69588</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>70113</c:v>
+                  <c:v>70202</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>73268</c:v>
+                  <c:v>73377</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>76958</c:v>
+                  <c:v>77079</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>79410</c:v>
+                  <c:v>79517</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>80585</c:v>
+                  <c:v>80682</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>82150</c:v>
+                  <c:v>82279</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>83232</c:v>
+                  <c:v>83346</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>83779</c:v>
+                  <c:v>83882</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>85870</c:v>
+                  <c:v>85979</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>88080</c:v>
+                  <c:v>88174</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>89959</c:v>
+                  <c:v>90041</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>90443</c:v>
+                  <c:v>90564</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>89834</c:v>
+                  <c:v>89950</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>91665</c:v>
+                  <c:v>91762</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>93265</c:v>
+                  <c:v>93357</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>96053</c:v>
+                  <c:v>96149</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>98691</c:v>
+                  <c:v>98777</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>100226</c:v>
+                  <c:v>100322</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>100667</c:v>
+                  <c:v>100755</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>101276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8241,9 +8265,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$319</c:f>
+              <c:f>'County Counts'!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9197,16 +9221,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>12/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>12/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$319</c:f>
+              <c:f>'County Counts'!$B$2:$B$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10141,25 +10168,28 @@
                   <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>3246</c:v>
+                  <c:v>3245</c:v>
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>3246</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>3247</c:v>
+                  <c:v>3246</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>3246</c:v>
+                  <c:v>3245</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>3245</c:v>
+                  <c:v>3244</c:v>
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>3246</c:v>
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10443,9 +10473,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B319" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B319" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B319">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B320" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B320" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B320">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10457,9 +10487,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B319" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B319" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B319">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B320" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B320" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B320">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10471,9 +10501,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B318" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B318" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B318">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B319" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B319" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B319">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10485,9 +10515,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B319" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B319" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B319">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B320" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B320" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B320">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10819,7 +10849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -13212,7 +13242,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>10637849</v>
+        <v>10637733</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -13220,7 +13250,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>10819359</v>
+        <v>10819326</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -13228,7 +13258,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>10978445</v>
+        <v>10978447</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -13236,7 +13266,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>11113629</v>
+        <v>11113634</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -13244,7 +13274,7 @@
         <v>412</v>
       </c>
       <c r="B302">
-        <v>11280363</v>
+        <v>11280088</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -13252,7 +13282,7 @@
         <v>413</v>
       </c>
       <c r="B303">
-        <v>11442080</v>
+        <v>11441833</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -13260,7 +13290,7 @@
         <v>414</v>
       </c>
       <c r="B304">
-        <v>11614340</v>
+        <v>11614116</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -13268,7 +13298,7 @@
         <v>415</v>
       </c>
       <c r="B305">
-        <v>11801977</v>
+        <v>11801586</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -13276,7 +13306,7 @@
         <v>416</v>
       </c>
       <c r="B306">
-        <v>12000609</v>
+        <v>12000258</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -13284,7 +13314,7 @@
         <v>417</v>
       </c>
       <c r="B307">
-        <v>12172605</v>
+        <v>12172261</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -13292,7 +13322,7 @@
         <v>418</v>
       </c>
       <c r="B308">
-        <v>12313630</v>
+        <v>12313295</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -13300,7 +13330,7 @@
         <v>419</v>
       </c>
       <c r="B309">
-        <v>12492931</v>
+        <v>12492394</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -13308,7 +13338,7 @@
         <v>420</v>
       </c>
       <c r="B310">
-        <v>12671211</v>
+        <v>12670684</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -13316,7 +13346,7 @@
         <v>421</v>
       </c>
       <c r="B311">
-        <v>12851728</v>
+        <v>12851220</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -13324,7 +13354,7 @@
         <v>422</v>
       </c>
       <c r="B312">
-        <v>12954817</v>
+        <v>12954324</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -13332,7 +13362,7 @@
         <v>423</v>
       </c>
       <c r="B313">
-        <v>13160484</v>
+        <v>13159786</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -13340,7 +13370,7 @@
         <v>424</v>
       </c>
       <c r="B314">
-        <v>13311716</v>
+        <v>13311031</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -13348,7 +13378,7 @@
         <v>425</v>
       </c>
       <c r="B315">
-        <v>13448002</v>
+        <v>13447369</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -13356,7 +13386,7 @@
         <v>426</v>
       </c>
       <c r="B316">
-        <v>13615806</v>
+        <v>13615129</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -13364,7 +13394,7 @@
         <v>427</v>
       </c>
       <c r="B317">
-        <v>13800086</v>
+        <v>13799415</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -13372,7 +13402,7 @@
         <v>638</v>
       </c>
       <c r="B318">
-        <v>14000558</v>
+        <v>13999749</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -13381,6 +13411,14 @@
       </c>
       <c r="B319">
         <v>14217106</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>642</v>
+      </c>
+      <c r="B320">
+        <v>14446349</v>
       </c>
     </row>
   </sheetData>
@@ -13393,7 +13431,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -15957,6 +15995,14 @@
         <v>276375</v>
       </c>
     </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>642</v>
+      </c>
+      <c r="B320">
+        <v>279012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15967,7 +16013,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:B316"/>
@@ -16888,7 +16934,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>46740</v>
+        <v>46918</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -16896,7 +16942,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>45644</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -16904,7 +16950,7 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>44299</v>
+        <v>44551</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -16912,7 +16958,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>43175</v>
+        <v>43507</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -16920,7 +16966,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>41609</v>
+        <v>42022</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -16928,7 +16974,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>41531</v>
+        <v>41921</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -16936,7 +16982,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>41652</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -16944,7 +16990,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>41535</v>
+        <v>41871</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -16952,7 +16998,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>41071</v>
+        <v>41347</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -16960,7 +17006,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>39774</v>
+        <v>40014</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -16968,7 +17014,7 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>38360</v>
+        <v>38581</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -16976,7 +17022,7 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>37510</v>
+        <v>37757</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -16984,7 +17030,7 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>37382</v>
+        <v>37711</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -16992,7 +17038,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>37533</v>
+        <v>37775</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -17000,7 +17046,7 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>38017</v>
+        <v>38297</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -17008,7 +17054,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>37804</v>
+        <v>38003</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -17016,7 +17062,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>36718</v>
+        <v>36948</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -17024,7 +17070,7 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>35513</v>
+        <v>35735</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -17032,7 +17078,7 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>34641</v>
+        <v>34911</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -17040,7 +17086,7 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>34064</v>
+        <v>34316</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -17048,7 +17094,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>33709</v>
+        <v>33950</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -17056,7 +17102,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>33026</v>
+        <v>33237</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -17064,7 +17110,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>32602</v>
+        <v>32814</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -17072,7 +17118,7 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>32265</v>
+        <v>32499</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -17080,7 +17126,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>31762</v>
+        <v>31994</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -17088,7 +17134,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>31249</v>
+        <v>31490</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -17096,7 +17142,7 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>30984</v>
+        <v>31121</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -17104,7 +17150,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>31020</v>
+        <v>31187</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -17112,7 +17158,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>30840</v>
+        <v>30952</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -17120,7 +17166,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>29686</v>
+        <v>29844</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -17128,7 +17174,7 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>29149</v>
+        <v>29309</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -17136,7 +17182,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>28431</v>
+        <v>28578</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -17144,7 +17190,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>27899</v>
+        <v>28020</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -17152,7 +17198,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>27866</v>
+        <v>28026</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -17160,7 +17206,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>28279</v>
+        <v>28386</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -17168,7 +17214,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>28561</v>
+        <v>28664</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -17176,7 +17222,7 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>28411</v>
+        <v>28521</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -17184,7 +17230,7 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>28586</v>
+        <v>28706</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -17192,7 +17238,7 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>27970</v>
+        <v>28084</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -17200,7 +17246,7 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>28221</v>
+        <v>28325</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -17208,7 +17254,7 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>28797</v>
+        <v>28954</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -17216,7 +17262,7 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>30226</v>
+        <v>30394</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -17224,7 +17270,7 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>31119</v>
+        <v>31271</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -17232,7 +17278,7 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>31828</v>
+        <v>31926</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -17240,7 +17286,7 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>31710</v>
+        <v>31810</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -17248,7 +17294,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>32485</v>
+        <v>32566</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -17256,7 +17302,7 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>32479</v>
+        <v>32575</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -17264,7 +17310,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>33627</v>
+        <v>33744</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -17272,7 +17318,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>35222</v>
+        <v>35335</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -17280,7 +17326,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>36430</v>
+        <v>36569</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -17288,7 +17334,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>37508</v>
+        <v>37627</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -17296,7 +17342,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>37801</v>
+        <v>37927</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -17304,7 +17350,7 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>38150</v>
+        <v>38281</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -17312,7 +17358,7 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>38765</v>
+        <v>38872</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -17320,7 +17366,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>39820</v>
+        <v>39970</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -17328,7 +17374,7 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>41772</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -17336,7 +17382,7 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>43097</v>
+        <v>43204</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -17344,7 +17390,7 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>43916</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -17352,7 +17398,7 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>51606</v>
+        <v>51740</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -17360,7 +17406,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>51861</v>
+        <v>51982</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -17368,7 +17414,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>52739</v>
+        <v>52860</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -17376,7 +17422,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>54044</v>
+        <v>54156</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -17384,7 +17430,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>55554</v>
+        <v>55667</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -17392,7 +17438,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>56168</v>
+        <v>56312</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -17400,7 +17446,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>57459</v>
+        <v>57614</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -17408,7 +17454,7 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>57737</v>
+        <v>57894</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -17416,7 +17462,7 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>57646</v>
+        <v>57822</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -17424,7 +17470,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>57882</v>
+        <v>58052</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -17432,7 +17478,7 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>58352</v>
+        <v>58509</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -17440,7 +17486,7 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>59351</v>
+        <v>59480</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -17448,7 +17494,7 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>59598</v>
+        <v>59752</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -17456,7 +17502,7 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>59712</v>
+        <v>59854</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -17464,7 +17510,7 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>59677</v>
+        <v>59808</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -17472,7 +17518,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>59269</v>
+        <v>59382</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -17480,7 +17526,7 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>58644</v>
+        <v>58731</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -17488,7 +17534,7 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>58906</v>
+        <v>58991</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -17496,7 +17542,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>57086</v>
+        <v>57178</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -17504,7 +17550,7 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>57325</v>
+        <v>57427</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -17512,7 +17558,7 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>56434</v>
+        <v>56565</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -17520,7 +17566,7 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>55589</v>
+        <v>55700</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -17528,7 +17574,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>54437</v>
+        <v>54554</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -17536,7 +17582,7 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>53983</v>
+        <v>54106</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -17544,7 +17590,7 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>53413</v>
+        <v>53524</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -17552,7 +17598,7 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>53323</v>
+        <v>53440</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -17560,7 +17606,7 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>53343</v>
+        <v>53444</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -17568,7 +17614,7 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>53129</v>
+        <v>53221</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -17576,7 +17622,7 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>51201</v>
+        <v>51301</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -17584,7 +17630,7 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>49935</v>
+        <v>50071</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -17592,7 +17638,7 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>48866</v>
+        <v>48997</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -17600,7 +17646,7 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>48631</v>
+        <v>48761</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -17608,7 +17654,7 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>48511</v>
+        <v>48620</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -17616,7 +17662,7 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>47949</v>
+        <v>48046</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -17624,7 +17670,7 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>47204</v>
+        <v>47322</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -17632,7 +17678,7 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>45744</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -17640,7 +17686,7 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>44783</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -17648,7 +17694,7 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>44046</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -17656,7 +17702,7 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>43500</v>
+        <v>43596</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -17664,7 +17710,7 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>43767</v>
+        <v>43848</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -17672,7 +17718,7 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>43289</v>
+        <v>43395</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -17680,7 +17726,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>41968</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -17688,7 +17734,7 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>40940</v>
+        <v>41047</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -17696,7 +17742,7 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>39919</v>
+        <v>40017</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -17704,7 +17750,7 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>38980</v>
+        <v>39064</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -17712,7 +17758,7 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>38695</v>
+        <v>38776</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -17720,7 +17766,7 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>38775</v>
+        <v>38842</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -17728,7 +17774,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>38418</v>
+        <v>38501</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -17736,7 +17782,7 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>37421</v>
+        <v>37529</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -17744,7 +17790,7 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>37255</v>
+        <v>37351</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -17752,7 +17798,7 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>36437</v>
+        <v>36516</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -17760,7 +17806,7 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>35726</v>
+        <v>35801</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -17768,7 +17814,7 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>35352</v>
+        <v>35423</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -17776,7 +17822,7 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>35273</v>
+        <v>35334</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -17784,7 +17830,7 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>35579</v>
+        <v>35667</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -17792,7 +17838,7 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>34650</v>
+        <v>34747</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -17800,7 +17846,7 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>34101</v>
+        <v>34191</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -17808,7 +17854,7 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>33502</v>
+        <v>33626</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -17816,7 +17862,7 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>32376</v>
+        <v>32497</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -17824,7 +17870,7 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>32009</v>
+        <v>32116</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -17832,7 +17878,7 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>32246</v>
+        <v>32345</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -17840,7 +17886,7 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>32579</v>
+        <v>32647</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -17848,7 +17894,7 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>32438</v>
+        <v>32536</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -17856,7 +17902,7 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>31406</v>
+        <v>31529</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -17864,7 +17910,7 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>30643</v>
+        <v>30758</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -17872,7 +17918,7 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>29804</v>
+        <v>29921</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -17880,7 +17926,7 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>29907</v>
+        <v>30045</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -17888,7 +17934,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>30361</v>
+        <v>30447</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -17896,7 +17942,7 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>30253</v>
+        <v>30362</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -17904,7 +17950,7 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>29875</v>
+        <v>30007</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -17912,7 +17958,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>29521</v>
+        <v>29652</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -17920,7 +17966,7 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>29038</v>
+        <v>29185</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -17928,7 +17974,7 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>28606</v>
+        <v>28724</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -17936,7 +17982,7 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>28762</v>
+        <v>28873</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -17944,7 +17990,7 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>29448</v>
+        <v>29658</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -17952,7 +17998,7 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>29937</v>
+        <v>30021</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -17960,7 +18006,7 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>30036</v>
+        <v>30158</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -17968,7 +18014,7 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>29768</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -17976,7 +18022,7 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>29551</v>
+        <v>29670</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -17984,7 +18030,7 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>29443</v>
+        <v>29579</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -17992,7 +18038,7 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>29601</v>
+        <v>29688</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -18000,7 +18046,7 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>30499</v>
+        <v>30583</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -18008,7 +18054,7 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>30912</v>
+        <v>31018</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -18016,7 +18062,7 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>30809</v>
+        <v>30951</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -18024,7 +18070,7 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>30769</v>
+        <v>30877</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -18032,7 +18078,7 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>30111</v>
+        <v>30209</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -18040,7 +18086,7 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>29945</v>
+        <v>30063</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -18048,7 +18094,7 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>31327</v>
+        <v>31434</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -18056,7 +18102,7 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>32626</v>
+        <v>32720</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -18064,7 +18110,7 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>33482</v>
+        <v>33584</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -18072,7 +18118,7 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>34319</v>
+        <v>34446</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -18080,7 +18126,7 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>34877</v>
+        <v>34989</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -18088,7 +18134,7 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>34600</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -18096,7 +18142,7 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>34498</v>
+        <v>34609</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -18104,7 +18150,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>35066</v>
+        <v>35156</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -18112,7 +18158,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>36064</v>
+        <v>36161</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -18120,7 +18166,7 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>37088</v>
+        <v>37176</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -18128,7 +18174,7 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>37328</v>
+        <v>37420</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -18136,7 +18182,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>37368</v>
+        <v>37470</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -18144,7 +18190,7 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>37358</v>
+        <v>37474</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -18152,7 +18198,7 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>36452</v>
+        <v>36536</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -18160,7 +18206,7 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>37858</v>
+        <v>37954</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -18168,7 +18214,7 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>39303</v>
+        <v>39406</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -18176,7 +18222,7 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>40284</v>
+        <v>40397</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -18184,7 +18230,7 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>41036</v>
+        <v>41125</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -18192,7 +18238,7 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>41501</v>
+        <v>41617</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -18200,7 +18246,7 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>41989</v>
+        <v>42087</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -18208,7 +18254,7 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>41786</v>
+        <v>41883</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -18216,7 +18262,7 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>42924</v>
+        <v>43005</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -18224,7 +18270,7 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>44287</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -18232,7 +18278,7 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>45124</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -18240,7 +18286,7 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>46126</v>
+        <v>46220</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -18248,7 +18294,7 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>46738</v>
+        <v>46856</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -18256,7 +18302,7 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>47402</v>
+        <v>47486</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -18264,7 +18310,7 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>47531</v>
+        <v>47615</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -18272,7 +18318,7 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>48693</v>
+        <v>48773</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -18280,7 +18326,7 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>50426</v>
+        <v>50512</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -18288,7 +18334,7 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>52086</v>
+        <v>52166</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -18296,7 +18342,7 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>53375</v>
+        <v>53465</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -18304,7 +18350,7 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>54851</v>
+        <v>54949</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -18312,7 +18358,7 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>55925</v>
+        <v>56037</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -18320,7 +18366,7 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>56842</v>
+        <v>56942</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -18328,7 +18374,7 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>59301</v>
+        <v>59394</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -18336,7 +18382,7 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>62059</v>
+        <v>62138</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -18344,7 +18390,7 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>65463</v>
+        <v>65557</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -18352,7 +18398,7 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>67100</v>
+        <v>67233</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -18360,7 +18406,7 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>68496</v>
+        <v>68599</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -18368,7 +18414,7 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>69498</v>
+        <v>69588</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -18376,7 +18422,7 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>70113</v>
+        <v>70202</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -18384,7 +18430,7 @@
         <v>412</v>
       </c>
       <c r="B301">
-        <v>73268</v>
+        <v>73377</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -18392,7 +18438,7 @@
         <v>413</v>
       </c>
       <c r="B302">
-        <v>76958</v>
+        <v>77079</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -18400,7 +18446,7 @@
         <v>414</v>
       </c>
       <c r="B303">
-        <v>79410</v>
+        <v>79517</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -18408,7 +18454,7 @@
         <v>415</v>
       </c>
       <c r="B304">
-        <v>80585</v>
+        <v>80682</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -18416,7 +18462,7 @@
         <v>416</v>
       </c>
       <c r="B305">
-        <v>82150</v>
+        <v>82279</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -18424,7 +18470,7 @@
         <v>417</v>
       </c>
       <c r="B306">
-        <v>83232</v>
+        <v>83346</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -18432,7 +18478,7 @@
         <v>418</v>
       </c>
       <c r="B307">
-        <v>83779</v>
+        <v>83882</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -18440,7 +18486,7 @@
         <v>419</v>
       </c>
       <c r="B308">
-        <v>85870</v>
+        <v>85979</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -18448,7 +18494,7 @@
         <v>420</v>
       </c>
       <c r="B309">
-        <v>88080</v>
+        <v>88174</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -18456,7 +18502,7 @@
         <v>421</v>
       </c>
       <c r="B310">
-        <v>89959</v>
+        <v>90041</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -18464,7 +18510,7 @@
         <v>422</v>
       </c>
       <c r="B311">
-        <v>90443</v>
+        <v>90564</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -18472,7 +18518,7 @@
         <v>423</v>
       </c>
       <c r="B312">
-        <v>89834</v>
+        <v>89950</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -18480,7 +18526,7 @@
         <v>424</v>
       </c>
       <c r="B313">
-        <v>91665</v>
+        <v>91762</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -18488,7 +18534,7 @@
         <v>425</v>
       </c>
       <c r="B314">
-        <v>93265</v>
+        <v>93357</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -18496,7 +18542,7 @@
         <v>426</v>
       </c>
       <c r="B315">
-        <v>96053</v>
+        <v>96149</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -18504,7 +18550,7 @@
         <v>427</v>
       </c>
       <c r="B316">
-        <v>98691</v>
+        <v>98777</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -18512,7 +18558,7 @@
         <v>638</v>
       </c>
       <c r="B317">
-        <v>100226</v>
+        <v>100322</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -18520,7 +18566,15 @@
         <v>640</v>
       </c>
       <c r="B318">
-        <v>100667</v>
+        <v>100755</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>642</v>
+      </c>
+      <c r="B319">
+        <v>101276</v>
       </c>
     </row>
   </sheetData>
@@ -18533,7 +18587,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -21046,7 +21100,7 @@
         <v>635</v>
       </c>
       <c r="B313">
-        <v>3246</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -21062,7 +21116,7 @@
         <v>637</v>
       </c>
       <c r="B315">
-        <v>3247</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -21070,7 +21124,7 @@
         <v>584</v>
       </c>
       <c r="B316">
-        <v>3246</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -21078,7 +21132,7 @@
         <v>532</v>
       </c>
       <c r="B317">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -21095,6 +21149,14 @@
       </c>
       <c r="B319">
         <v>3246</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>643</v>
+      </c>
+      <c r="B320">
+        <v>3245</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949EC985-047F-4A6F-A653-F8380615A873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627CA47A-0DCF-40A6-A056-347AEDF910D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$320</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$319</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$320</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$320</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$321</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$320</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$321</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$321</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="646">
   <si>
     <t>date</t>
   </si>
@@ -1982,6 +1982,12 @@
   </si>
   <si>
     <t>12/04/2020</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>12/05/2020</t>
   </si>
 </sst>
 </file>
@@ -2093,9 +2099,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$320</c:f>
+              <c:f>'Cases Data'!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -3052,16 +3058,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$320</c:f>
+              <c:f>'Cases Data'!$B$2:$B$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4018,6 +4027,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>14446349</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>14652011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4149,9 +4161,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$320</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5108,16 +5120,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$320</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6074,6 +6089,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>279012</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>281202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6205,9 +6223,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$319</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7161,16 +7179,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$319</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8124,6 +8145,9 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>101276</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>101190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8265,9 +8289,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$320</c:f>
+              <c:f>'County Counts'!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9224,16 +9248,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>12/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>12/05/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$320</c:f>
+              <c:f>'County Counts'!$B$2:$B$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10190,6 +10217,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10473,9 +10503,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B320" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B320" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B320">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B321" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B321" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B321">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10487,9 +10517,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B320" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B320" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B320">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B321" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B321" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B321">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10501,9 +10531,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B319" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B319" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B319">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B320" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B320" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B320">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10515,9 +10545,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B320" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B320" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B320">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B321" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B321" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B321">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10849,7 +10879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -13421,6 +13451,14 @@
         <v>14446349</v>
       </c>
     </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>644</v>
+      </c>
+      <c r="B321">
+        <v>14652011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13431,7 +13469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -16003,6 +16041,14 @@
         <v>279012</v>
       </c>
     </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>644</v>
+      </c>
+      <c r="B321">
+        <v>281202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16013,7 +16059,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:B316"/>
@@ -18577,6 +18623,14 @@
         <v>101276</v>
       </c>
     </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>644</v>
+      </c>
+      <c r="B320">
+        <v>101190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18587,7 +18641,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -21157,6 +21211,14 @@
       </c>
       <c r="B320">
         <v>3245</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>645</v>
+      </c>
+      <c r="B321">
+        <v>3246</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627CA47A-0DCF-40A6-A056-347AEDF910D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE1011-C4C8-4C3D-8BFA-6D98BC6902CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$321</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$320</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$321</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$321</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$322</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$321</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$322</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$322</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="648">
   <si>
     <t>date</t>
   </si>
@@ -1988,6 +1988,12 @@
   </si>
   <si>
     <t>12/05/2020</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>12/06/2020</t>
   </si>
 </sst>
 </file>
@@ -2099,9 +2105,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$321</c:f>
+              <c:f>'Cases Data'!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -3061,16 +3067,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$321</c:f>
+              <c:f>'Cases Data'!$B$2:$B$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4029,7 +4038,10 @@
                   <c:v>14446349</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>14652011</c:v>
+                  <c:v>14652044</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>14825155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4161,9 +4173,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$321</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5123,16 +5135,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$321</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6092,6 +6107,9 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>281202</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>282313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6223,9 +6241,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$320</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7182,16 +7200,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$320</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8148,6 +8169,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>101190</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>101487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8289,9 +8313,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$321</c:f>
+              <c:f>'County Counts'!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9251,16 +9275,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>12/05/2020</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>12/06/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$321</c:f>
+              <c:f>'County Counts'!$B$2:$B$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10219,6 +10246,9 @@
                   <c:v>3245</c:v>
                 </c:pt>
                 <c:pt idx="319">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="320">
                   <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
@@ -10503,9 +10533,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B321" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B321" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B321">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B322" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B322" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B322">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10517,9 +10547,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B321" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B321" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B321">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B322" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B322" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B322">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10531,9 +10561,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B320" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B320" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B320">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B321" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B321" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B321">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10545,9 +10575,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B321" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B321" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B321">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B322" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B322" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B322">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10879,7 +10909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -13456,7 +13486,15 @@
         <v>644</v>
       </c>
       <c r="B321">
-        <v>14652011</v>
+        <v>14652044</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>646</v>
+      </c>
+      <c r="B322">
+        <v>14825155</v>
       </c>
     </row>
   </sheetData>
@@ -13469,7 +13507,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -16049,6 +16087,14 @@
         <v>281202</v>
       </c>
     </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>646</v>
+      </c>
+      <c r="B322">
+        <v>282313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16059,7 +16105,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:B316"/>
@@ -18631,6 +18677,14 @@
         <v>101190</v>
       </c>
     </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>646</v>
+      </c>
+      <c r="B321">
+        <v>101487</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18641,7 +18695,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -21218,6 +21272,14 @@
         <v>645</v>
       </c>
       <c r="B321">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>647</v>
+      </c>
+      <c r="B322">
         <v>3246</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE1011-C4C8-4C3D-8BFA-6D98BC6902CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C864F241-CFB5-411B-8956-6A3FCECF28DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$322</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$321</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$322</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$322</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$323</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$322</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$323</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$323</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="650">
   <si>
     <t>date</t>
   </si>
@@ -1994,6 +1994,12 @@
   </si>
   <si>
     <t>12/06/2020</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>12/07/2020</t>
   </si>
 </sst>
 </file>
@@ -2105,9 +2111,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$322</c:f>
+              <c:f>'Cases Data'!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -3070,16 +3076,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$322</c:f>
+              <c:f>'Cases Data'!$B$2:$B$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4041,7 +4050,10 @@
                   <c:v>14652044</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>14825155</c:v>
+                  <c:v>14825153</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>15027421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4173,9 +4185,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$322</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5138,16 +5150,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$322</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6110,6 +6125,9 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>282313</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>283835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6241,9 +6259,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$321</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7203,16 +7221,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$321</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8168,10 +8189,13 @@
                   <c:v>101276</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>101190</c:v>
+                  <c:v>101192</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>101487</c:v>
+                  <c:v>101501</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>102148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8313,9 +8337,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$322</c:f>
+              <c:f>'County Counts'!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9278,16 +9302,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>12/06/2020</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>12/07/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$322</c:f>
+              <c:f>'County Counts'!$B$2:$B$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10250,6 +10277,9 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10533,9 +10563,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B322" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B322" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B322">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B323" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B323" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B323">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10547,9 +10577,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B322" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B322" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B322">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B323" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B323" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B323">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10561,9 +10591,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B321" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B321" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B321">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B322" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B322" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B322">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10575,9 +10605,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B322" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B322" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B322">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B323" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B323" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B323">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10909,7 +10939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -13494,7 +13524,15 @@
         <v>646</v>
       </c>
       <c r="B322">
-        <v>14825155</v>
+        <v>14825153</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>648</v>
+      </c>
+      <c r="B323">
+        <v>15027421</v>
       </c>
     </row>
   </sheetData>
@@ -13507,7 +13545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -16095,6 +16133,14 @@
         <v>282313</v>
       </c>
     </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>648</v>
+      </c>
+      <c r="B323">
+        <v>283835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16105,7 +16151,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:B316"/>
@@ -18674,7 +18720,7 @@
         <v>644</v>
       </c>
       <c r="B320">
-        <v>101190</v>
+        <v>101192</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -18682,7 +18728,15 @@
         <v>646</v>
       </c>
       <c r="B321">
-        <v>101487</v>
+        <v>101501</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>648</v>
+      </c>
+      <c r="B322">
+        <v>102148</v>
       </c>
     </row>
   </sheetData>
@@ -18695,7 +18749,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -21281,6 +21335,14 @@
       </c>
       <c r="B322">
         <v>3246</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>649</v>
+      </c>
+      <c r="B323">
+        <v>3245</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C864F241-CFB5-411B-8956-6A3FCECF28DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF6F91F-B4E4-4315-909E-D9E43B79E936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$323</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$322</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$323</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$323</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$324</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$323</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$324</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$324</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="652">
   <si>
     <t>date</t>
   </si>
@@ -2000,6 +2000,12 @@
   </si>
   <si>
     <t>12/07/2020</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>12/08/2020</t>
   </si>
 </sst>
 </file>
@@ -2111,9 +2117,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$323</c:f>
+              <c:f>'Cases Data'!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -3079,16 +3085,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$323</c:f>
+              <c:f>'Cases Data'!$B$2:$B$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4047,13 +4056,16 @@
                   <c:v>14446349</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>14652044</c:v>
+                  <c:v>14652011</c:v>
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>14825153</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>15027421</c:v>
+                  <c:v>15028638</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>15248863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,9 +4197,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$323</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5153,16 +5165,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$323</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6127,7 +6142,10 @@
                   <c:v>282313</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>283835</c:v>
+                  <c:v>283846</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>286443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6259,9 +6277,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$322</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7224,16 +7242,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$322</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8196,6 +8217,9 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>102148</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>104600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8337,9 +8361,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$323</c:f>
+              <c:f>'County Counts'!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9305,16 +9329,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>12/07/2020</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>12/08/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$323</c:f>
+              <c:f>'County Counts'!$B$2:$B$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10279,6 +10306,9 @@
                   <c:v>3246</c:v>
                 </c:pt>
                 <c:pt idx="321">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="322">
                   <c:v>3245</c:v>
                 </c:pt>
               </c:numCache>
@@ -10563,9 +10593,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B323" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B323" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B323">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B324" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B324" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B324">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10577,9 +10607,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B323" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B323" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B323">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B324" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B324" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B324">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10591,9 +10621,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B322" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B322" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B322">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B323" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B323" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B323">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10605,9 +10635,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B323" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B323" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B323">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B324" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B324" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B324">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10939,7 +10969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -13516,7 +13546,7 @@
         <v>644</v>
       </c>
       <c r="B321">
-        <v>14652044</v>
+        <v>14652011</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -13532,7 +13562,15 @@
         <v>648</v>
       </c>
       <c r="B323">
-        <v>15027421</v>
+        <v>15028638</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>650</v>
+      </c>
+      <c r="B324">
+        <v>15248863</v>
       </c>
     </row>
   </sheetData>
@@ -13545,7 +13583,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -16138,7 +16176,15 @@
         <v>648</v>
       </c>
       <c r="B323">
-        <v>283835</v>
+        <v>283846</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>650</v>
+      </c>
+      <c r="B324">
+        <v>286443</v>
       </c>
     </row>
   </sheetData>
@@ -16151,7 +16197,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:B316"/>
@@ -18739,6 +18785,14 @@
         <v>102148</v>
       </c>
     </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>650</v>
+      </c>
+      <c r="B323">
+        <v>104600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18749,7 +18803,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -21342,6 +21396,14 @@
         <v>649</v>
       </c>
       <c r="B323">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>651</v>
+      </c>
+      <c r="B324">
         <v>3245</v>
       </c>
     </row>

--- a/covid19/data/USCaseCount.xlsx
+++ b/covid19/data/USCaseCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\virus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF6F91F-B4E4-4315-909E-D9E43B79E936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E5F91-C1F1-445F-9737-A8DF088B62E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="County Chart" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$324</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$323</definedName>
-    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$324</definedName>
-    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$324</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CountyCount" localSheetId="3" hidden="1">'County Counts'!$A$1:$B$325</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USBedCount" localSheetId="2" hidden="1">'Bed Counts'!$A$1:$B$324</definedName>
+    <definedName name="howe_hp_howehp_Covid19_USCaseCount" localSheetId="0" hidden="1">'Cases Data'!$A$1:$B$325</definedName>
+    <definedName name="HOWE_HP_HOWEHP_Covid19_USTotalDeaths" localSheetId="1" hidden="1">'Deaths Data'!$A$1:$B$325</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="654">
   <si>
     <t>date</t>
   </si>
@@ -2006,6 +2006,12 @@
   </si>
   <si>
     <t>12/08/2020</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>12/09/2020</t>
   </si>
 </sst>
 </file>
@@ -2117,9 +2123,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cases Data'!$A$2:$A$324</c:f>
+              <c:f>'Cases Data'!$A$2:$A$325</c:f>
               <c:strCache>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -3088,16 +3094,19 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cases Data'!$B$2:$B$324</c:f>
+              <c:f>'Cases Data'!$B$2:$B$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4065,7 +4074,10 @@
                   <c:v>15028638</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>15248863</c:v>
+                  <c:v>15250107</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>15468591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,9 +4209,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Deaths Data'!$A$2:$A$324</c:f>
+              <c:f>'Deaths Data'!$A$2:$A$325</c:f>
               <c:strCache>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>2020-01-21</c:v>
                 </c:pt>
@@ -5168,16 +5180,19 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deaths Data'!$B$2:$B$324</c:f>
+              <c:f>'Deaths Data'!$B$2:$B$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6145,7 +6160,10 @@
                   <c:v>283846</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>286443</c:v>
+                  <c:v>286476</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>289529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6277,9 +6295,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Bed Counts'!$A$2:$A$323</c:f>
+              <c:f>'Bed Counts'!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7245,16 +7263,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bed Counts'!$B$2:$B$323</c:f>
+              <c:f>'Bed Counts'!$B$2:$B$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8219,7 +8240,10 @@
                   <c:v>102148</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>104600</c:v>
+                  <c:v>104590</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>106688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8361,9 +8385,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'County Counts'!$A$2:$A$324</c:f>
+              <c:f>'County Counts'!$A$2:$A$325</c:f>
               <c:strCache>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>01/21/2020</c:v>
                 </c:pt>
@@ -9332,16 +9356,19 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>12/08/2020</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>12/09/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'County Counts'!$B$2:$B$324</c:f>
+              <c:f>'County Counts'!$B$2:$B$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10310,6 +10337,9 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10593,9 +10623,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B324" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B324" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B324">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_USCaseCount" displayName="Table_howe_hp_howehp_Covid19_USCaseCount" ref="A1:B325" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B325" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B325">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10607,9 +10637,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B324" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B324" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B324">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" displayName="Table_HOWE_HP_HOWEHP_Covid19_USTotalDeaths" ref="A1:B325" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B325" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B325">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10621,9 +10651,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B323" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B323" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B323">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_howe_hp_howehp_Covid19_USBedCount" displayName="Table_howe_hp_howehp_Covid19_USBedCount" ref="A1:B324" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B324" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B324">
     <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="2">
@@ -10635,9 +10665,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B324" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B324" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B324">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_howe_hp_howehp_Covid19_CountyCount" displayName="Table_howe_hp_howehp_Covid19_CountyCount" ref="A1:B325" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B325" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B325">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="2">
@@ -10969,7 +10999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection sqref="A1:B111"/>
@@ -13570,7 +13600,15 @@
         <v>650</v>
       </c>
       <c r="B324">
-        <v>15248863</v>
+        <v>15250107</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>652</v>
+      </c>
+      <c r="B325">
+        <v>15468591</v>
       </c>
     </row>
   </sheetData>
@@ -13583,7 +13621,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
       <selection sqre